--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5364" uniqueCount="1679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5364" uniqueCount="1680">
   <si>
     <t>Req ID</t>
   </si>
@@ -6391,6 +6391,9 @@
   </si>
   <si>
     <t>MS-OXWSCONT_R302056:i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In Transport] The protocol MUST support SOAP over HTTP, as specified in [RFC2616]. </t>
   </si>
 </sst>
 </file>
@@ -6820,2361 +6823,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="487">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <b val="0"/>
@@ -9494,6 +7143,50 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9623,34 +7316,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I757" tableType="xml" totalsRowShown="0" headerRowDxfId="486" dataDxfId="485" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I757" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="1">
   <autoFilter ref="A19:I757"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="484">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="483">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="482">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="481">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="480">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="479">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="478">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="477">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="7">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="476">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="6">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -9659,12 +7352,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="475" tableBorderDxfId="474" totalsRowBorderDxfId="473">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="472"/>
-    <tableColumn id="2" name="Test" dataDxfId="471"/>
-    <tableColumn id="3" name="Description" dataDxfId="470"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9960,8 +7653,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A594" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H604" sqref="H604"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10468,7 +8161,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:13" s="19" customFormat="1" ht="30">
+    <row r="26" spans="1:13" s="19" customFormat="1">
       <c r="A26" s="45" t="s">
         <v>173</v>
       </c>
@@ -10476,7 +8169,7 @@
         <v>389</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>1631</v>
+        <v>1679</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45" t="s">
@@ -29105,32 +26798,32 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I20:I65 A20:H45 A35:I758">
-    <cfRule type="expression" dxfId="7" priority="53">
+    <cfRule type="expression" dxfId="24" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
+    <cfRule type="expression" dxfId="23" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="61">
+    <cfRule type="expression" dxfId="22" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I65 A20:H45 A35:I758">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F758">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29168,9 +26861,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29223,24 +26919,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29261,9 +26948,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -7654,7 +7654,7 @@
   <dimension ref="A1:M760"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -10,11 +10,11 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$757</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$759</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
-    <definedName name="section_a924609ae1034bfe8d11a652841f638f" localSheetId="0">Requirements!$B$657</definedName>
+    <definedName name="section_a924609ae1034bfe8d11a652841f638f" localSheetId="0">Requirements!$B$659</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5364" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5386" uniqueCount="1688">
   <si>
     <t>Req ID</t>
   </si>
@@ -6381,19 +6381,43 @@
     <t>MS-OXWSCONT_R30205602</t>
   </si>
   <si>
-    <t>[In GetUserPhotoResponseMessageType] HasChanged element: If the user photo changes, the value will be true.</t>
-  </si>
-  <si>
-    <t>[In GetUserPhotoResponseMessageType] HasChanged element: If the user photo not changes, the value will be false</t>
-  </si>
-  <si>
     <t>Verified by derived requriement: MS-OXWSCONT_R30205601, MS-OXWSCONT_R30205602.</t>
   </si>
   <si>
-    <t>MS-OXWSCONT_R302056:i</t>
-  </si>
-  <si>
     <t xml:space="preserve">[In Transport] The protocol MUST support SOAP over HTTP, as specified in [RFC2616]. </t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R102:I, MS-OXWSCONT_R335:i</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R335001</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does use secure communications via HTTPS, as defined in [RFC2818]. (Exchange 2007 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>verified by derived requirement: MS-OXWSCONT_R335001.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R335002</t>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does specifies an id of a set of people who not be linked together automatically.  (Exchange 2007 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>verified by derived requirement: MS-OXWSCONT_R335002.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R16006:I, MS-OXWSCONT_R335:i</t>
+  </si>
+  <si>
+    <t>[In GetUserPhotoResponseMessageType] HasChanged element: If the value is true, the user photo has changed.</t>
+  </si>
+  <si>
+    <t>[In GetUserPhotoResponseMessageType] HasChanged element: If the value is false, the user photo has not changed.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R302056:c</t>
   </si>
 </sst>
 </file>
@@ -7316,8 +7340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I757" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="1">
-  <autoFilter ref="A19:I757"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I759" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="1">
+  <autoFilter ref="A19:I759"/>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -7651,10 +7675,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M760"/>
+  <dimension ref="A1:M762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A580" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D584" sqref="D584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8169,7 +8193,7 @@
         <v>389</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45" t="s">
@@ -8186,7 +8210,7 @@
       </c>
       <c r="I26" s="47"/>
     </row>
-    <row r="27" spans="1:13" s="19" customFormat="1" ht="30">
+    <row r="27" spans="1:13" s="19" customFormat="1" ht="45">
       <c r="A27" s="45" t="s">
         <v>1630</v>
       </c>
@@ -8207,9 +8231,11 @@
         <v>15</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>1680</v>
+      </c>
     </row>
     <row r="28" spans="1:13" s="19" customFormat="1" ht="30">
       <c r="A28" s="18" t="s">
@@ -8738,7 +8764,7 @@
       </c>
       <c r="I48" s="47"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9" ht="45">
       <c r="A49" s="18" t="s">
         <v>633</v>
       </c>
@@ -8759,9 +8785,11 @@
         <v>15</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="I49" s="47" t="s">
+        <v>1683</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="18" t="s">
@@ -11815,7 +11843,7 @@
         <v>15</v>
       </c>
       <c r="H171" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I171" s="47"/>
     </row>
@@ -22159,7 +22187,7 @@
         <v>17</v>
       </c>
       <c r="I582" s="47" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="583" spans="1:9" ht="30">
@@ -22170,10 +22198,10 @@
         <v>1364</v>
       </c>
       <c r="C583" s="47" t="s">
-        <v>1675</v>
+        <v>1685</v>
       </c>
       <c r="D583" s="45" t="s">
-        <v>1678</v>
+        <v>1687</v>
       </c>
       <c r="E583" s="45" t="s">
         <v>19</v>
@@ -22197,10 +22225,10 @@
         <v>1364</v>
       </c>
       <c r="C584" s="47" t="s">
-        <v>1676</v>
+        <v>1686</v>
       </c>
       <c r="D584" s="45" t="s">
-        <v>1678</v>
+        <v>1687</v>
       </c>
       <c r="E584" s="45" t="s">
         <v>19</v>
@@ -23935,8 +23963,12 @@
       <c r="F653" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G653" s="45"/>
-      <c r="H653" s="45"/>
+      <c r="G653" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H653" s="45" t="s">
+        <v>18</v>
+      </c>
       <c r="I653" s="47"/>
     </row>
     <row r="654" spans="1:9" ht="120">
@@ -23965,13 +23997,13 @@
       <c r="I654" s="47"/>
     </row>
     <row r="655" spans="1:9" ht="45">
-      <c r="A655" s="25" t="s">
+      <c r="A655" s="18" t="s">
         <v>372</v>
       </c>
       <c r="B655" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="C655" s="27" t="s">
+      <c r="C655" s="16" t="s">
         <v>583</v>
       </c>
       <c r="D655" s="25"/>
@@ -23989,43 +24021,47 @@
       </c>
       <c r="I655" s="27"/>
     </row>
-    <row r="656" spans="1:9" ht="30">
-      <c r="A656" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="B656" s="20" t="s">
+    <row r="656" spans="1:9" ht="45">
+      <c r="A656" s="18" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B656" s="46" t="s">
         <v>624</v>
       </c>
-      <c r="C656" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="D656" s="25"/>
-      <c r="E656" s="25" t="s">
+      <c r="C656" s="47" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D656" s="45" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E656" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F656" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G656" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H656" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I656" s="27"/>
+      <c r="F656" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G656" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H656" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I656" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="657" spans="1:9" ht="45">
       <c r="A657" s="18" t="s">
-        <v>625</v>
+        <v>1681</v>
       </c>
       <c r="B657" s="46" t="s">
         <v>624</v>
       </c>
-      <c r="C657" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="D657" s="18" t="s">
-        <v>652</v>
+      <c r="C657" s="47" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D657" s="45" t="s">
+        <v>1684</v>
       </c>
       <c r="E657" s="45" t="s">
         <v>22</v>
@@ -24037,105 +24073,105 @@
         <v>15</v>
       </c>
       <c r="H657" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I657" s="47"/>
-    </row>
-    <row r="658" spans="1:9" ht="45">
-      <c r="A658" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="B658" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I657" s="47" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" ht="30">
+      <c r="A658" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B658" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="C658" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="D658" s="18" t="s">
-        <v>652</v>
-      </c>
-      <c r="E658" s="45" t="s">
+      <c r="C658" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="D658" s="25"/>
+      <c r="E658" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F658" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G658" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H658" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I658" s="47" t="s">
-        <v>1672</v>
-      </c>
+      <c r="F658" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G658" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H658" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I658" s="27"/>
     </row>
     <row r="659" spans="1:9" ht="45">
       <c r="A659" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="B659" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="C659" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="D659" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="E659" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F659" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G659" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H659" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I659" s="47"/>
+    </row>
+    <row r="660" spans="1:9" ht="45">
+      <c r="A660" s="45" t="s">
+        <v>627</v>
+      </c>
+      <c r="B660" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="C660" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="D660" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="E660" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F660" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G660" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H660" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I660" s="47" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" ht="45">
+      <c r="A661" s="18" t="s">
         <v>374</v>
-      </c>
-      <c r="B659" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="C659" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="D659" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="E659" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F659" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G659" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H659" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I659" s="27"/>
-    </row>
-    <row r="660" spans="1:9" ht="45">
-      <c r="A660" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="B660" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="C660" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="D660" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="E660" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F660" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G660" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H660" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I660" s="27"/>
-    </row>
-    <row r="661" spans="1:9" ht="75">
-      <c r="A661" s="25" t="s">
-        <v>376</v>
       </c>
       <c r="B661" s="20" t="s">
         <v>624</v>
       </c>
       <c r="C661" s="16" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D661" s="18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E661" s="25" t="s">
         <v>22</v>
@@ -24151,18 +24187,18 @@
       </c>
       <c r="I661" s="27"/>
     </row>
-    <row r="662" spans="1:9" ht="60">
+    <row r="662" spans="1:9" ht="45">
       <c r="A662" s="18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B662" s="20" t="s">
         <v>624</v>
       </c>
       <c r="C662" s="16" t="s">
-        <v>667</v>
-      </c>
-      <c r="D662" s="18" t="s">
-        <v>598</v>
+        <v>665</v>
+      </c>
+      <c r="D662" s="25" t="s">
+        <v>597</v>
       </c>
       <c r="E662" s="25" t="s">
         <v>22</v>
@@ -24178,74 +24214,72 @@
       </c>
       <c r="I662" s="27"/>
     </row>
-    <row r="663" spans="1:9" ht="30">
-      <c r="A663" s="45" t="s">
+    <row r="663" spans="1:9" ht="75">
+      <c r="A663" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B663" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="C663" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="D663" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="E663" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F663" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G663" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H663" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I663" s="27"/>
+    </row>
+    <row r="664" spans="1:9" ht="60">
+      <c r="A664" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B664" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="C664" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="D664" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="E664" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F664" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G664" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H664" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I664" s="27"/>
+    </row>
+    <row r="665" spans="1:9" ht="30">
+      <c r="A665" s="45" t="s">
         <v>721</v>
-      </c>
-      <c r="B663" s="46" t="s">
-        <v>624</v>
-      </c>
-      <c r="C663" s="47" t="s">
-        <v>722</v>
-      </c>
-      <c r="D663" s="45" t="s">
-        <v>724</v>
-      </c>
-      <c r="E663" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F663" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G663" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H663" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I663" s="47"/>
-    </row>
-    <row r="664" spans="1:9" ht="45">
-      <c r="A664" s="45" t="s">
-        <v>725</v>
-      </c>
-      <c r="B664" s="46" t="s">
-        <v>624</v>
-      </c>
-      <c r="C664" s="47" t="s">
-        <v>723</v>
-      </c>
-      <c r="D664" s="45" t="s">
-        <v>724</v>
-      </c>
-      <c r="E664" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F664" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G664" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H664" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I664" s="47" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="665" spans="1:9" ht="45">
-      <c r="A665" s="45" t="s">
-        <v>794</v>
       </c>
       <c r="B665" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C665" s="47" t="s">
-        <v>792</v>
+        <v>722</v>
       </c>
       <c r="D665" s="45" t="s">
-        <v>1013</v>
+        <v>724</v>
       </c>
       <c r="E665" s="45" t="s">
         <v>22</v>
@@ -24263,16 +24297,16 @@
     </row>
     <row r="666" spans="1:9" ht="45">
       <c r="A666" s="45" t="s">
-        <v>795</v>
+        <v>725</v>
       </c>
       <c r="B666" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C666" s="47" t="s">
-        <v>793</v>
+        <v>723</v>
       </c>
       <c r="D666" s="45" t="s">
-        <v>1013</v>
+        <v>724</v>
       </c>
       <c r="E666" s="45" t="s">
         <v>22</v>
@@ -24292,16 +24326,16 @@
     </row>
     <row r="667" spans="1:9" ht="45">
       <c r="A667" s="45" t="s">
-        <v>882</v>
+        <v>794</v>
       </c>
       <c r="B667" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C667" s="47" t="s">
-        <v>924</v>
+        <v>792</v>
       </c>
       <c r="D667" s="45" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E667" s="45" t="s">
         <v>22</v>
@@ -24319,16 +24353,16 @@
     </row>
     <row r="668" spans="1:9" ht="45">
       <c r="A668" s="45" t="s">
-        <v>883</v>
+        <v>795</v>
       </c>
       <c r="B668" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C668" s="47" t="s">
-        <v>925</v>
+        <v>793</v>
       </c>
       <c r="D668" s="45" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E668" s="45" t="s">
         <v>22</v>
@@ -24348,16 +24382,16 @@
     </row>
     <row r="669" spans="1:9" ht="45">
       <c r="A669" s="45" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B669" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C669" s="47" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D669" s="45" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E669" s="45" t="s">
         <v>22</v>
@@ -24375,16 +24409,16 @@
     </row>
     <row r="670" spans="1:9" ht="45">
       <c r="A670" s="45" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B670" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C670" s="47" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D670" s="45" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E670" s="45" t="s">
         <v>22</v>
@@ -24404,16 +24438,16 @@
     </row>
     <row r="671" spans="1:9" ht="45">
       <c r="A671" s="45" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B671" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C671" s="47" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D671" s="45" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E671" s="45" t="s">
         <v>22</v>
@@ -24431,16 +24465,16 @@
     </row>
     <row r="672" spans="1:9" ht="45">
       <c r="A672" s="45" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B672" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C672" s="47" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D672" s="45" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E672" s="45" t="s">
         <v>22</v>
@@ -24460,16 +24494,16 @@
     </row>
     <row r="673" spans="1:9" ht="45">
       <c r="A673" s="45" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B673" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C673" s="47" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D673" s="45" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E673" s="45" t="s">
         <v>22</v>
@@ -24487,16 +24521,16 @@
     </row>
     <row r="674" spans="1:9" ht="45">
       <c r="A674" s="45" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B674" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C674" s="47" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D674" s="45" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E674" s="45" t="s">
         <v>22</v>
@@ -24516,16 +24550,16 @@
     </row>
     <row r="675" spans="1:9" ht="45">
       <c r="A675" s="45" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B675" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C675" s="47" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D675" s="45" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E675" s="45" t="s">
         <v>22</v>
@@ -24543,16 +24577,16 @@
     </row>
     <row r="676" spans="1:9" ht="45">
       <c r="A676" s="45" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B676" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C676" s="47" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D676" s="45" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E676" s="45" t="s">
         <v>22</v>
@@ -24572,16 +24606,16 @@
     </row>
     <row r="677" spans="1:9" ht="45">
       <c r="A677" s="45" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B677" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C677" s="47" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D677" s="45" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E677" s="45" t="s">
         <v>22</v>
@@ -24599,16 +24633,16 @@
     </row>
     <row r="678" spans="1:9" ht="45">
       <c r="A678" s="45" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B678" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C678" s="47" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D678" s="45" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E678" s="45" t="s">
         <v>22</v>
@@ -24628,16 +24662,16 @@
     </row>
     <row r="679" spans="1:9" ht="45">
       <c r="A679" s="45" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B679" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C679" s="47" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D679" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E679" s="45" t="s">
         <v>22</v>
@@ -24655,16 +24689,16 @@
     </row>
     <row r="680" spans="1:9" ht="45">
       <c r="A680" s="45" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B680" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C680" s="47" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D680" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E680" s="45" t="s">
         <v>22</v>
@@ -24684,16 +24718,16 @@
     </row>
     <row r="681" spans="1:9" ht="45">
       <c r="A681" s="45" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B681" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C681" s="47" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D681" s="45" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E681" s="45" t="s">
         <v>22</v>
@@ -24711,16 +24745,16 @@
     </row>
     <row r="682" spans="1:9" ht="45">
       <c r="A682" s="45" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B682" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C682" s="47" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D682" s="45" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E682" s="45" t="s">
         <v>22</v>
@@ -24740,16 +24774,16 @@
     </row>
     <row r="683" spans="1:9" ht="45">
       <c r="A683" s="45" t="s">
-        <v>962</v>
+        <v>896</v>
       </c>
       <c r="B683" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C683" s="47" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D683" s="45" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E683" s="45" t="s">
         <v>22</v>
@@ -24767,16 +24801,16 @@
     </row>
     <row r="684" spans="1:9" ht="45">
       <c r="A684" s="45" t="s">
-        <v>963</v>
+        <v>897</v>
       </c>
       <c r="B684" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C684" s="47" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D684" s="45" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E684" s="45" t="s">
         <v>22</v>
@@ -24796,16 +24830,16 @@
     </row>
     <row r="685" spans="1:9" ht="45">
       <c r="A685" s="45" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B685" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C685" s="47" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D685" s="45" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E685" s="45" t="s">
         <v>22</v>
@@ -24823,16 +24857,16 @@
     </row>
     <row r="686" spans="1:9" ht="45">
       <c r="A686" s="45" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B686" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C686" s="47" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D686" s="45" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E686" s="45" t="s">
         <v>22</v>
@@ -24852,16 +24886,16 @@
     </row>
     <row r="687" spans="1:9" ht="45">
       <c r="A687" s="45" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B687" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C687" s="47" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D687" s="45" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E687" s="45" t="s">
         <v>22</v>
@@ -24879,16 +24913,16 @@
     </row>
     <row r="688" spans="1:9" ht="45">
       <c r="A688" s="45" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B688" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C688" s="47" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D688" s="45" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E688" s="45" t="s">
         <v>22</v>
@@ -24908,16 +24942,16 @@
     </row>
     <row r="689" spans="1:9" ht="45">
       <c r="A689" s="45" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B689" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C689" s="47" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D689" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E689" s="45" t="s">
         <v>22</v>
@@ -24935,16 +24969,16 @@
     </row>
     <row r="690" spans="1:9" ht="45">
       <c r="A690" s="45" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B690" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C690" s="47" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D690" s="45" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E690" s="45" t="s">
         <v>22</v>
@@ -24962,18 +24996,18 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="691" spans="1:9" ht="60">
+    <row r="691" spans="1:9" ht="45">
       <c r="A691" s="45" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B691" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C691" s="47" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D691" s="45" t="s">
-        <v>1662</v>
+        <v>1025</v>
       </c>
       <c r="E691" s="45" t="s">
         <v>22</v>
@@ -24991,16 +25025,16 @@
     </row>
     <row r="692" spans="1:9" ht="45">
       <c r="A692" s="45" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B692" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C692" s="47" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D692" s="45" t="s">
-        <v>1662</v>
+        <v>1025</v>
       </c>
       <c r="E692" s="45" t="s">
         <v>22</v>
@@ -25020,16 +25054,16 @@
     </row>
     <row r="693" spans="1:9" ht="60">
       <c r="A693" s="45" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B693" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C693" s="47" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D693" s="45" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E693" s="45" t="s">
         <v>22</v>
@@ -25047,16 +25081,16 @@
     </row>
     <row r="694" spans="1:9" ht="45">
       <c r="A694" s="45" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B694" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C694" s="47" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D694" s="45" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E694" s="45" t="s">
         <v>22</v>
@@ -25074,18 +25108,18 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="695" spans="1:9" ht="45">
+    <row r="695" spans="1:9" ht="60">
       <c r="A695" s="45" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B695" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C695" s="47" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D695" s="45" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E695" s="45" t="s">
         <v>22</v>
@@ -25103,16 +25137,16 @@
     </row>
     <row r="696" spans="1:9" ht="45">
       <c r="A696" s="45" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B696" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C696" s="47" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D696" s="45" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E696" s="45" t="s">
         <v>22</v>
@@ -25130,18 +25164,18 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="697" spans="1:9" ht="60">
+    <row r="697" spans="1:9" ht="45">
       <c r="A697" s="45" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B697" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C697" s="47" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D697" s="45" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E697" s="45" t="s">
         <v>22</v>
@@ -25159,16 +25193,16 @@
     </row>
     <row r="698" spans="1:9" ht="45">
       <c r="A698" s="45" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B698" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C698" s="47" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D698" s="45" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E698" s="45" t="s">
         <v>22</v>
@@ -25186,18 +25220,18 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="699" spans="1:9" ht="45">
+    <row r="699" spans="1:9" ht="60">
       <c r="A699" s="45" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B699" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C699" s="47" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D699" s="45" t="s">
-        <v>1223</v>
+        <v>1665</v>
       </c>
       <c r="E699" s="45" t="s">
         <v>22</v>
@@ -25215,16 +25249,16 @@
     </row>
     <row r="700" spans="1:9" ht="45">
       <c r="A700" s="45" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B700" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C700" s="47" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D700" s="45" t="s">
-        <v>1223</v>
+        <v>1665</v>
       </c>
       <c r="E700" s="45" t="s">
         <v>22</v>
@@ -25244,16 +25278,16 @@
     </row>
     <row r="701" spans="1:9" ht="45">
       <c r="A701" s="45" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B701" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C701" s="47" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D701" s="45" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E701" s="45" t="s">
         <v>22</v>
@@ -25271,16 +25305,16 @@
     </row>
     <row r="702" spans="1:9" ht="45">
       <c r="A702" s="45" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B702" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C702" s="47" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D702" s="45" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E702" s="45" t="s">
         <v>22</v>
@@ -25298,18 +25332,18 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="703" spans="1:9" ht="60">
+    <row r="703" spans="1:9" ht="45">
       <c r="A703" s="45" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B703" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C703" s="47" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D703" s="45" t="s">
-        <v>1668</v>
+        <v>1224</v>
       </c>
       <c r="E703" s="45" t="s">
         <v>22</v>
@@ -25327,16 +25361,16 @@
     </row>
     <row r="704" spans="1:9" ht="45">
       <c r="A704" s="45" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B704" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C704" s="47" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D704" s="45" t="s">
-        <v>1668</v>
+        <v>1224</v>
       </c>
       <c r="E704" s="45" t="s">
         <v>22</v>
@@ -25354,18 +25388,18 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="705" spans="1:9" ht="45">
+    <row r="705" spans="1:9" ht="60">
       <c r="A705" s="45" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B705" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C705" s="47" t="s">
-        <v>898</v>
+        <v>960</v>
       </c>
       <c r="D705" s="45" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="E705" s="45" t="s">
         <v>22</v>
@@ -25383,16 +25417,16 @@
     </row>
     <row r="706" spans="1:9" ht="45">
       <c r="A706" s="45" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B706" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C706" s="47" t="s">
-        <v>899</v>
+        <v>961</v>
       </c>
       <c r="D706" s="45" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="E706" s="45" t="s">
         <v>22</v>
@@ -25410,18 +25444,18 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="707" spans="1:9" ht="30">
+    <row r="707" spans="1:9" ht="45">
       <c r="A707" s="45" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B707" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C707" s="47" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D707" s="45" t="s">
-        <v>1659</v>
+        <v>1666</v>
       </c>
       <c r="E707" s="45" t="s">
         <v>22</v>
@@ -25439,16 +25473,16 @@
     </row>
     <row r="708" spans="1:9" ht="45">
       <c r="A708" s="45" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B708" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C708" s="47" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D708" s="45" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="E708" s="45" t="s">
         <v>22</v>
@@ -25466,18 +25500,18 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="709" spans="1:9" ht="45">
+    <row r="709" spans="1:9" ht="30">
       <c r="A709" s="45" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B709" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C709" s="47" t="s">
-        <v>1052</v>
+        <v>900</v>
       </c>
       <c r="D709" s="45" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E709" s="45" t="s">
         <v>22</v>
@@ -25495,16 +25529,16 @@
     </row>
     <row r="710" spans="1:9" ht="45">
       <c r="A710" s="45" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B710" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C710" s="47" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D710" s="45" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E710" s="45" t="s">
         <v>22</v>
@@ -25524,16 +25558,16 @@
     </row>
     <row r="711" spans="1:9" ht="45">
       <c r="A711" s="45" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B711" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C711" s="47" t="s">
-        <v>903</v>
+        <v>1052</v>
       </c>
       <c r="D711" s="45" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E711" s="45" t="s">
         <v>22</v>
@@ -25551,16 +25585,16 @@
     </row>
     <row r="712" spans="1:9" ht="45">
       <c r="A712" s="45" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B712" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C712" s="47" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D712" s="45" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="E712" s="45" t="s">
         <v>22</v>
@@ -25580,16 +25614,16 @@
     </row>
     <row r="713" spans="1:9" ht="45">
       <c r="A713" s="45" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B713" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C713" s="47" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D713" s="45" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="E713" s="45" t="s">
         <v>22</v>
@@ -25607,16 +25641,16 @@
     </row>
     <row r="714" spans="1:9" ht="45">
       <c r="A714" s="45" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B714" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C714" s="47" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D714" s="45" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="E714" s="45" t="s">
         <v>22</v>
@@ -25636,16 +25670,16 @@
     </row>
     <row r="715" spans="1:9" ht="45">
       <c r="A715" s="45" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B715" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C715" s="47" t="s">
-        <v>1053</v>
+        <v>905</v>
       </c>
       <c r="D715" s="45" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E715" s="45" t="s">
         <v>22</v>
@@ -25663,16 +25697,16 @@
     </row>
     <row r="716" spans="1:9" ht="45">
       <c r="A716" s="45" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B716" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C716" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D716" s="45" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E716" s="45" t="s">
         <v>22</v>
@@ -25692,16 +25726,16 @@
     </row>
     <row r="717" spans="1:9" ht="45">
       <c r="A717" s="45" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B717" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C717" s="47" t="s">
-        <v>908</v>
+        <v>1053</v>
       </c>
       <c r="D717" s="45" t="s">
-        <v>1106</v>
+        <v>1670</v>
       </c>
       <c r="E717" s="45" t="s">
         <v>22</v>
@@ -25719,16 +25753,16 @@
     </row>
     <row r="718" spans="1:9" ht="45">
       <c r="A718" s="45" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B718" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C718" s="47" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D718" s="45" t="s">
-        <v>1106</v>
+        <v>1670</v>
       </c>
       <c r="E718" s="45" t="s">
         <v>22</v>
@@ -25748,16 +25782,16 @@
     </row>
     <row r="719" spans="1:9" ht="45">
       <c r="A719" s="45" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B719" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C719" s="47" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D719" s="45" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E719" s="45" t="s">
         <v>22</v>
@@ -25775,16 +25809,16 @@
     </row>
     <row r="720" spans="1:9" ht="45">
       <c r="A720" s="45" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B720" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C720" s="47" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D720" s="45" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E720" s="45" t="s">
         <v>22</v>
@@ -25804,16 +25838,16 @@
     </row>
     <row r="721" spans="1:9" ht="45">
       <c r="A721" s="45" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B721" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C721" s="47" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D721" s="45" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E721" s="45" t="s">
         <v>22</v>
@@ -25831,16 +25865,16 @@
     </row>
     <row r="722" spans="1:9" ht="45">
       <c r="A722" s="45" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B722" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C722" s="47" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D722" s="45" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E722" s="45" t="s">
         <v>22</v>
@@ -25858,18 +25892,18 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="723" spans="1:9" ht="30">
+    <row r="723" spans="1:9" ht="45">
       <c r="A723" s="45" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B723" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C723" s="47" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D723" s="45" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E723" s="45" t="s">
         <v>22</v>
@@ -25887,16 +25921,16 @@
     </row>
     <row r="724" spans="1:9" ht="45">
       <c r="A724" s="45" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B724" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C724" s="47" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D724" s="45" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E724" s="45" t="s">
         <v>22</v>
@@ -25916,16 +25950,16 @@
     </row>
     <row r="725" spans="1:9" ht="30">
       <c r="A725" s="45" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B725" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C725" s="47" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D725" s="45" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E725" s="45" t="s">
         <v>22</v>
@@ -25943,16 +25977,16 @@
     </row>
     <row r="726" spans="1:9" ht="45">
       <c r="A726" s="45" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B726" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C726" s="47" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D726" s="45" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E726" s="45" t="s">
         <v>22</v>
@@ -25970,18 +26004,18 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="727" spans="1:9" ht="45">
+    <row r="727" spans="1:9" ht="30">
       <c r="A727" s="45" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B727" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C727" s="47" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D727" s="45" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="E727" s="45" t="s">
         <v>22</v>
@@ -25999,16 +26033,16 @@
     </row>
     <row r="728" spans="1:9" ht="45">
       <c r="A728" s="45" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B728" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C728" s="47" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D728" s="45" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="E728" s="45" t="s">
         <v>22</v>
@@ -26028,16 +26062,16 @@
     </row>
     <row r="729" spans="1:9" ht="45">
       <c r="A729" s="45" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B729" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C729" s="47" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D729" s="45" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E729" s="45" t="s">
         <v>22</v>
@@ -26055,16 +26089,16 @@
     </row>
     <row r="730" spans="1:9" ht="45">
       <c r="A730" s="45" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B730" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C730" s="47" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D730" s="45" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E730" s="45" t="s">
         <v>22</v>
@@ -26084,16 +26118,16 @@
     </row>
     <row r="731" spans="1:9" ht="45">
       <c r="A731" s="45" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B731" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C731" s="47" t="s">
-        <v>922</v>
-      </c>
-      <c r="D731" t="s">
-        <v>1671</v>
+        <v>920</v>
+      </c>
+      <c r="D731" s="45" t="s">
+        <v>1130</v>
       </c>
       <c r="E731" s="45" t="s">
         <v>22</v>
@@ -26111,16 +26145,16 @@
     </row>
     <row r="732" spans="1:9" ht="45">
       <c r="A732" s="45" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B732" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C732" s="47" t="s">
-        <v>923</v>
-      </c>
-      <c r="D732" t="s">
-        <v>1671</v>
+        <v>921</v>
+      </c>
+      <c r="D732" s="45" t="s">
+        <v>1130</v>
       </c>
       <c r="E732" s="45" t="s">
         <v>22</v>
@@ -26138,65 +26172,71 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="733" spans="1:9" ht="180">
-      <c r="A733" s="25" t="s">
+    <row r="733" spans="1:9" ht="45">
+      <c r="A733" s="45" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B733" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="C733" s="47" t="s">
+        <v>922</v>
+      </c>
+      <c r="D733" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E733" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F733" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G733" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H733" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I733" s="47"/>
+    </row>
+    <row r="734" spans="1:9" ht="45">
+      <c r="A734" s="45" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B734" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="C734" s="47" t="s">
+        <v>923</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E734" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F734" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G734" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H734" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I734" s="47" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9" ht="180">
+      <c r="A735" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="B733" s="20" t="s">
+      <c r="B735" s="20" t="s">
         <v>1594</v>
       </c>
-      <c r="C733" s="16" t="s">
+      <c r="C735" s="16" t="s">
         <v>585</v>
-      </c>
-      <c r="D733" s="25"/>
-      <c r="E733" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F733" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G733" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H733" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I733" s="27"/>
-    </row>
-    <row r="734" spans="1:9" ht="30">
-      <c r="A734" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B734" s="20" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C734" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="D734" s="25"/>
-      <c r="E734" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F734" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G734" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H734" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I734" s="27"/>
-    </row>
-    <row r="735" spans="1:9" ht="105">
-      <c r="A735" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="B735" s="20" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C735" s="27" t="s">
-        <v>587</v>
       </c>
       <c r="D735" s="25"/>
       <c r="E735" s="25" t="s">
@@ -26213,15 +26253,15 @@
       </c>
       <c r="I735" s="27"/>
     </row>
-    <row r="736" spans="1:9" ht="45">
-      <c r="A736" s="25" t="s">
-        <v>381</v>
+    <row r="736" spans="1:9" ht="30">
+      <c r="A736" s="18" t="s">
+        <v>379</v>
       </c>
       <c r="B736" s="20" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C736" s="16" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D736" s="25"/>
       <c r="E736" s="25" t="s">
@@ -26234,19 +26274,19 @@
         <v>15</v>
       </c>
       <c r="H736" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I736" s="27"/>
     </row>
-    <row r="737" spans="1:9" ht="30">
+    <row r="737" spans="1:9" ht="105">
       <c r="A737" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B737" s="20" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C737" s="27" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D737" s="25"/>
       <c r="E737" s="25" t="s">
@@ -26263,15 +26303,15 @@
       </c>
       <c r="I737" s="27"/>
     </row>
-    <row r="738" spans="1:9" ht="30">
-      <c r="A738" s="18" t="s">
-        <v>383</v>
+    <row r="738" spans="1:9" ht="45">
+      <c r="A738" s="25" t="s">
+        <v>381</v>
       </c>
       <c r="B738" s="20" t="s">
         <v>1596</v>
       </c>
       <c r="C738" s="16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D738" s="25"/>
       <c r="E738" s="25" t="s">
@@ -26284,69 +26324,69 @@
         <v>15</v>
       </c>
       <c r="H738" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I738" s="27"/>
     </row>
-    <row r="739" spans="1:9" ht="45">
-      <c r="A739" s="18" t="s">
-        <v>1602</v>
+    <row r="739" spans="1:9" ht="30">
+      <c r="A739" s="25" t="s">
+        <v>382</v>
       </c>
       <c r="B739" s="20" t="s">
         <v>1596</v>
       </c>
-      <c r="C739" s="47" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D739" s="45"/>
-      <c r="E739" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F739" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G739" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H739" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="I739" s="47"/>
+      <c r="C739" s="27" t="s">
+        <v>589</v>
+      </c>
+      <c r="D739" s="25"/>
+      <c r="E739" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F739" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G739" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H739" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I739" s="27"/>
     </row>
     <row r="740" spans="1:9" ht="30">
       <c r="A740" s="18" t="s">
-        <v>1604</v>
+        <v>383</v>
       </c>
       <c r="B740" s="20" t="s">
         <v>1596</v>
       </c>
-      <c r="C740" s="47" t="s">
+      <c r="C740" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="D740" s="45"/>
-      <c r="E740" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F740" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G740" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H740" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="I740" s="47"/>
-    </row>
-    <row r="741" spans="1:9" ht="390">
+      <c r="D740" s="25"/>
+      <c r="E740" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F740" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G740" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H740" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I740" s="27"/>
+    </row>
+    <row r="741" spans="1:9" ht="45">
       <c r="A741" s="18" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B741" s="46" t="s">
-        <v>1605</v>
+        <v>1602</v>
+      </c>
+      <c r="B741" s="20" t="s">
+        <v>1596</v>
       </c>
       <c r="C741" s="47" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="D741" s="45"/>
       <c r="E741" s="45" t="s">
@@ -26359,19 +26399,19 @@
         <v>15</v>
       </c>
       <c r="H741" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I741" s="47"/>
     </row>
     <row r="742" spans="1:9" ht="30">
       <c r="A742" s="18" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B742" s="46" t="s">
-        <v>1605</v>
+        <v>1604</v>
+      </c>
+      <c r="B742" s="20" t="s">
+        <v>1596</v>
       </c>
       <c r="C742" s="47" t="s">
-        <v>1607</v>
+        <v>590</v>
       </c>
       <c r="D742" s="45"/>
       <c r="E742" s="45" t="s">
@@ -26384,19 +26424,19 @@
         <v>15</v>
       </c>
       <c r="H742" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I742" s="47"/>
     </row>
-    <row r="743" spans="1:9" ht="30">
+    <row r="743" spans="1:9" ht="390">
       <c r="A743" s="18" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B743" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C743" s="47" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D743" s="45"/>
       <c r="E743" s="45" t="s">
@@ -26413,15 +26453,15 @@
       </c>
       <c r="I743" s="47"/>
     </row>
-    <row r="744" spans="1:9">
+    <row r="744" spans="1:9" ht="30">
       <c r="A744" s="18" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B744" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C744" s="47" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D744" s="45"/>
       <c r="E744" s="45" t="s">
@@ -26440,13 +26480,13 @@
     </row>
     <row r="745" spans="1:9" ht="30">
       <c r="A745" s="18" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B745" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C745" s="47" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D745" s="45"/>
       <c r="E745" s="45" t="s">
@@ -26465,13 +26505,13 @@
     </row>
     <row r="746" spans="1:9">
       <c r="A746" s="18" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B746" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C746" s="47" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="D746" s="45"/>
       <c r="E746" s="45" t="s">
@@ -26490,13 +26530,13 @@
     </row>
     <row r="747" spans="1:9" ht="30">
       <c r="A747" s="18" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B747" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C747" s="47" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D747" s="45"/>
       <c r="E747" s="45" t="s">
@@ -26515,13 +26555,13 @@
     </row>
     <row r="748" spans="1:9">
       <c r="A748" s="18" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B748" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C748" s="47" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D748" s="45"/>
       <c r="E748" s="45" t="s">
@@ -26540,13 +26580,13 @@
     </row>
     <row r="749" spans="1:9" ht="30">
       <c r="A749" s="18" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B749" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C749" s="47" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D749" s="45"/>
       <c r="E749" s="45" t="s">
@@ -26563,15 +26603,15 @@
       </c>
       <c r="I749" s="47"/>
     </row>
-    <row r="750" spans="1:9" ht="30">
+    <row r="750" spans="1:9">
       <c r="A750" s="18" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B750" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C750" s="47" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="D750" s="45"/>
       <c r="E750" s="45" t="s">
@@ -26588,15 +26628,15 @@
       </c>
       <c r="I750" s="47"/>
     </row>
-    <row r="751" spans="1:9" ht="45">
+    <row r="751" spans="1:9" ht="30">
       <c r="A751" s="18" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B751" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C751" s="47" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D751" s="45"/>
       <c r="E751" s="45" t="s">
@@ -26613,90 +26653,90 @@
       </c>
       <c r="I751" s="47"/>
     </row>
-    <row r="752" spans="1:9" ht="180">
-      <c r="A752" s="25" t="s">
+    <row r="752" spans="1:9" ht="30">
+      <c r="A752" s="18" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B752" s="46" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C752" s="47" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D752" s="45"/>
+      <c r="E752" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F752" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G752" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H752" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I752" s="47"/>
+    </row>
+    <row r="753" spans="1:9" ht="45">
+      <c r="A753" s="18" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B753" s="46" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C753" s="47" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D753" s="45"/>
+      <c r="E753" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F753" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G753" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H753" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I753" s="47"/>
+    </row>
+    <row r="754" spans="1:9" ht="180">
+      <c r="A754" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B752" s="20" t="s">
+      <c r="B754" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="C752" s="16" t="s">
+      <c r="C754" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="D752" s="25"/>
-      <c r="E752" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F752" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G752" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H752" s="25" t="s">
+      <c r="D754" s="25"/>
+      <c r="E754" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F754" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G754" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H754" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I752" s="27"/>
-    </row>
-    <row r="753" spans="1:9" ht="150">
-      <c r="A753" s="18" t="s">
+      <c r="I754" s="27"/>
+    </row>
+    <row r="755" spans="1:9" ht="150">
+      <c r="A755" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="B753" s="20" t="s">
+      <c r="B755" s="20" t="s">
         <v>1597</v>
       </c>
-      <c r="C753" s="16" t="s">
+      <c r="C755" s="16" t="s">
         <v>592</v>
-      </c>
-      <c r="D753" s="25"/>
-      <c r="E753" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F753" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G753" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H753" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I753" s="27"/>
-    </row>
-    <row r="754" spans="1:9" ht="135">
-      <c r="A754" s="45" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B754" s="46" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C754" s="47" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D754" s="45"/>
-      <c r="E754" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F754" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G754" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H754" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I754" s="47"/>
-    </row>
-    <row r="755" spans="1:9" ht="409.5">
-      <c r="A755" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="B755" s="20" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C755" s="16" t="s">
-        <v>593</v>
       </c>
       <c r="D755" s="25"/>
       <c r="E755" s="25" t="s">
@@ -26709,19 +26749,19 @@
         <v>15</v>
       </c>
       <c r="H755" s="25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I755" s="27"/>
     </row>
-    <row r="756" spans="1:9" ht="409.5">
-      <c r="A756" s="18" t="s">
-        <v>1628</v>
+    <row r="756" spans="1:9" ht="135">
+      <c r="A756" s="45" t="s">
+        <v>1591</v>
       </c>
       <c r="B756" s="46" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="C756" s="47" t="s">
-        <v>1629</v>
+        <v>1592</v>
       </c>
       <c r="D756" s="45"/>
       <c r="E756" s="45" t="s">
@@ -26738,15 +26778,15 @@
       </c>
       <c r="I756" s="47"/>
     </row>
-    <row r="757" spans="1:9" ht="135">
+    <row r="757" spans="1:9" ht="409.5">
       <c r="A757" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B757" s="20" t="s">
-        <v>1593</v>
+        <v>1598</v>
       </c>
       <c r="C757" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D757" s="25"/>
       <c r="E757" s="25" t="s">
@@ -26763,24 +26803,74 @@
       </c>
       <c r="I757" s="27"/>
     </row>
-    <row r="758" spans="1:9">
-      <c r="A758" s="25"/>
-      <c r="B758" s="26"/>
-      <c r="C758" s="27"/>
-      <c r="D758" s="25"/>
-      <c r="E758" s="25"/>
-      <c r="F758" s="25"/>
-      <c r="G758" s="25"/>
-      <c r="H758" s="25"/>
-      <c r="I758" s="27"/>
-    </row>
-    <row r="759" spans="1:9">
-      <c r="A759" s="3"/>
-      <c r="B759" s="9"/>
+    <row r="758" spans="1:9" ht="409.5">
+      <c r="A758" s="18" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B758" s="46" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C758" s="47" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D758" s="45"/>
+      <c r="E758" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F758" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G758" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H758" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I758" s="47"/>
+    </row>
+    <row r="759" spans="1:9" ht="135">
+      <c r="A759" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B759" s="20" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C759" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="D759" s="25"/>
+      <c r="E759" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F759" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G759" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H759" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I759" s="27"/>
     </row>
     <row r="760" spans="1:9">
-      <c r="A760" s="3"/>
-      <c r="B760" s="9"/>
+      <c r="A760" s="25"/>
+      <c r="B760" s="26"/>
+      <c r="C760" s="27"/>
+      <c r="D760" s="25"/>
+      <c r="E760" s="25"/>
+      <c r="F760" s="25"/>
+      <c r="G760" s="25"/>
+      <c r="H760" s="25"/>
+      <c r="I760" s="27"/>
+    </row>
+    <row r="761" spans="1:9">
+      <c r="A761" s="3"/>
+      <c r="B761" s="9"/>
+    </row>
+    <row r="762" spans="1:9">
+      <c r="A762" s="3"/>
+      <c r="B762" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -26797,7 +26887,7 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I20:I65 A20:H45 A35:I758">
+  <conditionalFormatting sqref="I20:I65 A20:H45 A35:I760">
     <cfRule type="expression" dxfId="24" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -26808,7 +26898,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I65 A20:H45 A35:I758">
+  <conditionalFormatting sqref="I20:I65 A20:H45 A35:I760">
     <cfRule type="expression" dxfId="21" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -26819,7 +26909,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F758">
+  <conditionalFormatting sqref="F20:F760">
     <cfRule type="expression" dxfId="18" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -26828,20 +26918,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F758">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F760">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E758">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E760">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G758">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G760">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H758">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H760">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26851,7 +26941,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B759:B760 B10:B25 B43 B28:B39 B233:B265 B495:B523" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 C3 B761:B762 B10:B25 B43 B28:B39 B233:B265 B495:B523" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -10,11 +10,11 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$759</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$758</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
-    <definedName name="section_a924609ae1034bfe8d11a652841f638f" localSheetId="0">Requirements!$B$659</definedName>
+    <definedName name="section_a924609ae1034bfe8d11a652841f638f" localSheetId="0">Requirements!$B$658</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5386" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5376" uniqueCount="1684">
   <si>
     <t>Req ID</t>
   </si>
@@ -6387,9 +6387,6 @@
     <t xml:space="preserve">[In Transport] The protocol MUST support SOAP over HTTP, as specified in [RFC2616]. </t>
   </si>
   <si>
-    <t>MS-OXWSCONT_R102:I, MS-OXWSCONT_R335:i</t>
-  </si>
-  <si>
     <t>MS-OXWSCONT_R335001</t>
   </si>
   <si>
@@ -6399,25 +6396,16 @@
     <t>verified by derived requirement: MS-OXWSCONT_R335001.</t>
   </si>
   <si>
-    <t>MS-OXWSCONT_R335002</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does specifies an id of a set of people who not be linked together automatically.  (Exchange 2007 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>verified by derived requirement: MS-OXWSCONT_R335002.</t>
-  </si>
-  <si>
-    <t>MS-OXWSCONT_R16006:I, MS-OXWSCONT_R335:i</t>
-  </si>
-  <si>
-    <t>[In GetUserPhotoResponseMessageType] HasChanged element: If the value is true, the user photo has changed.</t>
-  </si>
-  <si>
-    <t>[In GetUserPhotoResponseMessageType] HasChanged element: If the value is false, the user photo has not changed.</t>
-  </si>
-  <si>
     <t>MS-OXWSCONT_R302056:c</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R102:i, MS-OXWSCONT_R335:i</t>
+  </si>
+  <si>
+    <t>[In GetUserPhotoResponseMessageType] HasChanged element: If the value is false, the  photo has not changed.</t>
+  </si>
+  <si>
+    <t>[In GetUserPhotoResponseMessageType] HasChanged element: If the value is true, the photo has changed.</t>
   </si>
 </sst>
 </file>
@@ -6849,6 +6837,50 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -7167,50 +7199,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7340,34 +7328,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I759" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="1">
-  <autoFilter ref="A19:I759"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I758" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
+  <autoFilter ref="A19:I758"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="14">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="13">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="12">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="11">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="19">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="10">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="18">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="9">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="17">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="8">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="7">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="6">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7376,12 +7364,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="10"/>
+    <tableColumn id="2" name="Test" dataDxfId="9"/>
+    <tableColumn id="3" name="Description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7675,10 +7663,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M762"/>
+  <dimension ref="A1:M761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A580" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D584" sqref="D584"/>
+    <sheetView tabSelected="1" topLeftCell="A578" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C583" sqref="C583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8234,7 +8222,7 @@
         <v>17</v>
       </c>
       <c r="I27" s="47" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="19" customFormat="1" ht="30">
@@ -8764,7 +8752,7 @@
       </c>
       <c r="I48" s="47"/>
     </row>
-    <row r="49" spans="1:9" ht="45">
+    <row r="49" spans="1:9" ht="30">
       <c r="A49" s="18" t="s">
         <v>633</v>
       </c>
@@ -8785,11 +8773,9 @@
         <v>15</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="47" t="s">
-        <v>1683</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I49" s="47"/>
     </row>
     <row r="50" spans="1:9" ht="30">
       <c r="A50" s="18" t="s">
@@ -22198,10 +22184,10 @@
         <v>1364</v>
       </c>
       <c r="C583" s="47" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="D583" s="45" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="E583" s="45" t="s">
         <v>19</v>
@@ -22225,10 +22211,10 @@
         <v>1364</v>
       </c>
       <c r="C584" s="47" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="D584" s="45" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="E584" s="45" t="s">
         <v>19</v>
@@ -24023,16 +24009,16 @@
     </row>
     <row r="656" spans="1:9" ht="45">
       <c r="A656" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B656" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C656" s="47" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D656" s="45" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="E656" s="45" t="s">
         <v>22</v>
@@ -24050,69 +24036,67 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="657" spans="1:9" ht="45">
-      <c r="A657" s="18" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B657" s="46" t="s">
+    <row r="657" spans="1:9" ht="30">
+      <c r="A657" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B657" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="C657" s="47" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D657" s="45" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E657" s="45" t="s">
+      <c r="C657" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="D657" s="25"/>
+      <c r="E657" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F657" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G657" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H657" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I657" s="47" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="658" spans="1:9" ht="30">
-      <c r="A658" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="B658" s="20" t="s">
+      <c r="F657" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G657" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H657" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I657" s="27"/>
+    </row>
+    <row r="658" spans="1:9" ht="45">
+      <c r="A658" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="B658" s="46" t="s">
         <v>624</v>
       </c>
-      <c r="C658" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="D658" s="25"/>
-      <c r="E658" s="25" t="s">
+      <c r="C658" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="D658" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="E658" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F658" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G658" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H658" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I658" s="27"/>
+      <c r="F658" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G658" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H658" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I658" s="47"/>
     </row>
     <row r="659" spans="1:9" ht="45">
-      <c r="A659" s="18" t="s">
-        <v>625</v>
+      <c r="A659" s="45" t="s">
+        <v>627</v>
       </c>
       <c r="B659" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C659" s="16" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="D659" s="18" t="s">
         <v>652</v>
@@ -24127,50 +24111,50 @@
         <v>15</v>
       </c>
       <c r="H659" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I659" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I659" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="660" spans="1:9" ht="45">
-      <c r="A660" s="45" t="s">
-        <v>627</v>
-      </c>
-      <c r="B660" s="46" t="s">
+      <c r="A660" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B660" s="20" t="s">
         <v>624</v>
       </c>
       <c r="C660" s="16" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="D660" s="18" t="s">
-        <v>652</v>
-      </c>
-      <c r="E660" s="45" t="s">
+        <v>597</v>
+      </c>
+      <c r="E660" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F660" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G660" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H660" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I660" s="47" t="s">
-        <v>1672</v>
-      </c>
+      <c r="F660" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G660" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H660" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I660" s="27"/>
     </row>
     <row r="661" spans="1:9" ht="45">
       <c r="A661" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B661" s="20" t="s">
         <v>624</v>
       </c>
       <c r="C661" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="D661" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="D661" s="25" t="s">
         <v>597</v>
       </c>
       <c r="E661" s="25" t="s">
@@ -24187,18 +24171,18 @@
       </c>
       <c r="I661" s="27"/>
     </row>
-    <row r="662" spans="1:9" ht="45">
-      <c r="A662" s="18" t="s">
-        <v>375</v>
+    <row r="662" spans="1:9" ht="75">
+      <c r="A662" s="25" t="s">
+        <v>376</v>
       </c>
       <c r="B662" s="20" t="s">
         <v>624</v>
       </c>
       <c r="C662" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="D662" s="25" t="s">
-        <v>597</v>
+        <v>668</v>
+      </c>
+      <c r="D662" s="18" t="s">
+        <v>598</v>
       </c>
       <c r="E662" s="25" t="s">
         <v>22</v>
@@ -24214,15 +24198,15 @@
       </c>
       <c r="I662" s="27"/>
     </row>
-    <row r="663" spans="1:9" ht="75">
-      <c r="A663" s="25" t="s">
-        <v>376</v>
+    <row r="663" spans="1:9" ht="60">
+      <c r="A663" s="18" t="s">
+        <v>377</v>
       </c>
       <c r="B663" s="20" t="s">
         <v>624</v>
       </c>
       <c r="C663" s="16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D663" s="18" t="s">
         <v>598</v>
@@ -24241,42 +24225,42 @@
       </c>
       <c r="I663" s="27"/>
     </row>
-    <row r="664" spans="1:9" ht="60">
-      <c r="A664" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="B664" s="20" t="s">
+    <row r="664" spans="1:9" ht="30">
+      <c r="A664" s="45" t="s">
+        <v>721</v>
+      </c>
+      <c r="B664" s="46" t="s">
         <v>624</v>
       </c>
-      <c r="C664" s="16" t="s">
-        <v>667</v>
-      </c>
-      <c r="D664" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="E664" s="25" t="s">
+      <c r="C664" s="47" t="s">
+        <v>722</v>
+      </c>
+      <c r="D664" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="E664" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F664" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G664" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H664" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I664" s="27"/>
-    </row>
-    <row r="665" spans="1:9" ht="30">
+      <c r="F664" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G664" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H664" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I664" s="47"/>
+    </row>
+    <row r="665" spans="1:9" ht="45">
       <c r="A665" s="45" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B665" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C665" s="47" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D665" s="45" t="s">
         <v>724</v>
@@ -24291,22 +24275,24 @@
         <v>15</v>
       </c>
       <c r="H665" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I665" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I665" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="666" spans="1:9" ht="45">
       <c r="A666" s="45" t="s">
-        <v>725</v>
+        <v>794</v>
       </c>
       <c r="B666" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C666" s="47" t="s">
-        <v>723</v>
+        <v>792</v>
       </c>
       <c r="D666" s="45" t="s">
-        <v>724</v>
+        <v>1013</v>
       </c>
       <c r="E666" s="45" t="s">
         <v>22</v>
@@ -24318,21 +24304,19 @@
         <v>15</v>
       </c>
       <c r="H666" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I666" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I666" s="47"/>
     </row>
     <row r="667" spans="1:9" ht="45">
       <c r="A667" s="45" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B667" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C667" s="47" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D667" s="45" t="s">
         <v>1013</v>
@@ -24347,22 +24331,24 @@
         <v>15</v>
       </c>
       <c r="H667" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I667" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I667" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="668" spans="1:9" ht="45">
       <c r="A668" s="45" t="s">
-        <v>795</v>
+        <v>882</v>
       </c>
       <c r="B668" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C668" s="47" t="s">
-        <v>793</v>
+        <v>924</v>
       </c>
       <c r="D668" s="45" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E668" s="45" t="s">
         <v>22</v>
@@ -24374,21 +24360,19 @@
         <v>15</v>
       </c>
       <c r="H668" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I668" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I668" s="47"/>
     </row>
     <row r="669" spans="1:9" ht="45">
       <c r="A669" s="45" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B669" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C669" s="47" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D669" s="45" t="s">
         <v>1014</v>
@@ -24403,22 +24387,24 @@
         <v>15</v>
       </c>
       <c r="H669" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I669" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I669" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="670" spans="1:9" ht="45">
       <c r="A670" s="45" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B670" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C670" s="47" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D670" s="45" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E670" s="45" t="s">
         <v>22</v>
@@ -24430,21 +24416,19 @@
         <v>15</v>
       </c>
       <c r="H670" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I670" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I670" s="47"/>
     </row>
     <row r="671" spans="1:9" ht="45">
       <c r="A671" s="45" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B671" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C671" s="47" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D671" s="45" t="s">
         <v>1015</v>
@@ -24459,22 +24443,24 @@
         <v>15</v>
       </c>
       <c r="H671" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I671" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I671" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="672" spans="1:9" ht="45">
       <c r="A672" s="45" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B672" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C672" s="47" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D672" s="45" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E672" s="45" t="s">
         <v>22</v>
@@ -24486,21 +24472,19 @@
         <v>15</v>
       </c>
       <c r="H672" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I672" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I672" s="47"/>
     </row>
     <row r="673" spans="1:9" ht="45">
       <c r="A673" s="45" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B673" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C673" s="47" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D673" s="45" t="s">
         <v>1016</v>
@@ -24515,22 +24499,24 @@
         <v>15</v>
       </c>
       <c r="H673" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I673" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I673" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="674" spans="1:9" ht="45">
       <c r="A674" s="45" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B674" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C674" s="47" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D674" s="45" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E674" s="45" t="s">
         <v>22</v>
@@ -24542,21 +24528,19 @@
         <v>15</v>
       </c>
       <c r="H674" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I674" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I674" s="47"/>
     </row>
     <row r="675" spans="1:9" ht="45">
       <c r="A675" s="45" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B675" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C675" s="47" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D675" s="45" t="s">
         <v>1017</v>
@@ -24571,22 +24555,24 @@
         <v>15</v>
       </c>
       <c r="H675" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I675" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I675" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="676" spans="1:9" ht="45">
       <c r="A676" s="45" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B676" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C676" s="47" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D676" s="45" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E676" s="45" t="s">
         <v>22</v>
@@ -24598,21 +24584,19 @@
         <v>15</v>
       </c>
       <c r="H676" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I676" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I676" s="47"/>
     </row>
     <row r="677" spans="1:9" ht="45">
       <c r="A677" s="45" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B677" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C677" s="47" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D677" s="45" t="s">
         <v>1018</v>
@@ -24627,22 +24611,24 @@
         <v>15</v>
       </c>
       <c r="H677" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I677" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I677" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="678" spans="1:9" ht="45">
       <c r="A678" s="45" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B678" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C678" s="47" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D678" s="45" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="E678" s="45" t="s">
         <v>22</v>
@@ -24654,21 +24640,19 @@
         <v>15</v>
       </c>
       <c r="H678" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I678" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I678" s="47"/>
     </row>
     <row r="679" spans="1:9" ht="45">
       <c r="A679" s="45" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B679" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C679" s="47" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D679" s="45" t="s">
         <v>1019</v>
@@ -24683,22 +24667,24 @@
         <v>15</v>
       </c>
       <c r="H679" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I679" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I679" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="680" spans="1:9" ht="45">
       <c r="A680" s="45" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B680" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C680" s="47" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="D680" s="45" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E680" s="45" t="s">
         <v>22</v>
@@ -24710,21 +24696,19 @@
         <v>15</v>
       </c>
       <c r="H680" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I680" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I680" s="47"/>
     </row>
     <row r="681" spans="1:9" ht="45">
       <c r="A681" s="45" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B681" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C681" s="47" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D681" s="45" t="s">
         <v>1020</v>
@@ -24739,22 +24723,24 @@
         <v>15</v>
       </c>
       <c r="H681" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I681" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I681" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="682" spans="1:9" ht="45">
       <c r="A682" s="45" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B682" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C682" s="47" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D682" s="45" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E682" s="45" t="s">
         <v>22</v>
@@ -24766,21 +24752,19 @@
         <v>15</v>
       </c>
       <c r="H682" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I682" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I682" s="47"/>
     </row>
     <row r="683" spans="1:9" ht="45">
       <c r="A683" s="45" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B683" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C683" s="47" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D683" s="45" t="s">
         <v>1021</v>
@@ -24795,22 +24779,24 @@
         <v>15</v>
       </c>
       <c r="H683" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I683" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I683" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="684" spans="1:9" ht="45">
       <c r="A684" s="45" t="s">
-        <v>897</v>
+        <v>962</v>
       </c>
       <c r="B684" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C684" s="47" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D684" s="45" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E684" s="45" t="s">
         <v>22</v>
@@ -24822,21 +24808,19 @@
         <v>15</v>
       </c>
       <c r="H684" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I684" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I684" s="47"/>
     </row>
     <row r="685" spans="1:9" ht="45">
       <c r="A685" s="45" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B685" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C685" s="47" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D685" s="45" t="s">
         <v>1022</v>
@@ -24851,22 +24835,24 @@
         <v>15</v>
       </c>
       <c r="H685" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I685" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I685" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="686" spans="1:9" ht="45">
       <c r="A686" s="45" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B686" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C686" s="47" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D686" s="45" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E686" s="45" t="s">
         <v>22</v>
@@ -24878,21 +24864,19 @@
         <v>15</v>
       </c>
       <c r="H686" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I686" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I686" s="47"/>
     </row>
     <row r="687" spans="1:9" ht="45">
       <c r="A687" s="45" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B687" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C687" s="47" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D687" s="45" t="s">
         <v>1023</v>
@@ -24907,22 +24891,24 @@
         <v>15</v>
       </c>
       <c r="H687" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I687" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I687" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="688" spans="1:9" ht="45">
       <c r="A688" s="45" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B688" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C688" s="47" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D688" s="45" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E688" s="45" t="s">
         <v>22</v>
@@ -24934,21 +24920,19 @@
         <v>15</v>
       </c>
       <c r="H688" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I688" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I688" s="47"/>
     </row>
     <row r="689" spans="1:9" ht="45">
       <c r="A689" s="45" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B689" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C689" s="47" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D689" s="45" t="s">
         <v>1024</v>
@@ -24963,22 +24947,24 @@
         <v>15</v>
       </c>
       <c r="H689" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I689" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I689" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="690" spans="1:9" ht="45">
       <c r="A690" s="45" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B690" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C690" s="47" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D690" s="45" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E690" s="45" t="s">
         <v>22</v>
@@ -24990,21 +24976,19 @@
         <v>15</v>
       </c>
       <c r="H690" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I690" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I690" s="47"/>
     </row>
     <row r="691" spans="1:9" ht="45">
       <c r="A691" s="45" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B691" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C691" s="47" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D691" s="45" t="s">
         <v>1025</v>
@@ -25019,22 +25003,24 @@
         <v>15</v>
       </c>
       <c r="H691" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I691" s="47"/>
-    </row>
-    <row r="692" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I691" s="47" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9" ht="60">
       <c r="A692" s="45" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B692" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C692" s="47" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D692" s="45" t="s">
-        <v>1025</v>
+        <v>1662</v>
       </c>
       <c r="E692" s="45" t="s">
         <v>22</v>
@@ -25046,21 +25032,19 @@
         <v>15</v>
       </c>
       <c r="H692" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I692" s="47" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="693" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I692" s="47"/>
+    </row>
+    <row r="693" spans="1:9" ht="45">
       <c r="A693" s="45" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B693" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C693" s="47" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D693" s="45" t="s">
         <v>1662</v>
@@ -25075,22 +25059,24 @@
         <v>15</v>
       </c>
       <c r="H693" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I693" s="47"/>
-    </row>
-    <row r="694" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I693" s="47" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9" ht="60">
       <c r="A694" s="45" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B694" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C694" s="47" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D694" s="45" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="E694" s="45" t="s">
         <v>22</v>
@@ -25102,21 +25088,19 @@
         <v>15</v>
       </c>
       <c r="H694" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I694" s="47" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="695" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I694" s="47"/>
+    </row>
+    <row r="695" spans="1:9" ht="45">
       <c r="A695" s="45" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B695" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C695" s="47" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D695" s="45" t="s">
         <v>1663</v>
@@ -25131,22 +25115,24 @@
         <v>15</v>
       </c>
       <c r="H695" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I695" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I695" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="696" spans="1:9" ht="45">
       <c r="A696" s="45" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B696" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C696" s="47" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D696" s="45" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="E696" s="45" t="s">
         <v>22</v>
@@ -25158,21 +25144,19 @@
         <v>15</v>
       </c>
       <c r="H696" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I696" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I696" s="47"/>
     </row>
     <row r="697" spans="1:9" ht="45">
       <c r="A697" s="45" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B697" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C697" s="47" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D697" s="45" t="s">
         <v>1664</v>
@@ -25187,22 +25171,24 @@
         <v>15</v>
       </c>
       <c r="H697" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I697" s="47"/>
-    </row>
-    <row r="698" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I697" s="47" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" ht="60">
       <c r="A698" s="45" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B698" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C698" s="47" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D698" s="45" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="E698" s="45" t="s">
         <v>22</v>
@@ -25214,21 +25200,19 @@
         <v>15</v>
       </c>
       <c r="H698" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I698" s="47" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="699" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I698" s="47"/>
+    </row>
+    <row r="699" spans="1:9" ht="45">
       <c r="A699" s="45" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B699" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C699" s="47" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D699" s="45" t="s">
         <v>1665</v>
@@ -25243,22 +25227,24 @@
         <v>15</v>
       </c>
       <c r="H699" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I699" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I699" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="700" spans="1:9" ht="45">
       <c r="A700" s="45" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B700" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C700" s="47" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D700" s="45" t="s">
-        <v>1665</v>
+        <v>1223</v>
       </c>
       <c r="E700" s="45" t="s">
         <v>22</v>
@@ -25270,21 +25256,19 @@
         <v>15</v>
       </c>
       <c r="H700" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I700" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I700" s="47"/>
     </row>
     <row r="701" spans="1:9" ht="45">
       <c r="A701" s="45" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B701" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C701" s="47" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D701" s="45" t="s">
         <v>1223</v>
@@ -25299,22 +25283,24 @@
         <v>15</v>
       </c>
       <c r="H701" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I701" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I701" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="702" spans="1:9" ht="45">
       <c r="A702" s="45" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B702" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C702" s="47" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D702" s="45" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E702" s="45" t="s">
         <v>22</v>
@@ -25326,21 +25312,19 @@
         <v>15</v>
       </c>
       <c r="H702" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I702" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I702" s="47"/>
     </row>
     <row r="703" spans="1:9" ht="45">
       <c r="A703" s="45" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B703" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C703" s="47" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D703" s="45" t="s">
         <v>1224</v>
@@ -25355,22 +25339,24 @@
         <v>15</v>
       </c>
       <c r="H703" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I703" s="47"/>
-    </row>
-    <row r="704" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I703" s="47" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9" ht="60">
       <c r="A704" s="45" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B704" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C704" s="47" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D704" s="45" t="s">
-        <v>1224</v>
+        <v>1668</v>
       </c>
       <c r="E704" s="45" t="s">
         <v>22</v>
@@ -25382,21 +25368,19 @@
         <v>15</v>
       </c>
       <c r="H704" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I704" s="47" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="705" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I704" s="47"/>
+    </row>
+    <row r="705" spans="1:9" ht="45">
       <c r="A705" s="45" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B705" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C705" s="47" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D705" s="45" t="s">
         <v>1668</v>
@@ -25411,22 +25395,24 @@
         <v>15</v>
       </c>
       <c r="H705" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I705" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I705" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="706" spans="1:9" ht="45">
       <c r="A706" s="45" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B706" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C706" s="47" t="s">
-        <v>961</v>
+        <v>898</v>
       </c>
       <c r="D706" s="45" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="E706" s="45" t="s">
         <v>22</v>
@@ -25438,24 +25424,22 @@
         <v>15</v>
       </c>
       <c r="H706" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I706" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I706" s="47"/>
     </row>
     <row r="707" spans="1:9" ht="45">
       <c r="A707" s="45" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B707" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C707" s="47" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D707" s="45" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="E707" s="45" t="s">
         <v>22</v>
@@ -25467,22 +25451,24 @@
         <v>15</v>
       </c>
       <c r="H707" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I707" s="47"/>
-    </row>
-    <row r="708" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I707" s="47" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" ht="30">
       <c r="A708" s="45" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B708" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C708" s="47" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D708" s="45" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="E708" s="45" t="s">
         <v>22</v>
@@ -25494,21 +25480,19 @@
         <v>15</v>
       </c>
       <c r="H708" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I708" s="47" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="709" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I708" s="47"/>
+    </row>
+    <row r="709" spans="1:9" ht="45">
       <c r="A709" s="45" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B709" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C709" s="47" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D709" s="45" t="s">
         <v>1659</v>
@@ -25523,22 +25507,24 @@
         <v>15</v>
       </c>
       <c r="H709" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I709" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I709" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="710" spans="1:9" ht="45">
       <c r="A710" s="45" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B710" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C710" s="47" t="s">
-        <v>901</v>
+        <v>1052</v>
       </c>
       <c r="D710" s="45" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E710" s="45" t="s">
         <v>22</v>
@@ -25550,21 +25536,19 @@
         <v>15</v>
       </c>
       <c r="H710" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I710" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I710" s="47"/>
     </row>
     <row r="711" spans="1:9" ht="45">
       <c r="A711" s="45" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B711" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C711" s="47" t="s">
-        <v>1052</v>
+        <v>902</v>
       </c>
       <c r="D711" s="45" t="s">
         <v>1660</v>
@@ -25579,22 +25563,24 @@
         <v>15</v>
       </c>
       <c r="H711" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I711" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I711" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="712" spans="1:9" ht="45">
       <c r="A712" s="45" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B712" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C712" s="47" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D712" s="45" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="E712" s="45" t="s">
         <v>22</v>
@@ -25606,21 +25592,19 @@
         <v>15</v>
       </c>
       <c r="H712" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I712" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I712" s="47"/>
     </row>
     <row r="713" spans="1:9" ht="45">
       <c r="A713" s="45" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B713" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C713" s="47" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D713" s="45" t="s">
         <v>1661</v>
@@ -25635,22 +25619,24 @@
         <v>15</v>
       </c>
       <c r="H713" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I713" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I713" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="714" spans="1:9" ht="45">
       <c r="A714" s="45" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B714" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C714" s="47" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D714" s="45" t="s">
-        <v>1661</v>
+        <v>1669</v>
       </c>
       <c r="E714" s="45" t="s">
         <v>22</v>
@@ -25662,21 +25648,19 @@
         <v>15</v>
       </c>
       <c r="H714" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I714" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I714" s="47"/>
     </row>
     <row r="715" spans="1:9" ht="45">
       <c r="A715" s="45" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B715" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C715" s="47" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D715" s="45" t="s">
         <v>1669</v>
@@ -25691,22 +25675,24 @@
         <v>15</v>
       </c>
       <c r="H715" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I715" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I715" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="716" spans="1:9" ht="45">
       <c r="A716" s="45" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B716" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C716" s="47" t="s">
-        <v>906</v>
+        <v>1053</v>
       </c>
       <c r="D716" s="45" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="E716" s="45" t="s">
         <v>22</v>
@@ -25718,21 +25704,19 @@
         <v>15</v>
       </c>
       <c r="H716" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I716" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I716" s="47"/>
     </row>
     <row r="717" spans="1:9" ht="45">
       <c r="A717" s="45" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B717" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C717" s="47" t="s">
-        <v>1053</v>
+        <v>907</v>
       </c>
       <c r="D717" s="45" t="s">
         <v>1670</v>
@@ -25747,22 +25731,24 @@
         <v>15</v>
       </c>
       <c r="H717" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I717" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I717" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="718" spans="1:9" ht="45">
       <c r="A718" s="45" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B718" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C718" s="47" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D718" s="45" t="s">
-        <v>1670</v>
+        <v>1106</v>
       </c>
       <c r="E718" s="45" t="s">
         <v>22</v>
@@ -25774,21 +25760,19 @@
         <v>15</v>
       </c>
       <c r="H718" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I718" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I718" s="47"/>
     </row>
     <row r="719" spans="1:9" ht="45">
       <c r="A719" s="45" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B719" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C719" s="47" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D719" s="45" t="s">
         <v>1106</v>
@@ -25803,22 +25787,24 @@
         <v>15</v>
       </c>
       <c r="H719" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I719" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I719" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="720" spans="1:9" ht="45">
       <c r="A720" s="45" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B720" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C720" s="47" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D720" s="45" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="E720" s="45" t="s">
         <v>22</v>
@@ -25830,21 +25816,19 @@
         <v>15</v>
       </c>
       <c r="H720" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I720" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I720" s="47"/>
     </row>
     <row r="721" spans="1:9" ht="45">
       <c r="A721" s="45" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B721" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C721" s="47" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D721" s="45" t="s">
         <v>1108</v>
@@ -25859,22 +25843,24 @@
         <v>15</v>
       </c>
       <c r="H721" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I721" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I721" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="722" spans="1:9" ht="45">
       <c r="A722" s="45" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B722" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C722" s="47" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D722" s="45" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="E722" s="45" t="s">
         <v>22</v>
@@ -25886,21 +25872,19 @@
         <v>15</v>
       </c>
       <c r="H722" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I722" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I722" s="47"/>
     </row>
     <row r="723" spans="1:9" ht="45">
       <c r="A723" s="45" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B723" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C723" s="47" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D723" s="45" t="s">
         <v>1110</v>
@@ -25915,22 +25899,24 @@
         <v>15</v>
       </c>
       <c r="H723" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I723" s="47"/>
-    </row>
-    <row r="724" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I723" s="47" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" ht="30">
       <c r="A724" s="45" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B724" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C724" s="47" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D724" s="45" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="E724" s="45" t="s">
         <v>22</v>
@@ -25942,21 +25928,19 @@
         <v>15</v>
       </c>
       <c r="H724" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I724" s="47" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="725" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I724" s="47"/>
+    </row>
+    <row r="725" spans="1:9" ht="45">
       <c r="A725" s="45" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B725" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C725" s="47" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D725" s="45" t="s">
         <v>1112</v>
@@ -25971,22 +25955,24 @@
         <v>15</v>
       </c>
       <c r="H725" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I725" s="47"/>
-    </row>
-    <row r="726" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I725" s="47" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" ht="30">
       <c r="A726" s="45" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B726" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C726" s="47" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D726" s="45" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="E726" s="45" t="s">
         <v>22</v>
@@ -25998,21 +25984,19 @@
         <v>15</v>
       </c>
       <c r="H726" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I726" s="47" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="727" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I726" s="47"/>
+    </row>
+    <row r="727" spans="1:9" ht="45">
       <c r="A727" s="45" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B727" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C727" s="47" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D727" s="45" t="s">
         <v>1114</v>
@@ -26027,22 +26011,24 @@
         <v>15</v>
       </c>
       <c r="H727" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I727" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I727" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="728" spans="1:9" ht="45">
       <c r="A728" s="45" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B728" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C728" s="47" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D728" s="45" t="s">
-        <v>1114</v>
+        <v>1128</v>
       </c>
       <c r="E728" s="45" t="s">
         <v>22</v>
@@ -26054,21 +26040,19 @@
         <v>15</v>
       </c>
       <c r="H728" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I728" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I728" s="47"/>
     </row>
     <row r="729" spans="1:9" ht="45">
       <c r="A729" s="45" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B729" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C729" s="47" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D729" s="45" t="s">
         <v>1128</v>
@@ -26083,22 +26067,24 @@
         <v>15</v>
       </c>
       <c r="H729" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I729" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I729" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="730" spans="1:9" ht="45">
       <c r="A730" s="45" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B730" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C730" s="47" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D730" s="45" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="E730" s="45" t="s">
         <v>22</v>
@@ -26110,21 +26096,19 @@
         <v>15</v>
       </c>
       <c r="H730" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I730" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I730" s="47"/>
     </row>
     <row r="731" spans="1:9" ht="45">
       <c r="A731" s="45" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B731" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C731" s="47" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D731" s="45" t="s">
         <v>1130</v>
@@ -26139,22 +26123,24 @@
         <v>15</v>
       </c>
       <c r="H731" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I731" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="I731" s="47" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="732" spans="1:9" ht="45">
       <c r="A732" s="45" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B732" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C732" s="47" t="s">
-        <v>921</v>
-      </c>
-      <c r="D732" s="45" t="s">
-        <v>1130</v>
+        <v>922</v>
+      </c>
+      <c r="D732" t="s">
+        <v>1671</v>
       </c>
       <c r="E732" s="45" t="s">
         <v>22</v>
@@ -26166,21 +26152,19 @@
         <v>15</v>
       </c>
       <c r="H732" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I732" s="47" t="s">
-        <v>1672</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I732" s="47"/>
     </row>
     <row r="733" spans="1:9" ht="45">
       <c r="A733" s="45" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B733" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C733" s="47" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D733" t="s">
         <v>1671</v>
@@ -26195,48 +26179,46 @@
         <v>15</v>
       </c>
       <c r="H733" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I733" s="47"/>
-    </row>
-    <row r="734" spans="1:9" ht="45">
-      <c r="A734" s="45" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B734" s="46" t="s">
-        <v>624</v>
-      </c>
-      <c r="C734" s="47" t="s">
-        <v>923</v>
-      </c>
-      <c r="D734" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E734" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F734" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G734" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H734" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I734" s="47" t="s">
+      <c r="I733" s="47" t="s">
         <v>1672</v>
       </c>
     </row>
-    <row r="735" spans="1:9" ht="180">
-      <c r="A735" s="25" t="s">
+    <row r="734" spans="1:9" ht="180">
+      <c r="A734" s="25" t="s">
         <v>378</v>
       </c>
+      <c r="B734" s="20" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C734" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="D734" s="25"/>
+      <c r="E734" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F734" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G734" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H734" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I734" s="27"/>
+    </row>
+    <row r="735" spans="1:9" ht="30">
+      <c r="A735" s="18" t="s">
+        <v>379</v>
+      </c>
       <c r="B735" s="20" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C735" s="16" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D735" s="25"/>
       <c r="E735" s="25" t="s">
@@ -26253,15 +26235,15 @@
       </c>
       <c r="I735" s="27"/>
     </row>
-    <row r="736" spans="1:9" ht="30">
-      <c r="A736" s="18" t="s">
-        <v>379</v>
+    <row r="736" spans="1:9" ht="105">
+      <c r="A736" s="25" t="s">
+        <v>380</v>
       </c>
       <c r="B736" s="20" t="s">
         <v>1595</v>
       </c>
-      <c r="C736" s="16" t="s">
-        <v>586</v>
+      <c r="C736" s="27" t="s">
+        <v>587</v>
       </c>
       <c r="D736" s="25"/>
       <c r="E736" s="25" t="s">
@@ -26278,15 +26260,15 @@
       </c>
       <c r="I736" s="27"/>
     </row>
-    <row r="737" spans="1:9" ht="105">
+    <row r="737" spans="1:9" ht="45">
       <c r="A737" s="25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B737" s="20" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C737" s="27" t="s">
-        <v>587</v>
+        <v>1596</v>
+      </c>
+      <c r="C737" s="16" t="s">
+        <v>588</v>
       </c>
       <c r="D737" s="25"/>
       <c r="E737" s="25" t="s">
@@ -26299,19 +26281,19 @@
         <v>15</v>
       </c>
       <c r="H737" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I737" s="27"/>
     </row>
-    <row r="738" spans="1:9" ht="45">
+    <row r="738" spans="1:9" ht="30">
       <c r="A738" s="25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B738" s="20" t="s">
         <v>1596</v>
       </c>
-      <c r="C738" s="16" t="s">
-        <v>588</v>
+      <c r="C738" s="27" t="s">
+        <v>589</v>
       </c>
       <c r="D738" s="25"/>
       <c r="E738" s="25" t="s">
@@ -26324,19 +26306,19 @@
         <v>15</v>
       </c>
       <c r="H738" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I738" s="27"/>
     </row>
     <row r="739" spans="1:9" ht="30">
-      <c r="A739" s="25" t="s">
-        <v>382</v>
+      <c r="A739" s="18" t="s">
+        <v>383</v>
       </c>
       <c r="B739" s="20" t="s">
         <v>1596</v>
       </c>
-      <c r="C739" s="27" t="s">
-        <v>589</v>
+      <c r="C739" s="16" t="s">
+        <v>590</v>
       </c>
       <c r="D739" s="25"/>
       <c r="E739" s="25" t="s">
@@ -26353,40 +26335,40 @@
       </c>
       <c r="I739" s="27"/>
     </row>
-    <row r="740" spans="1:9" ht="30">
+    <row r="740" spans="1:9" ht="45">
       <c r="A740" s="18" t="s">
-        <v>383</v>
+        <v>1602</v>
       </c>
       <c r="B740" s="20" t="s">
         <v>1596</v>
       </c>
-      <c r="C740" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="D740" s="25"/>
-      <c r="E740" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F740" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G740" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H740" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I740" s="27"/>
-    </row>
-    <row r="741" spans="1:9" ht="45">
+      <c r="C740" s="47" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D740" s="45"/>
+      <c r="E740" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F740" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G740" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H740" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I740" s="47"/>
+    </row>
+    <row r="741" spans="1:9" ht="30">
       <c r="A741" s="18" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="B741" s="20" t="s">
         <v>1596</v>
       </c>
       <c r="C741" s="47" t="s">
-        <v>1603</v>
+        <v>590</v>
       </c>
       <c r="D741" s="45"/>
       <c r="E741" s="45" t="s">
@@ -26403,15 +26385,15 @@
       </c>
       <c r="I741" s="47"/>
     </row>
-    <row r="742" spans="1:9" ht="30">
+    <row r="742" spans="1:9" ht="390">
       <c r="A742" s="18" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B742" s="20" t="s">
-        <v>1596</v>
+        <v>1617</v>
+      </c>
+      <c r="B742" s="46" t="s">
+        <v>1605</v>
       </c>
       <c r="C742" s="47" t="s">
-        <v>590</v>
+        <v>1606</v>
       </c>
       <c r="D742" s="45"/>
       <c r="E742" s="45" t="s">
@@ -26424,19 +26406,19 @@
         <v>15</v>
       </c>
       <c r="H742" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I742" s="47"/>
     </row>
-    <row r="743" spans="1:9" ht="390">
+    <row r="743" spans="1:9" ht="30">
       <c r="A743" s="18" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B743" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C743" s="47" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D743" s="45"/>
       <c r="E743" s="45" t="s">
@@ -26455,13 +26437,13 @@
     </row>
     <row r="744" spans="1:9" ht="30">
       <c r="A744" s="18" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B744" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C744" s="47" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D744" s="45"/>
       <c r="E744" s="45" t="s">
@@ -26478,15 +26460,15 @@
       </c>
       <c r="I744" s="47"/>
     </row>
-    <row r="745" spans="1:9" ht="30">
+    <row r="745" spans="1:9">
       <c r="A745" s="18" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B745" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C745" s="47" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D745" s="45"/>
       <c r="E745" s="45" t="s">
@@ -26503,15 +26485,15 @@
       </c>
       <c r="I745" s="47"/>
     </row>
-    <row r="746" spans="1:9">
+    <row r="746" spans="1:9" ht="30">
       <c r="A746" s="18" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B746" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C746" s="47" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D746" s="45"/>
       <c r="E746" s="45" t="s">
@@ -26528,15 +26510,15 @@
       </c>
       <c r="I746" s="47"/>
     </row>
-    <row r="747" spans="1:9" ht="30">
+    <row r="747" spans="1:9">
       <c r="A747" s="18" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B747" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C747" s="47" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="D747" s="45"/>
       <c r="E747" s="45" t="s">
@@ -26553,15 +26535,15 @@
       </c>
       <c r="I747" s="47"/>
     </row>
-    <row r="748" spans="1:9">
+    <row r="748" spans="1:9" ht="30">
       <c r="A748" s="18" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B748" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C748" s="47" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="D748" s="45"/>
       <c r="E748" s="45" t="s">
@@ -26578,15 +26560,15 @@
       </c>
       <c r="I748" s="47"/>
     </row>
-    <row r="749" spans="1:9" ht="30">
+    <row r="749" spans="1:9">
       <c r="A749" s="18" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B749" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C749" s="47" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="D749" s="45"/>
       <c r="E749" s="45" t="s">
@@ -26603,15 +26585,15 @@
       </c>
       <c r="I749" s="47"/>
     </row>
-    <row r="750" spans="1:9">
+    <row r="750" spans="1:9" ht="30">
       <c r="A750" s="18" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B750" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C750" s="47" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="D750" s="45"/>
       <c r="E750" s="45" t="s">
@@ -26630,13 +26612,13 @@
     </row>
     <row r="751" spans="1:9" ht="30">
       <c r="A751" s="18" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B751" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C751" s="47" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="D751" s="45"/>
       <c r="E751" s="45" t="s">
@@ -26653,15 +26635,15 @@
       </c>
       <c r="I751" s="47"/>
     </row>
-    <row r="752" spans="1:9" ht="30">
+    <row r="752" spans="1:9" ht="45">
       <c r="A752" s="18" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B752" s="46" t="s">
         <v>1605</v>
       </c>
       <c r="C752" s="47" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D752" s="45"/>
       <c r="E752" s="45" t="s">
@@ -26678,40 +26660,40 @@
       </c>
       <c r="I752" s="47"/>
     </row>
-    <row r="753" spans="1:9" ht="45">
-      <c r="A753" s="18" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B753" s="46" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C753" s="47" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D753" s="45"/>
-      <c r="E753" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F753" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G753" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H753" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I753" s="47"/>
-    </row>
-    <row r="754" spans="1:9" ht="180">
-      <c r="A754" s="25" t="s">
+    <row r="753" spans="1:9" ht="180">
+      <c r="A753" s="25" t="s">
         <v>384</v>
       </c>
+      <c r="B753" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C753" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="D753" s="25"/>
+      <c r="E753" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F753" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G753" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H753" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I753" s="27"/>
+    </row>
+    <row r="754" spans="1:9" ht="150">
+      <c r="A754" s="18" t="s">
+        <v>385</v>
+      </c>
       <c r="B754" s="20" t="s">
-        <v>421</v>
+        <v>1597</v>
       </c>
       <c r="C754" s="16" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D754" s="25"/>
       <c r="E754" s="25" t="s">
@@ -26724,153 +26706,128 @@
         <v>15</v>
       </c>
       <c r="H754" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I754" s="27"/>
+    </row>
+    <row r="755" spans="1:9" ht="135">
+      <c r="A755" s="45" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B755" s="46" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C755" s="47" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D755" s="45"/>
+      <c r="E755" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F755" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G755" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H755" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I755" s="47"/>
+    </row>
+    <row r="756" spans="1:9" ht="409.5">
+      <c r="A756" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="B756" s="20" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C756" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="D756" s="25"/>
+      <c r="E756" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F756" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G756" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H756" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I754" s="27"/>
-    </row>
-    <row r="755" spans="1:9" ht="150">
-      <c r="A755" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B755" s="20" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C755" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="D755" s="25"/>
-      <c r="E755" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F755" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G755" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H755" s="25" t="s">
+      <c r="I756" s="27"/>
+    </row>
+    <row r="757" spans="1:9" ht="409.5">
+      <c r="A757" s="18" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B757" s="46" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C757" s="47" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D757" s="45"/>
+      <c r="E757" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F757" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G757" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H757" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I755" s="27"/>
-    </row>
-    <row r="756" spans="1:9" ht="135">
-      <c r="A756" s="45" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B756" s="46" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C756" s="47" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D756" s="45"/>
-      <c r="E756" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F756" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G756" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H756" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I756" s="47"/>
-    </row>
-    <row r="757" spans="1:9" ht="409.5">
-      <c r="A757" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="B757" s="20" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C757" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="D757" s="25"/>
-      <c r="E757" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F757" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G757" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H757" s="25" t="s">
+      <c r="I757" s="47"/>
+    </row>
+    <row r="758" spans="1:9" ht="135">
+      <c r="A758" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B758" s="20" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C758" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="D758" s="25"/>
+      <c r="E758" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F758" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G758" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H758" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I757" s="27"/>
-    </row>
-    <row r="758" spans="1:9" ht="409.5">
-      <c r="A758" s="18" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B758" s="46" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C758" s="47" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D758" s="45"/>
-      <c r="E758" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F758" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G758" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H758" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I758" s="47"/>
-    </row>
-    <row r="759" spans="1:9" ht="135">
-      <c r="A759" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="B759" s="20" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C759" s="16" t="s">
-        <v>594</v>
-      </c>
+      <c r="I758" s="27"/>
+    </row>
+    <row r="759" spans="1:9">
+      <c r="A759" s="25"/>
+      <c r="B759" s="26"/>
+      <c r="C759" s="27"/>
       <c r="D759" s="25"/>
-      <c r="E759" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F759" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G759" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H759" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="E759" s="25"/>
+      <c r="F759" s="25"/>
+      <c r="G759" s="25"/>
+      <c r="H759" s="25"/>
       <c r="I759" s="27"/>
     </row>
     <row r="760" spans="1:9">
-      <c r="A760" s="25"/>
-      <c r="B760" s="26"/>
-      <c r="C760" s="27"/>
-      <c r="D760" s="25"/>
-      <c r="E760" s="25"/>
-      <c r="F760" s="25"/>
-      <c r="G760" s="25"/>
-      <c r="H760" s="25"/>
-      <c r="I760" s="27"/>
+      <c r="A760" s="3"/>
+      <c r="B760" s="9"/>
     </row>
     <row r="761" spans="1:9">
       <c r="A761" s="3"/>
       <c r="B761" s="9"/>
-    </row>
-    <row r="762" spans="1:9">
-      <c r="A762" s="3"/>
-      <c r="B762" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -26887,51 +26844,51 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I20:I65 A20:H45 A35:I760">
-    <cfRule type="expression" dxfId="24" priority="53">
+  <conditionalFormatting sqref="I20:I65 A20:H45 A35:I759">
+    <cfRule type="expression" dxfId="7" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="54">
+    <cfRule type="expression" dxfId="6" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="61">
+    <cfRule type="expression" dxfId="5" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I65 A20:H45 A35:I760">
-    <cfRule type="expression" dxfId="21" priority="7">
+  <conditionalFormatting sqref="I20:I65 A20:H45 A35:I759">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F760">
-    <cfRule type="expression" dxfId="18" priority="13">
+  <conditionalFormatting sqref="F20:F759">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F760">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F759">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E760">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E759">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G760">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G759">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H760">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H759">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26941,7 +26898,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B761:B762 B10:B25 B43 B28:B39 B233:B265 B495:B523" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 C3 B760:B761 B10:B25 B43 B28:B39 B233:B265 B495:B523" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -26951,12 +26908,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27009,15 +26963,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27038,15 +27001,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source Depot\Repos\Interop-TestSuites-1\ExchangeWebServices\Docs\MS-OXWSCONT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
@@ -6422,14 +6417,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6678,7 +6673,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -6712,7 +6707,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6751,8 +6746,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6842,7 +6837,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
     <dxf>
@@ -7385,7 +7380,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7427,7 +7422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7462,7 +7457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7674,24 +7669,26 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M761"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A579" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C584" sqref="C584"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>594</v>
       </c>
@@ -7703,7 +7700,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>595</v>
       </c>
@@ -7717,7 +7714,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="33"/>
       <c r="B3" s="34" t="s">
         <v>25</v>
@@ -7738,7 +7735,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="21">
       <c r="A4" s="51" t="s">
         <v>24</v>
       </c>
@@ -7753,7 +7750,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -7770,7 +7767,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
@@ -7787,7 +7784,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -7804,7 +7801,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -7821,7 +7818,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="78.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
@@ -7838,7 +7835,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="33.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -7855,7 +7852,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="43" t="s">
         <v>8</v>
       </c>
@@ -7872,7 +7869,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
@@ -7891,7 +7888,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="23" t="s">
         <v>6</v>
       </c>
@@ -7910,7 +7907,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="23" t="s">
         <v>7</v>
       </c>
@@ -7929,7 +7926,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="24" t="s">
         <v>3</v>
       </c>
@@ -7948,7 +7945,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="44" t="s">
         <v>23</v>
       </c>
@@ -7965,7 +7962,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="64.5" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
@@ -7982,7 +7979,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
@@ -8000,7 +7997,7 @@
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="30">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -8030,7 +8027,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" s="19" customFormat="1" ht="30">
       <c r="A20" s="18" t="s">
         <v>42</v>
       </c>
@@ -8055,7 +8052,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" s="19" customFormat="1" ht="30">
       <c r="A21" s="18" t="s">
         <v>43</v>
       </c>
@@ -8080,7 +8077,7 @@
       </c>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" s="19" customFormat="1" ht="30">
       <c r="A22" s="18" t="s">
         <v>44</v>
       </c>
@@ -8105,7 +8102,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" s="19" customFormat="1" ht="30">
       <c r="A23" s="18" t="s">
         <v>45</v>
       </c>
@@ -8130,7 +8127,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:13" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" s="19" customFormat="1" ht="45">
       <c r="A24" s="18" t="s">
         <v>46</v>
       </c>
@@ -8155,7 +8152,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" s="19" customFormat="1">
       <c r="A25" s="18" t="s">
         <v>47</v>
       </c>
@@ -8180,7 +8177,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" s="19" customFormat="1">
       <c r="A26" s="45" t="s">
         <v>172</v>
       </c>
@@ -8205,7 +8202,7 @@
       </c>
       <c r="I26" s="47"/>
     </row>
-    <row r="27" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" s="19" customFormat="1" ht="45">
       <c r="A27" s="45" t="s">
         <v>1626</v>
       </c>
@@ -8232,7 +8229,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" s="19" customFormat="1" ht="30">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -8257,7 +8254,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" s="19" customFormat="1" ht="45">
       <c r="A29" s="18" t="s">
         <v>49</v>
       </c>
@@ -8282,7 +8279,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" s="19" customFormat="1" ht="30">
       <c r="A30" s="18" t="s">
         <v>50</v>
       </c>
@@ -8307,7 +8304,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:13" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" s="19" customFormat="1" ht="45">
       <c r="A31" s="18" t="s">
         <v>51</v>
       </c>
@@ -8332,7 +8329,7 @@
       </c>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" s="19" customFormat="1" ht="30">
       <c r="A32" s="18" t="s">
         <v>52</v>
       </c>
@@ -8357,7 +8354,7 @@
       </c>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" s="19" customFormat="1" ht="30">
       <c r="A33" s="18" t="s">
         <v>53</v>
       </c>
@@ -8382,7 +8379,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" s="19" customFormat="1" ht="30">
       <c r="A34" s="18" t="s">
         <v>54</v>
       </c>
@@ -8407,7 +8404,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="25" t="s">
         <v>55</v>
       </c>
@@ -8432,7 +8429,7 @@
       </c>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="25" t="s">
         <v>56</v>
       </c>
@@ -8457,7 +8454,7 @@
       </c>
       <c r="I36" s="27"/>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="25" t="s">
         <v>57</v>
       </c>
@@ -8482,7 +8479,7 @@
       </c>
       <c r="I37" s="27"/>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="25" t="s">
         <v>58</v>
       </c>
@@ -8507,7 +8504,7 @@
       </c>
       <c r="I38" s="27"/>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30">
       <c r="A39" s="25" t="s">
         <v>59</v>
       </c>
@@ -8532,7 +8529,7 @@
       </c>
       <c r="I39" s="27"/>
     </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="30">
       <c r="A40" s="18" t="s">
         <v>60</v>
       </c>
@@ -8557,7 +8554,7 @@
       </c>
       <c r="I40" s="27"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="45" t="s">
         <v>649</v>
       </c>
@@ -8582,7 +8579,7 @@
       </c>
       <c r="I41" s="47"/>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30">
       <c r="A42" s="45" t="s">
         <v>650</v>
       </c>
@@ -8607,7 +8604,7 @@
       </c>
       <c r="I42" s="47"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="18" t="s">
         <v>61</v>
       </c>
@@ -8632,7 +8629,7 @@
       </c>
       <c r="I43" s="27"/>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="45">
       <c r="A44" s="18" t="s">
         <v>627</v>
       </c>
@@ -8659,7 +8656,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="18" t="s">
         <v>628</v>
       </c>
@@ -8684,7 +8681,7 @@
       </c>
       <c r="I45" s="47"/>
     </row>
-    <row r="46" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="300">
       <c r="A46" s="18" t="s">
         <v>629</v>
       </c>
@@ -8709,7 +8706,7 @@
       </c>
       <c r="I46" s="47"/>
     </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="18" t="s">
         <v>630</v>
       </c>
@@ -8734,7 +8731,7 @@
       </c>
       <c r="I47" s="47"/>
     </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="30">
       <c r="A48" s="18" t="s">
         <v>631</v>
       </c>
@@ -8759,7 +8756,7 @@
       </c>
       <c r="I48" s="47"/>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30">
       <c r="A49" s="18" t="s">
         <v>632</v>
       </c>
@@ -8784,7 +8781,7 @@
       </c>
       <c r="I49" s="47"/>
     </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="18" t="s">
         <v>633</v>
       </c>
@@ -8809,7 +8806,7 @@
       </c>
       <c r="I50" s="47"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="18" t="s">
         <v>634</v>
       </c>
@@ -8834,7 +8831,7 @@
       </c>
       <c r="I51" s="47"/>
     </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="30">
       <c r="A52" s="18" t="s">
         <v>635</v>
       </c>
@@ -8859,7 +8856,7 @@
       </c>
       <c r="I52" s="47"/>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="18" t="s">
         <v>636</v>
       </c>
@@ -8884,7 +8881,7 @@
       </c>
       <c r="I53" s="47"/>
     </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="18" t="s">
         <v>637</v>
       </c>
@@ -8909,7 +8906,7 @@
       </c>
       <c r="I54" s="47"/>
     </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="30">
       <c r="A55" s="18" t="s">
         <v>638</v>
       </c>
@@ -8934,7 +8931,7 @@
       </c>
       <c r="I55" s="47"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="30">
       <c r="A56" s="18" t="s">
         <v>639</v>
       </c>
@@ -8959,7 +8956,7 @@
       </c>
       <c r="I56" s="47"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="18" t="s">
         <v>640</v>
       </c>
@@ -8984,7 +8981,7 @@
       </c>
       <c r="I57" s="47"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="30">
       <c r="A58" s="18" t="s">
         <v>641</v>
       </c>
@@ -9009,7 +9006,7 @@
       </c>
       <c r="I58" s="47"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="18" t="s">
         <v>642</v>
       </c>
@@ -9034,7 +9031,7 @@
       </c>
       <c r="I59" s="47"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="18" t="s">
         <v>643</v>
       </c>
@@ -9059,7 +9056,7 @@
       </c>
       <c r="I60" s="47"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="18" t="s">
         <v>644</v>
       </c>
@@ -9084,7 +9081,7 @@
       </c>
       <c r="I61" s="47"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="18" t="s">
         <v>645</v>
       </c>
@@ -9109,7 +9106,7 @@
       </c>
       <c r="I62" s="47"/>
     </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" s="18" t="s">
         <v>646</v>
       </c>
@@ -9134,7 +9131,7 @@
       </c>
       <c r="I63" s="47"/>
     </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="30">
       <c r="A64" s="18" t="s">
         <v>647</v>
       </c>
@@ -9155,11 +9152,11 @@
         <v>15</v>
       </c>
       <c r="H64" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I64" s="47"/>
     </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="18" t="s">
         <v>648</v>
       </c>
@@ -9180,11 +9177,11 @@
         <v>15</v>
       </c>
       <c r="H65" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I65" s="47"/>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" s="18" t="s">
         <v>62</v>
       </c>
@@ -9209,7 +9206,7 @@
       </c>
       <c r="I66" s="27"/>
     </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="45">
       <c r="A67" s="45" t="s">
         <v>653</v>
       </c>
@@ -9234,7 +9231,7 @@
       </c>
       <c r="I67" s="47"/>
     </row>
-    <row r="68" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="105">
       <c r="A68" s="45" t="s">
         <v>656</v>
       </c>
@@ -9259,7 +9256,7 @@
       </c>
       <c r="I68" s="47"/>
     </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="30">
       <c r="A69" s="25" t="s">
         <v>63</v>
       </c>
@@ -9284,7 +9281,7 @@
       </c>
       <c r="I69" s="27"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="30">
       <c r="A70" s="25" t="s">
         <v>64</v>
       </c>
@@ -9309,7 +9306,7 @@
       </c>
       <c r="I70" s="27"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="30">
       <c r="A71" s="25" t="s">
         <v>65</v>
       </c>
@@ -9334,7 +9331,7 @@
       </c>
       <c r="I71" s="27"/>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="25" t="s">
         <v>66</v>
       </c>
@@ -9359,7 +9356,7 @@
       </c>
       <c r="I72" s="27"/>
     </row>
-    <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="45">
       <c r="A73" s="18" t="s">
         <v>67</v>
       </c>
@@ -9384,7 +9381,7 @@
       </c>
       <c r="I73" s="27"/>
     </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="45" t="s">
         <v>659</v>
       </c>
@@ -9409,7 +9406,7 @@
       </c>
       <c r="I74" s="47"/>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" s="45" t="s">
         <v>660</v>
       </c>
@@ -9434,7 +9431,7 @@
       </c>
       <c r="I75" s="47"/>
     </row>
-    <row r="76" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="409.5">
       <c r="A76" s="18" t="s">
         <v>68</v>
       </c>
@@ -9461,7 +9458,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="409.5">
       <c r="A77" s="45" t="s">
         <v>682</v>
       </c>
@@ -9486,7 +9483,7 @@
       </c>
       <c r="I77" s="47"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="30">
       <c r="A78" s="25" t="s">
         <v>69</v>
       </c>
@@ -9511,7 +9508,7 @@
       </c>
       <c r="I78" s="27"/>
     </row>
-    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="30">
       <c r="A79" s="25" t="s">
         <v>70</v>
       </c>
@@ -9536,7 +9533,7 @@
       </c>
       <c r="I79" s="27"/>
     </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="30">
       <c r="A80" s="25" t="s">
         <v>71</v>
       </c>
@@ -9561,7 +9558,7 @@
       </c>
       <c r="I80" s="27"/>
     </row>
-    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="30">
       <c r="A81" s="25" t="s">
         <v>72</v>
       </c>
@@ -9586,7 +9583,7 @@
       </c>
       <c r="I81" s="27"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="25" t="s">
         <v>73</v>
       </c>
@@ -9611,7 +9608,7 @@
       </c>
       <c r="I82" s="27"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="25" t="s">
         <v>74</v>
       </c>
@@ -9636,7 +9633,7 @@
       </c>
       <c r="I83" s="27"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="25" t="s">
         <v>75</v>
       </c>
@@ -9661,7 +9658,7 @@
       </c>
       <c r="I84" s="27"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="30">
       <c r="A85" s="25" t="s">
         <v>76</v>
       </c>
@@ -9686,7 +9683,7 @@
       </c>
       <c r="I85" s="27"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="25" t="s">
         <v>77</v>
       </c>
@@ -9711,7 +9708,7 @@
       </c>
       <c r="I86" s="27"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="25" t="s">
         <v>78</v>
       </c>
@@ -9736,7 +9733,7 @@
       </c>
       <c r="I87" s="27"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="25" t="s">
         <v>79</v>
       </c>
@@ -9761,7 +9758,7 @@
       </c>
       <c r="I88" s="27"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="30">
       <c r="A89" s="25" t="s">
         <v>80</v>
       </c>
@@ -9786,7 +9783,7 @@
       </c>
       <c r="I89" s="27"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="25" t="s">
         <v>81</v>
       </c>
@@ -9811,7 +9808,7 @@
       </c>
       <c r="I90" s="27"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="30">
       <c r="A91" s="25" t="s">
         <v>82</v>
       </c>
@@ -9836,7 +9833,7 @@
       </c>
       <c r="I91" s="27"/>
     </row>
-    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="30">
       <c r="A92" s="25" t="s">
         <v>83</v>
       </c>
@@ -9861,7 +9858,7 @@
       </c>
       <c r="I92" s="27"/>
     </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="30">
       <c r="A93" s="18" t="s">
         <v>84</v>
       </c>
@@ -9886,7 +9883,7 @@
       </c>
       <c r="I93" s="27"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="30">
       <c r="A94" s="45" t="s">
         <v>680</v>
       </c>
@@ -9911,7 +9908,7 @@
       </c>
       <c r="I94" s="47"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="25" t="s">
         <v>85</v>
       </c>
@@ -9936,7 +9933,7 @@
       </c>
       <c r="I95" s="27"/>
     </row>
-    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="30">
       <c r="A96" s="25" t="s">
         <v>86</v>
       </c>
@@ -9961,7 +9958,7 @@
       </c>
       <c r="I96" s="27"/>
     </row>
-    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="30">
       <c r="A97" s="25" t="s">
         <v>87</v>
       </c>
@@ -9986,7 +9983,7 @@
       </c>
       <c r="I97" s="27"/>
     </row>
-    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="30">
       <c r="A98" s="18" t="s">
         <v>88</v>
       </c>
@@ -10011,7 +10008,7 @@
       </c>
       <c r="I98" s="27"/>
     </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="45">
       <c r="A99" s="45" t="s">
         <v>685</v>
       </c>
@@ -10036,7 +10033,7 @@
       </c>
       <c r="I99" s="47"/>
     </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="30">
       <c r="A100" s="45" t="s">
         <v>687</v>
       </c>
@@ -10061,7 +10058,7 @@
       </c>
       <c r="I100" s="47"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="30">
       <c r="A101" s="45" t="s">
         <v>688</v>
       </c>
@@ -10086,7 +10083,7 @@
       </c>
       <c r="I101" s="47"/>
     </row>
-    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="30">
       <c r="A102" s="25" t="s">
         <v>89</v>
       </c>
@@ -10111,7 +10108,7 @@
       </c>
       <c r="I102" s="27"/>
     </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="30">
       <c r="A103" s="25" t="s">
         <v>90</v>
       </c>
@@ -10136,7 +10133,7 @@
       </c>
       <c r="I103" s="27"/>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="25" t="s">
         <v>91</v>
       </c>
@@ -10161,7 +10158,7 @@
       </c>
       <c r="I104" s="27"/>
     </row>
-    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="30">
       <c r="A105" s="25" t="s">
         <v>92</v>
       </c>
@@ -10186,7 +10183,7 @@
       </c>
       <c r="I105" s="27"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="25" t="s">
         <v>93</v>
       </c>
@@ -10211,7 +10208,7 @@
       </c>
       <c r="I106" s="27"/>
     </row>
-    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="30">
       <c r="A107" s="25" t="s">
         <v>94</v>
       </c>
@@ -10236,7 +10233,7 @@
       </c>
       <c r="I107" s="27"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="30">
       <c r="A108" s="25" t="s">
         <v>95</v>
       </c>
@@ -10261,7 +10258,7 @@
       </c>
       <c r="I108" s="27"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="25" t="s">
         <v>96</v>
       </c>
@@ -10286,7 +10283,7 @@
       </c>
       <c r="I109" s="27"/>
     </row>
-    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="25" t="s">
         <v>97</v>
       </c>
@@ -10311,7 +10308,7 @@
       </c>
       <c r="I110" s="27"/>
     </row>
-    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="25" t="s">
         <v>98</v>
       </c>
@@ -10336,7 +10333,7 @@
       </c>
       <c r="I111" s="27"/>
     </row>
-    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="30">
       <c r="A112" s="25" t="s">
         <v>99</v>
       </c>
@@ -10361,7 +10358,7 @@
       </c>
       <c r="I112" s="27"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="30">
       <c r="A113" s="25" t="s">
         <v>100</v>
       </c>
@@ -10386,7 +10383,7 @@
       </c>
       <c r="I113" s="27"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="30">
       <c r="A114" s="25" t="s">
         <v>101</v>
       </c>
@@ -10411,7 +10408,7 @@
       </c>
       <c r="I114" s="27"/>
     </row>
-    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="30">
       <c r="A115" s="25" t="s">
         <v>102</v>
       </c>
@@ -10436,7 +10433,7 @@
       </c>
       <c r="I115" s="27"/>
     </row>
-    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="30">
       <c r="A116" s="25" t="s">
         <v>103</v>
       </c>
@@ -10461,7 +10458,7 @@
       </c>
       <c r="I116" s="27"/>
     </row>
-    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="30">
       <c r="A117" s="25" t="s">
         <v>104</v>
       </c>
@@ -10486,7 +10483,7 @@
       </c>
       <c r="I117" s="27"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="25" t="s">
         <v>105</v>
       </c>
@@ -10511,7 +10508,7 @@
       </c>
       <c r="I118" s="27"/>
     </row>
-    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="30">
       <c r="A119" s="25" t="s">
         <v>106</v>
       </c>
@@ -10536,7 +10533,7 @@
       </c>
       <c r="I119" s="27"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="25" t="s">
         <v>107</v>
       </c>
@@ -10561,7 +10558,7 @@
       </c>
       <c r="I120" s="27"/>
     </row>
-    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="30">
       <c r="A121" s="25" t="s">
         <v>108</v>
       </c>
@@ -10586,7 +10583,7 @@
       </c>
       <c r="I121" s="27"/>
     </row>
-    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="30">
       <c r="A122" s="25" t="s">
         <v>109</v>
       </c>
@@ -10611,7 +10608,7 @@
       </c>
       <c r="I122" s="27"/>
     </row>
-    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="30">
       <c r="A123" s="25" t="s">
         <v>110</v>
       </c>
@@ -10636,7 +10633,7 @@
       </c>
       <c r="I123" s="27"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="25" t="s">
         <v>111</v>
       </c>
@@ -10661,7 +10658,7 @@
       </c>
       <c r="I124" s="27"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="25" t="s">
         <v>112</v>
       </c>
@@ -10686,7 +10683,7 @@
       </c>
       <c r="I125" s="27"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="25" t="s">
         <v>113</v>
       </c>
@@ -10711,7 +10708,7 @@
       </c>
       <c r="I126" s="27"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="30">
       <c r="A127" s="25" t="s">
         <v>114</v>
       </c>
@@ -10736,7 +10733,7 @@
       </c>
       <c r="I127" s="27"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="25" t="s">
         <v>115</v>
       </c>
@@ -10761,7 +10758,7 @@
       </c>
       <c r="I128" s="27"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="30">
       <c r="A129" s="25" t="s">
         <v>116</v>
       </c>
@@ -10786,7 +10783,7 @@
       </c>
       <c r="I129" s="27"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="25" t="s">
         <v>117</v>
       </c>
@@ -10811,7 +10808,7 @@
       </c>
       <c r="I130" s="27"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="30">
       <c r="A131" s="25" t="s">
         <v>118</v>
       </c>
@@ -10836,7 +10833,7 @@
       </c>
       <c r="I131" s="27"/>
     </row>
-    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="25" t="s">
         <v>119</v>
       </c>
@@ -10861,7 +10858,7 @@
       </c>
       <c r="I132" s="27"/>
     </row>
-    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="25" t="s">
         <v>120</v>
       </c>
@@ -10886,7 +10883,7 @@
       </c>
       <c r="I133" s="27"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="25" t="s">
         <v>121</v>
       </c>
@@ -10911,7 +10908,7 @@
       </c>
       <c r="I134" s="27"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="30">
       <c r="A135" s="25" t="s">
         <v>122</v>
       </c>
@@ -10936,7 +10933,7 @@
       </c>
       <c r="I135" s="27"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="25" t="s">
         <v>123</v>
       </c>
@@ -10961,7 +10958,7 @@
       </c>
       <c r="I136" s="27"/>
     </row>
-    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="30">
       <c r="A137" s="25" t="s">
         <v>124</v>
       </c>
@@ -10986,7 +10983,7 @@
       </c>
       <c r="I137" s="27"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="25" t="s">
         <v>125</v>
       </c>
@@ -11011,7 +11008,7 @@
       </c>
       <c r="I138" s="27"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="30">
       <c r="A139" s="25" t="s">
         <v>126</v>
       </c>
@@ -11036,7 +11033,7 @@
       </c>
       <c r="I139" s="27"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="30">
       <c r="A140" s="25" t="s">
         <v>127</v>
       </c>
@@ -11061,7 +11058,7 @@
       </c>
       <c r="I140" s="27"/>
     </row>
-    <row r="141" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="30">
       <c r="A141" s="25" t="s">
         <v>128</v>
       </c>
@@ -11086,7 +11083,7 @@
       </c>
       <c r="I141" s="27"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="30">
       <c r="A142" s="18" t="s">
         <v>129</v>
       </c>
@@ -11111,7 +11108,7 @@
       </c>
       <c r="I142" s="27"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="30">
       <c r="A143" s="18" t="s">
         <v>1681</v>
       </c>
@@ -11136,7 +11133,7 @@
       </c>
       <c r="I143" s="27"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="30">
       <c r="A144" s="45" t="s">
         <v>718</v>
       </c>
@@ -11161,7 +11158,7 @@
       </c>
       <c r="I144" s="47"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="30">
       <c r="A145" s="18" t="s">
         <v>130</v>
       </c>
@@ -11186,7 +11183,7 @@
       </c>
       <c r="I145" s="27"/>
     </row>
-    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="25" t="s">
         <v>131</v>
       </c>
@@ -11211,7 +11208,7 @@
       </c>
       <c r="I146" s="27"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="25" t="s">
         <v>132</v>
       </c>
@@ -11236,7 +11233,7 @@
       </c>
       <c r="I147" s="27"/>
     </row>
-    <row r="148" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="30">
       <c r="A148" s="25" t="s">
         <v>133</v>
       </c>
@@ -11261,7 +11258,7 @@
       </c>
       <c r="I148" s="27"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="30">
       <c r="A149" s="25" t="s">
         <v>134</v>
       </c>
@@ -11286,7 +11283,7 @@
       </c>
       <c r="I149" s="27"/>
     </row>
-    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="30">
       <c r="A150" s="25" t="s">
         <v>135</v>
       </c>
@@ -11311,7 +11308,7 @@
       </c>
       <c r="I150" s="27"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="25" t="s">
         <v>136</v>
       </c>
@@ -11336,7 +11333,7 @@
       </c>
       <c r="I151" s="27"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="30">
       <c r="A152" s="25" t="s">
         <v>137</v>
       </c>
@@ -11361,7 +11358,7 @@
       </c>
       <c r="I152" s="27"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="25" t="s">
         <v>138</v>
       </c>
@@ -11386,7 +11383,7 @@
       </c>
       <c r="I153" s="27"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="30">
       <c r="A154" s="25" t="s">
         <v>139</v>
       </c>
@@ -11411,7 +11408,7 @@
       </c>
       <c r="I154" s="27"/>
     </row>
-    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="30">
       <c r="A155" s="25" t="s">
         <v>140</v>
       </c>
@@ -11436,7 +11433,7 @@
       </c>
       <c r="I155" s="27"/>
     </row>
-    <row r="156" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="30">
       <c r="A156" s="25" t="s">
         <v>141</v>
       </c>
@@ -11461,7 +11458,7 @@
       </c>
       <c r="I156" s="27"/>
     </row>
-    <row r="157" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="30">
       <c r="A157" s="25" t="s">
         <v>142</v>
       </c>
@@ -11486,7 +11483,7 @@
       </c>
       <c r="I157" s="27"/>
     </row>
-    <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="30">
       <c r="A158" s="25" t="s">
         <v>143</v>
       </c>
@@ -11511,7 +11508,7 @@
       </c>
       <c r="I158" s="27"/>
     </row>
-    <row r="159" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="30">
       <c r="A159" s="25" t="s">
         <v>144</v>
       </c>
@@ -11536,7 +11533,7 @@
       </c>
       <c r="I159" s="27"/>
     </row>
-    <row r="160" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="30">
       <c r="A160" s="25" t="s">
         <v>145</v>
       </c>
@@ -11561,7 +11558,7 @@
       </c>
       <c r="I160" s="27"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="25" t="s">
         <v>146</v>
       </c>
@@ -11586,7 +11583,7 @@
       </c>
       <c r="I161" s="27"/>
     </row>
-    <row r="162" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="30">
       <c r="A162" s="25" t="s">
         <v>147</v>
       </c>
@@ -11611,7 +11608,7 @@
       </c>
       <c r="I162" s="27"/>
     </row>
-    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="30">
       <c r="A163" s="25" t="s">
         <v>148</v>
       </c>
@@ -11636,7 +11633,7 @@
       </c>
       <c r="I163" s="27"/>
     </row>
-    <row r="164" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="25" t="s">
         <v>149</v>
       </c>
@@ -11661,7 +11658,7 @@
       </c>
       <c r="I164" s="27"/>
     </row>
-    <row r="165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="30">
       <c r="A165" s="18" t="s">
         <v>150</v>
       </c>
@@ -11686,7 +11683,7 @@
       </c>
       <c r="I165" s="27"/>
     </row>
-    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="30">
       <c r="A166" s="18" t="s">
         <v>151</v>
       </c>
@@ -11711,7 +11708,7 @@
       </c>
       <c r="I166" s="27"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="45" t="s">
         <v>744</v>
       </c>
@@ -11736,7 +11733,7 @@
       </c>
       <c r="I167" s="47"/>
     </row>
-    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="45">
       <c r="A168" s="45" t="s">
         <v>745</v>
       </c>
@@ -11763,7 +11760,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="30">
       <c r="A169" s="45" t="s">
         <v>746</v>
       </c>
@@ -11788,7 +11785,7 @@
       </c>
       <c r="I169" s="47"/>
     </row>
-    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="45">
       <c r="A170" s="45" t="s">
         <v>747</v>
       </c>
@@ -11815,7 +11812,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="45" t="s">
         <v>748</v>
       </c>
@@ -11840,7 +11837,7 @@
       </c>
       <c r="I171" s="47"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="45" t="s">
         <v>749</v>
       </c>
@@ -11865,7 +11862,7 @@
       </c>
       <c r="I172" s="47"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="45" t="s">
         <v>750</v>
       </c>
@@ -11890,7 +11887,7 @@
       </c>
       <c r="I173" s="47"/>
     </row>
-    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="45">
       <c r="A174" s="45" t="s">
         <v>751</v>
       </c>
@@ -11917,7 +11914,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="45" t="s">
         <v>752</v>
       </c>
@@ -11942,7 +11939,7 @@
       </c>
       <c r="I175" s="47"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="45" t="s">
         <v>753</v>
       </c>
@@ -11967,7 +11964,7 @@
       </c>
       <c r="I176" s="47"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="45" t="s">
         <v>754</v>
       </c>
@@ -11992,7 +11989,7 @@
       </c>
       <c r="I177" s="47"/>
     </row>
-    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="45">
       <c r="A178" s="45" t="s">
         <v>755</v>
       </c>
@@ -12019,7 +12016,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="45" t="s">
         <v>756</v>
       </c>
@@ -12044,7 +12041,7 @@
       </c>
       <c r="I179" s="47"/>
     </row>
-    <row r="180" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="45">
       <c r="A180" s="45" t="s">
         <v>757</v>
       </c>
@@ -12071,7 +12068,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="45" t="s">
         <v>758</v>
       </c>
@@ -12096,7 +12093,7 @@
       </c>
       <c r="I181" s="47"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="45" t="s">
         <v>759</v>
       </c>
@@ -12121,7 +12118,7 @@
       </c>
       <c r="I182" s="47"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="45" t="s">
         <v>760</v>
       </c>
@@ -12146,7 +12143,7 @@
       </c>
       <c r="I183" s="47"/>
     </row>
-    <row r="184" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="45">
       <c r="A184" s="45" t="s">
         <v>761</v>
       </c>
@@ -12173,7 +12170,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="45" t="s">
         <v>762</v>
       </c>
@@ -12198,7 +12195,7 @@
       </c>
       <c r="I185" s="47"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="45" t="s">
         <v>763</v>
       </c>
@@ -12223,7 +12220,7 @@
       </c>
       <c r="I186" s="47"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="45" t="s">
         <v>764</v>
       </c>
@@ -12248,7 +12245,7 @@
       </c>
       <c r="I187" s="47"/>
     </row>
-    <row r="188" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="45">
       <c r="A188" s="45" t="s">
         <v>765</v>
       </c>
@@ -12275,7 +12272,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="45" t="s">
         <v>766</v>
       </c>
@@ -12300,7 +12297,7 @@
       </c>
       <c r="I189" s="47"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="45" t="s">
         <v>767</v>
       </c>
@@ -12325,7 +12322,7 @@
       </c>
       <c r="I190" s="47"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="45" t="s">
         <v>768</v>
       </c>
@@ -12350,7 +12347,7 @@
       </c>
       <c r="I191" s="47"/>
     </row>
-    <row r="192" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="45">
       <c r="A192" s="45" t="s">
         <v>769</v>
       </c>
@@ -12377,7 +12374,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="45" t="s">
         <v>770</v>
       </c>
@@ -12402,7 +12399,7 @@
       </c>
       <c r="I193" s="47"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="45" t="s">
         <v>771</v>
       </c>
@@ -12427,7 +12424,7 @@
       </c>
       <c r="I194" s="47"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="45" t="s">
         <v>772</v>
       </c>
@@ -12452,7 +12449,7 @@
       </c>
       <c r="I195" s="47"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="45" t="s">
         <v>773</v>
       </c>
@@ -12477,7 +12474,7 @@
       </c>
       <c r="I196" s="47"/>
     </row>
-    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="45" t="s">
         <v>774</v>
       </c>
@@ -12502,7 +12499,7 @@
       </c>
       <c r="I197" s="47"/>
     </row>
-    <row r="198" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="45">
       <c r="A198" s="45" t="s">
         <v>775</v>
       </c>
@@ -12529,7 +12526,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="45" t="s">
         <v>776</v>
       </c>
@@ -12554,7 +12551,7 @@
       </c>
       <c r="I199" s="47"/>
     </row>
-    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="45">
       <c r="A200" s="45" t="s">
         <v>777</v>
       </c>
@@ -12581,7 +12578,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="45" t="s">
         <v>778</v>
       </c>
@@ -12606,7 +12603,7 @@
       </c>
       <c r="I201" s="47"/>
     </row>
-    <row r="202" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="45">
       <c r="A202" s="45" t="s">
         <v>779</v>
       </c>
@@ -12633,7 +12630,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="45" t="s">
         <v>780</v>
       </c>
@@ -12658,7 +12655,7 @@
       </c>
       <c r="I203" s="47"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="45" t="s">
         <v>781</v>
       </c>
@@ -12683,7 +12680,7 @@
       </c>
       <c r="I204" s="47"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="45" t="s">
         <v>782</v>
       </c>
@@ -12708,7 +12705,7 @@
       </c>
       <c r="I205" s="47"/>
     </row>
-    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="45">
       <c r="A206" s="45" t="s">
         <v>783</v>
       </c>
@@ -12735,7 +12732,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="45" t="s">
         <v>784</v>
       </c>
@@ -12760,7 +12757,7 @@
       </c>
       <c r="I207" s="47"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="30">
       <c r="A208" s="45" t="s">
         <v>785</v>
       </c>
@@ -12785,7 +12782,7 @@
       </c>
       <c r="I208" s="47"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="45" t="s">
         <v>786</v>
       </c>
@@ -12810,7 +12807,7 @@
       </c>
       <c r="I209" s="47"/>
     </row>
-    <row r="210" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="45">
       <c r="A210" s="45" t="s">
         <v>787</v>
       </c>
@@ -12837,7 +12834,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" s="45" t="s">
         <v>856</v>
       </c>
@@ -12862,7 +12859,7 @@
       </c>
       <c r="I211" s="47"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" s="45" t="s">
         <v>857</v>
       </c>
@@ -12887,7 +12884,7 @@
       </c>
       <c r="I212" s="47"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" s="45" t="s">
         <v>858</v>
       </c>
@@ -12912,7 +12909,7 @@
       </c>
       <c r="I213" s="47"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214" s="45" t="s">
         <v>859</v>
       </c>
@@ -12937,7 +12934,7 @@
       </c>
       <c r="I214" s="47"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="30">
       <c r="A215" s="45" t="s">
         <v>860</v>
       </c>
@@ -12962,7 +12959,7 @@
       </c>
       <c r="I215" s="47"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="30">
       <c r="A216" s="45" t="s">
         <v>861</v>
       </c>
@@ -12987,7 +12984,7 @@
       </c>
       <c r="I216" s="47"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="30">
       <c r="A217" s="45" t="s">
         <v>862</v>
       </c>
@@ -13012,7 +13009,7 @@
       </c>
       <c r="I217" s="47"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="30">
       <c r="A218" s="45" t="s">
         <v>863</v>
       </c>
@@ -13037,7 +13034,7 @@
       </c>
       <c r="I218" s="47"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="30">
       <c r="A219" s="45" t="s">
         <v>864</v>
       </c>
@@ -13062,7 +13059,7 @@
       </c>
       <c r="I219" s="47"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220" s="45" t="s">
         <v>865</v>
       </c>
@@ -13087,7 +13084,7 @@
       </c>
       <c r="I220" s="47"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="A221" s="45" t="s">
         <v>866</v>
       </c>
@@ -13112,7 +13109,7 @@
       </c>
       <c r="I221" s="47"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9">
       <c r="A222" s="45" t="s">
         <v>867</v>
       </c>
@@ -13137,7 +13134,7 @@
       </c>
       <c r="I222" s="47"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223" s="45" t="s">
         <v>868</v>
       </c>
@@ -13162,7 +13159,7 @@
       </c>
       <c r="I223" s="47"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224" s="45" t="s">
         <v>869</v>
       </c>
@@ -13187,7 +13184,7 @@
       </c>
       <c r="I224" s="47"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="45" t="s">
         <v>870</v>
       </c>
@@ -13212,7 +13209,7 @@
       </c>
       <c r="I225" s="47"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="45" t="s">
         <v>871</v>
       </c>
@@ -13237,7 +13234,7 @@
       </c>
       <c r="I226" s="47"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="45" t="s">
         <v>872</v>
       </c>
@@ -13262,7 +13259,7 @@
       </c>
       <c r="I227" s="47"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="45" t="s">
         <v>873</v>
       </c>
@@ -13287,7 +13284,7 @@
       </c>
       <c r="I228" s="47"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="45" t="s">
         <v>874</v>
       </c>
@@ -13312,7 +13309,7 @@
       </c>
       <c r="I229" s="47"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="45" t="s">
         <v>875</v>
       </c>
@@ -13337,7 +13334,7 @@
       </c>
       <c r="I230" s="47"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="30">
       <c r="A231" s="45" t="s">
         <v>876</v>
       </c>
@@ -13362,7 +13359,7 @@
       </c>
       <c r="I231" s="47"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="45" t="s">
         <v>877</v>
       </c>
@@ -13387,7 +13384,7 @@
       </c>
       <c r="I232" s="47"/>
     </row>
-    <row r="233" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="30">
       <c r="A233" s="25" t="s">
         <v>152</v>
       </c>
@@ -13412,7 +13409,7 @@
       </c>
       <c r="I233" s="27"/>
     </row>
-    <row r="234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="30">
       <c r="A234" s="25" t="s">
         <v>153</v>
       </c>
@@ -13437,7 +13434,7 @@
       </c>
       <c r="I234" s="27"/>
     </row>
-    <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="30">
       <c r="A235" s="25" t="s">
         <v>154</v>
       </c>
@@ -13462,7 +13459,7 @@
       </c>
       <c r="I235" s="27"/>
     </row>
-    <row r="236" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="30">
       <c r="A236" s="25" t="s">
         <v>155</v>
       </c>
@@ -13487,7 +13484,7 @@
       </c>
       <c r="I236" s="27"/>
     </row>
-    <row r="237" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="30">
       <c r="A237" s="25" t="s">
         <v>156</v>
       </c>
@@ -13512,7 +13509,7 @@
       </c>
       <c r="I237" s="27"/>
     </row>
-    <row r="238" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="30">
       <c r="A238" s="25" t="s">
         <v>157</v>
       </c>
@@ -13537,7 +13534,7 @@
       </c>
       <c r="I238" s="27"/>
     </row>
-    <row r="239" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="195">
       <c r="A239" s="25" t="s">
         <v>158</v>
       </c>
@@ -13562,7 +13559,7 @@
       </c>
       <c r="I239" s="27"/>
     </row>
-    <row r="240" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="30">
       <c r="A240" s="25" t="s">
         <v>159</v>
       </c>
@@ -13587,7 +13584,7 @@
       </c>
       <c r="I240" s="27"/>
     </row>
-    <row r="241" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="30">
       <c r="A241" s="25" t="s">
         <v>160</v>
       </c>
@@ -13612,7 +13609,7 @@
       </c>
       <c r="I241" s="27"/>
     </row>
-    <row r="242" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="30">
       <c r="A242" s="25" t="s">
         <v>161</v>
       </c>
@@ -13637,7 +13634,7 @@
       </c>
       <c r="I242" s="27"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="30">
       <c r="A243" s="25" t="s">
         <v>162</v>
       </c>
@@ -13662,7 +13659,7 @@
       </c>
       <c r="I243" s="27"/>
     </row>
-    <row r="244" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="30">
       <c r="A244" s="25" t="s">
         <v>163</v>
       </c>
@@ -13687,7 +13684,7 @@
       </c>
       <c r="I244" s="27"/>
     </row>
-    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="45">
       <c r="A245" s="25" t="s">
         <v>164</v>
       </c>
@@ -13712,7 +13709,7 @@
       </c>
       <c r="I245" s="27"/>
     </row>
-    <row r="246" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="45">
       <c r="A246" s="25" t="s">
         <v>165</v>
       </c>
@@ -13737,7 +13734,7 @@
       </c>
       <c r="I246" s="27"/>
     </row>
-    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="30">
       <c r="A247" s="25" t="s">
         <v>166</v>
       </c>
@@ -13762,7 +13759,7 @@
       </c>
       <c r="I247" s="27"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="30">
       <c r="A248" s="25" t="s">
         <v>167</v>
       </c>
@@ -13787,7 +13784,7 @@
       </c>
       <c r="I248" s="27"/>
     </row>
-    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="25" t="s">
         <v>168</v>
       </c>
@@ -13812,7 +13809,7 @@
       </c>
       <c r="I249" s="27"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="30">
       <c r="A250" s="25" t="s">
         <v>169</v>
       </c>
@@ -13837,7 +13834,7 @@
       </c>
       <c r="I250" s="27"/>
     </row>
-    <row r="251" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="30">
       <c r="A251" s="25" t="s">
         <v>170</v>
       </c>
@@ -13862,7 +13859,7 @@
       </c>
       <c r="I251" s="27"/>
     </row>
-    <row r="252" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="45">
       <c r="A252" s="25" t="s">
         <v>171</v>
       </c>
@@ -13887,7 +13884,7 @@
       </c>
       <c r="I252" s="27"/>
     </row>
-    <row r="253" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="45">
       <c r="A253" s="25" t="s">
         <v>173</v>
       </c>
@@ -13912,7 +13909,7 @@
       </c>
       <c r="I253" s="27"/>
     </row>
-    <row r="254" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="30">
       <c r="A254" s="25" t="s">
         <v>174</v>
       </c>
@@ -13937,7 +13934,7 @@
       </c>
       <c r="I254" s="27"/>
     </row>
-    <row r="255" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="30">
       <c r="A255" s="25" t="s">
         <v>175</v>
       </c>
@@ -13962,7 +13959,7 @@
       </c>
       <c r="I255" s="27"/>
     </row>
-    <row r="256" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="30">
       <c r="A256" s="25" t="s">
         <v>176</v>
       </c>
@@ -13987,7 +13984,7 @@
       </c>
       <c r="I256" s="27"/>
     </row>
-    <row r="257" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="30">
       <c r="A257" s="25" t="s">
         <v>177</v>
       </c>
@@ -14012,7 +14009,7 @@
       </c>
       <c r="I257" s="27"/>
     </row>
-    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="30">
       <c r="A258" s="25" t="s">
         <v>178</v>
       </c>
@@ -14037,7 +14034,7 @@
       </c>
       <c r="I258" s="27"/>
     </row>
-    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="25" t="s">
         <v>179</v>
       </c>
@@ -14062,7 +14059,7 @@
       </c>
       <c r="I259" s="27"/>
     </row>
-    <row r="260" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="30">
       <c r="A260" s="25" t="s">
         <v>180</v>
       </c>
@@ -14087,7 +14084,7 @@
       </c>
       <c r="I260" s="27"/>
     </row>
-    <row r="261" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="75">
       <c r="A261" s="25" t="s">
         <v>181</v>
       </c>
@@ -14112,7 +14109,7 @@
       </c>
       <c r="I261" s="27"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="30">
       <c r="A262" s="25" t="s">
         <v>182</v>
       </c>
@@ -14137,7 +14134,7 @@
       </c>
       <c r="I262" s="27"/>
     </row>
-    <row r="263" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="60">
       <c r="A263" s="25" t="s">
         <v>183</v>
       </c>
@@ -14162,7 +14159,7 @@
       </c>
       <c r="I263" s="27"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9">
       <c r="A264" s="25" t="s">
         <v>184</v>
       </c>
@@ -14187,7 +14184,7 @@
       </c>
       <c r="I264" s="27"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="30">
       <c r="A265" s="25" t="s">
         <v>185</v>
       </c>
@@ -14212,7 +14209,7 @@
       </c>
       <c r="I265" s="27"/>
     </row>
-    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="30">
       <c r="A266" s="25" t="s">
         <v>255</v>
       </c>
@@ -14237,7 +14234,7 @@
       </c>
       <c r="I266" s="27"/>
     </row>
-    <row r="267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="45">
       <c r="A267" s="18" t="s">
         <v>1141</v>
       </c>
@@ -14264,7 +14261,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="165">
       <c r="A268" s="18" t="s">
         <v>1142</v>
       </c>
@@ -14289,7 +14286,7 @@
       </c>
       <c r="I268" s="47"/>
     </row>
-    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="30">
       <c r="A269" s="18" t="s">
         <v>1143</v>
       </c>
@@ -14314,7 +14311,7 @@
       </c>
       <c r="I269" s="47"/>
     </row>
-    <row r="270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="30">
       <c r="A270" s="18" t="s">
         <v>1144</v>
       </c>
@@ -14339,7 +14336,7 @@
       </c>
       <c r="I270" s="47"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="30">
       <c r="A271" s="18" t="s">
         <v>1145</v>
       </c>
@@ -14364,7 +14361,7 @@
       </c>
       <c r="I271" s="47"/>
     </row>
-    <row r="272" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="30">
       <c r="A272" s="18" t="s">
         <v>1146</v>
       </c>
@@ -14389,7 +14386,7 @@
       </c>
       <c r="I272" s="47"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="30">
       <c r="A273" s="18" t="s">
         <v>1147</v>
       </c>
@@ -14414,7 +14411,7 @@
       </c>
       <c r="I273" s="47"/>
     </row>
-    <row r="274" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="30">
       <c r="A274" s="18" t="s">
         <v>1148</v>
       </c>
@@ -14439,7 +14436,7 @@
       </c>
       <c r="I274" s="47"/>
     </row>
-    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="30">
       <c r="A275" s="18" t="s">
         <v>1149</v>
       </c>
@@ -14464,7 +14461,7 @@
       </c>
       <c r="I275" s="47"/>
     </row>
-    <row r="276" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="30">
       <c r="A276" s="18" t="s">
         <v>1150</v>
       </c>
@@ -14489,7 +14486,7 @@
       </c>
       <c r="I276" s="47"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="30">
       <c r="A277" s="18" t="s">
         <v>1151</v>
       </c>
@@ -14514,7 +14511,7 @@
       </c>
       <c r="I277" s="47"/>
     </row>
-    <row r="278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="45">
       <c r="A278" s="18" t="s">
         <v>1156</v>
       </c>
@@ -14541,7 +14538,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="135">
       <c r="A279" s="18" t="s">
         <v>1157</v>
       </c>
@@ -14566,7 +14563,7 @@
       </c>
       <c r="I279" s="47"/>
     </row>
-    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="30">
       <c r="A280" s="45" t="s">
         <v>1188</v>
       </c>
@@ -14591,7 +14588,7 @@
       </c>
       <c r="I280" s="47"/>
     </row>
-    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30">
       <c r="A281" s="18" t="s">
         <v>1158</v>
       </c>
@@ -14616,7 +14613,7 @@
       </c>
       <c r="I281" s="47"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="30">
       <c r="A282" s="18" t="s">
         <v>1159</v>
       </c>
@@ -14641,7 +14638,7 @@
       </c>
       <c r="I282" s="47"/>
     </row>
-    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="45">
       <c r="A283" s="18" t="s">
         <v>1173</v>
       </c>
@@ -14668,7 +14665,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="150">
       <c r="A284" s="18" t="s">
         <v>1174</v>
       </c>
@@ -14693,7 +14690,7 @@
       </c>
       <c r="I284" s="47"/>
     </row>
-    <row r="285" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="30">
       <c r="A285" s="18" t="s">
         <v>1175</v>
       </c>
@@ -14718,7 +14715,7 @@
       </c>
       <c r="I285" s="47"/>
     </row>
-    <row r="286" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="30">
       <c r="A286" s="18" t="s">
         <v>1176</v>
       </c>
@@ -14743,7 +14740,7 @@
       </c>
       <c r="I286" s="47"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="30">
       <c r="A287" s="18" t="s">
         <v>1177</v>
       </c>
@@ -14768,7 +14765,7 @@
       </c>
       <c r="I287" s="47"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="30">
       <c r="A288" s="18" t="s">
         <v>1178</v>
       </c>
@@ -14793,7 +14790,7 @@
       </c>
       <c r="I288" s="47"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="30">
       <c r="A289" s="18" t="s">
         <v>1179</v>
       </c>
@@ -14818,7 +14815,7 @@
       </c>
       <c r="I289" s="47"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="18" t="s">
         <v>1180</v>
       </c>
@@ -14843,7 +14840,7 @@
       </c>
       <c r="I290" s="47"/>
     </row>
-    <row r="291" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="30">
       <c r="A291" s="18" t="s">
         <v>1181</v>
       </c>
@@ -14868,7 +14865,7 @@
       </c>
       <c r="I291" s="47"/>
     </row>
-    <row r="292" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="45">
       <c r="A292" s="18" t="s">
         <v>1182</v>
       </c>
@@ -14895,7 +14892,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="120">
       <c r="A293" s="18" t="s">
         <v>1183</v>
       </c>
@@ -14920,7 +14917,7 @@
       </c>
       <c r="I293" s="47"/>
     </row>
-    <row r="294" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="30">
       <c r="A294" s="18" t="s">
         <v>1184</v>
       </c>
@@ -14945,7 +14942,7 @@
       </c>
       <c r="I294" s="47"/>
     </row>
-    <row r="295" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="30">
       <c r="A295" s="18" t="s">
         <v>1185</v>
       </c>
@@ -14970,7 +14967,7 @@
       </c>
       <c r="I295" s="47"/>
     </row>
-    <row r="296" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="30">
       <c r="A296" s="18" t="s">
         <v>1186</v>
       </c>
@@ -14995,7 +14992,7 @@
       </c>
       <c r="I296" s="47"/>
     </row>
-    <row r="297" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="30">
       <c r="A297" s="25" t="s">
         <v>256</v>
       </c>
@@ -15020,7 +15017,7 @@
       </c>
       <c r="I297" s="27"/>
     </row>
-    <row r="298" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="409.5">
       <c r="A298" s="25" t="s">
         <v>257</v>
       </c>
@@ -15045,7 +15042,7 @@
       </c>
       <c r="I298" s="27"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="30">
       <c r="A299" s="25" t="s">
         <v>258</v>
       </c>
@@ -15070,7 +15067,7 @@
       </c>
       <c r="I299" s="27"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9">
       <c r="A300" s="25" t="s">
         <v>259</v>
       </c>
@@ -15095,7 +15092,7 @@
       </c>
       <c r="I300" s="27"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9">
       <c r="A301" s="25" t="s">
         <v>260</v>
       </c>
@@ -15120,7 +15117,7 @@
       </c>
       <c r="I301" s="27"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="30">
       <c r="A302" s="25" t="s">
         <v>261</v>
       </c>
@@ -15145,7 +15142,7 @@
       </c>
       <c r="I302" s="27"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="30">
       <c r="A303" s="25" t="s">
         <v>262</v>
       </c>
@@ -15170,7 +15167,7 @@
       </c>
       <c r="I303" s="27"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="30">
       <c r="A304" s="25" t="s">
         <v>263</v>
       </c>
@@ -15195,7 +15192,7 @@
       </c>
       <c r="I304" s="27"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="30">
       <c r="A305" s="25" t="s">
         <v>264</v>
       </c>
@@ -15220,7 +15217,7 @@
       </c>
       <c r="I305" s="27"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9">
       <c r="A306" s="25" t="s">
         <v>265</v>
       </c>
@@ -15245,7 +15242,7 @@
       </c>
       <c r="I306" s="27"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="30">
       <c r="A307" s="25" t="s">
         <v>266</v>
       </c>
@@ -15270,7 +15267,7 @@
       </c>
       <c r="I307" s="27"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="30">
       <c r="A308" s="25" t="s">
         <v>267</v>
       </c>
@@ -15295,7 +15292,7 @@
       </c>
       <c r="I308" s="27"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9">
       <c r="A309" s="25" t="s">
         <v>268</v>
       </c>
@@ -15320,7 +15317,7 @@
       </c>
       <c r="I309" s="27"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="30">
       <c r="A310" s="25" t="s">
         <v>269</v>
       </c>
@@ -15345,7 +15342,7 @@
       </c>
       <c r="I310" s="27"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="30">
       <c r="A311" s="25" t="s">
         <v>270</v>
       </c>
@@ -15370,7 +15367,7 @@
       </c>
       <c r="I311" s="27"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9">
       <c r="A312" s="25" t="s">
         <v>271</v>
       </c>
@@ -15395,7 +15392,7 @@
       </c>
       <c r="I312" s="27"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="30">
       <c r="A313" s="25" t="s">
         <v>272</v>
       </c>
@@ -15420,7 +15417,7 @@
       </c>
       <c r="I313" s="27"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9">
       <c r="A314" s="25" t="s">
         <v>273</v>
       </c>
@@ -15445,7 +15442,7 @@
       </c>
       <c r="I314" s="27"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="30">
       <c r="A315" s="25" t="s">
         <v>274</v>
       </c>
@@ -15470,7 +15467,7 @@
       </c>
       <c r="I315" s="27"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9">
       <c r="A316" s="25" t="s">
         <v>275</v>
       </c>
@@ -15495,7 +15492,7 @@
       </c>
       <c r="I316" s="27"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="30">
       <c r="A317" s="25" t="s">
         <v>276</v>
       </c>
@@ -15520,7 +15517,7 @@
       </c>
       <c r="I317" s="27"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="30">
       <c r="A318" s="25" t="s">
         <v>277</v>
       </c>
@@ -15545,7 +15542,7 @@
       </c>
       <c r="I318" s="27"/>
     </row>
-    <row r="319" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="30">
       <c r="A319" s="25" t="s">
         <v>278</v>
       </c>
@@ -15570,7 +15567,7 @@
       </c>
       <c r="I319" s="27"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="30">
       <c r="A320" s="25" t="s">
         <v>279</v>
       </c>
@@ -15595,7 +15592,7 @@
       </c>
       <c r="I320" s="27"/>
     </row>
-    <row r="321" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="30">
       <c r="A321" s="25" t="s">
         <v>280</v>
       </c>
@@ -15620,7 +15617,7 @@
       </c>
       <c r="I321" s="27"/>
     </row>
-    <row r="322" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="30">
       <c r="A322" s="25" t="s">
         <v>281</v>
       </c>
@@ -15645,7 +15642,7 @@
       </c>
       <c r="I322" s="27"/>
     </row>
-    <row r="323" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="409.5">
       <c r="A323" s="25" t="s">
         <v>282</v>
       </c>
@@ -15670,7 +15667,7 @@
       </c>
       <c r="I323" s="27"/>
     </row>
-    <row r="324" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="30">
       <c r="A324" s="25" t="s">
         <v>283</v>
       </c>
@@ -15695,7 +15692,7 @@
       </c>
       <c r="I324" s="27"/>
     </row>
-    <row r="325" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="30">
       <c r="A325" s="18" t="s">
         <v>284</v>
       </c>
@@ -15720,7 +15717,7 @@
       </c>
       <c r="I325" s="27"/>
     </row>
-    <row r="326" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="30">
       <c r="A326" s="45" t="s">
         <v>1208</v>
       </c>
@@ -15745,7 +15742,7 @@
       </c>
       <c r="I326" s="47"/>
     </row>
-    <row r="327" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="30">
       <c r="A327" s="25" t="s">
         <v>285</v>
       </c>
@@ -15770,7 +15767,7 @@
       </c>
       <c r="I327" s="27"/>
     </row>
-    <row r="328" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" ht="30">
       <c r="A328" s="18" t="s">
         <v>286</v>
       </c>
@@ -15795,7 +15792,7 @@
       </c>
       <c r="I328" s="27"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" ht="30">
       <c r="A329" s="45" t="s">
         <v>1215</v>
       </c>
@@ -15820,7 +15817,7 @@
       </c>
       <c r="I329" s="47"/>
     </row>
-    <row r="330" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" ht="45">
       <c r="A330" s="45" t="s">
         <v>1216</v>
       </c>
@@ -15847,7 +15844,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" ht="30">
       <c r="A331" s="45" t="s">
         <v>1217</v>
       </c>
@@ -15872,7 +15869,7 @@
       </c>
       <c r="I331" s="47"/>
     </row>
-    <row r="332" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="45">
       <c r="A332" s="45" t="s">
         <v>1218</v>
       </c>
@@ -15899,7 +15896,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" ht="30">
       <c r="A333" s="25" t="s">
         <v>287</v>
       </c>
@@ -15924,7 +15921,7 @@
       </c>
       <c r="I333" s="27"/>
     </row>
-    <row r="334" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="255">
       <c r="A334" s="25" t="s">
         <v>288</v>
       </c>
@@ -15949,7 +15946,7 @@
       </c>
       <c r="I334" s="27"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" ht="30">
       <c r="A335" s="25" t="s">
         <v>289</v>
       </c>
@@ -15974,7 +15971,7 @@
       </c>
       <c r="I335" s="27"/>
     </row>
-    <row r="336" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="30">
       <c r="A336" s="25" t="s">
         <v>290</v>
       </c>
@@ -15999,7 +15996,7 @@
       </c>
       <c r="I336" s="27"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9">
       <c r="A337" s="25" t="s">
         <v>291</v>
       </c>
@@ -16024,7 +16021,7 @@
       </c>
       <c r="I337" s="27"/>
     </row>
-    <row r="338" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" ht="30">
       <c r="A338" s="18" t="s">
         <v>292</v>
       </c>
@@ -16049,7 +16046,7 @@
       </c>
       <c r="I338" s="27"/>
     </row>
-    <row r="339" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" ht="45">
       <c r="A339" s="45" t="s">
         <v>1236</v>
       </c>
@@ -16076,7 +16073,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="150">
       <c r="A340" s="45" t="s">
         <v>1237</v>
       </c>
@@ -16101,7 +16098,7 @@
       </c>
       <c r="I340" s="47"/>
     </row>
-    <row r="341" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="30">
       <c r="A341" s="45" t="s">
         <v>1238</v>
       </c>
@@ -16126,7 +16123,7 @@
       </c>
       <c r="I341" s="47"/>
     </row>
-    <row r="342" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="30">
       <c r="A342" s="45" t="s">
         <v>1239</v>
       </c>
@@ -16151,7 +16148,7 @@
       </c>
       <c r="I342" s="47"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9">
       <c r="A343" s="45" t="s">
         <v>1240</v>
       </c>
@@ -16176,7 +16173,7 @@
       </c>
       <c r="I343" s="47"/>
     </row>
-    <row r="344" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="30">
       <c r="A344" s="45" t="s">
         <v>1241</v>
       </c>
@@ -16201,7 +16198,7 @@
       </c>
       <c r="I344" s="47"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" ht="30">
       <c r="A345" s="45" t="s">
         <v>1242</v>
       </c>
@@ -16226,7 +16223,7 @@
       </c>
       <c r="I345" s="47"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="30">
       <c r="A346" s="45" t="s">
         <v>1243</v>
       </c>
@@ -16251,7 +16248,7 @@
       </c>
       <c r="I346" s="47"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9">
       <c r="A347" s="45" t="s">
         <v>1244</v>
       </c>
@@ -16276,7 +16273,7 @@
       </c>
       <c r="I347" s="47"/>
     </row>
-    <row r="348" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="45">
       <c r="A348" s="45" t="s">
         <v>1252</v>
       </c>
@@ -16303,7 +16300,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" ht="120">
       <c r="A349" s="45" t="s">
         <v>1253</v>
       </c>
@@ -16328,7 +16325,7 @@
       </c>
       <c r="I349" s="47"/>
     </row>
-    <row r="350" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="30">
       <c r="A350" s="45" t="s">
         <v>1254</v>
       </c>
@@ -16353,7 +16350,7 @@
       </c>
       <c r="I350" s="47"/>
     </row>
-    <row r="351" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="30">
       <c r="A351" s="45" t="s">
         <v>1255</v>
       </c>
@@ -16378,7 +16375,7 @@
       </c>
       <c r="I351" s="47"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="30">
       <c r="A352" s="45" t="s">
         <v>1256</v>
       </c>
@@ -16403,7 +16400,7 @@
       </c>
       <c r="I352" s="47"/>
     </row>
-    <row r="353" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="45">
       <c r="A353" s="25" t="s">
         <v>293</v>
       </c>
@@ -16428,7 +16425,7 @@
       </c>
       <c r="I353" s="27"/>
     </row>
-    <row r="354" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="390">
       <c r="A354" s="25" t="s">
         <v>294</v>
       </c>
@@ -16453,7 +16450,7 @@
       </c>
       <c r="I354" s="27"/>
     </row>
-    <row r="355" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="30">
       <c r="A355" s="25" t="s">
         <v>295</v>
       </c>
@@ -16478,7 +16475,7 @@
       </c>
       <c r="I355" s="27"/>
     </row>
-    <row r="356" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="30">
       <c r="A356" s="18" t="s">
         <v>296</v>
       </c>
@@ -16503,7 +16500,7 @@
       </c>
       <c r="I356" s="27"/>
     </row>
-    <row r="357" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="45">
       <c r="A357" s="45" t="s">
         <v>1264</v>
       </c>
@@ -16528,7 +16525,7 @@
       </c>
       <c r="I357" s="47"/>
     </row>
-    <row r="358" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="45">
       <c r="A358" s="18" t="s">
         <v>297</v>
       </c>
@@ -16555,7 +16552,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="45">
       <c r="A359" s="25" t="s">
         <v>298</v>
       </c>
@@ -16582,7 +16579,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="45">
       <c r="A360" s="18" t="s">
         <v>299</v>
       </c>
@@ -16609,7 +16606,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="45">
       <c r="A361" s="25" t="s">
         <v>300</v>
       </c>
@@ -16636,7 +16633,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" ht="45">
       <c r="A362" s="18" t="s">
         <v>301</v>
       </c>
@@ -16663,7 +16660,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="45">
       <c r="A363" s="25" t="s">
         <v>302</v>
       </c>
@@ -16690,7 +16687,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="30">
       <c r="A364" s="25" t="s">
         <v>303</v>
       </c>
@@ -16715,7 +16712,7 @@
       </c>
       <c r="I364" s="27"/>
     </row>
-    <row r="365" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="135">
       <c r="A365" s="25" t="s">
         <v>304</v>
       </c>
@@ -16740,7 +16737,7 @@
       </c>
       <c r="I365" s="27"/>
     </row>
-    <row r="366" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="30">
       <c r="A366" s="25" t="s">
         <v>305</v>
       </c>
@@ -16765,7 +16762,7 @@
       </c>
       <c r="I366" s="27"/>
     </row>
-    <row r="367" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" ht="30">
       <c r="A367" s="25" t="s">
         <v>306</v>
       </c>
@@ -16790,7 +16787,7 @@
       </c>
       <c r="I367" s="27"/>
     </row>
-    <row r="368" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="30">
       <c r="A368" s="25" t="s">
         <v>307</v>
       </c>
@@ -16815,7 +16812,7 @@
       </c>
       <c r="I368" s="27"/>
     </row>
-    <row r="369" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="210">
       <c r="A369" s="25" t="s">
         <v>308</v>
       </c>
@@ -16840,7 +16837,7 @@
       </c>
       <c r="I369" s="27"/>
     </row>
-    <row r="370" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="30">
       <c r="A370" s="25" t="s">
         <v>309</v>
       </c>
@@ -16865,7 +16862,7 @@
       </c>
       <c r="I370" s="27"/>
     </row>
-    <row r="371" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="30">
       <c r="A371" s="25" t="s">
         <v>310</v>
       </c>
@@ -16890,7 +16887,7 @@
       </c>
       <c r="I371" s="27"/>
     </row>
-    <row r="372" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="30">
       <c r="A372" s="25" t="s">
         <v>311</v>
       </c>
@@ -16915,7 +16912,7 @@
       </c>
       <c r="I372" s="27"/>
     </row>
-    <row r="373" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="135">
       <c r="A373" s="25" t="s">
         <v>312</v>
       </c>
@@ -16940,7 +16937,7 @@
       </c>
       <c r="I373" s="27"/>
     </row>
-    <row r="374" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="30">
       <c r="A374" s="25" t="s">
         <v>313</v>
       </c>
@@ -16965,7 +16962,7 @@
       </c>
       <c r="I374" s="27"/>
     </row>
-    <row r="375" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="30">
       <c r="A375" s="25" t="s">
         <v>314</v>
       </c>
@@ -16990,7 +16987,7 @@
       </c>
       <c r="I375" s="27"/>
     </row>
-    <row r="376" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="45">
       <c r="A376" s="25" t="s">
         <v>315</v>
       </c>
@@ -17015,7 +17012,7 @@
       </c>
       <c r="I376" s="27"/>
     </row>
-    <row r="377" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="210">
       <c r="A377" s="25" t="s">
         <v>316</v>
       </c>
@@ -17040,7 +17037,7 @@
       </c>
       <c r="I377" s="27"/>
     </row>
-    <row r="378" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="30">
       <c r="A378" s="25" t="s">
         <v>317</v>
       </c>
@@ -17065,7 +17062,7 @@
       </c>
       <c r="I378" s="27"/>
     </row>
-    <row r="379" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" ht="30">
       <c r="A379" s="25" t="s">
         <v>318</v>
       </c>
@@ -17090,7 +17087,7 @@
       </c>
       <c r="I379" s="27"/>
     </row>
-    <row r="380" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="30">
       <c r="A380" s="25" t="s">
         <v>319</v>
       </c>
@@ -17115,7 +17112,7 @@
       </c>
       <c r="I380" s="27"/>
     </row>
-    <row r="381" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="135">
       <c r="A381" s="25" t="s">
         <v>320</v>
       </c>
@@ -17140,7 +17137,7 @@
       </c>
       <c r="I381" s="27"/>
     </row>
-    <row r="382" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="30">
       <c r="A382" s="25" t="s">
         <v>321</v>
       </c>
@@ -17165,7 +17162,7 @@
       </c>
       <c r="I382" s="27"/>
     </row>
-    <row r="383" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="30">
       <c r="A383" s="25" t="s">
         <v>322</v>
       </c>
@@ -17190,7 +17187,7 @@
       </c>
       <c r="I383" s="27"/>
     </row>
-    <row r="384" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="45">
       <c r="A384" s="25" t="s">
         <v>323</v>
       </c>
@@ -17215,7 +17212,7 @@
       </c>
       <c r="I384" s="27"/>
     </row>
-    <row r="385" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" ht="409.5">
       <c r="A385" s="25" t="s">
         <v>324</v>
       </c>
@@ -17240,7 +17237,7 @@
       </c>
       <c r="I385" s="27"/>
     </row>
-    <row r="386" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="30">
       <c r="A386" s="25" t="s">
         <v>325</v>
       </c>
@@ -17265,7 +17262,7 @@
       </c>
       <c r="I386" s="27"/>
     </row>
-    <row r="387" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" ht="30">
       <c r="A387" s="25" t="s">
         <v>326</v>
       </c>
@@ -17290,7 +17287,7 @@
       </c>
       <c r="I387" s="27"/>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="30">
       <c r="A388" s="25" t="s">
         <v>327</v>
       </c>
@@ -17315,7 +17312,7 @@
       </c>
       <c r="I388" s="27"/>
     </row>
-    <row r="389" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="30">
       <c r="A389" s="25" t="s">
         <v>328</v>
       </c>
@@ -17340,7 +17337,7 @@
       </c>
       <c r="I389" s="27"/>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="30">
       <c r="A390" s="25" t="s">
         <v>329</v>
       </c>
@@ -17365,7 +17362,7 @@
       </c>
       <c r="I390" s="27"/>
     </row>
-    <row r="391" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="30">
       <c r="A391" s="25" t="s">
         <v>330</v>
       </c>
@@ -17390,7 +17387,7 @@
       </c>
       <c r="I391" s="27"/>
     </row>
-    <row r="392" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="30">
       <c r="A392" s="25" t="s">
         <v>331</v>
       </c>
@@ -17415,7 +17412,7 @@
       </c>
       <c r="I392" s="27"/>
     </row>
-    <row r="393" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="30">
       <c r="A393" s="25" t="s">
         <v>332</v>
       </c>
@@ -17440,7 +17437,7 @@
       </c>
       <c r="I393" s="27"/>
     </row>
-    <row r="394" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="30">
       <c r="A394" s="25" t="s">
         <v>333</v>
       </c>
@@ -17465,7 +17462,7 @@
       </c>
       <c r="I394" s="27"/>
     </row>
-    <row r="395" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="30">
       <c r="A395" s="25" t="s">
         <v>334</v>
       </c>
@@ -17490,7 +17487,7 @@
       </c>
       <c r="I395" s="27"/>
     </row>
-    <row r="396" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="30">
       <c r="A396" s="25" t="s">
         <v>335</v>
       </c>
@@ -17515,7 +17512,7 @@
       </c>
       <c r="I396" s="27"/>
     </row>
-    <row r="397" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" ht="30">
       <c r="A397" s="25" t="s">
         <v>336</v>
       </c>
@@ -17540,7 +17537,7 @@
       </c>
       <c r="I397" s="27"/>
     </row>
-    <row r="398" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="30">
       <c r="A398" s="25" t="s">
         <v>337</v>
       </c>
@@ -17565,7 +17562,7 @@
       </c>
       <c r="I398" s="27"/>
     </row>
-    <row r="399" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="150">
       <c r="A399" s="25" t="s">
         <v>338</v>
       </c>
@@ -17590,7 +17587,7 @@
       </c>
       <c r="I399" s="27"/>
     </row>
-    <row r="400" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="30">
       <c r="A400" s="25" t="s">
         <v>339</v>
       </c>
@@ -17615,7 +17612,7 @@
       </c>
       <c r="I400" s="27"/>
     </row>
-    <row r="401" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="30">
       <c r="A401" s="25" t="s">
         <v>340</v>
       </c>
@@ -17640,7 +17637,7 @@
       </c>
       <c r="I401" s="27"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="30">
       <c r="A402" s="18" t="s">
         <v>186</v>
       </c>
@@ -17665,7 +17662,7 @@
       </c>
       <c r="I402" s="27"/>
     </row>
-    <row r="403" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="45">
       <c r="A403" s="45" t="s">
         <v>1041</v>
       </c>
@@ -17692,7 +17689,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="165">
       <c r="A404" s="45" t="s">
         <v>1050</v>
       </c>
@@ -17717,7 +17714,7 @@
       </c>
       <c r="I404" s="47"/>
     </row>
-    <row r="405" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="30">
       <c r="A405" s="45" t="s">
         <v>1051</v>
       </c>
@@ -17742,7 +17739,7 @@
       </c>
       <c r="I405" s="47"/>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9">
       <c r="A406" s="45" t="s">
         <v>1052</v>
       </c>
@@ -17767,7 +17764,7 @@
       </c>
       <c r="I406" s="47"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9">
       <c r="A407" s="45" t="s">
         <v>1053</v>
       </c>
@@ -17792,7 +17789,7 @@
       </c>
       <c r="I407" s="47"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9">
       <c r="A408" s="45" t="s">
         <v>1054</v>
       </c>
@@ -17817,7 +17814,7 @@
       </c>
       <c r="I408" s="47"/>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9">
       <c r="A409" s="45" t="s">
         <v>1055</v>
       </c>
@@ -17842,7 +17839,7 @@
       </c>
       <c r="I409" s="47"/>
     </row>
-    <row r="410" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" ht="45">
       <c r="A410" s="45" t="s">
         <v>1056</v>
       </c>
@@ -17869,7 +17866,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" ht="225">
       <c r="A411" s="45" t="s">
         <v>1068</v>
       </c>
@@ -17894,7 +17891,7 @@
       </c>
       <c r="I411" s="47"/>
     </row>
-    <row r="412" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="45">
       <c r="A412" s="45" t="s">
         <v>1069</v>
       </c>
@@ -17919,7 +17916,7 @@
       </c>
       <c r="I412" s="47"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9">
       <c r="A413" s="45" t="s">
         <v>1070</v>
       </c>
@@ -17944,7 +17941,7 @@
       </c>
       <c r="I413" s="47"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9">
       <c r="A414" s="45" t="s">
         <v>1071</v>
       </c>
@@ -17969,7 +17966,7 @@
       </c>
       <c r="I414" s="47"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9">
       <c r="A415" s="45" t="s">
         <v>1072</v>
       </c>
@@ -17994,7 +17991,7 @@
       </c>
       <c r="I415" s="47"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9">
       <c r="A416" s="45" t="s">
         <v>1073</v>
       </c>
@@ -18019,7 +18016,7 @@
       </c>
       <c r="I416" s="47"/>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9">
       <c r="A417" s="45" t="s">
         <v>1074</v>
       </c>
@@ -18044,7 +18041,7 @@
       </c>
       <c r="I417" s="47"/>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9">
       <c r="A418" s="45" t="s">
         <v>1075</v>
       </c>
@@ -18069,7 +18066,7 @@
       </c>
       <c r="I418" s="47"/>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9">
       <c r="A419" s="45" t="s">
         <v>1076</v>
       </c>
@@ -18094,7 +18091,7 @@
       </c>
       <c r="I419" s="47"/>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9">
       <c r="A420" s="45" t="s">
         <v>1077</v>
       </c>
@@ -18119,7 +18116,7 @@
       </c>
       <c r="I420" s="47"/>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9">
       <c r="A421" s="45" t="s">
         <v>1078</v>
       </c>
@@ -18144,7 +18141,7 @@
       </c>
       <c r="I421" s="47"/>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9">
       <c r="A422" s="45" t="s">
         <v>1079</v>
       </c>
@@ -18169,7 +18166,7 @@
       </c>
       <c r="I422" s="47"/>
     </row>
-    <row r="423" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="45">
       <c r="A423" s="25" t="s">
         <v>187</v>
       </c>
@@ -18194,7 +18191,7 @@
       </c>
       <c r="I423" s="27"/>
     </row>
-    <row r="424" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="255">
       <c r="A424" s="25" t="s">
         <v>188</v>
       </c>
@@ -18219,7 +18216,7 @@
       </c>
       <c r="I424" s="27"/>
     </row>
-    <row r="425" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="30">
       <c r="A425" s="25" t="s">
         <v>189</v>
       </c>
@@ -18244,7 +18241,7 @@
       </c>
       <c r="I425" s="27"/>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="30">
       <c r="A426" s="25" t="s">
         <v>190</v>
       </c>
@@ -18269,7 +18266,7 @@
       </c>
       <c r="I426" s="27"/>
     </row>
-    <row r="427" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="30">
       <c r="A427" s="25" t="s">
         <v>191</v>
       </c>
@@ -18294,7 +18291,7 @@
       </c>
       <c r="I427" s="27"/>
     </row>
-    <row r="428" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" ht="30">
       <c r="A428" s="25" t="s">
         <v>192</v>
       </c>
@@ -18319,7 +18316,7 @@
       </c>
       <c r="I428" s="27"/>
     </row>
-    <row r="429" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" ht="30">
       <c r="A429" s="25" t="s">
         <v>193</v>
       </c>
@@ -18344,7 +18341,7 @@
       </c>
       <c r="I429" s="27"/>
     </row>
-    <row r="430" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" ht="409.5">
       <c r="A430" s="25" t="s">
         <v>194</v>
       </c>
@@ -18369,7 +18366,7 @@
       </c>
       <c r="I430" s="27"/>
     </row>
-    <row r="431" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="75">
       <c r="A431" s="25" t="s">
         <v>195</v>
       </c>
@@ -18394,7 +18391,7 @@
       </c>
       <c r="I431" s="27"/>
     </row>
-    <row r="432" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" ht="45">
       <c r="A432" s="25" t="s">
         <v>196</v>
       </c>
@@ -18419,7 +18416,7 @@
       </c>
       <c r="I432" s="27"/>
     </row>
-    <row r="433" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="45">
       <c r="A433" s="25" t="s">
         <v>197</v>
       </c>
@@ -18444,7 +18441,7 @@
       </c>
       <c r="I433" s="27"/>
     </row>
-    <row r="434" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="45">
       <c r="A434" s="25" t="s">
         <v>198</v>
       </c>
@@ -18469,7 +18466,7 @@
       </c>
       <c r="I434" s="27"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="30">
       <c r="A435" s="25" t="s">
         <v>199</v>
       </c>
@@ -18494,7 +18491,7 @@
       </c>
       <c r="I435" s="27"/>
     </row>
-    <row r="436" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="45">
       <c r="A436" s="25" t="s">
         <v>200</v>
       </c>
@@ -18519,7 +18516,7 @@
       </c>
       <c r="I436" s="27"/>
     </row>
-    <row r="437" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="45">
       <c r="A437" s="25" t="s">
         <v>201</v>
       </c>
@@ -18544,7 +18541,7 @@
       </c>
       <c r="I437" s="27"/>
     </row>
-    <row r="438" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="30">
       <c r="A438" s="25" t="s">
         <v>202</v>
       </c>
@@ -18569,7 +18566,7 @@
       </c>
       <c r="I438" s="27"/>
     </row>
-    <row r="439" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" ht="45">
       <c r="A439" s="25" t="s">
         <v>203</v>
       </c>
@@ -18594,7 +18591,7 @@
       </c>
       <c r="I439" s="27"/>
     </row>
-    <row r="440" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="45">
       <c r="A440" s="25" t="s">
         <v>204</v>
       </c>
@@ -18619,7 +18616,7 @@
       </c>
       <c r="I440" s="27"/>
     </row>
-    <row r="441" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="30">
       <c r="A441" s="25" t="s">
         <v>205</v>
       </c>
@@ -18644,7 +18641,7 @@
       </c>
       <c r="I441" s="27"/>
     </row>
-    <row r="442" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="45">
       <c r="A442" s="25" t="s">
         <v>206</v>
       </c>
@@ -18669,7 +18666,7 @@
       </c>
       <c r="I442" s="27"/>
     </row>
-    <row r="443" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" ht="45">
       <c r="A443" s="25" t="s">
         <v>207</v>
       </c>
@@ -18694,7 +18691,7 @@
       </c>
       <c r="I443" s="27"/>
     </row>
-    <row r="444" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" ht="45">
       <c r="A444" s="25" t="s">
         <v>208</v>
       </c>
@@ -18719,7 +18716,7 @@
       </c>
       <c r="I444" s="27"/>
     </row>
-    <row r="445" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" ht="45">
       <c r="A445" s="18" t="s">
         <v>209</v>
       </c>
@@ -18746,7 +18743,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" ht="45">
       <c r="A446" s="18" t="s">
         <v>210</v>
       </c>
@@ -18773,7 +18770,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="45">
       <c r="A447" s="18" t="s">
         <v>211</v>
       </c>
@@ -18800,7 +18797,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="45">
       <c r="A448" s="18" t="s">
         <v>212</v>
       </c>
@@ -18827,7 +18824,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" ht="45">
       <c r="A449" s="18" t="s">
         <v>213</v>
       </c>
@@ -18854,7 +18851,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" ht="30">
       <c r="A450" s="25" t="s">
         <v>214</v>
       </c>
@@ -18879,7 +18876,7 @@
       </c>
       <c r="I450" s="27"/>
     </row>
-    <row r="451" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="240">
       <c r="A451" s="25" t="s">
         <v>215</v>
       </c>
@@ -18904,7 +18901,7 @@
       </c>
       <c r="I451" s="27"/>
     </row>
-    <row r="452" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="30">
       <c r="A452" s="25" t="s">
         <v>216</v>
       </c>
@@ -18929,7 +18926,7 @@
       </c>
       <c r="I452" s="27"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" ht="30">
       <c r="A453" s="25" t="s">
         <v>217</v>
       </c>
@@ -18954,7 +18951,7 @@
       </c>
       <c r="I453" s="27"/>
     </row>
-    <row r="454" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" ht="30">
       <c r="A454" s="25" t="s">
         <v>218</v>
       </c>
@@ -18979,7 +18976,7 @@
       </c>
       <c r="I454" s="27"/>
     </row>
-    <row r="455" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" ht="30">
       <c r="A455" s="25" t="s">
         <v>219</v>
       </c>
@@ -19004,7 +19001,7 @@
       </c>
       <c r="I455" s="27"/>
     </row>
-    <row r="456" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" ht="30">
       <c r="A456" s="25" t="s">
         <v>220</v>
       </c>
@@ -19029,7 +19026,7 @@
       </c>
       <c r="I456" s="27"/>
     </row>
-    <row r="457" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" ht="409.5">
       <c r="A457" s="25" t="s">
         <v>221</v>
       </c>
@@ -19054,7 +19051,7 @@
       </c>
       <c r="I457" s="27"/>
     </row>
-    <row r="458" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" ht="75">
       <c r="A458" s="25" t="s">
         <v>222</v>
       </c>
@@ -19079,7 +19076,7 @@
       </c>
       <c r="I458" s="27"/>
     </row>
-    <row r="459" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" ht="30">
       <c r="A459" s="25" t="s">
         <v>223</v>
       </c>
@@ -19104,7 +19101,7 @@
       </c>
       <c r="I459" s="27"/>
     </row>
-    <row r="460" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" ht="30">
       <c r="A460" s="25" t="s">
         <v>224</v>
       </c>
@@ -19129,7 +19126,7 @@
       </c>
       <c r="I460" s="27"/>
     </row>
-    <row r="461" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" ht="30">
       <c r="A461" s="25" t="s">
         <v>225</v>
       </c>
@@ -19154,7 +19151,7 @@
       </c>
       <c r="I461" s="27"/>
     </row>
-    <row r="462" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" ht="30">
       <c r="A462" s="25" t="s">
         <v>226</v>
       </c>
@@ -19179,7 +19176,7 @@
       </c>
       <c r="I462" s="27"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" ht="30">
       <c r="A463" s="25" t="s">
         <v>227</v>
       </c>
@@ -19204,7 +19201,7 @@
       </c>
       <c r="I463" s="27"/>
     </row>
-    <row r="464" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" ht="30">
       <c r="A464" s="25" t="s">
         <v>228</v>
       </c>
@@ -19229,7 +19226,7 @@
       </c>
       <c r="I464" s="27"/>
     </row>
-    <row r="465" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" ht="30">
       <c r="A465" s="25" t="s">
         <v>229</v>
       </c>
@@ -19254,7 +19251,7 @@
       </c>
       <c r="I465" s="27"/>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" ht="30">
       <c r="A466" s="25" t="s">
         <v>230</v>
       </c>
@@ -19279,7 +19276,7 @@
       </c>
       <c r="I466" s="27"/>
     </row>
-    <row r="467" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="30">
       <c r="A467" s="25" t="s">
         <v>231</v>
       </c>
@@ -19304,7 +19301,7 @@
       </c>
       <c r="I467" s="27"/>
     </row>
-    <row r="468" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" ht="30">
       <c r="A468" s="25" t="s">
         <v>232</v>
       </c>
@@ -19329,7 +19326,7 @@
       </c>
       <c r="I468" s="27"/>
     </row>
-    <row r="469" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="30">
       <c r="A469" s="25" t="s">
         <v>233</v>
       </c>
@@ -19354,7 +19351,7 @@
       </c>
       <c r="I469" s="27"/>
     </row>
-    <row r="470" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="30">
       <c r="A470" s="25" t="s">
         <v>234</v>
       </c>
@@ -19379,7 +19376,7 @@
       </c>
       <c r="I470" s="27"/>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" ht="30">
       <c r="A471" s="25" t="s">
         <v>235</v>
       </c>
@@ -19404,7 +19401,7 @@
       </c>
       <c r="I471" s="27"/>
     </row>
-    <row r="472" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" ht="30">
       <c r="A472" s="25" t="s">
         <v>236</v>
       </c>
@@ -19429,7 +19426,7 @@
       </c>
       <c r="I472" s="27"/>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" ht="30">
       <c r="A473" s="25" t="s">
         <v>237</v>
       </c>
@@ -19454,7 +19451,7 @@
       </c>
       <c r="I473" s="27"/>
     </row>
-    <row r="474" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" ht="30">
       <c r="A474" s="25" t="s">
         <v>238</v>
       </c>
@@ -19479,7 +19476,7 @@
       </c>
       <c r="I474" s="27"/>
     </row>
-    <row r="475" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" ht="30">
       <c r="A475" s="25" t="s">
         <v>239</v>
       </c>
@@ -19504,7 +19501,7 @@
       </c>
       <c r="I475" s="27"/>
     </row>
-    <row r="476" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" ht="30">
       <c r="A476" s="25" t="s">
         <v>240</v>
       </c>
@@ -19529,7 +19526,7 @@
       </c>
       <c r="I476" s="27"/>
     </row>
-    <row r="477" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" ht="30">
       <c r="A477" s="18" t="s">
         <v>241</v>
       </c>
@@ -19554,7 +19551,7 @@
       </c>
       <c r="I477" s="27"/>
     </row>
-    <row r="478" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" ht="45">
       <c r="A478" s="45" t="s">
         <v>1119</v>
       </c>
@@ -19581,7 +19578,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="45">
       <c r="A479" s="45" t="s">
         <v>1120</v>
       </c>
@@ -19608,7 +19605,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9">
       <c r="A480" s="45" t="s">
         <v>1121</v>
       </c>
@@ -19633,7 +19630,7 @@
       </c>
       <c r="I480" s="47"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9">
       <c r="A481" s="45" t="s">
         <v>1122</v>
       </c>
@@ -19658,7 +19655,7 @@
       </c>
       <c r="I481" s="47"/>
     </row>
-    <row r="482" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" ht="30">
       <c r="A482" s="25" t="s">
         <v>242</v>
       </c>
@@ -19683,7 +19680,7 @@
       </c>
       <c r="I482" s="27"/>
     </row>
-    <row r="483" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="285">
       <c r="A483" s="25" t="s">
         <v>243</v>
       </c>
@@ -19708,7 +19705,7 @@
       </c>
       <c r="I483" s="27"/>
     </row>
-    <row r="484" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="30">
       <c r="A484" s="25" t="s">
         <v>244</v>
       </c>
@@ -19733,7 +19730,7 @@
       </c>
       <c r="I484" s="27"/>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="30">
       <c r="A485" s="25" t="s">
         <v>245</v>
       </c>
@@ -19758,7 +19755,7 @@
       </c>
       <c r="I485" s="27"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" ht="30">
       <c r="A486" s="25" t="s">
         <v>246</v>
       </c>
@@ -19783,7 +19780,7 @@
       </c>
       <c r="I486" s="27"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="30">
       <c r="A487" s="25" t="s">
         <v>247</v>
       </c>
@@ -19808,7 +19805,7 @@
       </c>
       <c r="I487" s="27"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="30">
       <c r="A488" s="25" t="s">
         <v>248</v>
       </c>
@@ -19833,7 +19830,7 @@
       </c>
       <c r="I488" s="27"/>
     </row>
-    <row r="489" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="30">
       <c r="A489" s="25" t="s">
         <v>249</v>
       </c>
@@ -19858,7 +19855,7 @@
       </c>
       <c r="I489" s="27"/>
     </row>
-    <row r="490" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="240">
       <c r="A490" s="25" t="s">
         <v>250</v>
       </c>
@@ -19883,7 +19880,7 @@
       </c>
       <c r="I490" s="27"/>
     </row>
-    <row r="491" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="30">
       <c r="A491" s="25" t="s">
         <v>251</v>
       </c>
@@ -19908,7 +19905,7 @@
       </c>
       <c r="I491" s="27"/>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" ht="30">
       <c r="A492" s="25" t="s">
         <v>252</v>
       </c>
@@ -19933,7 +19930,7 @@
       </c>
       <c r="I492" s="27"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9">
       <c r="A493" s="25" t="s">
         <v>253</v>
       </c>
@@ -19958,7 +19955,7 @@
       </c>
       <c r="I493" s="27"/>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" ht="30">
       <c r="A494" s="25" t="s">
         <v>254</v>
       </c>
@@ -19983,7 +19980,7 @@
       </c>
       <c r="I494" s="27"/>
     </row>
-    <row r="495" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="30">
       <c r="A495" s="25" t="s">
         <v>341</v>
       </c>
@@ -20008,7 +20005,7 @@
       </c>
       <c r="I495" s="27"/>
     </row>
-    <row r="496" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="75">
       <c r="A496" s="25" t="s">
         <v>342</v>
       </c>
@@ -20033,7 +20030,7 @@
       </c>
       <c r="I496" s="27"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" ht="30">
       <c r="A497" s="25" t="s">
         <v>343</v>
       </c>
@@ -20058,7 +20055,7 @@
       </c>
       <c r="I497" s="27"/>
     </row>
-    <row r="498" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" ht="45">
       <c r="A498" s="25" t="s">
         <v>344</v>
       </c>
@@ -20083,7 +20080,7 @@
       </c>
       <c r="I498" s="27"/>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9">
       <c r="A499" s="25" t="s">
         <v>345</v>
       </c>
@@ -20108,7 +20105,7 @@
       </c>
       <c r="I499" s="27"/>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" ht="30">
       <c r="A500" s="25" t="s">
         <v>346</v>
       </c>
@@ -20133,7 +20130,7 @@
       </c>
       <c r="I500" s="27"/>
     </row>
-    <row r="501" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" ht="30">
       <c r="A501" s="25" t="s">
         <v>347</v>
       </c>
@@ -20158,7 +20155,7 @@
       </c>
       <c r="I501" s="27"/>
     </row>
-    <row r="502" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" ht="75">
       <c r="A502" s="25" t="s">
         <v>348</v>
       </c>
@@ -20183,7 +20180,7 @@
       </c>
       <c r="I502" s="27"/>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" ht="30">
       <c r="A503" s="25" t="s">
         <v>349</v>
       </c>
@@ -20208,7 +20205,7 @@
       </c>
       <c r="I503" s="27"/>
     </row>
-    <row r="504" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" ht="45">
       <c r="A504" s="25" t="s">
         <v>350</v>
       </c>
@@ -20233,7 +20230,7 @@
       </c>
       <c r="I504" s="27"/>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9">
       <c r="A505" s="25" t="s">
         <v>351</v>
       </c>
@@ -20258,7 +20255,7 @@
       </c>
       <c r="I505" s="27"/>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" ht="30">
       <c r="A506" s="25" t="s">
         <v>352</v>
       </c>
@@ -20283,7 +20280,7 @@
       </c>
       <c r="I506" s="27"/>
     </row>
-    <row r="507" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" ht="30">
       <c r="A507" s="25" t="s">
         <v>353</v>
       </c>
@@ -20308,7 +20305,7 @@
       </c>
       <c r="I507" s="27"/>
     </row>
-    <row r="508" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" ht="75">
       <c r="A508" s="25" t="s">
         <v>354</v>
       </c>
@@ -20333,7 +20330,7 @@
       </c>
       <c r="I508" s="27"/>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" ht="30">
       <c r="A509" s="25" t="s">
         <v>355</v>
       </c>
@@ -20358,7 +20355,7 @@
       </c>
       <c r="I509" s="27"/>
     </row>
-    <row r="510" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" ht="60">
       <c r="A510" s="25" t="s">
         <v>356</v>
       </c>
@@ -20383,7 +20380,7 @@
       </c>
       <c r="I510" s="27"/>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9">
       <c r="A511" s="25" t="s">
         <v>357</v>
       </c>
@@ -20408,7 +20405,7 @@
       </c>
       <c r="I511" s="27"/>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" ht="30">
       <c r="A512" s="25" t="s">
         <v>358</v>
       </c>
@@ -20433,7 +20430,7 @@
       </c>
       <c r="I512" s="27"/>
     </row>
-    <row r="513" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="30">
       <c r="A513" s="25" t="s">
         <v>359</v>
       </c>
@@ -20458,7 +20455,7 @@
       </c>
       <c r="I513" s="27"/>
     </row>
-    <row r="514" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" ht="75">
       <c r="A514" s="25" t="s">
         <v>360</v>
       </c>
@@ -20483,7 +20480,7 @@
       </c>
       <c r="I514" s="27"/>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" ht="30">
       <c r="A515" s="25" t="s">
         <v>361</v>
       </c>
@@ -20508,7 +20505,7 @@
       </c>
       <c r="I515" s="27"/>
     </row>
-    <row r="516" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" ht="75">
       <c r="A516" s="25" t="s">
         <v>362</v>
       </c>
@@ -20533,7 +20530,7 @@
       </c>
       <c r="I516" s="27"/>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9">
       <c r="A517" s="25" t="s">
         <v>363</v>
       </c>
@@ -20558,7 +20555,7 @@
       </c>
       <c r="I517" s="27"/>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" ht="30">
       <c r="A518" s="25" t="s">
         <v>364</v>
       </c>
@@ -20583,7 +20580,7 @@
       </c>
       <c r="I518" s="27"/>
     </row>
-    <row r="519" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" ht="30">
       <c r="A519" s="25" t="s">
         <v>365</v>
       </c>
@@ -20608,7 +20605,7 @@
       </c>
       <c r="I519" s="27"/>
     </row>
-    <row r="520" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" ht="75">
       <c r="A520" s="25" t="s">
         <v>366</v>
       </c>
@@ -20633,7 +20630,7 @@
       </c>
       <c r="I520" s="27"/>
     </row>
-    <row r="521" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" ht="30">
       <c r="A521" s="25" t="s">
         <v>367</v>
       </c>
@@ -20658,7 +20655,7 @@
       </c>
       <c r="I521" s="27"/>
     </row>
-    <row r="522" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" ht="60">
       <c r="A522" s="25" t="s">
         <v>368</v>
       </c>
@@ -20683,7 +20680,7 @@
       </c>
       <c r="I522" s="27"/>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9">
       <c r="A523" s="25" t="s">
         <v>369</v>
       </c>
@@ -20708,7 +20705,7 @@
       </c>
       <c r="I523" s="27"/>
     </row>
-    <row r="524" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" ht="45">
       <c r="A524" s="18" t="s">
         <v>1597</v>
       </c>
@@ -20733,7 +20730,7 @@
       </c>
       <c r="I524" s="47"/>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" ht="30">
       <c r="A525" s="18" t="s">
         <v>370</v>
       </c>
@@ -20758,7 +20755,7 @@
       </c>
       <c r="I525" s="27"/>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" ht="30">
       <c r="A526" s="45" t="s">
         <v>1450</v>
       </c>
@@ -20783,7 +20780,7 @@
       </c>
       <c r="I526" s="47"/>
     </row>
-    <row r="527" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" ht="105">
       <c r="A527" s="45" t="s">
         <v>1451</v>
       </c>
@@ -20808,7 +20805,7 @@
       </c>
       <c r="I527" s="47"/>
     </row>
-    <row r="528" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" ht="255">
       <c r="A528" s="45" t="s">
         <v>1452</v>
       </c>
@@ -20833,7 +20830,7 @@
       </c>
       <c r="I528" s="47"/>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9">
       <c r="A529" s="45" t="s">
         <v>1453</v>
       </c>
@@ -20858,7 +20855,7 @@
       </c>
       <c r="I529" s="47"/>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" ht="30">
       <c r="A530" s="45" t="s">
         <v>1576</v>
       </c>
@@ -20883,7 +20880,7 @@
       </c>
       <c r="I530" s="47"/>
     </row>
-    <row r="531" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" ht="45">
       <c r="A531" s="45" t="s">
         <v>1454</v>
       </c>
@@ -20908,7 +20905,7 @@
       </c>
       <c r="I531" s="47"/>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9">
       <c r="A532" s="45" t="s">
         <v>1455</v>
       </c>
@@ -20933,7 +20930,7 @@
       </c>
       <c r="I532" s="47"/>
     </row>
-    <row r="533" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" ht="30">
       <c r="A533" s="45" t="s">
         <v>1456</v>
       </c>
@@ -20958,7 +20955,7 @@
       </c>
       <c r="I533" s="47"/>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" ht="30">
       <c r="A534" s="45" t="s">
         <v>1457</v>
       </c>
@@ -20983,7 +20980,7 @@
       </c>
       <c r="I534" s="47"/>
     </row>
-    <row r="535" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" ht="105">
       <c r="A535" s="45" t="s">
         <v>1458</v>
       </c>
@@ -21008,7 +21005,7 @@
       </c>
       <c r="I535" s="47"/>
     </row>
-    <row r="536" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" ht="45">
       <c r="A536" s="45" t="s">
         <v>1459</v>
       </c>
@@ -21033,7 +21030,7 @@
       </c>
       <c r="I536" s="47"/>
     </row>
-    <row r="537" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" ht="30">
       <c r="A537" s="45" t="s">
         <v>1460</v>
       </c>
@@ -21058,7 +21055,7 @@
       </c>
       <c r="I537" s="47"/>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" ht="30">
       <c r="A538" s="45" t="s">
         <v>1461</v>
       </c>
@@ -21083,7 +21080,7 @@
       </c>
       <c r="I538" s="47"/>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" ht="30">
       <c r="A539" s="45" t="s">
         <v>1462</v>
       </c>
@@ -21108,7 +21105,7 @@
       </c>
       <c r="I539" s="47"/>
     </row>
-    <row r="540" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" ht="30">
       <c r="A540" s="45" t="s">
         <v>1463</v>
       </c>
@@ -21133,7 +21130,7 @@
       </c>
       <c r="I540" s="47"/>
     </row>
-    <row r="541" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" ht="30">
       <c r="A541" s="45" t="s">
         <v>1464</v>
       </c>
@@ -21158,7 +21155,7 @@
       </c>
       <c r="I541" s="47"/>
     </row>
-    <row r="542" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" ht="30">
       <c r="A542" s="45" t="s">
         <v>1465</v>
       </c>
@@ -21183,7 +21180,7 @@
       </c>
       <c r="I542" s="47"/>
     </row>
-    <row r="543" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" ht="105">
       <c r="A543" s="45" t="s">
         <v>1466</v>
       </c>
@@ -21208,7 +21205,7 @@
       </c>
       <c r="I543" s="47"/>
     </row>
-    <row r="544" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" ht="45">
       <c r="A544" s="45" t="s">
         <v>1467</v>
       </c>
@@ -21233,7 +21230,7 @@
       </c>
       <c r="I544" s="47"/>
     </row>
-    <row r="545" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" ht="30">
       <c r="A545" s="45" t="s">
         <v>1468</v>
       </c>
@@ -21258,7 +21255,7 @@
       </c>
       <c r="I545" s="47"/>
     </row>
-    <row r="546" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" ht="30">
       <c r="A546" s="45" t="s">
         <v>1469</v>
       </c>
@@ -21283,7 +21280,7 @@
       </c>
       <c r="I546" s="47"/>
     </row>
-    <row r="547" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" ht="30">
       <c r="A547" s="45" t="s">
         <v>1470</v>
       </c>
@@ -21308,7 +21305,7 @@
       </c>
       <c r="I547" s="47"/>
     </row>
-    <row r="548" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" ht="30">
       <c r="A548" s="45" t="s">
         <v>1471</v>
       </c>
@@ -21333,7 +21330,7 @@
       </c>
       <c r="I548" s="47"/>
     </row>
-    <row r="549" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" ht="30">
       <c r="A549" s="45" t="s">
         <v>1472</v>
       </c>
@@ -21358,7 +21355,7 @@
       </c>
       <c r="I549" s="47"/>
     </row>
-    <row r="550" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" ht="30">
       <c r="A550" s="45" t="s">
         <v>1473</v>
       </c>
@@ -21383,7 +21380,7 @@
       </c>
       <c r="I550" s="47"/>
     </row>
-    <row r="551" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" ht="45">
       <c r="A551" s="45" t="s">
         <v>1474</v>
       </c>
@@ -21408,7 +21405,7 @@
       </c>
       <c r="I551" s="47"/>
     </row>
-    <row r="552" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" ht="30">
       <c r="A552" s="45" t="s">
         <v>1475</v>
       </c>
@@ -21429,11 +21426,11 @@
         <v>15</v>
       </c>
       <c r="H552" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I552" s="47"/>
     </row>
-    <row r="553" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" ht="60">
       <c r="A553" s="45" t="s">
         <v>1476</v>
       </c>
@@ -21454,11 +21451,11 @@
         <v>15</v>
       </c>
       <c r="H553" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I553" s="47"/>
     </row>
-    <row r="554" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" ht="30">
       <c r="A554" s="45" t="s">
         <v>1477</v>
       </c>
@@ -21483,7 +21480,7 @@
       </c>
       <c r="I554" s="47"/>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" ht="30">
       <c r="A555" s="45" t="s">
         <v>1478</v>
       </c>
@@ -21508,7 +21505,7 @@
       </c>
       <c r="I555" s="47"/>
     </row>
-    <row r="556" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" ht="30">
       <c r="A556" s="45" t="s">
         <v>1479</v>
       </c>
@@ -21533,7 +21530,7 @@
       </c>
       <c r="I556" s="47"/>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" ht="30">
       <c r="A557" s="45" t="s">
         <v>1480</v>
       </c>
@@ -21558,7 +21555,7 @@
       </c>
       <c r="I557" s="47"/>
     </row>
-    <row r="558" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" ht="60">
       <c r="A558" s="45" t="s">
         <v>1481</v>
       </c>
@@ -21583,7 +21580,7 @@
       </c>
       <c r="I558" s="47"/>
     </row>
-    <row r="559" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" ht="30">
       <c r="A559" s="45" t="s">
         <v>1482</v>
       </c>
@@ -21608,7 +21605,7 @@
       </c>
       <c r="I559" s="47"/>
     </row>
-    <row r="560" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" ht="90">
       <c r="A560" s="45" t="s">
         <v>1483</v>
       </c>
@@ -21633,7 +21630,7 @@
       </c>
       <c r="I560" s="47"/>
     </row>
-    <row r="561" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" ht="45">
       <c r="A561" s="45" t="s">
         <v>1484</v>
       </c>
@@ -21658,7 +21655,7 @@
       </c>
       <c r="I561" s="47"/>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9">
       <c r="A562" s="45" t="s">
         <v>1485</v>
       </c>
@@ -21683,7 +21680,7 @@
       </c>
       <c r="I562" s="47"/>
     </row>
-    <row r="563" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" ht="30">
       <c r="A563" s="45" t="s">
         <v>1486</v>
       </c>
@@ -21708,7 +21705,7 @@
       </c>
       <c r="I563" s="47"/>
     </row>
-    <row r="564" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" ht="30">
       <c r="A564" s="45" t="s">
         <v>1487</v>
       </c>
@@ -21733,7 +21730,7 @@
       </c>
       <c r="I564" s="47"/>
     </row>
-    <row r="565" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" ht="45">
       <c r="A565" s="45" t="s">
         <v>1488</v>
       </c>
@@ -21758,7 +21755,7 @@
       </c>
       <c r="I565" s="47"/>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" ht="30">
       <c r="A566" s="45" t="s">
         <v>1489</v>
       </c>
@@ -21783,7 +21780,7 @@
       </c>
       <c r="I566" s="47"/>
     </row>
-    <row r="567" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" ht="30">
       <c r="A567" s="45" t="s">
         <v>1490</v>
       </c>
@@ -21808,7 +21805,7 @@
       </c>
       <c r="I567" s="47"/>
     </row>
-    <row r="568" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" ht="210">
       <c r="A568" s="45" t="s">
         <v>1491</v>
       </c>
@@ -21833,7 +21830,7 @@
       </c>
       <c r="I568" s="47"/>
     </row>
-    <row r="569" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" ht="30">
       <c r="A569" s="45" t="s">
         <v>1492</v>
       </c>
@@ -21858,7 +21855,7 @@
       </c>
       <c r="I569" s="47"/>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9">
       <c r="A570" s="45" t="s">
         <v>1493</v>
       </c>
@@ -21883,7 +21880,7 @@
       </c>
       <c r="I570" s="47"/>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9">
       <c r="A571" s="45" t="s">
         <v>1494</v>
       </c>
@@ -21908,7 +21905,7 @@
       </c>
       <c r="I571" s="47"/>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" ht="30">
       <c r="A572" s="45" t="s">
         <v>1495</v>
       </c>
@@ -21933,7 +21930,7 @@
       </c>
       <c r="I572" s="47"/>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9">
       <c r="A573" s="45" t="s">
         <v>1496</v>
       </c>
@@ -21958,7 +21955,7 @@
       </c>
       <c r="I573" s="47"/>
     </row>
-    <row r="574" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" ht="30">
       <c r="A574" s="45" t="s">
         <v>1497</v>
       </c>
@@ -21979,11 +21976,11 @@
         <v>15</v>
       </c>
       <c r="H574" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I574" s="47"/>
     </row>
-    <row r="575" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" ht="30">
       <c r="A575" s="45" t="s">
         <v>1498</v>
       </c>
@@ -22004,11 +22001,11 @@
         <v>15</v>
       </c>
       <c r="H575" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I575" s="47"/>
     </row>
-    <row r="576" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" ht="45">
       <c r="A576" s="45" t="s">
         <v>1499</v>
       </c>
@@ -22029,11 +22026,11 @@
         <v>15</v>
       </c>
       <c r="H576" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I576" s="47"/>
     </row>
-    <row r="577" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" ht="30">
       <c r="A577" s="45" t="s">
         <v>1500</v>
       </c>
@@ -22058,7 +22055,7 @@
       </c>
       <c r="I577" s="47"/>
     </row>
-    <row r="578" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" ht="45">
       <c r="A578" s="45" t="s">
         <v>1501</v>
       </c>
@@ -22083,7 +22080,7 @@
       </c>
       <c r="I578" s="47"/>
     </row>
-    <row r="579" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" ht="225">
       <c r="A579" s="45" t="s">
         <v>1502</v>
       </c>
@@ -22108,7 +22105,7 @@
       </c>
       <c r="I579" s="47"/>
     </row>
-    <row r="580" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" ht="30">
       <c r="A580" s="45" t="s">
         <v>1503</v>
       </c>
@@ -22133,7 +22130,7 @@
       </c>
       <c r="I580" s="47"/>
     </row>
-    <row r="581" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" ht="30">
       <c r="A581" s="45" t="s">
         <v>1504</v>
       </c>
@@ -22158,7 +22155,7 @@
       </c>
       <c r="I581" s="47"/>
     </row>
-    <row r="582" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" ht="60">
       <c r="A582" s="45" t="s">
         <v>1505</v>
       </c>
@@ -22185,7 +22182,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" ht="30">
       <c r="A583" s="45" t="s">
         <v>1669</v>
       </c>
@@ -22212,7 +22209,7 @@
       </c>
       <c r="I583" s="47"/>
     </row>
-    <row r="584" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" ht="30">
       <c r="A584" s="45" t="s">
         <v>1670</v>
       </c>
@@ -22235,11 +22232,11 @@
         <v>15</v>
       </c>
       <c r="H584" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I584" s="47"/>
     </row>
-    <row r="585" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" ht="30">
       <c r="A585" s="45" t="s">
         <v>1506</v>
       </c>
@@ -22264,7 +22261,7 @@
       </c>
       <c r="I585" s="47"/>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" ht="30">
       <c r="A586" s="45" t="s">
         <v>1507</v>
       </c>
@@ -22289,7 +22286,7 @@
       </c>
       <c r="I586" s="47"/>
     </row>
-    <row r="587" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" ht="30">
       <c r="A587" s="45" t="s">
         <v>1508</v>
       </c>
@@ -22314,7 +22311,7 @@
       </c>
       <c r="I587" s="47"/>
     </row>
-    <row r="588" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" ht="30">
       <c r="A588" s="45" t="s">
         <v>1509</v>
       </c>
@@ -22339,7 +22336,7 @@
       </c>
       <c r="I588" s="47"/>
     </row>
-    <row r="589" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" ht="120">
       <c r="A589" s="45" t="s">
         <v>1510</v>
       </c>
@@ -22364,7 +22361,7 @@
       </c>
       <c r="I589" s="47"/>
     </row>
-    <row r="590" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" ht="30">
       <c r="A590" s="45" t="s">
         <v>1511</v>
       </c>
@@ -22389,7 +22386,7 @@
       </c>
       <c r="I590" s="47"/>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9">
       <c r="A591" s="45" t="s">
         <v>1512</v>
       </c>
@@ -22414,7 +22411,7 @@
       </c>
       <c r="I591" s="47"/>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" ht="30">
       <c r="A592" s="45" t="s">
         <v>1513</v>
       </c>
@@ -22439,7 +22436,7 @@
       </c>
       <c r="I592" s="47"/>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9">
       <c r="A593" s="45" t="s">
         <v>1514</v>
       </c>
@@ -22464,7 +22461,7 @@
       </c>
       <c r="I593" s="47"/>
     </row>
-    <row r="594" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" ht="225">
       <c r="A594" s="45" t="s">
         <v>1515</v>
       </c>
@@ -22489,7 +22486,7 @@
       </c>
       <c r="I594" s="47"/>
     </row>
-    <row r="595" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" ht="45">
       <c r="A595" s="45" t="s">
         <v>1516</v>
       </c>
@@ -22514,7 +22511,7 @@
       </c>
       <c r="I595" s="47"/>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" ht="30">
       <c r="A596" s="45" t="s">
         <v>1517</v>
       </c>
@@ -22539,7 +22536,7 @@
       </c>
       <c r="I596" s="47"/>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" ht="30">
       <c r="A597" s="45" t="s">
         <v>1518</v>
       </c>
@@ -22564,7 +22561,7 @@
       </c>
       <c r="I597" s="47"/>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" ht="30">
       <c r="A598" s="45" t="s">
         <v>1519</v>
       </c>
@@ -22589,7 +22586,7 @@
       </c>
       <c r="I598" s="47"/>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" ht="30">
       <c r="A599" s="45" t="s">
         <v>1520</v>
       </c>
@@ -22614,7 +22611,7 @@
       </c>
       <c r="I599" s="47"/>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" ht="30">
       <c r="A600" s="45" t="s">
         <v>1521</v>
       </c>
@@ -22639,7 +22636,7 @@
       </c>
       <c r="I600" s="47"/>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" ht="30">
       <c r="A601" s="45" t="s">
         <v>1522</v>
       </c>
@@ -22664,7 +22661,7 @@
       </c>
       <c r="I601" s="47"/>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" ht="30">
       <c r="A602" s="45" t="s">
         <v>1523</v>
       </c>
@@ -22689,7 +22686,7 @@
       </c>
       <c r="I602" s="47"/>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" ht="30">
       <c r="A603" s="45" t="s">
         <v>1524</v>
       </c>
@@ -22714,7 +22711,7 @@
       </c>
       <c r="I603" s="47"/>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" ht="30">
       <c r="A604" s="45" t="s">
         <v>1525</v>
       </c>
@@ -22739,7 +22736,7 @@
       </c>
       <c r="I604" s="47"/>
     </row>
-    <row r="605" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" ht="45">
       <c r="A605" s="45" t="s">
         <v>1526</v>
       </c>
@@ -22766,7 +22763,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="606" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" ht="105">
       <c r="A606" s="45" t="s">
         <v>1527</v>
       </c>
@@ -22791,7 +22788,7 @@
       </c>
       <c r="I606" s="47"/>
     </row>
-    <row r="607" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" ht="255">
       <c r="A607" s="45" t="s">
         <v>1528</v>
       </c>
@@ -22816,7 +22813,7 @@
       </c>
       <c r="I607" s="47"/>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9">
       <c r="A608" s="45" t="s">
         <v>1529</v>
       </c>
@@ -22841,7 +22838,7 @@
       </c>
       <c r="I608" s="47"/>
     </row>
-    <row r="609" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" ht="30">
       <c r="A609" s="45" t="s">
         <v>1530</v>
       </c>
@@ -22866,7 +22863,7 @@
       </c>
       <c r="I609" s="47"/>
     </row>
-    <row r="610" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" ht="45">
       <c r="A610" s="45" t="s">
         <v>1531</v>
       </c>
@@ -22891,7 +22888,7 @@
       </c>
       <c r="I610" s="47"/>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9">
       <c r="A611" s="45" t="s">
         <v>1532</v>
       </c>
@@ -22916,7 +22913,7 @@
       </c>
       <c r="I611" s="47"/>
     </row>
-    <row r="612" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" ht="30">
       <c r="A612" s="45" t="s">
         <v>1533</v>
       </c>
@@ -22941,7 +22938,7 @@
       </c>
       <c r="I612" s="47"/>
     </row>
-    <row r="613" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" ht="30">
       <c r="A613" s="45" t="s">
         <v>1534</v>
       </c>
@@ -22966,7 +22963,7 @@
       </c>
       <c r="I613" s="47"/>
     </row>
-    <row r="614" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" ht="105">
       <c r="A614" s="45" t="s">
         <v>1535</v>
       </c>
@@ -22991,7 +22988,7 @@
       </c>
       <c r="I614" s="47"/>
     </row>
-    <row r="615" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" ht="45">
       <c r="A615" s="45" t="s">
         <v>1536</v>
       </c>
@@ -23016,7 +23013,7 @@
       </c>
       <c r="I615" s="47"/>
     </row>
-    <row r="616" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" ht="30">
       <c r="A616" s="45" t="s">
         <v>1537</v>
       </c>
@@ -23041,7 +23038,7 @@
       </c>
       <c r="I616" s="47"/>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" ht="30">
       <c r="A617" s="45" t="s">
         <v>1538</v>
       </c>
@@ -23066,7 +23063,7 @@
       </c>
       <c r="I617" s="47"/>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" ht="30">
       <c r="A618" s="45" t="s">
         <v>1539</v>
       </c>
@@ -23091,7 +23088,7 @@
       </c>
       <c r="I618" s="47"/>
     </row>
-    <row r="619" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" ht="30">
       <c r="A619" s="45" t="s">
         <v>1540</v>
       </c>
@@ -23116,7 +23113,7 @@
       </c>
       <c r="I619" s="47"/>
     </row>
-    <row r="620" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" ht="30">
       <c r="A620" s="45" t="s">
         <v>1541</v>
       </c>
@@ -23141,7 +23138,7 @@
       </c>
       <c r="I620" s="47"/>
     </row>
-    <row r="621" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" ht="30">
       <c r="A621" s="45" t="s">
         <v>1542</v>
       </c>
@@ -23166,7 +23163,7 @@
       </c>
       <c r="I621" s="47"/>
     </row>
-    <row r="622" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" ht="105">
       <c r="A622" s="45" t="s">
         <v>1543</v>
       </c>
@@ -23191,7 +23188,7 @@
       </c>
       <c r="I622" s="47"/>
     </row>
-    <row r="623" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" ht="45">
       <c r="A623" s="45" t="s">
         <v>1544</v>
       </c>
@@ -23216,7 +23213,7 @@
       </c>
       <c r="I623" s="47"/>
     </row>
-    <row r="624" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" ht="30">
       <c r="A624" s="45" t="s">
         <v>1545</v>
       </c>
@@ -23241,7 +23238,7 @@
       </c>
       <c r="I624" s="47"/>
     </row>
-    <row r="625" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" ht="30">
       <c r="A625" s="45" t="s">
         <v>1546</v>
       </c>
@@ -23266,7 +23263,7 @@
       </c>
       <c r="I625" s="47"/>
     </row>
-    <row r="626" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" ht="30">
       <c r="A626" s="45" t="s">
         <v>1547</v>
       </c>
@@ -23291,7 +23288,7 @@
       </c>
       <c r="I626" s="47"/>
     </row>
-    <row r="627" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" ht="30">
       <c r="A627" s="45" t="s">
         <v>1548</v>
       </c>
@@ -23316,7 +23313,7 @@
       </c>
       <c r="I627" s="47"/>
     </row>
-    <row r="628" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" ht="30">
       <c r="A628" s="45" t="s">
         <v>1549</v>
       </c>
@@ -23341,7 +23338,7 @@
       </c>
       <c r="I628" s="47"/>
     </row>
-    <row r="629" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" ht="30">
       <c r="A629" s="45" t="s">
         <v>1550</v>
       </c>
@@ -23366,7 +23363,7 @@
       </c>
       <c r="I629" s="47"/>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" ht="30">
       <c r="A630" s="45" t="s">
         <v>1551</v>
       </c>
@@ -23391,7 +23388,7 @@
       </c>
       <c r="I630" s="47"/>
     </row>
-    <row r="631" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" ht="30">
       <c r="A631" s="45" t="s">
         <v>1552</v>
       </c>
@@ -23416,7 +23413,7 @@
       </c>
       <c r="I631" s="47"/>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" ht="30">
       <c r="A632" s="45" t="s">
         <v>1553</v>
       </c>
@@ -23441,7 +23438,7 @@
       </c>
       <c r="I632" s="47"/>
     </row>
-    <row r="633" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" ht="45">
       <c r="A633" s="45" t="s">
         <v>1554</v>
       </c>
@@ -23466,7 +23463,7 @@
       </c>
       <c r="I633" s="47"/>
     </row>
-    <row r="634" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" ht="30">
       <c r="A634" s="45" t="s">
         <v>1555</v>
       </c>
@@ -23491,7 +23488,7 @@
       </c>
       <c r="I634" s="47"/>
     </row>
-    <row r="635" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" ht="60">
       <c r="A635" s="45" t="s">
         <v>1556</v>
       </c>
@@ -23516,7 +23513,7 @@
       </c>
       <c r="I635" s="47"/>
     </row>
-    <row r="636" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" ht="45">
       <c r="A636" s="45" t="s">
         <v>1557</v>
       </c>
@@ -23541,7 +23538,7 @@
       </c>
       <c r="I636" s="47"/>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9">
       <c r="A637" s="45" t="s">
         <v>1558</v>
       </c>
@@ -23566,7 +23563,7 @@
       </c>
       <c r="I637" s="47"/>
     </row>
-    <row r="638" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" ht="30">
       <c r="A638" s="45" t="s">
         <v>1559</v>
       </c>
@@ -23591,7 +23588,7 @@
       </c>
       <c r="I638" s="47"/>
     </row>
-    <row r="639" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" ht="45">
       <c r="A639" s="45" t="s">
         <v>1560</v>
       </c>
@@ -23616,7 +23613,7 @@
       </c>
       <c r="I639" s="47"/>
     </row>
-    <row r="640" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" ht="30">
       <c r="A640" s="45" t="s">
         <v>1561</v>
       </c>
@@ -23641,7 +23638,7 @@
       </c>
       <c r="I640" s="47"/>
     </row>
-    <row r="641" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" ht="30">
       <c r="A641" s="45" t="s">
         <v>1562</v>
       </c>
@@ -23666,7 +23663,7 @@
       </c>
       <c r="I641" s="47"/>
     </row>
-    <row r="642" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" ht="195">
       <c r="A642" s="45" t="s">
         <v>1563</v>
       </c>
@@ -23691,7 +23688,7 @@
       </c>
       <c r="I642" s="47"/>
     </row>
-    <row r="643" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" ht="30">
       <c r="A643" s="45" t="s">
         <v>1564</v>
       </c>
@@ -23716,7 +23713,7 @@
       </c>
       <c r="I643" s="47"/>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9">
       <c r="A644" s="45" t="s">
         <v>1565</v>
       </c>
@@ -23741,7 +23738,7 @@
       </c>
       <c r="I644" s="47"/>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" ht="30">
       <c r="A645" s="45" t="s">
         <v>1566</v>
       </c>
@@ -23766,7 +23763,7 @@
       </c>
       <c r="I645" s="47"/>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9">
       <c r="A646" s="45" t="s">
         <v>1567</v>
       </c>
@@ -23791,7 +23788,7 @@
       </c>
       <c r="I646" s="47"/>
     </row>
-    <row r="647" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" ht="30">
       <c r="A647" s="45" t="s">
         <v>1568</v>
       </c>
@@ -23816,7 +23813,7 @@
       </c>
       <c r="I647" s="47"/>
     </row>
-    <row r="648" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" ht="30">
       <c r="A648" s="45" t="s">
         <v>1569</v>
       </c>
@@ -23841,7 +23838,7 @@
       </c>
       <c r="I648" s="47"/>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9">
       <c r="A649" s="45" t="s">
         <v>1570</v>
       </c>
@@ -23866,7 +23863,7 @@
       </c>
       <c r="I649" s="47"/>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9">
       <c r="A650" s="45" t="s">
         <v>1571</v>
       </c>
@@ -23891,7 +23888,7 @@
       </c>
       <c r="I650" s="47"/>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9">
       <c r="A651" s="45" t="s">
         <v>1572</v>
       </c>
@@ -23916,7 +23913,7 @@
       </c>
       <c r="I651" s="47"/>
     </row>
-    <row r="652" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" ht="30">
       <c r="A652" s="45" t="s">
         <v>1573</v>
       </c>
@@ -23941,7 +23938,7 @@
       </c>
       <c r="I652" s="47"/>
     </row>
-    <row r="653" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" ht="30">
       <c r="A653" s="45" t="s">
         <v>1574</v>
       </c>
@@ -23966,7 +23963,7 @@
       </c>
       <c r="I653" s="47"/>
     </row>
-    <row r="654" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" ht="120">
       <c r="A654" s="45" t="s">
         <v>1575</v>
       </c>
@@ -23991,7 +23988,7 @@
       </c>
       <c r="I654" s="47"/>
     </row>
-    <row r="655" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" ht="45">
       <c r="A655" s="18" t="s">
         <v>371</v>
       </c>
@@ -24016,7 +24013,7 @@
       </c>
       <c r="I655" s="27"/>
     </row>
-    <row r="656" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" ht="45">
       <c r="A656" s="18" t="s">
         <v>1673</v>
       </c>
@@ -24045,7 +24042,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="657" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" ht="30">
       <c r="A657" s="25" t="s">
         <v>372</v>
       </c>
@@ -24070,7 +24067,7 @@
       </c>
       <c r="I657" s="27"/>
     </row>
-    <row r="658" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" ht="45">
       <c r="A658" s="18" t="s">
         <v>624</v>
       </c>
@@ -24097,7 +24094,7 @@
       </c>
       <c r="I658" s="47"/>
     </row>
-    <row r="659" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" ht="45">
       <c r="A659" s="45" t="s">
         <v>626</v>
       </c>
@@ -24126,7 +24123,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="660" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" ht="45">
       <c r="A660" s="18" t="s">
         <v>373</v>
       </c>
@@ -24153,7 +24150,7 @@
       </c>
       <c r="I660" s="27"/>
     </row>
-    <row r="661" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" ht="45">
       <c r="A661" s="18" t="s">
         <v>374</v>
       </c>
@@ -24180,7 +24177,7 @@
       </c>
       <c r="I661" s="27"/>
     </row>
-    <row r="662" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" ht="75">
       <c r="A662" s="25" t="s">
         <v>375</v>
       </c>
@@ -24207,7 +24204,7 @@
       </c>
       <c r="I662" s="27"/>
     </row>
-    <row r="663" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" ht="60">
       <c r="A663" s="18" t="s">
         <v>376</v>
       </c>
@@ -24234,7 +24231,7 @@
       </c>
       <c r="I663" s="27"/>
     </row>
-    <row r="664" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" ht="30">
       <c r="A664" s="45" t="s">
         <v>719</v>
       </c>
@@ -24261,7 +24258,7 @@
       </c>
       <c r="I664" s="47"/>
     </row>
-    <row r="665" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" ht="45">
       <c r="A665" s="18" t="s">
         <v>1683</v>
       </c>
@@ -24290,7 +24287,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="666" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" ht="45">
       <c r="A666" s="45" t="s">
         <v>790</v>
       </c>
@@ -24317,7 +24314,7 @@
       </c>
       <c r="I666" s="47"/>
     </row>
-    <row r="667" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" ht="45">
       <c r="A667" s="45" t="s">
         <v>791</v>
       </c>
@@ -24346,7 +24343,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="668" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" ht="45">
       <c r="A668" s="45" t="s">
         <v>878</v>
       </c>
@@ -24373,7 +24370,7 @@
       </c>
       <c r="I668" s="47"/>
     </row>
-    <row r="669" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" ht="45">
       <c r="A669" s="45" t="s">
         <v>879</v>
       </c>
@@ -24402,7 +24399,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="670" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" ht="45">
       <c r="A670" s="45" t="s">
         <v>880</v>
       </c>
@@ -24429,7 +24426,7 @@
       </c>
       <c r="I670" s="47"/>
     </row>
-    <row r="671" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" ht="45">
       <c r="A671" s="45" t="s">
         <v>881</v>
       </c>
@@ -24458,7 +24455,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="672" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" ht="45">
       <c r="A672" s="45" t="s">
         <v>882</v>
       </c>
@@ -24485,7 +24482,7 @@
       </c>
       <c r="I672" s="47"/>
     </row>
-    <row r="673" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" ht="45">
       <c r="A673" s="45" t="s">
         <v>883</v>
       </c>
@@ -24514,7 +24511,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="674" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" ht="45">
       <c r="A674" s="45" t="s">
         <v>884</v>
       </c>
@@ -24541,7 +24538,7 @@
       </c>
       <c r="I674" s="47"/>
     </row>
-    <row r="675" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" ht="45">
       <c r="A675" s="45" t="s">
         <v>885</v>
       </c>
@@ -24570,7 +24567,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="676" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" ht="45">
       <c r="A676" s="45" t="s">
         <v>886</v>
       </c>
@@ -24597,7 +24594,7 @@
       </c>
       <c r="I676" s="47"/>
     </row>
-    <row r="677" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" ht="45">
       <c r="A677" s="45" t="s">
         <v>887</v>
       </c>
@@ -24626,7 +24623,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="678" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" ht="45">
       <c r="A678" s="45" t="s">
         <v>888</v>
       </c>
@@ -24653,7 +24650,7 @@
       </c>
       <c r="I678" s="47"/>
     </row>
-    <row r="679" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" ht="45">
       <c r="A679" s="45" t="s">
         <v>889</v>
       </c>
@@ -24682,7 +24679,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" ht="45">
       <c r="A680" s="45" t="s">
         <v>890</v>
       </c>
@@ -24709,7 +24706,7 @@
       </c>
       <c r="I680" s="47"/>
     </row>
-    <row r="681" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" ht="45">
       <c r="A681" s="45" t="s">
         <v>891</v>
       </c>
@@ -24738,7 +24735,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="682" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" ht="45">
       <c r="A682" s="45" t="s">
         <v>892</v>
       </c>
@@ -24765,7 +24762,7 @@
       </c>
       <c r="I682" s="47"/>
     </row>
-    <row r="683" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" ht="45">
       <c r="A683" s="45" t="s">
         <v>893</v>
       </c>
@@ -24794,7 +24791,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="684" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" ht="45">
       <c r="A684" s="45" t="s">
         <v>958</v>
       </c>
@@ -24821,7 +24818,7 @@
       </c>
       <c r="I684" s="47"/>
     </row>
-    <row r="685" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" ht="45">
       <c r="A685" s="45" t="s">
         <v>959</v>
       </c>
@@ -24850,7 +24847,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="686" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" ht="45">
       <c r="A686" s="45" t="s">
         <v>960</v>
       </c>
@@ -24877,7 +24874,7 @@
       </c>
       <c r="I686" s="47"/>
     </row>
-    <row r="687" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" ht="45">
       <c r="A687" s="45" t="s">
         <v>961</v>
       </c>
@@ -24906,7 +24903,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="688" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" ht="45">
       <c r="A688" s="45" t="s">
         <v>962</v>
       </c>
@@ -24933,7 +24930,7 @@
       </c>
       <c r="I688" s="47"/>
     </row>
-    <row r="689" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" ht="45">
       <c r="A689" s="45" t="s">
         <v>963</v>
       </c>
@@ -24962,7 +24959,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="690" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" ht="45">
       <c r="A690" s="45" t="s">
         <v>964</v>
       </c>
@@ -24989,7 +24986,7 @@
       </c>
       <c r="I690" s="47"/>
     </row>
-    <row r="691" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" ht="45">
       <c r="A691" s="45" t="s">
         <v>965</v>
       </c>
@@ -25018,7 +25015,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="692" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" ht="60">
       <c r="A692" s="45" t="s">
         <v>966</v>
       </c>
@@ -25045,7 +25042,7 @@
       </c>
       <c r="I692" s="47"/>
     </row>
-    <row r="693" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" ht="45">
       <c r="A693" s="45" t="s">
         <v>967</v>
       </c>
@@ -25074,7 +25071,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="694" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" ht="60">
       <c r="A694" s="45" t="s">
         <v>968</v>
       </c>
@@ -25101,7 +25098,7 @@
       </c>
       <c r="I694" s="47"/>
     </row>
-    <row r="695" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" ht="45">
       <c r="A695" s="45" t="s">
         <v>969</v>
       </c>
@@ -25130,7 +25127,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="696" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" ht="45">
       <c r="A696" s="45" t="s">
         <v>970</v>
       </c>
@@ -25157,7 +25154,7 @@
       </c>
       <c r="I696" s="47"/>
     </row>
-    <row r="697" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" ht="45">
       <c r="A697" s="45" t="s">
         <v>971</v>
       </c>
@@ -25186,7 +25183,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="698" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" ht="60">
       <c r="A698" s="45" t="s">
         <v>972</v>
       </c>
@@ -25213,7 +25210,7 @@
       </c>
       <c r="I698" s="47"/>
     </row>
-    <row r="699" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" ht="45">
       <c r="A699" s="45" t="s">
         <v>973</v>
       </c>
@@ -25242,7 +25239,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="700" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" ht="45">
       <c r="A700" s="45" t="s">
         <v>974</v>
       </c>
@@ -25269,7 +25266,7 @@
       </c>
       <c r="I700" s="47"/>
     </row>
-    <row r="701" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" ht="45">
       <c r="A701" s="45" t="s">
         <v>975</v>
       </c>
@@ -25298,7 +25295,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="702" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" ht="45">
       <c r="A702" s="45" t="s">
         <v>976</v>
       </c>
@@ -25325,7 +25322,7 @@
       </c>
       <c r="I702" s="47"/>
     </row>
-    <row r="703" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" ht="45">
       <c r="A703" s="45" t="s">
         <v>977</v>
       </c>
@@ -25354,7 +25351,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="704" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" ht="60">
       <c r="A704" s="45" t="s">
         <v>978</v>
       </c>
@@ -25381,7 +25378,7 @@
       </c>
       <c r="I704" s="47"/>
     </row>
-    <row r="705" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" ht="45">
       <c r="A705" s="45" t="s">
         <v>979</v>
       </c>
@@ -25410,7 +25407,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="706" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" ht="45">
       <c r="A706" s="45" t="s">
         <v>980</v>
       </c>
@@ -25437,7 +25434,7 @@
       </c>
       <c r="I706" s="47"/>
     </row>
-    <row r="707" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" ht="45">
       <c r="A707" s="45" t="s">
         <v>981</v>
       </c>
@@ -25466,7 +25463,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="708" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" ht="30">
       <c r="A708" s="45" t="s">
         <v>982</v>
       </c>
@@ -25493,7 +25490,7 @@
       </c>
       <c r="I708" s="47"/>
     </row>
-    <row r="709" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" ht="45">
       <c r="A709" s="45" t="s">
         <v>983</v>
       </c>
@@ -25522,7 +25519,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="710" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" ht="45">
       <c r="A710" s="45" t="s">
         <v>984</v>
       </c>
@@ -25549,7 +25546,7 @@
       </c>
       <c r="I710" s="47"/>
     </row>
-    <row r="711" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" ht="45">
       <c r="A711" s="45" t="s">
         <v>985</v>
       </c>
@@ -25578,7 +25575,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="712" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" ht="45">
       <c r="A712" s="45" t="s">
         <v>986</v>
       </c>
@@ -25605,7 +25602,7 @@
       </c>
       <c r="I712" s="47"/>
     </row>
-    <row r="713" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" ht="45">
       <c r="A713" s="45" t="s">
         <v>987</v>
       </c>
@@ -25634,7 +25631,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="714" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" ht="45">
       <c r="A714" s="45" t="s">
         <v>988</v>
       </c>
@@ -25661,7 +25658,7 @@
       </c>
       <c r="I714" s="47"/>
     </row>
-    <row r="715" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" ht="45">
       <c r="A715" s="45" t="s">
         <v>989</v>
       </c>
@@ -25690,7 +25687,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="716" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" ht="45">
       <c r="A716" s="45" t="s">
         <v>990</v>
       </c>
@@ -25717,7 +25714,7 @@
       </c>
       <c r="I716" s="47"/>
     </row>
-    <row r="717" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" ht="45">
       <c r="A717" s="45" t="s">
         <v>991</v>
       </c>
@@ -25746,7 +25743,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="718" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" ht="45">
       <c r="A718" s="45" t="s">
         <v>992</v>
       </c>
@@ -25773,7 +25770,7 @@
       </c>
       <c r="I718" s="47"/>
     </row>
-    <row r="719" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" ht="45">
       <c r="A719" s="45" t="s">
         <v>993</v>
       </c>
@@ -25802,7 +25799,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="720" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" ht="45">
       <c r="A720" s="45" t="s">
         <v>994</v>
       </c>
@@ -25829,7 +25826,7 @@
       </c>
       <c r="I720" s="47"/>
     </row>
-    <row r="721" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" ht="45">
       <c r="A721" s="45" t="s">
         <v>995</v>
       </c>
@@ -25858,7 +25855,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="722" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" ht="45">
       <c r="A722" s="45" t="s">
         <v>996</v>
       </c>
@@ -25885,7 +25882,7 @@
       </c>
       <c r="I722" s="47"/>
     </row>
-    <row r="723" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" ht="45">
       <c r="A723" s="45" t="s">
         <v>997</v>
       </c>
@@ -25914,7 +25911,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="724" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" ht="30">
       <c r="A724" s="45" t="s">
         <v>998</v>
       </c>
@@ -25941,7 +25938,7 @@
       </c>
       <c r="I724" s="47"/>
     </row>
-    <row r="725" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" ht="45">
       <c r="A725" s="45" t="s">
         <v>999</v>
       </c>
@@ -25970,7 +25967,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="726" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" ht="30">
       <c r="A726" s="45" t="s">
         <v>1000</v>
       </c>
@@ -25997,7 +25994,7 @@
       </c>
       <c r="I726" s="47"/>
     </row>
-    <row r="727" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" ht="45">
       <c r="A727" s="45" t="s">
         <v>1001</v>
       </c>
@@ -26026,7 +26023,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="728" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" ht="45">
       <c r="A728" s="45" t="s">
         <v>1002</v>
       </c>
@@ -26053,7 +26050,7 @@
       </c>
       <c r="I728" s="47"/>
     </row>
-    <row r="729" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" ht="45">
       <c r="A729" s="45" t="s">
         <v>1003</v>
       </c>
@@ -26082,7 +26079,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="730" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" ht="45">
       <c r="A730" s="45" t="s">
         <v>1004</v>
       </c>
@@ -26109,7 +26106,7 @@
       </c>
       <c r="I730" s="47"/>
     </row>
-    <row r="731" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" ht="45">
       <c r="A731" s="45" t="s">
         <v>1005</v>
       </c>
@@ -26138,7 +26135,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="732" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" ht="45">
       <c r="A732" s="45" t="s">
         <v>1006</v>
       </c>
@@ -26165,7 +26162,7 @@
       </c>
       <c r="I732" s="47"/>
     </row>
-    <row r="733" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" ht="45">
       <c r="A733" s="45" t="s">
         <v>1007</v>
       </c>
@@ -26194,7 +26191,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="734" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" ht="180">
       <c r="A734" s="25" t="s">
         <v>377</v>
       </c>
@@ -26219,7 +26216,7 @@
       </c>
       <c r="I734" s="27"/>
     </row>
-    <row r="735" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" ht="30">
       <c r="A735" s="18" t="s">
         <v>378</v>
       </c>
@@ -26244,7 +26241,7 @@
       </c>
       <c r="I735" s="27"/>
     </row>
-    <row r="736" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" ht="105">
       <c r="A736" s="25" t="s">
         <v>379</v>
       </c>
@@ -26269,7 +26266,7 @@
       </c>
       <c r="I736" s="27"/>
     </row>
-    <row r="737" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" ht="45">
       <c r="A737" s="25" t="s">
         <v>380</v>
       </c>
@@ -26294,7 +26291,7 @@
       </c>
       <c r="I737" s="27"/>
     </row>
-    <row r="738" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" ht="30">
       <c r="A738" s="25" t="s">
         <v>381</v>
       </c>
@@ -26319,7 +26316,7 @@
       </c>
       <c r="I738" s="27"/>
     </row>
-    <row r="739" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" ht="30">
       <c r="A739" s="18" t="s">
         <v>382</v>
       </c>
@@ -26344,7 +26341,7 @@
       </c>
       <c r="I739" s="27"/>
     </row>
-    <row r="740" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" ht="45">
       <c r="A740" s="18" t="s">
         <v>1598</v>
       </c>
@@ -26369,7 +26366,7 @@
       </c>
       <c r="I740" s="47"/>
     </row>
-    <row r="741" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" ht="30">
       <c r="A741" s="18" t="s">
         <v>1600</v>
       </c>
@@ -26394,7 +26391,7 @@
       </c>
       <c r="I741" s="47"/>
     </row>
-    <row r="742" spans="1:9" ht="390" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" ht="390">
       <c r="A742" s="18" t="s">
         <v>1613</v>
       </c>
@@ -26419,7 +26416,7 @@
       </c>
       <c r="I742" s="47"/>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" ht="30">
       <c r="A743" s="18" t="s">
         <v>1614</v>
       </c>
@@ -26444,7 +26441,7 @@
       </c>
       <c r="I743" s="47"/>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" ht="30">
       <c r="A744" s="18" t="s">
         <v>1615</v>
       </c>
@@ -26469,7 +26466,7 @@
       </c>
       <c r="I744" s="47"/>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9">
       <c r="A745" s="18" t="s">
         <v>1616</v>
       </c>
@@ -26494,7 +26491,7 @@
       </c>
       <c r="I745" s="47"/>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" ht="30">
       <c r="A746" s="18" t="s">
         <v>1617</v>
       </c>
@@ -26519,7 +26516,7 @@
       </c>
       <c r="I746" s="47"/>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9">
       <c r="A747" s="18" t="s">
         <v>1618</v>
       </c>
@@ -26544,7 +26541,7 @@
       </c>
       <c r="I747" s="47"/>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" ht="30">
       <c r="A748" s="18" t="s">
         <v>1619</v>
       </c>
@@ -26569,7 +26566,7 @@
       </c>
       <c r="I748" s="47"/>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9">
       <c r="A749" s="18" t="s">
         <v>1620</v>
       </c>
@@ -26594,7 +26591,7 @@
       </c>
       <c r="I749" s="47"/>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" ht="30">
       <c r="A750" s="18" t="s">
         <v>1621</v>
       </c>
@@ -26619,7 +26616,7 @@
       </c>
       <c r="I750" s="47"/>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" ht="30">
       <c r="A751" s="18" t="s">
         <v>1622</v>
       </c>
@@ -26644,7 +26641,7 @@
       </c>
       <c r="I751" s="47"/>
     </row>
-    <row r="752" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" ht="45">
       <c r="A752" s="18" t="s">
         <v>1623</v>
       </c>
@@ -26669,7 +26666,7 @@
       </c>
       <c r="I752" s="47"/>
     </row>
-    <row r="753" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" ht="180">
       <c r="A753" s="25" t="s">
         <v>383</v>
       </c>
@@ -26694,7 +26691,7 @@
       </c>
       <c r="I753" s="27"/>
     </row>
-    <row r="754" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" ht="150">
       <c r="A754" s="18" t="s">
         <v>384</v>
       </c>
@@ -26719,7 +26716,7 @@
       </c>
       <c r="I754" s="27"/>
     </row>
-    <row r="755" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" ht="135">
       <c r="A755" s="45" t="s">
         <v>1587</v>
       </c>
@@ -26744,7 +26741,7 @@
       </c>
       <c r="I755" s="47"/>
     </row>
-    <row r="756" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" ht="409.5">
       <c r="A756" s="25" t="s">
         <v>385</v>
       </c>
@@ -26769,7 +26766,7 @@
       </c>
       <c r="I756" s="27"/>
     </row>
-    <row r="757" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" ht="409.5">
       <c r="A757" s="18" t="s">
         <v>1624</v>
       </c>
@@ -26794,7 +26791,7 @@
       </c>
       <c r="I757" s="47"/>
     </row>
-    <row r="758" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" ht="135">
       <c r="A758" s="25" t="s">
         <v>386</v>
       </c>
@@ -26819,7 +26816,7 @@
       </c>
       <c r="I758" s="27"/>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9">
       <c r="A759" s="25"/>
       <c r="B759" s="26"/>
       <c r="C759" s="27"/>
@@ -26830,11 +26827,11 @@
       <c r="H759" s="25"/>
       <c r="I759" s="27"/>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9">
       <c r="A760" s="3"/>
       <c r="B760" s="9"/>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9">
       <c r="A761" s="3"/>
       <c r="B761" s="9"/>
     </row>

--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5377" uniqueCount="1684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5363" uniqueCount="1677">
   <si>
     <t>Req ID</t>
   </si>
@@ -3525,9 +3525,6 @@
     <t>[In Appendix C: Product Behavior] Implementation does not support the ContactUrlDictionaryType complex type. (&lt;45&gt; Section 3.1.4.1.1.9:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the ContactUrlDictionaryType complex type.)</t>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the ContactUrlDictionaryType complex type (Exchange 2016 and above follow this behavior.)</t>
-  </si>
-  <si>
     <t>[In Appendix C: Product Behavior] Implementation does not support the Name attribute. (&lt;46&gt; Section 3.1.4.1.1.10: Exchange 2007 does not support the Name attribute.)</t>
   </si>
   <si>
@@ -4787,9 +4784,6 @@
     <t>MS-OXWSCONT_R218004:i</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R1275080.</t>
-  </si>
-  <si>
     <t>3.1.4.1.1.7</t>
   </si>
   <si>
@@ -6240,12 +6234,6 @@
     <t>[In Transport] The protocol SHOULD use secure communications by means of HTTPS, as specified in [RFC2818].</t>
   </si>
   <si>
-    <t>verified by derived requirement: MS-OXWSCONT_R336002.</t>
-  </si>
-  <si>
-    <t>verified by derived requirement: MS-OXWSCONT_R1901.</t>
-  </si>
-  <si>
     <t>Verified by derived requirement: MS-OXWSCONT_R1275005.</t>
   </si>
   <si>
@@ -6277,21 +6265,6 @@
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXWSCONT_R1275044.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R1275068.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R1275070.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R1275072.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R1275074.</t>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R1275078.</t>
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXWSCONT_R1275082.</t>
@@ -6409,7 +6382,12 @@
   </si>
   <si>
     <t>MS-OXWSCONT_R1275002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the ContactUrlDictionaryType complex type. (Exchange 2016 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>verified by derived requirement: MS-OXWSCONT_R19.</t>
   </si>
 </sst>
 </file>
@@ -7669,16 +7647,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A579" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C584" sqref="C584"/>
+    <sheetView tabSelected="1" topLeftCell="A645" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A659" sqref="A659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="10" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
@@ -8185,7 +8163,7 @@
         <v>388</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45" t="s">
@@ -8204,13 +8182,13 @@
     </row>
     <row r="27" spans="1:13" s="19" customFormat="1" ht="45">
       <c r="A27" s="45" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B27" s="46" t="s">
         <v>388</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
@@ -8226,7 +8204,7 @@
         <v>17</v>
       </c>
       <c r="I27" s="47" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="19" customFormat="1" ht="30">
@@ -8629,7 +8607,7 @@
       </c>
       <c r="I43" s="27"/>
     </row>
-    <row r="44" spans="1:9" ht="45">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="18" t="s">
         <v>627</v>
       </c>
@@ -8650,11 +8628,9 @@
         <v>15</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="47" t="s">
-        <v>1628</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I44" s="47"/>
     </row>
     <row r="45" spans="1:9" ht="30">
       <c r="A45" s="18" t="s">
@@ -8674,10 +8650,10 @@
         <v>3</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I45" s="47"/>
     </row>
@@ -8689,7 +8665,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="45" t="s">
@@ -8702,7 +8678,7 @@
         <v>15</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I46" s="47"/>
     </row>
@@ -8752,7 +8728,7 @@
         <v>15</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I48" s="47"/>
     </row>
@@ -8802,7 +8778,7 @@
         <v>15</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50" s="47"/>
     </row>
@@ -8827,7 +8803,7 @@
         <v>15</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="47"/>
     </row>
@@ -8852,7 +8828,7 @@
         <v>15</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I52" s="47"/>
     </row>
@@ -8877,7 +8853,7 @@
         <v>15</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I53" s="47"/>
     </row>
@@ -8902,7 +8878,7 @@
         <v>15</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" s="47"/>
     </row>
@@ -8927,7 +8903,7 @@
         <v>15</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I55" s="47"/>
     </row>
@@ -9102,7 +9078,7 @@
         <v>15</v>
       </c>
       <c r="H62" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I62" s="47"/>
     </row>
@@ -9239,7 +9215,7 @@
         <v>394</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D68" s="45"/>
       <c r="E68" s="45" t="s">
@@ -9252,7 +9228,7 @@
         <v>15</v>
       </c>
       <c r="H68" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I68" s="47"/>
     </row>
@@ -9451,12 +9427,10 @@
       <c r="G76" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" s="16" t="s">
-        <v>1629</v>
-      </c>
+      <c r="H76" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="47"/>
     </row>
     <row r="77" spans="1:9" ht="409.5">
       <c r="A77" s="45" t="s">
@@ -9466,7 +9440,7 @@
         <v>661</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D77" s="45"/>
       <c r="E77" s="45" t="s">
@@ -9479,9 +9453,11 @@
         <v>15</v>
       </c>
       <c r="H77" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>1676</v>
+      </c>
     </row>
     <row r="78" spans="1:9" ht="30">
       <c r="A78" s="25" t="s">
@@ -10054,7 +10030,7 @@
         <v>15</v>
       </c>
       <c r="H100" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I100" s="47"/>
     </row>
@@ -10079,7 +10055,7 @@
         <v>15</v>
       </c>
       <c r="H101" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I101" s="47"/>
     </row>
@@ -11110,7 +11086,7 @@
     </row>
     <row r="143" spans="1:9" ht="30">
       <c r="A143" s="18" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>661</v>
@@ -11141,7 +11117,7 @@
         <v>661</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>1680</v>
+        <v>1671</v>
       </c>
       <c r="D144" s="45"/>
       <c r="E144" s="45" t="s">
@@ -11757,7 +11733,7 @@
         <v>17</v>
       </c>
       <c r="I168" s="47" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="30">
@@ -11809,7 +11785,7 @@
         <v>17</v>
       </c>
       <c r="I170" s="47" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="30">
@@ -11911,7 +11887,7 @@
         <v>17</v>
       </c>
       <c r="I174" s="47" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -12013,7 +11989,7 @@
         <v>17</v>
       </c>
       <c r="I178" s="47" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -12065,7 +12041,7 @@
         <v>17</v>
       </c>
       <c r="I180" s="47" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -12167,7 +12143,7 @@
         <v>17</v>
       </c>
       <c r="I184" s="47" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -12269,7 +12245,7 @@
         <v>17</v>
       </c>
       <c r="I188" s="47" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -12371,7 +12347,7 @@
         <v>17</v>
       </c>
       <c r="I192" s="47" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -12523,7 +12499,7 @@
         <v>17</v>
       </c>
       <c r="I198" s="47" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -12575,7 +12551,7 @@
         <v>17</v>
       </c>
       <c r="I200" s="47" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -12627,7 +12603,7 @@
         <v>17</v>
       </c>
       <c r="I202" s="47" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -12729,7 +12705,7 @@
         <v>17</v>
       </c>
       <c r="I206" s="47" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -12831,7 +12807,7 @@
         <v>17</v>
       </c>
       <c r="I210" s="47" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -13392,7 +13368,7 @@
         <v>395</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D233" s="25"/>
       <c r="E233" s="25" t="s">
@@ -13417,7 +13393,7 @@
         <v>395</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D234" s="25"/>
       <c r="E234" s="25" t="s">
@@ -13442,7 +13418,7 @@
         <v>395</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D235" s="25"/>
       <c r="E235" s="25" t="s">
@@ -13492,7 +13468,7 @@
         <v>396</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D237" s="25"/>
       <c r="E237" s="25" t="s">
@@ -13592,7 +13568,7 @@
         <v>396</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D241" s="25"/>
       <c r="E241" s="25" t="s">
@@ -13642,7 +13618,7 @@
         <v>396</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D243" s="25"/>
       <c r="E243" s="25" t="s">
@@ -13717,7 +13693,7 @@
         <v>396</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D246" s="25"/>
       <c r="E246" s="25" t="s">
@@ -13892,7 +13868,7 @@
         <v>401</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D253" s="25"/>
       <c r="E253" s="25" t="s">
@@ -13917,7 +13893,7 @@
         <v>401</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D254" s="25"/>
       <c r="E254" s="25" t="s">
@@ -13942,7 +13918,7 @@
         <v>401</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D255" s="25"/>
       <c r="E255" s="25" t="s">
@@ -13967,7 +13943,7 @@
         <v>401</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D256" s="25"/>
       <c r="E256" s="25" t="s">
@@ -13992,7 +13968,7 @@
         <v>401</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D257" s="25"/>
       <c r="E257" s="25" t="s">
@@ -14017,7 +13993,7 @@
         <v>401</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D258" s="25"/>
       <c r="E258" s="25" t="s">
@@ -14042,7 +14018,7 @@
         <v>401</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D259" s="25"/>
       <c r="E259" s="25" t="s">
@@ -14067,7 +14043,7 @@
         <v>33</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D260" s="25"/>
       <c r="E260" s="25" t="s">
@@ -14117,7 +14093,7 @@
         <v>33</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D262" s="25"/>
       <c r="E262" s="25" t="s">
@@ -14142,7 +14118,7 @@
         <v>33</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D263" s="25"/>
       <c r="E263" s="25" t="s">
@@ -14217,7 +14193,7 @@
         <v>402</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D266" s="25"/>
       <c r="E266" s="25" t="s">
@@ -14234,15 +14210,15 @@
       </c>
       <c r="I266" s="27"/>
     </row>
-    <row r="267" spans="1:9" ht="45">
+    <row r="267" spans="1:9" ht="30">
       <c r="A267" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B267" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C267" s="47" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D267" s="45"/>
       <c r="E267" s="25" t="s">
@@ -14255,21 +14231,19 @@
         <v>15</v>
       </c>
       <c r="H267" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I267" s="47" t="s">
-        <v>1641</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I267" s="47"/>
     </row>
     <row r="268" spans="1:9" ht="165">
       <c r="A268" s="18" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B268" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C268" s="47" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D268" s="45"/>
       <c r="E268" s="25" t="s">
@@ -14282,19 +14256,19 @@
         <v>15</v>
       </c>
       <c r="H268" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I268" s="47"/>
     </row>
     <row r="269" spans="1:9" ht="30">
       <c r="A269" s="18" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B269" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C269" s="47" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D269" s="45"/>
       <c r="E269" s="25" t="s">
@@ -14313,13 +14287,13 @@
     </row>
     <row r="270" spans="1:9" ht="30">
       <c r="A270" s="18" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B270" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C270" s="47" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D270" s="45"/>
       <c r="E270" s="25" t="s">
@@ -14332,19 +14306,19 @@
         <v>15</v>
       </c>
       <c r="H270" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I270" s="47"/>
     </row>
     <row r="271" spans="1:9" ht="30">
       <c r="A271" s="18" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B271" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C271" s="47" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D271" s="45"/>
       <c r="E271" s="25" t="s">
@@ -14357,19 +14331,19 @@
         <v>15</v>
       </c>
       <c r="H271" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I271" s="47"/>
     </row>
     <row r="272" spans="1:9" ht="30">
       <c r="A272" s="18" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B272" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C272" s="47" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D272" s="45"/>
       <c r="E272" s="25" t="s">
@@ -14382,19 +14356,19 @@
         <v>15</v>
       </c>
       <c r="H272" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I272" s="47"/>
     </row>
     <row r="273" spans="1:9" ht="30">
       <c r="A273" s="18" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B273" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C273" s="47" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D273" s="45"/>
       <c r="E273" s="25" t="s">
@@ -14407,19 +14381,19 @@
         <v>15</v>
       </c>
       <c r="H273" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I273" s="47"/>
     </row>
     <row r="274" spans="1:9" ht="30">
       <c r="A274" s="18" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B274" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C274" s="47" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D274" s="45"/>
       <c r="E274" s="25" t="s">
@@ -14432,19 +14406,19 @@
         <v>15</v>
       </c>
       <c r="H274" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I274" s="47"/>
     </row>
     <row r="275" spans="1:9" ht="30">
       <c r="A275" s="18" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B275" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C275" s="47" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D275" s="45"/>
       <c r="E275" s="25" t="s">
@@ -14463,13 +14437,13 @@
     </row>
     <row r="276" spans="1:9" ht="30">
       <c r="A276" s="18" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B276" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C276" s="47" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D276" s="45"/>
       <c r="E276" s="25" t="s">
@@ -14488,13 +14462,13 @@
     </row>
     <row r="277" spans="1:9" ht="30">
       <c r="A277" s="18" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B277" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C277" s="47" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D277" s="45"/>
       <c r="E277" s="45" t="s">
@@ -14511,15 +14485,15 @@
       </c>
       <c r="I277" s="47"/>
     </row>
-    <row r="278" spans="1:9" ht="45">
+    <row r="278" spans="1:9" ht="30">
       <c r="A278" s="18" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B278" s="46" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C278" s="47" t="s">
         <v>1152</v>
-      </c>
-      <c r="C278" s="47" t="s">
-        <v>1153</v>
       </c>
       <c r="D278" s="45"/>
       <c r="E278" s="45" t="s">
@@ -14532,21 +14506,19 @@
         <v>15</v>
       </c>
       <c r="H278" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I278" s="47" t="s">
-        <v>1642</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I278" s="47"/>
     </row>
     <row r="279" spans="1:9" ht="135">
       <c r="A279" s="18" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B279" s="46" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C279" s="47" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D279" s="45"/>
       <c r="E279" s="45" t="s">
@@ -14559,19 +14531,19 @@
         <v>15</v>
       </c>
       <c r="H279" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I279" s="47"/>
     </row>
     <row r="280" spans="1:9" ht="30">
       <c r="A280" s="45" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B280" s="46" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C280" s="47" t="s">
         <v>1188</v>
-      </c>
-      <c r="B280" s="46" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C280" s="47" t="s">
-        <v>1189</v>
       </c>
       <c r="D280" s="45"/>
       <c r="E280" s="45" t="s">
@@ -14590,13 +14562,13 @@
     </row>
     <row r="281" spans="1:9" ht="30">
       <c r="A281" s="18" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B281" s="46" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C281" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D281" s="45"/>
       <c r="E281" s="45" t="s">
@@ -14609,19 +14581,19 @@
         <v>15</v>
       </c>
       <c r="H281" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I281" s="47"/>
     </row>
     <row r="282" spans="1:9" ht="30">
       <c r="A282" s="18" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B282" s="46" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C282" s="47" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D282" s="45"/>
       <c r="E282" s="45" t="s">
@@ -14634,19 +14606,19 @@
         <v>15</v>
       </c>
       <c r="H282" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I282" s="47"/>
     </row>
-    <row r="283" spans="1:9" ht="45">
+    <row r="283" spans="1:9" ht="30">
       <c r="A283" s="18" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B283" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C283" s="47" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D283" s="45"/>
       <c r="E283" s="45" t="s">
@@ -14659,21 +14631,19 @@
         <v>15</v>
       </c>
       <c r="H283" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I283" s="47" t="s">
-        <v>1643</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I283" s="47"/>
     </row>
     <row r="284" spans="1:9" ht="150">
       <c r="A284" s="18" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B284" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C284" s="47" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D284" s="45"/>
       <c r="E284" s="45" t="s">
@@ -14686,19 +14656,19 @@
         <v>15</v>
       </c>
       <c r="H284" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I284" s="47"/>
     </row>
     <row r="285" spans="1:9" ht="30">
       <c r="A285" s="18" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B285" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C285" s="47" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D285" s="45"/>
       <c r="E285" s="45" t="s">
@@ -14717,13 +14687,13 @@
     </row>
     <row r="286" spans="1:9" ht="30">
       <c r="A286" s="18" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B286" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C286" s="47" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D286" s="45"/>
       <c r="E286" s="45" t="s">
@@ -14736,19 +14706,19 @@
         <v>15</v>
       </c>
       <c r="H286" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I286" s="47"/>
     </row>
     <row r="287" spans="1:9" ht="30">
       <c r="A287" s="18" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B287" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C287" s="47" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D287" s="45"/>
       <c r="E287" s="45" t="s">
@@ -14761,19 +14731,19 @@
         <v>15</v>
       </c>
       <c r="H287" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I287" s="47"/>
     </row>
     <row r="288" spans="1:9" ht="30">
       <c r="A288" s="18" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B288" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C288" s="47" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D288" s="45"/>
       <c r="E288" s="45" t="s">
@@ -14786,19 +14756,19 @@
         <v>15</v>
       </c>
       <c r="H288" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I288" s="47"/>
     </row>
     <row r="289" spans="1:9" ht="30">
       <c r="A289" s="18" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B289" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C289" s="47" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D289" s="45"/>
       <c r="E289" s="45" t="s">
@@ -14811,19 +14781,19 @@
         <v>15</v>
       </c>
       <c r="H289" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I289" s="47"/>
     </row>
     <row r="290" spans="1:9" ht="30">
       <c r="A290" s="18" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B290" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C290" s="47" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D290" s="45"/>
       <c r="E290" s="45" t="s">
@@ -14836,19 +14806,19 @@
         <v>15</v>
       </c>
       <c r="H290" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I290" s="47"/>
     </row>
     <row r="291" spans="1:9" ht="30">
       <c r="A291" s="18" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B291" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C291" s="47" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D291" s="45"/>
       <c r="E291" s="45" t="s">
@@ -14865,15 +14835,15 @@
       </c>
       <c r="I291" s="47"/>
     </row>
-    <row r="292" spans="1:9" ht="45">
+    <row r="292" spans="1:9" ht="30">
       <c r="A292" s="18" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B292" s="46" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C292" s="47" t="s">
         <v>1168</v>
-      </c>
-      <c r="C292" s="47" t="s">
-        <v>1169</v>
       </c>
       <c r="D292" s="45"/>
       <c r="E292" s="45" t="s">
@@ -14886,21 +14856,19 @@
         <v>15</v>
       </c>
       <c r="H292" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I292" s="47" t="s">
-        <v>1644</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I292" s="47"/>
     </row>
     <row r="293" spans="1:9" ht="120">
       <c r="A293" s="18" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B293" s="46" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C293" s="47" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D293" s="45"/>
       <c r="E293" s="45" t="s">
@@ -14913,19 +14881,19 @@
         <v>15</v>
       </c>
       <c r="H293" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I293" s="47"/>
     </row>
     <row r="294" spans="1:9" ht="30">
       <c r="A294" s="18" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B294" s="46" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C294" s="47" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D294" s="45"/>
       <c r="E294" s="45" t="s">
@@ -14944,13 +14912,13 @@
     </row>
     <row r="295" spans="1:9" ht="30">
       <c r="A295" s="18" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B295" s="46" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C295" s="47" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D295" s="45"/>
       <c r="E295" s="45" t="s">
@@ -14963,19 +14931,19 @@
         <v>15</v>
       </c>
       <c r="H295" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I295" s="47"/>
     </row>
     <row r="296" spans="1:9" ht="30">
       <c r="A296" s="18" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B296" s="46" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C296" s="47" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D296" s="45"/>
       <c r="E296" s="45" t="s">
@@ -14988,7 +14956,7 @@
         <v>15</v>
       </c>
       <c r="H296" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I296" s="47"/>
     </row>
@@ -15000,7 +14968,7 @@
         <v>405</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D297" s="25"/>
       <c r="E297" s="25" t="s">
@@ -15075,7 +15043,7 @@
         <v>405</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D300" s="25"/>
       <c r="E300" s="25" t="s">
@@ -15125,7 +15093,7 @@
         <v>405</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D302" s="25"/>
       <c r="E302" s="25" t="s">
@@ -15200,7 +15168,7 @@
         <v>405</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D305" s="25"/>
       <c r="E305" s="25" t="s">
@@ -15250,7 +15218,7 @@
         <v>405</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D307" s="25"/>
       <c r="E307" s="25" t="s">
@@ -15325,7 +15293,7 @@
         <v>405</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D310" s="25"/>
       <c r="E310" s="25" t="s">
@@ -15400,7 +15368,7 @@
         <v>405</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D313" s="25"/>
       <c r="E313" s="25" t="s">
@@ -15450,7 +15418,7 @@
         <v>405</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D315" s="25"/>
       <c r="E315" s="25" t="s">
@@ -15500,7 +15468,7 @@
         <v>405</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D317" s="25"/>
       <c r="E317" s="25" t="s">
@@ -15650,7 +15618,7 @@
         <v>406</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D323" s="25"/>
       <c r="E323" s="25" t="s">
@@ -15719,13 +15687,13 @@
     </row>
     <row r="326" spans="1:9" ht="30">
       <c r="A326" s="45" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B326" s="20" t="s">
         <v>406</v>
       </c>
       <c r="C326" s="47" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D326" s="45"/>
       <c r="E326" s="45" t="s">
@@ -15750,7 +15718,7 @@
         <v>406</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D327" s="25"/>
       <c r="E327" s="25" t="s">
@@ -15794,13 +15762,13 @@
     </row>
     <row r="329" spans="1:9" ht="30">
       <c r="A329" s="45" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B329" s="20" t="s">
         <v>406</v>
       </c>
       <c r="C329" s="47" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D329" s="45"/>
       <c r="E329" s="45" t="s">
@@ -15813,19 +15781,19 @@
         <v>15</v>
       </c>
       <c r="H329" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I329" s="47"/>
     </row>
-    <row r="330" spans="1:9" ht="45">
+    <row r="330" spans="1:9">
       <c r="A330" s="45" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B330" s="20" t="s">
         <v>406</v>
       </c>
       <c r="C330" s="47" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D330" s="45"/>
       <c r="E330" s="45" t="s">
@@ -15838,21 +15806,19 @@
         <v>15</v>
       </c>
       <c r="H330" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I330" s="47" t="s">
-        <v>1645</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I330" s="47"/>
     </row>
     <row r="331" spans="1:9" ht="30">
       <c r="A331" s="45" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B331" s="20" t="s">
         <v>406</v>
       </c>
       <c r="C331" s="47" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D331" s="45"/>
       <c r="E331" s="45" t="s">
@@ -15865,19 +15831,19 @@
         <v>15</v>
       </c>
       <c r="H331" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I331" s="47"/>
     </row>
-    <row r="332" spans="1:9" ht="45">
+    <row r="332" spans="1:9" ht="30">
       <c r="A332" s="45" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B332" s="20" t="s">
         <v>406</v>
       </c>
       <c r="C332" s="47" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D332" s="45"/>
       <c r="E332" s="45" t="s">
@@ -15890,21 +15856,19 @@
         <v>15</v>
       </c>
       <c r="H332" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I332" s="47" t="s">
-        <v>1221</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I332" s="47"/>
     </row>
     <row r="333" spans="1:9" ht="30">
       <c r="A333" s="25" t="s">
         <v>287</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D333" s="25"/>
       <c r="E333" s="25" t="s">
@@ -15926,7 +15890,7 @@
         <v>288</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C334" s="16" t="s">
         <v>544</v>
@@ -15951,7 +15915,7 @@
         <v>289</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C335" s="27" t="s">
         <v>545</v>
@@ -15976,10 +15940,10 @@
         <v>290</v>
       </c>
       <c r="B336" s="20" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C336" s="16" t="s">
         <v>1222</v>
-      </c>
-      <c r="C336" s="16" t="s">
-        <v>1224</v>
       </c>
       <c r="D336" s="25"/>
       <c r="E336" s="25" t="s">
@@ -16001,7 +15965,7 @@
         <v>291</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C337" s="27" t="s">
         <v>546</v>
@@ -16026,7 +15990,7 @@
         <v>292</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C338" s="27" t="s">
         <v>547</v>
@@ -16048,13 +16012,13 @@
     </row>
     <row r="339" spans="1:9" ht="45">
       <c r="A339" s="45" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B339" s="46" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C339" s="47" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D339" s="45"/>
       <c r="E339" s="45" t="s">
@@ -16070,18 +16034,18 @@
         <v>17</v>
       </c>
       <c r="I339" s="47" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="150">
       <c r="A340" s="45" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B340" s="46" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C340" s="47" t="s">
         <v>1226</v>
-      </c>
-      <c r="C340" s="47" t="s">
-        <v>1228</v>
       </c>
       <c r="D340" s="45"/>
       <c r="E340" s="45" t="s">
@@ -16100,13 +16064,13 @@
     </row>
     <row r="341" spans="1:9" ht="30">
       <c r="A341" s="45" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B341" s="46" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C341" s="47" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D341" s="45"/>
       <c r="E341" s="45" t="s">
@@ -16125,13 +16089,13 @@
     </row>
     <row r="342" spans="1:9" ht="30">
       <c r="A342" s="45" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B342" s="46" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C342" s="47" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D342" s="45"/>
       <c r="E342" s="45" t="s">
@@ -16150,13 +16114,13 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343" s="45" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B343" s="46" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C343" s="47" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D343" s="45"/>
       <c r="E343" s="45" t="s">
@@ -16169,19 +16133,19 @@
         <v>15</v>
       </c>
       <c r="H343" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I343" s="47"/>
     </row>
     <row r="344" spans="1:9" ht="30">
       <c r="A344" s="45" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B344" s="46" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C344" s="47" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D344" s="45"/>
       <c r="E344" s="45" t="s">
@@ -16200,13 +16164,13 @@
     </row>
     <row r="345" spans="1:9" ht="30">
       <c r="A345" s="45" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B345" s="46" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C345" s="47" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D345" s="45"/>
       <c r="E345" s="45" t="s">
@@ -16219,19 +16183,19 @@
         <v>15</v>
       </c>
       <c r="H345" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I345" s="47"/>
     </row>
     <row r="346" spans="1:9" ht="30">
       <c r="A346" s="45" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B346" s="46" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C346" s="47" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D346" s="45"/>
       <c r="E346" s="45" t="s">
@@ -16250,13 +16214,13 @@
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="45" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B347" s="46" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C347" s="47" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D347" s="45"/>
       <c r="E347" s="45" t="s">
@@ -16269,19 +16233,19 @@
         <v>15</v>
       </c>
       <c r="H347" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I347" s="47"/>
     </row>
     <row r="348" spans="1:9" ht="45">
       <c r="A348" s="45" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B348" s="46" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C348" s="47" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D348" s="45"/>
       <c r="E348" s="45" t="s">
@@ -16297,18 +16261,18 @@
         <v>17</v>
       </c>
       <c r="I348" s="47" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="120">
       <c r="A349" s="45" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B349" s="46" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C349" s="47" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D349" s="45"/>
       <c r="E349" s="45" t="s">
@@ -16327,13 +16291,13 @@
     </row>
     <row r="350" spans="1:9" ht="30">
       <c r="A350" s="45" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B350" s="46" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C350" s="47" t="s">
         <v>1245</v>
-      </c>
-      <c r="C350" s="47" t="s">
-        <v>1247</v>
       </c>
       <c r="D350" s="45"/>
       <c r="E350" s="45" t="s">
@@ -16352,13 +16316,13 @@
     </row>
     <row r="351" spans="1:9" ht="30">
       <c r="A351" s="45" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B351" s="46" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C351" s="47" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D351" s="45"/>
       <c r="E351" s="45" t="s">
@@ -16377,13 +16341,13 @@
     </row>
     <row r="352" spans="1:9" ht="30">
       <c r="A352" s="45" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B352" s="46" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C352" s="47" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D352" s="45"/>
       <c r="E352" s="45" t="s">
@@ -16396,7 +16360,7 @@
         <v>15</v>
       </c>
       <c r="H352" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I352" s="47"/>
     </row>
@@ -16405,10 +16369,10 @@
         <v>293</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D353" s="25"/>
       <c r="E353" s="25" t="s">
@@ -16426,14 +16390,14 @@
       <c r="I353" s="27"/>
     </row>
     <row r="354" spans="1:9" ht="390">
-      <c r="A354" s="25" t="s">
+      <c r="A354" s="18" t="s">
         <v>294</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D354" s="25"/>
       <c r="E354" s="25" t="s">
@@ -16455,10 +16419,10 @@
         <v>295</v>
       </c>
       <c r="B355" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D355" s="25"/>
       <c r="E355" s="25" t="s">
@@ -16480,10 +16444,10 @@
         <v>296</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D356" s="25"/>
       <c r="E356" s="25" t="s">
@@ -16502,13 +16466,13 @@
     </row>
     <row r="357" spans="1:9" ht="45">
       <c r="A357" s="45" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C357" s="47" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D357" s="45"/>
       <c r="E357" s="45" t="s">
@@ -16530,10 +16494,10 @@
         <v>297</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D358" s="25"/>
       <c r="E358" s="25" t="s">
@@ -16549,7 +16513,7 @@
         <v>17</v>
       </c>
       <c r="I358" s="16" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="45">
@@ -16557,10 +16521,10 @@
         <v>298</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D359" s="25"/>
       <c r="E359" s="25" t="s">
@@ -16576,7 +16540,7 @@
         <v>17</v>
       </c>
       <c r="I359" s="16" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="45">
@@ -16584,10 +16548,10 @@
         <v>299</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D360" s="25"/>
       <c r="E360" s="25" t="s">
@@ -16603,7 +16567,7 @@
         <v>17</v>
       </c>
       <c r="I360" s="16" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="361" spans="1:9" ht="45">
@@ -16611,10 +16575,10 @@
         <v>300</v>
       </c>
       <c r="B361" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D361" s="25"/>
       <c r="E361" s="25" t="s">
@@ -16630,7 +16594,7 @@
         <v>17</v>
       </c>
       <c r="I361" s="16" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="362" spans="1:9" ht="45">
@@ -16638,10 +16602,10 @@
         <v>301</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D362" s="25"/>
       <c r="E362" s="25" t="s">
@@ -16657,7 +16621,7 @@
         <v>17</v>
       </c>
       <c r="I362" s="16" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="45">
@@ -16665,10 +16629,10 @@
         <v>302</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D363" s="25"/>
       <c r="E363" s="25" t="s">
@@ -16684,7 +16648,7 @@
         <v>17</v>
       </c>
       <c r="I363" s="16" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="30">
@@ -16692,7 +16656,7 @@
         <v>303</v>
       </c>
       <c r="B364" s="20" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C364" s="27" t="s">
         <v>548</v>
@@ -16717,9 +16681,9 @@
         <v>304</v>
       </c>
       <c r="B365" s="20" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C365" s="27" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C365" s="16" t="s">
         <v>549</v>
       </c>
       <c r="D365" s="25"/>
@@ -16742,10 +16706,10 @@
         <v>305</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D366" s="25"/>
       <c r="E366" s="25" t="s">
@@ -16767,10 +16731,10 @@
         <v>306</v>
       </c>
       <c r="B367" s="20" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D367" s="25"/>
       <c r="E367" s="25" t="s">
@@ -16792,10 +16756,10 @@
         <v>307</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D368" s="25"/>
       <c r="E368" s="25" t="s">
@@ -16817,7 +16781,7 @@
         <v>308</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C369" s="27" t="s">
         <v>550</v>
@@ -16842,10 +16806,10 @@
         <v>309</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D370" s="25"/>
       <c r="E370" s="25" t="s">
@@ -16867,10 +16831,10 @@
         <v>310</v>
       </c>
       <c r="B371" s="20" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D371" s="25"/>
       <c r="E371" s="25" t="s">
@@ -16892,10 +16856,10 @@
         <v>311</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D372" s="25"/>
       <c r="E372" s="25" t="s">
@@ -16917,7 +16881,7 @@
         <v>312</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C373" s="27" t="s">
         <v>551</v>
@@ -16942,10 +16906,10 @@
         <v>313</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D374" s="25"/>
       <c r="E374" s="25" t="s">
@@ -16967,10 +16931,10 @@
         <v>314</v>
       </c>
       <c r="B375" s="20" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C375" s="16" t="s">
         <v>1276</v>
-      </c>
-      <c r="C375" s="16" t="s">
-        <v>1278</v>
       </c>
       <c r="D375" s="25"/>
       <c r="E375" s="25" t="s">
@@ -16992,10 +16956,10 @@
         <v>315</v>
       </c>
       <c r="B376" s="20" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D376" s="25"/>
       <c r="E376" s="25" t="s">
@@ -17017,7 +16981,7 @@
         <v>316</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C377" s="27" t="s">
         <v>552</v>
@@ -17042,10 +17006,10 @@
         <v>317</v>
       </c>
       <c r="B378" s="20" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C378" s="16" t="s">
         <v>1279</v>
-      </c>
-      <c r="C378" s="16" t="s">
-        <v>1281</v>
       </c>
       <c r="D378" s="25"/>
       <c r="E378" s="25" t="s">
@@ -17067,10 +17031,10 @@
         <v>318</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D379" s="25"/>
       <c r="E379" s="25" t="s">
@@ -17092,10 +17056,10 @@
         <v>319</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D380" s="25"/>
       <c r="E380" s="25" t="s">
@@ -17117,7 +17081,7 @@
         <v>320</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C381" s="27" t="s">
         <v>553</v>
@@ -17142,10 +17106,10 @@
         <v>321</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D382" s="25"/>
       <c r="E382" s="25" t="s">
@@ -17167,10 +17131,10 @@
         <v>322</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D383" s="25"/>
       <c r="E383" s="25" t="s">
@@ -17192,7 +17156,7 @@
         <v>323</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C384" s="27" t="s">
         <v>554</v>
@@ -17217,9 +17181,9 @@
         <v>324</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C385" s="27" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C385" s="16" t="s">
         <v>555</v>
       </c>
       <c r="D385" s="25"/>
@@ -17242,7 +17206,7 @@
         <v>325</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C386" s="27" t="s">
         <v>556</v>
@@ -17267,10 +17231,10 @@
         <v>326</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D387" s="25"/>
       <c r="E387" s="25" t="s">
@@ -17292,7 +17256,7 @@
         <v>327</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C388" s="27" t="s">
         <v>557</v>
@@ -17317,10 +17281,10 @@
         <v>328</v>
       </c>
       <c r="B389" s="20" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C389" s="16" t="s">
         <v>1287</v>
-      </c>
-      <c r="C389" s="16" t="s">
-        <v>1289</v>
       </c>
       <c r="D389" s="25"/>
       <c r="E389" s="25" t="s">
@@ -17342,7 +17306,7 @@
         <v>329</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C390" s="27" t="s">
         <v>558</v>
@@ -17367,10 +17331,10 @@
         <v>330</v>
       </c>
       <c r="B391" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D391" s="25"/>
       <c r="E391" s="25" t="s">
@@ -17392,7 +17356,7 @@
         <v>331</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C392" s="27" t="s">
         <v>559</v>
@@ -17417,10 +17381,10 @@
         <v>332</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D393" s="25"/>
       <c r="E393" s="25" t="s">
@@ -17442,7 +17406,7 @@
         <v>333</v>
       </c>
       <c r="B394" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C394" s="27" t="s">
         <v>560</v>
@@ -17467,10 +17431,10 @@
         <v>334</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D395" s="25"/>
       <c r="E395" s="25" t="s">
@@ -17492,10 +17456,10 @@
         <v>335</v>
       </c>
       <c r="B396" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D396" s="25"/>
       <c r="E396" s="25" t="s">
@@ -17517,10 +17481,10 @@
         <v>336</v>
       </c>
       <c r="B397" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D397" s="25"/>
       <c r="E397" s="25" t="s">
@@ -17542,10 +17506,10 @@
         <v>337</v>
       </c>
       <c r="B398" s="20" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D398" s="25"/>
       <c r="E398" s="25" t="s">
@@ -17567,7 +17531,7 @@
         <v>338</v>
       </c>
       <c r="B399" s="20" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C399" s="27" t="s">
         <v>561</v>
@@ -17592,10 +17556,10 @@
         <v>339</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D400" s="25"/>
       <c r="E400" s="25" t="s">
@@ -17617,7 +17581,7 @@
         <v>340</v>
       </c>
       <c r="B401" s="20" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C401" s="27" t="s">
         <v>562</v>
@@ -17645,7 +17609,7 @@
         <v>407</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D402" s="25"/>
       <c r="E402" s="25" t="s">
@@ -17664,13 +17628,13 @@
     </row>
     <row r="403" spans="1:9" ht="45">
       <c r="A403" s="45" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B403" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C403" s="47" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D403" s="45"/>
       <c r="E403" s="45" t="s">
@@ -17686,18 +17650,18 @@
         <v>17</v>
       </c>
       <c r="I403" s="47" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="165">
       <c r="A404" s="45" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B404" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C404" s="47" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D404" s="45"/>
       <c r="E404" s="45" t="s">
@@ -17710,19 +17674,19 @@
         <v>15</v>
       </c>
       <c r="H404" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I404" s="47"/>
     </row>
     <row r="405" spans="1:9" ht="30">
       <c r="A405" s="45" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B405" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C405" s="47" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D405" s="45"/>
       <c r="E405" s="45" t="s">
@@ -17741,13 +17705,13 @@
     </row>
     <row r="406" spans="1:9">
       <c r="A406" s="45" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B406" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C406" s="47" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D406" s="45"/>
       <c r="E406" s="45" t="s">
@@ -17760,19 +17724,19 @@
         <v>15</v>
       </c>
       <c r="H406" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I406" s="47"/>
     </row>
     <row r="407" spans="1:9">
       <c r="A407" s="45" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B407" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C407" s="47" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D407" s="45"/>
       <c r="E407" s="45" t="s">
@@ -17785,19 +17749,19 @@
         <v>15</v>
       </c>
       <c r="H407" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I407" s="47"/>
     </row>
     <row r="408" spans="1:9">
       <c r="A408" s="45" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B408" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C408" s="47" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D408" s="45"/>
       <c r="E408" s="45" t="s">
@@ -17810,19 +17774,19 @@
         <v>15</v>
       </c>
       <c r="H408" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I408" s="47"/>
     </row>
     <row r="409" spans="1:9">
       <c r="A409" s="45" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B409" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C409" s="47" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D409" s="45"/>
       <c r="E409" s="45" t="s">
@@ -17835,19 +17799,19 @@
         <v>15</v>
       </c>
       <c r="H409" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I409" s="47"/>
     </row>
     <row r="410" spans="1:9" ht="45">
       <c r="A410" s="45" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B410" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C410" s="47" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D410" s="45"/>
       <c r="E410" s="45" t="s">
@@ -17863,18 +17827,18 @@
         <v>17</v>
       </c>
       <c r="I410" s="47" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="225">
       <c r="A411" s="45" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B411" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C411" s="47" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D411" s="45"/>
       <c r="E411" s="45" t="s">
@@ -17893,13 +17857,13 @@
     </row>
     <row r="412" spans="1:9" ht="45">
       <c r="A412" s="45" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B412" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C412" s="47" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D412" s="45"/>
       <c r="E412" s="45" t="s">
@@ -17918,13 +17882,13 @@
     </row>
     <row r="413" spans="1:9">
       <c r="A413" s="45" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B413" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C413" s="47" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D413" s="45"/>
       <c r="E413" s="45" t="s">
@@ -17937,19 +17901,19 @@
         <v>15</v>
       </c>
       <c r="H413" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I413" s="47"/>
     </row>
     <row r="414" spans="1:9">
       <c r="A414" s="45" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B414" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C414" s="47" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D414" s="45"/>
       <c r="E414" s="45" t="s">
@@ -17962,19 +17926,19 @@
         <v>15</v>
       </c>
       <c r="H414" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I414" s="47"/>
     </row>
     <row r="415" spans="1:9">
       <c r="A415" s="45" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B415" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C415" s="47" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D415" s="45"/>
       <c r="E415" s="45" t="s">
@@ -17987,19 +17951,19 @@
         <v>15</v>
       </c>
       <c r="H415" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I415" s="47"/>
     </row>
     <row r="416" spans="1:9">
       <c r="A416" s="45" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B416" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C416" s="47" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D416" s="45"/>
       <c r="E416" s="45" t="s">
@@ -18018,13 +17982,13 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="45" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B417" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C417" s="47" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D417" s="45"/>
       <c r="E417" s="45" t="s">
@@ -18043,13 +18007,13 @@
     </row>
     <row r="418" spans="1:9">
       <c r="A418" s="45" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B418" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C418" s="47" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D418" s="45"/>
       <c r="E418" s="45" t="s">
@@ -18068,13 +18032,13 @@
     </row>
     <row r="419" spans="1:9">
       <c r="A419" s="45" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B419" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C419" s="47" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D419" s="45"/>
       <c r="E419" s="45" t="s">
@@ -18087,19 +18051,19 @@
         <v>15</v>
       </c>
       <c r="H419" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I419" s="47"/>
     </row>
     <row r="420" spans="1:9">
       <c r="A420" s="45" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B420" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C420" s="47" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D420" s="45"/>
       <c r="E420" s="45" t="s">
@@ -18112,19 +18076,19 @@
         <v>15</v>
       </c>
       <c r="H420" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I420" s="47"/>
     </row>
     <row r="421" spans="1:9">
       <c r="A421" s="45" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B421" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C421" s="47" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D421" s="45"/>
       <c r="E421" s="45" t="s">
@@ -18143,13 +18107,13 @@
     </row>
     <row r="422" spans="1:9">
       <c r="A422" s="45" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B422" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C422" s="47" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D422" s="45"/>
       <c r="E422" s="45" t="s">
@@ -18174,7 +18138,7 @@
         <v>410</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D423" s="25"/>
       <c r="E423" s="25" t="s">
@@ -18249,7 +18213,7 @@
         <v>410</v>
       </c>
       <c r="C426" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D426" s="25"/>
       <c r="E426" s="25" t="s">
@@ -18274,7 +18238,7 @@
         <v>410</v>
       </c>
       <c r="C427" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D427" s="25"/>
       <c r="E427" s="25" t="s">
@@ -18299,7 +18263,7 @@
         <v>410</v>
       </c>
       <c r="C428" s="16" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D428" s="25"/>
       <c r="E428" s="25" t="s">
@@ -18324,7 +18288,7 @@
         <v>411</v>
       </c>
       <c r="C429" s="16" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D429" s="25"/>
       <c r="E429" s="25" t="s">
@@ -18399,7 +18363,7 @@
         <v>411</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D432" s="25"/>
       <c r="E432" s="25" t="s">
@@ -18424,7 +18388,7 @@
         <v>411</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D433" s="25"/>
       <c r="E433" s="25" t="s">
@@ -18449,7 +18413,7 @@
         <v>411</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D434" s="25"/>
       <c r="E434" s="25" t="s">
@@ -18499,7 +18463,7 @@
         <v>411</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D436" s="25"/>
       <c r="E436" s="25" t="s">
@@ -18524,7 +18488,7 @@
         <v>411</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D437" s="25"/>
       <c r="E437" s="25" t="s">
@@ -18549,7 +18513,7 @@
         <v>411</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D438" s="25"/>
       <c r="E438" s="25" t="s">
@@ -18574,7 +18538,7 @@
         <v>411</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D439" s="25"/>
       <c r="E439" s="25" t="s">
@@ -18599,7 +18563,7 @@
         <v>411</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D440" s="25"/>
       <c r="E440" s="25" t="s">
@@ -18624,7 +18588,7 @@
         <v>411</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D441" s="25"/>
       <c r="E441" s="25" t="s">
@@ -18649,7 +18613,7 @@
         <v>411</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D442" s="25"/>
       <c r="E442" s="25" t="s">
@@ -18674,7 +18638,7 @@
         <v>411</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D443" s="25"/>
       <c r="E443" s="25" t="s">
@@ -18699,7 +18663,7 @@
         <v>411</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D444" s="25"/>
       <c r="E444" s="25" t="s">
@@ -18724,7 +18688,7 @@
         <v>411</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D445" s="25"/>
       <c r="E445" s="25" t="s">
@@ -18740,7 +18704,7 @@
         <v>17</v>
       </c>
       <c r="I445" s="16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="446" spans="1:9" ht="45">
@@ -18751,7 +18715,7 @@
         <v>411</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D446" s="25"/>
       <c r="E446" s="25" t="s">
@@ -18767,7 +18731,7 @@
         <v>17</v>
       </c>
       <c r="I446" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="447" spans="1:9" ht="45">
@@ -18778,7 +18742,7 @@
         <v>411</v>
       </c>
       <c r="C447" s="16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D447" s="25"/>
       <c r="E447" s="25" t="s">
@@ -18794,7 +18758,7 @@
         <v>17</v>
       </c>
       <c r="I447" s="16" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="45">
@@ -18805,7 +18769,7 @@
         <v>411</v>
       </c>
       <c r="C448" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D448" s="25"/>
       <c r="E448" s="25" t="s">
@@ -18821,7 +18785,7 @@
         <v>17</v>
       </c>
       <c r="I448" s="16" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="449" spans="1:9" ht="45">
@@ -18832,7 +18796,7 @@
         <v>411</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D449" s="25"/>
       <c r="E449" s="25" t="s">
@@ -18848,7 +18812,7 @@
         <v>17</v>
       </c>
       <c r="I449" s="16" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="450" spans="1:9" ht="30">
@@ -18859,7 +18823,7 @@
         <v>412</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D450" s="25"/>
       <c r="E450" s="25" t="s">
@@ -19009,7 +18973,7 @@
         <v>413</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D456" s="25"/>
       <c r="E456" s="25" t="s">
@@ -19034,7 +18998,7 @@
         <v>413</v>
       </c>
       <c r="C457" s="16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D457" s="25"/>
       <c r="E457" s="25" t="s">
@@ -19059,7 +19023,7 @@
         <v>413</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D458" s="25"/>
       <c r="E458" s="25" t="s">
@@ -19553,13 +19517,13 @@
     </row>
     <row r="478" spans="1:9" ht="45">
       <c r="A478" s="45" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B478" s="20" t="s">
         <v>413</v>
       </c>
       <c r="C478" s="47" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D478" s="45"/>
       <c r="E478" s="45" t="s">
@@ -19575,18 +19539,18 @@
         <v>17</v>
       </c>
       <c r="I478" s="47" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="479" spans="1:9" ht="45">
       <c r="A479" s="45" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B479" s="20" t="s">
         <v>413</v>
       </c>
       <c r="C479" s="47" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D479" s="45"/>
       <c r="E479" s="45" t="s">
@@ -19602,18 +19566,18 @@
         <v>17</v>
       </c>
       <c r="I479" s="47" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="480" spans="1:9">
       <c r="A480" s="45" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B480" s="20" t="s">
         <v>413</v>
       </c>
       <c r="C480" s="47" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D480" s="45"/>
       <c r="E480" s="45" t="s">
@@ -19632,13 +19596,13 @@
     </row>
     <row r="481" spans="1:9">
       <c r="A481" s="45" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B481" s="20" t="s">
         <v>413</v>
       </c>
       <c r="C481" s="47" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D481" s="45"/>
       <c r="E481" s="45" t="s">
@@ -19663,7 +19627,7 @@
         <v>414</v>
       </c>
       <c r="C482" s="16" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D482" s="25"/>
       <c r="E482" s="25" t="s">
@@ -19838,7 +19802,7 @@
         <v>415</v>
       </c>
       <c r="C489" s="16" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D489" s="25"/>
       <c r="E489" s="25" t="s">
@@ -19862,7 +19826,7 @@
       <c r="B490" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="C490" s="27" t="s">
+      <c r="C490" s="16" t="s">
         <v>519</v>
       </c>
       <c r="D490" s="25"/>
@@ -19988,7 +19952,7 @@
         <v>34</v>
       </c>
       <c r="C495" s="16" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D495" s="25"/>
       <c r="E495" s="25" t="s">
@@ -20063,7 +20027,7 @@
         <v>34</v>
       </c>
       <c r="C498" s="16" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D498" s="25"/>
       <c r="E498" s="25" t="s">
@@ -20138,7 +20102,7 @@
         <v>416</v>
       </c>
       <c r="C501" s="16" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D501" s="25"/>
       <c r="E501" s="25" t="s">
@@ -20213,7 +20177,7 @@
         <v>416</v>
       </c>
       <c r="C504" s="16" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D504" s="25"/>
       <c r="E504" s="25" t="s">
@@ -20288,7 +20252,7 @@
         <v>417</v>
       </c>
       <c r="C507" s="16" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="D507" s="25"/>
       <c r="E507" s="25" t="s">
@@ -20338,7 +20302,7 @@
         <v>417</v>
       </c>
       <c r="C509" s="16" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="D509" s="25"/>
       <c r="E509" s="25" t="s">
@@ -20363,7 +20327,7 @@
         <v>417</v>
       </c>
       <c r="C510" s="16" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D510" s="25"/>
       <c r="E510" s="25" t="s">
@@ -20438,7 +20402,7 @@
         <v>418</v>
       </c>
       <c r="C513" s="16" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D513" s="25"/>
       <c r="E513" s="25" t="s">
@@ -20513,7 +20477,7 @@
         <v>418</v>
       </c>
       <c r="C516" s="16" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="D516" s="25"/>
       <c r="E516" s="25" t="s">
@@ -20638,7 +20602,7 @@
         <v>419</v>
       </c>
       <c r="C521" s="16" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D521" s="25"/>
       <c r="E521" s="25" t="s">
@@ -20663,7 +20627,7 @@
         <v>419</v>
       </c>
       <c r="C522" s="16" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D522" s="25"/>
       <c r="E522" s="25" t="s">
@@ -20707,13 +20671,13 @@
     </row>
     <row r="524" spans="1:9" ht="45">
       <c r="A524" s="18" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B524" s="26" t="s">
         <v>419</v>
       </c>
       <c r="C524" s="47" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D524" s="45"/>
       <c r="E524" s="45" t="s">
@@ -20757,13 +20721,13 @@
     </row>
     <row r="526" spans="1:9" ht="30">
       <c r="A526" s="45" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B526" s="20" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C526" s="47" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D526" s="45"/>
       <c r="E526" s="45" t="s">
@@ -20782,13 +20746,13 @@
     </row>
     <row r="527" spans="1:9" ht="105">
       <c r="A527" s="45" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B527" s="20" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C527" s="47" t="s">
         <v>1309</v>
-      </c>
-      <c r="C527" s="47" t="s">
-        <v>1311</v>
       </c>
       <c r="D527" s="45"/>
       <c r="E527" s="45" t="s">
@@ -20801,19 +20765,19 @@
         <v>15</v>
       </c>
       <c r="H527" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I527" s="47"/>
     </row>
     <row r="528" spans="1:9" ht="255">
       <c r="A528" s="45" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B528" s="20" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C528" s="47" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D528" s="45"/>
       <c r="E528" s="45" t="s">
@@ -20826,19 +20790,19 @@
         <v>15</v>
       </c>
       <c r="H528" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I528" s="47"/>
     </row>
     <row r="529" spans="1:9">
       <c r="A529" s="45" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B529" s="20" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C529" s="47" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D529" s="45"/>
       <c r="E529" s="45" t="s">
@@ -20857,13 +20821,13 @@
     </row>
     <row r="530" spans="1:9" ht="30">
       <c r="A530" s="45" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B530" s="46" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C530" s="47" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="D530" s="45"/>
       <c r="E530" s="45" t="s">
@@ -20876,19 +20840,19 @@
         <v>15</v>
       </c>
       <c r="H530" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I530" s="47"/>
     </row>
     <row r="531" spans="1:9" ht="45">
       <c r="A531" s="45" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B531" s="46" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C531" s="47" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D531" s="45"/>
       <c r="E531" s="45" t="s">
@@ -20907,13 +20871,13 @@
     </row>
     <row r="532" spans="1:9">
       <c r="A532" s="45" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B532" s="46" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C532" s="47" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D532" s="45"/>
       <c r="E532" s="45" t="s">
@@ -20932,13 +20896,13 @@
     </row>
     <row r="533" spans="1:9" ht="30">
       <c r="A533" s="45" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B533" s="46" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C533" s="47" t="s">
         <v>1313</v>
-      </c>
-      <c r="C533" s="47" t="s">
-        <v>1315</v>
       </c>
       <c r="D533" s="45"/>
       <c r="E533" s="45" t="s">
@@ -20957,13 +20921,13 @@
     </row>
     <row r="534" spans="1:9" ht="30">
       <c r="A534" s="45" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B534" s="46" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C534" s="47" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D534" s="45"/>
       <c r="E534" s="45" t="s">
@@ -20982,13 +20946,13 @@
     </row>
     <row r="535" spans="1:9" ht="105">
       <c r="A535" s="45" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B535" s="46" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C535" s="47" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D535" s="45"/>
       <c r="E535" s="45" t="s">
@@ -21007,13 +20971,13 @@
     </row>
     <row r="536" spans="1:9" ht="45">
       <c r="A536" s="45" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B536" s="46" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C536" s="47" t="s">
         <v>1317</v>
-      </c>
-      <c r="C536" s="47" t="s">
-        <v>1319</v>
       </c>
       <c r="D536" s="45"/>
       <c r="E536" s="45" t="s">
@@ -21032,13 +20996,13 @@
     </row>
     <row r="537" spans="1:9" ht="30">
       <c r="A537" s="45" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B537" s="46" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C537" s="47" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="D537" s="45"/>
       <c r="E537" s="45" t="s">
@@ -21057,13 +21021,13 @@
     </row>
     <row r="538" spans="1:9" ht="30">
       <c r="A538" s="45" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B538" s="46" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C538" s="47" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D538" s="45"/>
       <c r="E538" s="45" t="s">
@@ -21082,13 +21046,13 @@
     </row>
     <row r="539" spans="1:9" ht="30">
       <c r="A539" s="45" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B539" s="46" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C539" s="47" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D539" s="45"/>
       <c r="E539" s="45" t="s">
@@ -21107,13 +21071,13 @@
     </row>
     <row r="540" spans="1:9" ht="30">
       <c r="A540" s="45" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B540" s="46" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C540" s="47" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D540" s="45"/>
       <c r="E540" s="45" t="s">
@@ -21132,13 +21096,13 @@
     </row>
     <row r="541" spans="1:9" ht="30">
       <c r="A541" s="45" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B541" s="46" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C541" s="47" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D541" s="45"/>
       <c r="E541" s="45" t="s">
@@ -21157,13 +21121,13 @@
     </row>
     <row r="542" spans="1:9" ht="30">
       <c r="A542" s="45" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B542" s="46" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C542" s="47" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D542" s="45"/>
       <c r="E542" s="45" t="s">
@@ -21176,19 +21140,19 @@
         <v>15</v>
       </c>
       <c r="H542" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I542" s="47"/>
     </row>
     <row r="543" spans="1:9" ht="105">
       <c r="A543" s="45" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B543" s="46" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C543" s="47" t="s">
         <v>1320</v>
-      </c>
-      <c r="C543" s="47" t="s">
-        <v>1322</v>
       </c>
       <c r="D543" s="45"/>
       <c r="E543" s="45" t="s">
@@ -21201,19 +21165,19 @@
         <v>15</v>
       </c>
       <c r="H543" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I543" s="47"/>
     </row>
     <row r="544" spans="1:9" ht="45">
       <c r="A544" s="45" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B544" s="46" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C544" s="47" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D544" s="45"/>
       <c r="E544" s="45" t="s">
@@ -21226,19 +21190,19 @@
         <v>15</v>
       </c>
       <c r="H544" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I544" s="47"/>
     </row>
     <row r="545" spans="1:9" ht="30">
       <c r="A545" s="45" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B545" s="46" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C545" s="47" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D545" s="45"/>
       <c r="E545" s="45" t="s">
@@ -21257,13 +21221,13 @@
     </row>
     <row r="546" spans="1:9" ht="30">
       <c r="A546" s="45" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B546" s="46" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C546" s="47" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D546" s="45"/>
       <c r="E546" s="45" t="s">
@@ -21276,19 +21240,19 @@
         <v>15</v>
       </c>
       <c r="H546" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I546" s="47"/>
     </row>
     <row r="547" spans="1:9" ht="30">
       <c r="A547" s="45" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B547" s="46" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C547" s="47" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D547" s="45"/>
       <c r="E547" s="45" t="s">
@@ -21301,19 +21265,19 @@
         <v>15</v>
       </c>
       <c r="H547" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I547" s="47"/>
     </row>
     <row r="548" spans="1:9" ht="30">
       <c r="A548" s="45" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B548" s="46" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C548" s="47" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D548" s="45"/>
       <c r="E548" s="45" t="s">
@@ -21326,19 +21290,19 @@
         <v>15</v>
       </c>
       <c r="H548" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I548" s="47"/>
     </row>
     <row r="549" spans="1:9" ht="30">
       <c r="A549" s="45" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B549" s="46" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C549" s="47" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D549" s="45"/>
       <c r="E549" s="45" t="s">
@@ -21351,19 +21315,19 @@
         <v>15</v>
       </c>
       <c r="H549" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I549" s="47"/>
     </row>
     <row r="550" spans="1:9" ht="30">
       <c r="A550" s="45" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B550" s="46" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C550" s="47" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D550" s="45"/>
       <c r="E550" s="45" t="s">
@@ -21382,13 +21346,13 @@
     </row>
     <row r="551" spans="1:9" ht="45">
       <c r="A551" s="45" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B551" s="46" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C551" s="47" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D551" s="45"/>
       <c r="E551" s="45" t="s">
@@ -21407,13 +21371,13 @@
     </row>
     <row r="552" spans="1:9" ht="30">
       <c r="A552" s="45" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B552" s="46" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C552" s="47" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D552" s="45"/>
       <c r="E552" s="45" t="s">
@@ -21432,13 +21396,13 @@
     </row>
     <row r="553" spans="1:9" ht="60">
       <c r="A553" s="45" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B553" s="46" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C553" s="47" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D553" s="45"/>
       <c r="E553" s="45" t="s">
@@ -21457,13 +21421,13 @@
     </row>
     <row r="554" spans="1:9" ht="30">
       <c r="A554" s="45" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B554" s="46" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C554" s="47" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D554" s="45"/>
       <c r="E554" s="45" t="s">
@@ -21482,13 +21446,13 @@
     </row>
     <row r="555" spans="1:9" ht="30">
       <c r="A555" s="45" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B555" s="46" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C555" s="47" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="D555" s="45"/>
       <c r="E555" s="45" t="s">
@@ -21507,13 +21471,13 @@
     </row>
     <row r="556" spans="1:9" ht="30">
       <c r="A556" s="45" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B556" s="46" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C556" s="47" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="D556" s="45"/>
       <c r="E556" s="45" t="s">
@@ -21532,13 +21496,13 @@
     </row>
     <row r="557" spans="1:9" ht="30">
       <c r="A557" s="45" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B557" s="46" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C557" s="47" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D557" s="45"/>
       <c r="E557" s="45" t="s">
@@ -21557,13 +21521,13 @@
     </row>
     <row r="558" spans="1:9" ht="60">
       <c r="A558" s="45" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B558" s="46" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C558" s="47" t="s">
         <v>1338</v>
-      </c>
-      <c r="C558" s="47" t="s">
-        <v>1340</v>
       </c>
       <c r="D558" s="45"/>
       <c r="E558" s="45" t="s">
@@ -21582,13 +21546,13 @@
     </row>
     <row r="559" spans="1:9" ht="30">
       <c r="A559" s="45" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B559" s="46" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C559" s="47" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D559" s="45"/>
       <c r="E559" s="45" t="s">
@@ -21601,19 +21565,19 @@
         <v>15</v>
       </c>
       <c r="H559" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I559" s="47"/>
     </row>
     <row r="560" spans="1:9" ht="90">
       <c r="A560" s="45" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B560" s="46" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C560" s="47" t="s">
         <v>1341</v>
-      </c>
-      <c r="C560" s="47" t="s">
-        <v>1343</v>
       </c>
       <c r="D560" s="45"/>
       <c r="E560" s="45" t="s">
@@ -21626,19 +21590,19 @@
         <v>15</v>
       </c>
       <c r="H560" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I560" s="47"/>
     </row>
     <row r="561" spans="1:9" ht="45">
       <c r="A561" s="45" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B561" s="46" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C561" s="47" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D561" s="45"/>
       <c r="E561" s="45" t="s">
@@ -21657,13 +21621,13 @@
     </row>
     <row r="562" spans="1:9">
       <c r="A562" s="45" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B562" s="46" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C562" s="47" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="D562" s="45"/>
       <c r="E562" s="45" t="s">
@@ -21682,13 +21646,13 @@
     </row>
     <row r="563" spans="1:9" ht="30">
       <c r="A563" s="45" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B563" s="46" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C563" s="47" t="s">
         <v>1344</v>
-      </c>
-      <c r="C563" s="47" t="s">
-        <v>1346</v>
       </c>
       <c r="D563" s="45"/>
       <c r="E563" s="45" t="s">
@@ -21707,13 +21671,13 @@
     </row>
     <row r="564" spans="1:9" ht="30">
       <c r="A564" s="45" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B564" s="46" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C564" s="47" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="D564" s="45"/>
       <c r="E564" s="45" t="s">
@@ -21732,13 +21696,13 @@
     </row>
     <row r="565" spans="1:9" ht="45">
       <c r="A565" s="45" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B565" s="46" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C565" s="47" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="D565" s="45"/>
       <c r="E565" s="45" t="s">
@@ -21757,13 +21721,13 @@
     </row>
     <row r="566" spans="1:9" ht="30">
       <c r="A566" s="45" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B566" s="46" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C566" s="47" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="D566" s="45"/>
       <c r="E566" s="45" t="s">
@@ -21782,13 +21746,13 @@
     </row>
     <row r="567" spans="1:9" ht="30">
       <c r="A567" s="45" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B567" s="46" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C567" s="47" t="s">
         <v>1349</v>
-      </c>
-      <c r="C567" s="47" t="s">
-        <v>1351</v>
       </c>
       <c r="D567" s="45"/>
       <c r="E567" s="45" t="s">
@@ -21807,13 +21771,13 @@
     </row>
     <row r="568" spans="1:9" ht="210">
       <c r="A568" s="45" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B568" s="46" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C568" s="47" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D568" s="45"/>
       <c r="E568" s="45" t="s">
@@ -21832,13 +21796,13 @@
     </row>
     <row r="569" spans="1:9" ht="30">
       <c r="A569" s="45" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B569" s="46" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C569" s="47" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D569" s="45"/>
       <c r="E569" s="45" t="s">
@@ -21857,13 +21821,13 @@
     </row>
     <row r="570" spans="1:9">
       <c r="A570" s="45" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B570" s="46" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C570" s="47" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D570" s="45"/>
       <c r="E570" s="45" t="s">
@@ -21882,13 +21846,13 @@
     </row>
     <row r="571" spans="1:9">
       <c r="A571" s="45" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B571" s="46" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C571" s="47" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="D571" s="45"/>
       <c r="E571" s="45" t="s">
@@ -21907,13 +21871,13 @@
     </row>
     <row r="572" spans="1:9" ht="30">
       <c r="A572" s="45" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B572" s="46" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C572" s="47" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D572" s="45"/>
       <c r="E572" s="45" t="s">
@@ -21932,13 +21896,13 @@
     </row>
     <row r="573" spans="1:9">
       <c r="A573" s="45" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B573" s="46" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C573" s="47" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="D573" s="45"/>
       <c r="E573" s="45" t="s">
@@ -21957,13 +21921,13 @@
     </row>
     <row r="574" spans="1:9" ht="30">
       <c r="A574" s="45" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B574" s="46" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C574" s="47" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D574" s="45"/>
       <c r="E574" s="45" t="s">
@@ -21982,13 +21946,13 @@
     </row>
     <row r="575" spans="1:9" ht="30">
       <c r="A575" s="45" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B575" s="46" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C575" s="47" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="D575" s="45"/>
       <c r="E575" s="45" t="s">
@@ -22007,13 +21971,13 @@
     </row>
     <row r="576" spans="1:9" ht="45">
       <c r="A576" s="45" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B576" s="46" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C576" s="47" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="D576" s="45"/>
       <c r="E576" s="45" t="s">
@@ -22032,13 +21996,13 @@
     </row>
     <row r="577" spans="1:9" ht="30">
       <c r="A577" s="45" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B577" s="46" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C577" s="47" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="D577" s="45"/>
       <c r="E577" s="45" t="s">
@@ -22051,19 +22015,19 @@
         <v>15</v>
       </c>
       <c r="H577" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I577" s="47"/>
     </row>
     <row r="578" spans="1:9" ht="45">
       <c r="A578" s="45" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B578" s="46" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C578" s="47" t="s">
         <v>1360</v>
-      </c>
-      <c r="C578" s="47" t="s">
-        <v>1362</v>
       </c>
       <c r="D578" s="45"/>
       <c r="E578" s="45" t="s">
@@ -22076,19 +22040,19 @@
         <v>15</v>
       </c>
       <c r="H578" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I578" s="47"/>
     </row>
     <row r="579" spans="1:9" ht="225">
       <c r="A579" s="45" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B579" s="46" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C579" s="47" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="D579" s="45"/>
       <c r="E579" s="45" t="s">
@@ -22101,19 +22065,19 @@
         <v>15</v>
       </c>
       <c r="H579" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I579" s="47"/>
     </row>
     <row r="580" spans="1:9" ht="30">
       <c r="A580" s="45" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B580" s="46" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C580" s="47" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D580" s="45"/>
       <c r="E580" s="45" t="s">
@@ -22132,13 +22096,13 @@
     </row>
     <row r="581" spans="1:9" ht="30">
       <c r="A581" s="45" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B581" s="46" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C581" s="47" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="D581" s="45"/>
       <c r="E581" s="45" t="s">
@@ -22151,19 +22115,19 @@
         <v>15</v>
       </c>
       <c r="H581" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I581" s="47"/>
     </row>
     <row r="582" spans="1:9" ht="60">
       <c r="A582" s="45" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B582" s="46" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C582" s="47" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D582" s="45"/>
       <c r="E582" s="45" t="s">
@@ -22179,21 +22143,21 @@
         <v>17</v>
       </c>
       <c r="I582" s="47" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="583" spans="1:9" ht="30">
       <c r="A583" s="45" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="B583" s="46" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C583" s="47" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="D583" s="45" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="E583" s="45" t="s">
         <v>19</v>
@@ -22211,16 +22175,16 @@
     </row>
     <row r="584" spans="1:9" ht="30">
       <c r="A584" s="45" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="B584" s="46" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C584" s="47" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="D584" s="45" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="E584" s="45" t="s">
         <v>19</v>
@@ -22238,13 +22202,13 @@
     </row>
     <row r="585" spans="1:9" ht="30">
       <c r="A585" s="45" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B585" s="46" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C585" s="47" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="D585" s="45"/>
       <c r="E585" s="45" t="s">
@@ -22257,19 +22221,19 @@
         <v>15</v>
       </c>
       <c r="H585" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I585" s="47"/>
     </row>
     <row r="586" spans="1:9" ht="30">
       <c r="A586" s="45" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B586" s="46" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C586" s="47" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="D586" s="45"/>
       <c r="E586" s="45" t="s">
@@ -22282,19 +22246,19 @@
         <v>15</v>
       </c>
       <c r="H586" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I586" s="47"/>
     </row>
     <row r="587" spans="1:9" ht="30">
       <c r="A587" s="45" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B587" s="46" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C587" s="47" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="D587" s="45"/>
       <c r="E587" s="45" t="s">
@@ -22307,19 +22271,19 @@
         <v>15</v>
       </c>
       <c r="H587" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I587" s="47"/>
     </row>
     <row r="588" spans="1:9" ht="30">
       <c r="A588" s="45" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B588" s="46" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C588" s="47" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="D588" s="45"/>
       <c r="E588" s="45" t="s">
@@ -22332,19 +22296,19 @@
         <v>15</v>
       </c>
       <c r="H588" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I588" s="47"/>
     </row>
     <row r="589" spans="1:9" ht="120">
       <c r="A589" s="45" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B589" s="46" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C589" s="47" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="D589" s="45"/>
       <c r="E589" s="45" t="s">
@@ -22357,19 +22321,19 @@
         <v>15</v>
       </c>
       <c r="H589" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I589" s="47"/>
     </row>
     <row r="590" spans="1:9" ht="30">
       <c r="A590" s="45" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B590" s="46" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C590" s="47" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D590" s="45"/>
       <c r="E590" s="45" t="s">
@@ -22388,13 +22352,13 @@
     </row>
     <row r="591" spans="1:9">
       <c r="A591" s="45" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B591" s="46" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C591" s="47" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D591" s="45"/>
       <c r="E591" s="45" t="s">
@@ -22413,13 +22377,13 @@
     </row>
     <row r="592" spans="1:9" ht="30">
       <c r="A592" s="45" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B592" s="46" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C592" s="47" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D592" s="45"/>
       <c r="E592" s="45" t="s">
@@ -22438,13 +22402,13 @@
     </row>
     <row r="593" spans="1:9">
       <c r="A593" s="45" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B593" s="46" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C593" s="47" t="s">
         <v>1379</v>
-      </c>
-      <c r="C593" s="47" t="s">
-        <v>1381</v>
       </c>
       <c r="D593" s="45"/>
       <c r="E593" s="45" t="s">
@@ -22463,38 +22427,38 @@
     </row>
     <row r="594" spans="1:9" ht="225">
       <c r="A594" s="45" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B594" s="46" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C594" s="47" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="D594" s="45"/>
       <c r="E594" s="45" t="s">
         <v>19</v>
       </c>
       <c r="F594" s="45" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G594" s="45" t="s">
         <v>15</v>
       </c>
       <c r="H594" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I594" s="47"/>
     </row>
     <row r="595" spans="1:9" ht="45">
       <c r="A595" s="45" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B595" s="46" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C595" s="47" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="D595" s="45"/>
       <c r="E595" s="45" t="s">
@@ -22513,13 +22477,13 @@
     </row>
     <row r="596" spans="1:9" ht="30">
       <c r="A596" s="45" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B596" s="46" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C596" s="47" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="D596" s="45"/>
       <c r="E596" s="45" t="s">
@@ -22538,13 +22502,13 @@
     </row>
     <row r="597" spans="1:9" ht="30">
       <c r="A597" s="45" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B597" s="46" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C597" s="47" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D597" s="45"/>
       <c r="E597" s="45" t="s">
@@ -22563,13 +22527,13 @@
     </row>
     <row r="598" spans="1:9" ht="30">
       <c r="A598" s="45" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B598" s="46" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C598" s="47" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D598" s="45"/>
       <c r="E598" s="45" t="s">
@@ -22588,13 +22552,13 @@
     </row>
     <row r="599" spans="1:9" ht="30">
       <c r="A599" s="45" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B599" s="46" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C599" s="47" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D599" s="45"/>
       <c r="E599" s="45" t="s">
@@ -22613,13 +22577,13 @@
     </row>
     <row r="600" spans="1:9" ht="30">
       <c r="A600" s="45" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B600" s="46" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C600" s="47" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="D600" s="45"/>
       <c r="E600" s="45" t="s">
@@ -22638,13 +22602,13 @@
     </row>
     <row r="601" spans="1:9" ht="30">
       <c r="A601" s="45" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="B601" s="46" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C601" s="47" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="D601" s="45"/>
       <c r="E601" s="45" t="s">
@@ -22663,13 +22627,13 @@
     </row>
     <row r="602" spans="1:9" ht="30">
       <c r="A602" s="45" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B602" s="46" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C602" s="47" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="D602" s="45"/>
       <c r="E602" s="45" t="s">
@@ -22688,13 +22652,13 @@
     </row>
     <row r="603" spans="1:9" ht="30">
       <c r="A603" s="45" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B603" s="46" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C603" s="47" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D603" s="45"/>
       <c r="E603" s="45" t="s">
@@ -22713,13 +22677,13 @@
     </row>
     <row r="604" spans="1:9" ht="30">
       <c r="A604" s="45" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B604" s="46" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C604" s="47" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="D604" s="45"/>
       <c r="E604" s="45" t="s">
@@ -22738,13 +22702,13 @@
     </row>
     <row r="605" spans="1:9" ht="45">
       <c r="A605" s="45" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B605" s="46" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C605" s="47" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="D605" s="45"/>
       <c r="E605" s="45" t="s">
@@ -22760,18 +22724,18 @@
         <v>17</v>
       </c>
       <c r="I605" s="47" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="606" spans="1:9" ht="105">
       <c r="A606" s="45" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B606" s="46" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C606" s="47" t="s">
         <v>1393</v>
-      </c>
-      <c r="C606" s="47" t="s">
-        <v>1395</v>
       </c>
       <c r="D606" s="45"/>
       <c r="E606" s="45" t="s">
@@ -22784,19 +22748,19 @@
         <v>15</v>
       </c>
       <c r="H606" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I606" s="47"/>
     </row>
     <row r="607" spans="1:9" ht="255">
       <c r="A607" s="45" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="B607" s="46" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C607" s="47" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="D607" s="45"/>
       <c r="E607" s="45" t="s">
@@ -22809,19 +22773,19 @@
         <v>15</v>
       </c>
       <c r="H607" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I607" s="47"/>
     </row>
     <row r="608" spans="1:9">
       <c r="A608" s="45" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="B608" s="46" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C608" s="47" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="D608" s="45"/>
       <c r="E608" s="45" t="s">
@@ -22840,13 +22804,13 @@
     </row>
     <row r="609" spans="1:9" ht="30">
       <c r="A609" s="45" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B609" s="46" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C609" s="47" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D609" s="45"/>
       <c r="E609" s="45" t="s">
@@ -22865,13 +22829,13 @@
     </row>
     <row r="610" spans="1:9" ht="45">
       <c r="A610" s="45" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B610" s="46" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C610" s="47" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D610" s="45"/>
       <c r="E610" s="45" t="s">
@@ -22890,13 +22854,13 @@
     </row>
     <row r="611" spans="1:9">
       <c r="A611" s="45" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B611" s="46" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C611" s="47" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D611" s="45"/>
       <c r="E611" s="45" t="s">
@@ -22915,13 +22879,13 @@
     </row>
     <row r="612" spans="1:9" ht="30">
       <c r="A612" s="45" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B612" s="46" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C612" s="47" t="s">
         <v>1399</v>
-      </c>
-      <c r="C612" s="47" t="s">
-        <v>1401</v>
       </c>
       <c r="D612" s="45"/>
       <c r="E612" s="45" t="s">
@@ -22940,13 +22904,13 @@
     </row>
     <row r="613" spans="1:9" ht="30">
       <c r="A613" s="45" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B613" s="46" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C613" s="47" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="D613" s="45"/>
       <c r="E613" s="45" t="s">
@@ -22965,13 +22929,13 @@
     </row>
     <row r="614" spans="1:9" ht="105">
       <c r="A614" s="45" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B614" s="46" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C614" s="47" t="s">
         <v>1402</v>
-      </c>
-      <c r="C614" s="47" t="s">
-        <v>1404</v>
       </c>
       <c r="D614" s="45"/>
       <c r="E614" s="45" t="s">
@@ -22990,13 +22954,13 @@
     </row>
     <row r="615" spans="1:9" ht="45">
       <c r="A615" s="45" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B615" s="46" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C615" s="47" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D615" s="45"/>
       <c r="E615" s="45" t="s">
@@ -23015,13 +22979,13 @@
     </row>
     <row r="616" spans="1:9" ht="30">
       <c r="A616" s="45" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B616" s="46" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C616" s="47" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D616" s="45"/>
       <c r="E616" s="45" t="s">
@@ -23040,13 +23004,13 @@
     </row>
     <row r="617" spans="1:9" ht="30">
       <c r="A617" s="45" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B617" s="46" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C617" s="47" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="D617" s="45"/>
       <c r="E617" s="45" t="s">
@@ -23065,13 +23029,13 @@
     </row>
     <row r="618" spans="1:9" ht="30">
       <c r="A618" s="45" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B618" s="46" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C618" s="47" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="D618" s="45"/>
       <c r="E618" s="45" t="s">
@@ -23090,13 +23054,13 @@
     </row>
     <row r="619" spans="1:9" ht="30">
       <c r="A619" s="45" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B619" s="46" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C619" s="47" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D619" s="45"/>
       <c r="E619" s="45" t="s">
@@ -23115,13 +23079,13 @@
     </row>
     <row r="620" spans="1:9" ht="30">
       <c r="A620" s="45" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B620" s="46" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C620" s="47" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D620" s="45"/>
       <c r="E620" s="45" t="s">
@@ -23140,13 +23104,13 @@
     </row>
     <row r="621" spans="1:9" ht="30">
       <c r="A621" s="45" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B621" s="46" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C621" s="47" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="D621" s="45"/>
       <c r="E621" s="45" t="s">
@@ -23159,19 +23123,19 @@
         <v>15</v>
       </c>
       <c r="H621" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I621" s="47"/>
     </row>
     <row r="622" spans="1:9" ht="105">
       <c r="A622" s="45" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B622" s="46" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C622" s="47" t="s">
         <v>1411</v>
-      </c>
-      <c r="C622" s="47" t="s">
-        <v>1413</v>
       </c>
       <c r="D622" s="45"/>
       <c r="E622" s="45" t="s">
@@ -23184,19 +23148,19 @@
         <v>15</v>
       </c>
       <c r="H622" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I622" s="47"/>
     </row>
     <row r="623" spans="1:9" ht="45">
       <c r="A623" s="45" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B623" s="46" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C623" s="47" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D623" s="45"/>
       <c r="E623" s="45" t="s">
@@ -23209,19 +23173,19 @@
         <v>15</v>
       </c>
       <c r="H623" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I623" s="47"/>
     </row>
     <row r="624" spans="1:9" ht="30">
       <c r="A624" s="45" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B624" s="46" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C624" s="47" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="D624" s="45"/>
       <c r="E624" s="45" t="s">
@@ -23240,13 +23204,13 @@
     </row>
     <row r="625" spans="1:9" ht="30">
       <c r="A625" s="45" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B625" s="46" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C625" s="47" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="D625" s="45"/>
       <c r="E625" s="45" t="s">
@@ -23259,19 +23223,19 @@
         <v>15</v>
       </c>
       <c r="H625" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I625" s="47"/>
     </row>
     <row r="626" spans="1:9" ht="30">
       <c r="A626" s="45" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B626" s="46" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C626" s="47" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="D626" s="45"/>
       <c r="E626" s="45" t="s">
@@ -23284,19 +23248,19 @@
         <v>15</v>
       </c>
       <c r="H626" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I626" s="47"/>
     </row>
     <row r="627" spans="1:9" ht="30">
       <c r="A627" s="45" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B627" s="46" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C627" s="47" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="D627" s="45"/>
       <c r="E627" s="45" t="s">
@@ -23309,19 +23273,19 @@
         <v>15</v>
       </c>
       <c r="H627" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I627" s="47"/>
     </row>
     <row r="628" spans="1:9" ht="30">
       <c r="A628" s="45" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B628" s="46" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C628" s="47" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D628" s="45"/>
       <c r="E628" s="45" t="s">
@@ -23334,19 +23298,19 @@
         <v>15</v>
       </c>
       <c r="H628" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I628" s="47"/>
     </row>
     <row r="629" spans="1:9" ht="30">
       <c r="A629" s="45" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B629" s="46" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C629" s="47" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D629" s="45"/>
       <c r="E629" s="45" t="s">
@@ -23365,13 +23329,13 @@
     </row>
     <row r="630" spans="1:9" ht="30">
       <c r="A630" s="45" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B630" s="46" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C630" s="47" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D630" s="45"/>
       <c r="E630" s="45" t="s">
@@ -23390,13 +23354,13 @@
     </row>
     <row r="631" spans="1:9" ht="30">
       <c r="A631" s="45" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B631" s="46" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C631" s="47" t="s">
         <v>1420</v>
-      </c>
-      <c r="C631" s="47" t="s">
-        <v>1422</v>
       </c>
       <c r="D631" s="45"/>
       <c r="E631" s="45" t="s">
@@ -23415,13 +23379,13 @@
     </row>
     <row r="632" spans="1:9" ht="30">
       <c r="A632" s="45" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B632" s="46" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C632" s="47" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D632" s="45"/>
       <c r="E632" s="45" t="s">
@@ -23440,13 +23404,13 @@
     </row>
     <row r="633" spans="1:9" ht="45">
       <c r="A633" s="45" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B633" s="46" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C633" s="47" t="s">
         <v>1423</v>
-      </c>
-      <c r="C633" s="47" t="s">
-        <v>1425</v>
       </c>
       <c r="D633" s="45"/>
       <c r="E633" s="45" t="s">
@@ -23465,13 +23429,13 @@
     </row>
     <row r="634" spans="1:9" ht="30">
       <c r="A634" s="45" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B634" s="46" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C634" s="47" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D634" s="45"/>
       <c r="E634" s="45" t="s">
@@ -23490,13 +23454,13 @@
     </row>
     <row r="635" spans="1:9" ht="60">
       <c r="A635" s="45" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B635" s="46" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C635" s="47" t="s">
         <v>1426</v>
-      </c>
-      <c r="C635" s="47" t="s">
-        <v>1428</v>
       </c>
       <c r="D635" s="45"/>
       <c r="E635" s="45" t="s">
@@ -23509,19 +23473,19 @@
         <v>15</v>
       </c>
       <c r="H635" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I635" s="47"/>
     </row>
     <row r="636" spans="1:9" ht="45">
       <c r="A636" s="45" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B636" s="46" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C636" s="47" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D636" s="45"/>
       <c r="E636" s="45" t="s">
@@ -23540,13 +23504,13 @@
     </row>
     <row r="637" spans="1:9">
       <c r="A637" s="45" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B637" s="46" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C637" s="47" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D637" s="45"/>
       <c r="E637" s="45" t="s">
@@ -23565,13 +23529,13 @@
     </row>
     <row r="638" spans="1:9" ht="30">
       <c r="A638" s="45" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B638" s="46" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C638" s="47" t="s">
         <v>1429</v>
-      </c>
-      <c r="C638" s="47" t="s">
-        <v>1431</v>
       </c>
       <c r="D638" s="45"/>
       <c r="E638" s="45" t="s">
@@ -23590,13 +23554,13 @@
     </row>
     <row r="639" spans="1:9" ht="45">
       <c r="A639" s="45" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B639" s="46" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C639" s="47" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D639" s="45"/>
       <c r="E639" s="45" t="s">
@@ -23615,13 +23579,13 @@
     </row>
     <row r="640" spans="1:9" ht="30">
       <c r="A640" s="45" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B640" s="46" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C640" s="47" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="D640" s="45"/>
       <c r="E640" s="45" t="s">
@@ -23640,13 +23604,13 @@
     </row>
     <row r="641" spans="1:9" ht="30">
       <c r="A641" s="45" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B641" s="46" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C641" s="47" t="s">
         <v>1433</v>
-      </c>
-      <c r="C641" s="47" t="s">
-        <v>1435</v>
       </c>
       <c r="D641" s="45"/>
       <c r="E641" s="45" t="s">
@@ -23665,13 +23629,13 @@
     </row>
     <row r="642" spans="1:9" ht="195">
       <c r="A642" s="45" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B642" s="46" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C642" s="47" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="D642" s="45"/>
       <c r="E642" s="45" t="s">
@@ -23690,13 +23654,13 @@
     </row>
     <row r="643" spans="1:9" ht="30">
       <c r="A643" s="45" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B643" s="46" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C643" s="47" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="D643" s="45"/>
       <c r="E643" s="45" t="s">
@@ -23715,13 +23679,13 @@
     </row>
     <row r="644" spans="1:9">
       <c r="A644" s="45" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B644" s="46" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C644" s="47" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D644" s="45"/>
       <c r="E644" s="45" t="s">
@@ -23740,13 +23704,13 @@
     </row>
     <row r="645" spans="1:9" ht="30">
       <c r="A645" s="45" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B645" s="46" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C645" s="47" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="D645" s="45"/>
       <c r="E645" s="45" t="s">
@@ -23765,13 +23729,13 @@
     </row>
     <row r="646" spans="1:9">
       <c r="A646" s="45" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B646" s="46" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C646" s="47" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="D646" s="45"/>
       <c r="E646" s="45" t="s">
@@ -23790,13 +23754,13 @@
     </row>
     <row r="647" spans="1:9" ht="30">
       <c r="A647" s="45" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B647" s="46" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C647" s="47" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="D647" s="45"/>
       <c r="E647" s="45" t="s">
@@ -23815,13 +23779,13 @@
     </row>
     <row r="648" spans="1:9" ht="30">
       <c r="A648" s="45" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B648" s="46" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C648" s="47" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D648" s="45"/>
       <c r="E648" s="45" t="s">
@@ -23840,13 +23804,13 @@
     </row>
     <row r="649" spans="1:9">
       <c r="A649" s="45" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B649" s="46" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C649" s="47" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D649" s="45"/>
       <c r="E649" s="45" t="s">
@@ -23865,13 +23829,13 @@
     </row>
     <row r="650" spans="1:9">
       <c r="A650" s="45" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B650" s="46" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C650" s="47" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="D650" s="45"/>
       <c r="E650" s="45" t="s">
@@ -23890,13 +23854,13 @@
     </row>
     <row r="651" spans="1:9">
       <c r="A651" s="45" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B651" s="46" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C651" s="47" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D651" s="45"/>
       <c r="E651" s="45" t="s">
@@ -23915,13 +23879,13 @@
     </row>
     <row r="652" spans="1:9" ht="30">
       <c r="A652" s="45" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B652" s="46" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C652" s="47" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D652" s="45"/>
       <c r="E652" s="45" t="s">
@@ -23940,13 +23904,13 @@
     </row>
     <row r="653" spans="1:9" ht="30">
       <c r="A653" s="45" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B653" s="46" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C653" s="47" t="s">
         <v>1446</v>
-      </c>
-      <c r="C653" s="47" t="s">
-        <v>1448</v>
       </c>
       <c r="D653" s="45"/>
       <c r="E653" s="45" t="s">
@@ -23965,13 +23929,13 @@
     </row>
     <row r="654" spans="1:9" ht="120">
       <c r="A654" s="45" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B654" s="46" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C654" s="47" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D654" s="45"/>
       <c r="E654" s="45" t="s">
@@ -23984,7 +23948,7 @@
         <v>15</v>
       </c>
       <c r="H654" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I654" s="47"/>
     </row>
@@ -24015,16 +23979,16 @@
     </row>
     <row r="656" spans="1:9" ht="45">
       <c r="A656" s="18" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
       <c r="B656" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C656" s="47" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="D656" s="45" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="E656" s="45" t="s">
         <v>22</v>
@@ -24039,7 +24003,7 @@
         <v>21</v>
       </c>
       <c r="I656" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="657" spans="1:9" ht="30">
@@ -24094,7 +24058,7 @@
       </c>
       <c r="I658" s="47"/>
     </row>
-    <row r="659" spans="1:9" ht="45">
+    <row r="659" spans="1:9" ht="75">
       <c r="A659" s="45" t="s">
         <v>626</v>
       </c>
@@ -24117,11 +24081,9 @@
         <v>15</v>
       </c>
       <c r="H659" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I659" s="47" t="s">
-        <v>1668</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I659" s="47"/>
     </row>
     <row r="660" spans="1:9" ht="45">
       <c r="A660" s="18" t="s">
@@ -24242,7 +24204,7 @@
         <v>720</v>
       </c>
       <c r="D664" s="45" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
       <c r="E664" s="45" t="s">
         <v>22</v>
@@ -24260,7 +24222,7 @@
     </row>
     <row r="665" spans="1:9" ht="45">
       <c r="A665" s="18" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
       <c r="B665" s="46" t="s">
         <v>623</v>
@@ -24269,7 +24231,7 @@
         <v>721</v>
       </c>
       <c r="D665" s="45" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
       <c r="E665" s="45" t="s">
         <v>22</v>
@@ -24284,7 +24246,7 @@
         <v>21</v>
       </c>
       <c r="I665" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="666" spans="1:9" ht="45">
@@ -24298,7 +24260,7 @@
         <v>788</v>
       </c>
       <c r="D666" s="45" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E666" s="45" t="s">
         <v>22</v>
@@ -24325,7 +24287,7 @@
         <v>789</v>
       </c>
       <c r="D667" s="45" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E667" s="45" t="s">
         <v>22</v>
@@ -24340,7 +24302,7 @@
         <v>21</v>
       </c>
       <c r="I667" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="668" spans="1:9" ht="45">
@@ -24351,10 +24313,10 @@
         <v>623</v>
       </c>
       <c r="C668" s="47" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D668" s="45" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E668" s="45" t="s">
         <v>22</v>
@@ -24378,10 +24340,10 @@
         <v>623</v>
       </c>
       <c r="C669" s="47" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D669" s="45" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E669" s="45" t="s">
         <v>22</v>
@@ -24396,7 +24358,7 @@
         <v>21</v>
       </c>
       <c r="I669" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="670" spans="1:9" ht="45">
@@ -24407,10 +24369,10 @@
         <v>623</v>
       </c>
       <c r="C670" s="47" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D670" s="45" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E670" s="45" t="s">
         <v>22</v>
@@ -24434,10 +24396,10 @@
         <v>623</v>
       </c>
       <c r="C671" s="47" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D671" s="45" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E671" s="45" t="s">
         <v>22</v>
@@ -24452,7 +24414,7 @@
         <v>21</v>
       </c>
       <c r="I671" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="672" spans="1:9" ht="45">
@@ -24463,10 +24425,10 @@
         <v>623</v>
       </c>
       <c r="C672" s="47" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D672" s="45" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E672" s="45" t="s">
         <v>22</v>
@@ -24490,10 +24452,10 @@
         <v>623</v>
       </c>
       <c r="C673" s="47" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D673" s="45" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E673" s="45" t="s">
         <v>22</v>
@@ -24508,7 +24470,7 @@
         <v>21</v>
       </c>
       <c r="I673" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="674" spans="1:9" ht="45">
@@ -24519,10 +24481,10 @@
         <v>623</v>
       </c>
       <c r="C674" s="47" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D674" s="45" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E674" s="45" t="s">
         <v>22</v>
@@ -24546,10 +24508,10 @@
         <v>623</v>
       </c>
       <c r="C675" s="47" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D675" s="45" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E675" s="45" t="s">
         <v>22</v>
@@ -24564,7 +24526,7 @@
         <v>21</v>
       </c>
       <c r="I675" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="676" spans="1:9" ht="45">
@@ -24575,10 +24537,10 @@
         <v>623</v>
       </c>
       <c r="C676" s="47" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D676" s="45" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E676" s="45" t="s">
         <v>22</v>
@@ -24602,10 +24564,10 @@
         <v>623</v>
       </c>
       <c r="C677" s="47" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D677" s="45" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E677" s="45" t="s">
         <v>22</v>
@@ -24620,7 +24582,7 @@
         <v>21</v>
       </c>
       <c r="I677" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="678" spans="1:9" ht="45">
@@ -24631,10 +24593,10 @@
         <v>623</v>
       </c>
       <c r="C678" s="47" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D678" s="45" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E678" s="45" t="s">
         <v>22</v>
@@ -24658,10 +24620,10 @@
         <v>623</v>
       </c>
       <c r="C679" s="47" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D679" s="45" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E679" s="45" t="s">
         <v>22</v>
@@ -24676,7 +24638,7 @@
         <v>21</v>
       </c>
       <c r="I679" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="680" spans="1:9" ht="45">
@@ -24687,10 +24649,10 @@
         <v>623</v>
       </c>
       <c r="C680" s="47" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D680" s="45" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E680" s="45" t="s">
         <v>22</v>
@@ -24714,10 +24676,10 @@
         <v>623</v>
       </c>
       <c r="C681" s="47" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D681" s="45" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E681" s="45" t="s">
         <v>22</v>
@@ -24732,7 +24694,7 @@
         <v>21</v>
       </c>
       <c r="I681" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="682" spans="1:9" ht="45">
@@ -24743,10 +24705,10 @@
         <v>623</v>
       </c>
       <c r="C682" s="47" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D682" s="45" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E682" s="45" t="s">
         <v>22</v>
@@ -24770,10 +24732,10 @@
         <v>623</v>
       </c>
       <c r="C683" s="47" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D683" s="45" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E683" s="45" t="s">
         <v>22</v>
@@ -24788,21 +24750,21 @@
         <v>21</v>
       </c>
       <c r="I683" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="684" spans="1:9" ht="45">
       <c r="A684" s="45" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B684" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C684" s="47" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D684" s="45" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E684" s="45" t="s">
         <v>22</v>
@@ -24820,16 +24782,16 @@
     </row>
     <row r="685" spans="1:9" ht="45">
       <c r="A685" s="45" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B685" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C685" s="47" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D685" s="45" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E685" s="45" t="s">
         <v>22</v>
@@ -24844,21 +24806,21 @@
         <v>21</v>
       </c>
       <c r="I685" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="686" spans="1:9" ht="45">
       <c r="A686" s="45" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B686" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C686" s="47" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D686" s="45" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E686" s="45" t="s">
         <v>22</v>
@@ -24876,16 +24838,16 @@
     </row>
     <row r="687" spans="1:9" ht="45">
       <c r="A687" s="45" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B687" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C687" s="47" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D687" s="45" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E687" s="45" t="s">
         <v>22</v>
@@ -24900,21 +24862,21 @@
         <v>21</v>
       </c>
       <c r="I687" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="688" spans="1:9" ht="45">
       <c r="A688" s="45" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B688" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C688" s="47" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D688" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E688" s="45" t="s">
         <v>22</v>
@@ -24932,16 +24894,16 @@
     </row>
     <row r="689" spans="1:9" ht="45">
       <c r="A689" s="45" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B689" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C689" s="47" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D689" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E689" s="45" t="s">
         <v>22</v>
@@ -24956,21 +24918,21 @@
         <v>21</v>
       </c>
       <c r="I689" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="690" spans="1:9" ht="45">
       <c r="A690" s="45" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B690" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C690" s="47" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D690" s="45" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E690" s="45" t="s">
         <v>22</v>
@@ -24988,16 +24950,16 @@
     </row>
     <row r="691" spans="1:9" ht="45">
       <c r="A691" s="45" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B691" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C691" s="47" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D691" s="45" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E691" s="45" t="s">
         <v>22</v>
@@ -25012,21 +24974,21 @@
         <v>21</v>
       </c>
       <c r="I691" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="692" spans="1:9" ht="60">
       <c r="A692" s="45" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B692" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C692" s="47" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D692" s="45" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
       <c r="E692" s="45" t="s">
         <v>22</v>
@@ -25044,16 +25006,16 @@
     </row>
     <row r="693" spans="1:9" ht="45">
       <c r="A693" s="45" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B693" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C693" s="47" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D693" s="45" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
       <c r="E693" s="45" t="s">
         <v>22</v>
@@ -25065,24 +25027,22 @@
         <v>15</v>
       </c>
       <c r="H693" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I693" s="47" t="s">
-        <v>1668</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I693" s="47"/>
     </row>
     <row r="694" spans="1:9" ht="60">
       <c r="A694" s="45" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B694" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C694" s="47" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D694" s="45" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
       <c r="E694" s="45" t="s">
         <v>22</v>
@@ -25098,18 +25058,18 @@
       </c>
       <c r="I694" s="47"/>
     </row>
-    <row r="695" spans="1:9" ht="45">
+    <row r="695" spans="1:9" ht="30">
       <c r="A695" s="45" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B695" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C695" s="47" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D695" s="45" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
       <c r="E695" s="45" t="s">
         <v>22</v>
@@ -25121,24 +25081,22 @@
         <v>15</v>
       </c>
       <c r="H695" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I695" s="47" t="s">
-        <v>1668</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I695" s="47"/>
     </row>
     <row r="696" spans="1:9" ht="45">
       <c r="A696" s="45" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B696" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C696" s="47" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D696" s="45" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="E696" s="45" t="s">
         <v>22</v>
@@ -25154,18 +25112,18 @@
       </c>
       <c r="I696" s="47"/>
     </row>
-    <row r="697" spans="1:9" ht="45">
+    <row r="697" spans="1:9" ht="30">
       <c r="A697" s="45" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B697" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C697" s="47" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D697" s="45" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="E697" s="45" t="s">
         <v>22</v>
@@ -25177,24 +25135,22 @@
         <v>15</v>
       </c>
       <c r="H697" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I697" s="47" t="s">
-        <v>1668</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I697" s="47"/>
     </row>
     <row r="698" spans="1:9" ht="60">
       <c r="A698" s="45" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B698" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C698" s="47" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D698" s="45" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="E698" s="45" t="s">
         <v>22</v>
@@ -25212,16 +25168,16 @@
     </row>
     <row r="699" spans="1:9" ht="45">
       <c r="A699" s="45" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B699" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C699" s="47" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D699" s="45" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="E699" s="45" t="s">
         <v>22</v>
@@ -25233,24 +25189,22 @@
         <v>15</v>
       </c>
       <c r="H699" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I699" s="47" t="s">
-        <v>1668</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I699" s="47"/>
     </row>
     <row r="700" spans="1:9" ht="45">
       <c r="A700" s="45" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B700" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C700" s="47" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D700" s="45" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E700" s="45" t="s">
         <v>22</v>
@@ -25266,18 +25220,18 @@
       </c>
       <c r="I700" s="47"/>
     </row>
-    <row r="701" spans="1:9" ht="45">
+    <row r="701" spans="1:9" ht="30">
       <c r="A701" s="45" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B701" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C701" s="47" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D701" s="45" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E701" s="45" t="s">
         <v>22</v>
@@ -25289,24 +25243,22 @@
         <v>15</v>
       </c>
       <c r="H701" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I701" s="47" t="s">
-        <v>1668</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I701" s="47"/>
     </row>
     <row r="702" spans="1:9" ht="45">
       <c r="A702" s="45" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B702" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C702" s="47" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D702" s="45" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E702" s="45" t="s">
         <v>22</v>
@@ -25322,18 +25274,18 @@
       </c>
       <c r="I702" s="47"/>
     </row>
-    <row r="703" spans="1:9" ht="45">
+    <row r="703" spans="1:9" ht="30">
       <c r="A703" s="45" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B703" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C703" s="47" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D703" s="45" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E703" s="45" t="s">
         <v>22</v>
@@ -25345,24 +25297,22 @@
         <v>15</v>
       </c>
       <c r="H703" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I703" s="47" t="s">
-        <v>1668</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I703" s="47"/>
     </row>
     <row r="704" spans="1:9" ht="60">
       <c r="A704" s="45" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B704" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C704" s="47" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D704" s="45" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="E704" s="45" t="s">
         <v>22</v>
@@ -25380,16 +25330,16 @@
     </row>
     <row r="705" spans="1:9" ht="45">
       <c r="A705" s="45" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B705" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C705" s="47" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D705" s="45" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="E705" s="45" t="s">
         <v>22</v>
@@ -25404,12 +25354,12 @@
         <v>21</v>
       </c>
       <c r="I705" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="706" spans="1:9" ht="45">
       <c r="A706" s="45" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B706" s="46" t="s">
         <v>623</v>
@@ -25418,7 +25368,7 @@
         <v>894</v>
       </c>
       <c r="D706" s="45" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="E706" s="45" t="s">
         <v>22</v>
@@ -25436,16 +25386,16 @@
     </row>
     <row r="707" spans="1:9" ht="45">
       <c r="A707" s="45" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B707" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C707" s="47" t="s">
-        <v>895</v>
+        <v>1675</v>
       </c>
       <c r="D707" s="45" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="E707" s="45" t="s">
         <v>22</v>
@@ -25460,21 +25410,21 @@
         <v>21</v>
       </c>
       <c r="I707" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="708" spans="1:9" ht="30">
       <c r="A708" s="45" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B708" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C708" s="47" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D708" s="45" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
       <c r="E708" s="45" t="s">
         <v>22</v>
@@ -25492,16 +25442,16 @@
     </row>
     <row r="709" spans="1:9" ht="45">
       <c r="A709" s="45" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B709" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C709" s="47" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D709" s="45" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
       <c r="E709" s="45" t="s">
         <v>22</v>
@@ -25516,21 +25466,21 @@
         <v>21</v>
       </c>
       <c r="I709" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="710" spans="1:9" ht="45">
       <c r="A710" s="45" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B710" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C710" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D710" s="45" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="E710" s="45" t="s">
         <v>22</v>
@@ -25548,16 +25498,16 @@
     </row>
     <row r="711" spans="1:9" ht="45">
       <c r="A711" s="45" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B711" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C711" s="47" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D711" s="45" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="E711" s="45" t="s">
         <v>22</v>
@@ -25572,21 +25522,21 @@
         <v>21</v>
       </c>
       <c r="I711" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="712" spans="1:9" ht="45">
       <c r="A712" s="45" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B712" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C712" s="47" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D712" s="45" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="E712" s="45" t="s">
         <v>22</v>
@@ -25604,16 +25554,16 @@
     </row>
     <row r="713" spans="1:9" ht="45">
       <c r="A713" s="45" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B713" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C713" s="47" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D713" s="45" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="E713" s="45" t="s">
         <v>22</v>
@@ -25628,21 +25578,21 @@
         <v>21</v>
       </c>
       <c r="I713" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="714" spans="1:9" ht="45">
       <c r="A714" s="45" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B714" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C714" s="47" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D714" s="45" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E714" s="45" t="s">
         <v>22</v>
@@ -25660,16 +25610,16 @@
     </row>
     <row r="715" spans="1:9" ht="45">
       <c r="A715" s="45" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B715" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C715" s="47" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D715" s="45" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="E715" s="45" t="s">
         <v>22</v>
@@ -25684,21 +25634,21 @@
         <v>21</v>
       </c>
       <c r="I715" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="716" spans="1:9" ht="45">
       <c r="A716" s="45" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B716" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C716" s="47" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D716" s="45" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="E716" s="45" t="s">
         <v>22</v>
@@ -25716,16 +25666,16 @@
     </row>
     <row r="717" spans="1:9" ht="45">
       <c r="A717" s="45" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B717" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C717" s="47" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D717" s="45" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="E717" s="45" t="s">
         <v>22</v>
@@ -25740,21 +25690,21 @@
         <v>21</v>
       </c>
       <c r="I717" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="718" spans="1:9" ht="45">
       <c r="A718" s="45" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B718" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C718" s="47" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D718" s="45" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E718" s="45" t="s">
         <v>22</v>
@@ -25772,16 +25722,16 @@
     </row>
     <row r="719" spans="1:9" ht="45">
       <c r="A719" s="45" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B719" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C719" s="47" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D719" s="45" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E719" s="45" t="s">
         <v>22</v>
@@ -25796,21 +25746,21 @@
         <v>21</v>
       </c>
       <c r="I719" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="720" spans="1:9" ht="45">
       <c r="A720" s="45" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B720" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C720" s="47" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D720" s="45" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E720" s="45" t="s">
         <v>22</v>
@@ -25828,16 +25778,16 @@
     </row>
     <row r="721" spans="1:9" ht="45">
       <c r="A721" s="45" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B721" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C721" s="47" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D721" s="45" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E721" s="45" t="s">
         <v>22</v>
@@ -25852,21 +25802,21 @@
         <v>21</v>
       </c>
       <c r="I721" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="722" spans="1:9" ht="45">
       <c r="A722" s="45" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B722" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C722" s="47" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D722" s="45" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E722" s="45" t="s">
         <v>22</v>
@@ -25884,16 +25834,16 @@
     </row>
     <row r="723" spans="1:9" ht="45">
       <c r="A723" s="45" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B723" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C723" s="47" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D723" s="45" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E723" s="45" t="s">
         <v>22</v>
@@ -25908,21 +25858,21 @@
         <v>21</v>
       </c>
       <c r="I723" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="724" spans="1:9" ht="30">
       <c r="A724" s="45" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B724" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C724" s="47" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D724" s="45" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E724" s="45" t="s">
         <v>22</v>
@@ -25940,16 +25890,16 @@
     </row>
     <row r="725" spans="1:9" ht="45">
       <c r="A725" s="45" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B725" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C725" s="47" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D725" s="45" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E725" s="45" t="s">
         <v>22</v>
@@ -25964,21 +25914,21 @@
         <v>21</v>
       </c>
       <c r="I725" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="726" spans="1:9" ht="30">
       <c r="A726" s="45" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B726" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C726" s="47" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D726" s="45" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E726" s="45" t="s">
         <v>22</v>
@@ -25996,16 +25946,16 @@
     </row>
     <row r="727" spans="1:9" ht="45">
       <c r="A727" s="45" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B727" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C727" s="47" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D727" s="45" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E727" s="45" t="s">
         <v>22</v>
@@ -26020,21 +25970,21 @@
         <v>21</v>
       </c>
       <c r="I727" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="728" spans="1:9" ht="45">
       <c r="A728" s="45" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B728" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C728" s="47" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D728" s="45" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E728" s="45" t="s">
         <v>22</v>
@@ -26052,16 +26002,16 @@
     </row>
     <row r="729" spans="1:9" ht="45">
       <c r="A729" s="45" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B729" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C729" s="47" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D729" s="45" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E729" s="45" t="s">
         <v>22</v>
@@ -26076,21 +26026,21 @@
         <v>21</v>
       </c>
       <c r="I729" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="730" spans="1:9" ht="45">
       <c r="A730" s="45" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B730" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C730" s="47" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D730" s="45" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E730" s="45" t="s">
         <v>22</v>
@@ -26108,16 +26058,16 @@
     </row>
     <row r="731" spans="1:9" ht="45">
       <c r="A731" s="45" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B731" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C731" s="47" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D731" s="45" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E731" s="45" t="s">
         <v>22</v>
@@ -26132,21 +26082,21 @@
         <v>21</v>
       </c>
       <c r="I731" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="732" spans="1:9" ht="45">
       <c r="A732" s="45" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B732" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C732" s="47" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D732" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="E732" s="45" t="s">
         <v>22</v>
@@ -26164,16 +26114,16 @@
     </row>
     <row r="733" spans="1:9" ht="45">
       <c r="A733" s="45" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B733" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C733" s="47" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D733" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="E733" s="45" t="s">
         <v>22</v>
@@ -26188,7 +26138,7 @@
         <v>21</v>
       </c>
       <c r="I733" s="47" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="734" spans="1:9" ht="180">
@@ -26196,7 +26146,7 @@
         <v>377</v>
       </c>
       <c r="B734" s="20" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C734" s="16" t="s">
         <v>584</v>
@@ -26221,7 +26171,7 @@
         <v>378</v>
       </c>
       <c r="B735" s="20" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C735" s="16" t="s">
         <v>585</v>
@@ -26246,7 +26196,7 @@
         <v>379</v>
       </c>
       <c r="B736" s="20" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C736" s="27" t="s">
         <v>586</v>
@@ -26271,7 +26221,7 @@
         <v>380</v>
       </c>
       <c r="B737" s="20" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C737" s="16" t="s">
         <v>587</v>
@@ -26296,7 +26246,7 @@
         <v>381</v>
       </c>
       <c r="B738" s="20" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C738" s="27" t="s">
         <v>588</v>
@@ -26321,7 +26271,7 @@
         <v>382</v>
       </c>
       <c r="B739" s="20" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C739" s="16" t="s">
         <v>589</v>
@@ -26343,13 +26293,13 @@
     </row>
     <row r="740" spans="1:9" ht="45">
       <c r="A740" s="18" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B740" s="20" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C740" s="47" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D740" s="45"/>
       <c r="E740" s="45" t="s">
@@ -26368,10 +26318,10 @@
     </row>
     <row r="741" spans="1:9" ht="30">
       <c r="A741" s="18" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B741" s="20" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C741" s="47" t="s">
         <v>589</v>
@@ -26393,13 +26343,13 @@
     </row>
     <row r="742" spans="1:9" ht="390">
       <c r="A742" s="18" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B742" s="46" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C742" s="47" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D742" s="45"/>
       <c r="E742" s="45" t="s">
@@ -26418,13 +26368,13 @@
     </row>
     <row r="743" spans="1:9" ht="30">
       <c r="A743" s="18" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B743" s="46" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C743" s="47" t="s">
         <v>1601</v>
-      </c>
-      <c r="C743" s="47" t="s">
-        <v>1603</v>
       </c>
       <c r="D743" s="45"/>
       <c r="E743" s="45" t="s">
@@ -26443,13 +26393,13 @@
     </row>
     <row r="744" spans="1:9" ht="30">
       <c r="A744" s="18" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B744" s="46" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C744" s="47" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="D744" s="45"/>
       <c r="E744" s="45" t="s">
@@ -26468,13 +26418,13 @@
     </row>
     <row r="745" spans="1:9">
       <c r="A745" s="18" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B745" s="46" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C745" s="47" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D745" s="45"/>
       <c r="E745" s="45" t="s">
@@ -26493,13 +26443,13 @@
     </row>
     <row r="746" spans="1:9" ht="30">
       <c r="A746" s="18" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B746" s="46" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C746" s="47" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D746" s="45"/>
       <c r="E746" s="45" t="s">
@@ -26518,13 +26468,13 @@
     </row>
     <row r="747" spans="1:9">
       <c r="A747" s="18" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B747" s="46" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C747" s="47" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D747" s="45"/>
       <c r="E747" s="45" t="s">
@@ -26543,13 +26493,13 @@
     </row>
     <row r="748" spans="1:9" ht="30">
       <c r="A748" s="18" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B748" s="46" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C748" s="47" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D748" s="45"/>
       <c r="E748" s="45" t="s">
@@ -26568,13 +26518,13 @@
     </row>
     <row r="749" spans="1:9">
       <c r="A749" s="18" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B749" s="46" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C749" s="47" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D749" s="45"/>
       <c r="E749" s="45" t="s">
@@ -26593,13 +26543,13 @@
     </row>
     <row r="750" spans="1:9" ht="30">
       <c r="A750" s="18" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B750" s="46" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C750" s="47" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D750" s="45"/>
       <c r="E750" s="45" t="s">
@@ -26618,13 +26568,13 @@
     </row>
     <row r="751" spans="1:9" ht="30">
       <c r="A751" s="18" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B751" s="46" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C751" s="47" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D751" s="45"/>
       <c r="E751" s="45" t="s">
@@ -26643,13 +26593,13 @@
     </row>
     <row r="752" spans="1:9" ht="45">
       <c r="A752" s="18" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B752" s="46" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C752" s="47" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D752" s="45"/>
       <c r="E752" s="45" t="s">
@@ -26696,7 +26646,7 @@
         <v>384</v>
       </c>
       <c r="B754" s="20" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C754" s="16" t="s">
         <v>591</v>
@@ -26718,13 +26668,13 @@
     </row>
     <row r="755" spans="1:9" ht="135">
       <c r="A755" s="45" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B755" s="46" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C755" s="47" t="s">
         <v>1586</v>
-      </c>
-      <c r="C755" s="47" t="s">
-        <v>1588</v>
       </c>
       <c r="D755" s="45"/>
       <c r="E755" s="45" t="s">
@@ -26746,7 +26696,7 @@
         <v>385</v>
       </c>
       <c r="B756" s="20" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C756" s="16" t="s">
         <v>592</v>
@@ -26768,13 +26718,13 @@
     </row>
     <row r="757" spans="1:9" ht="409.5">
       <c r="A757" s="18" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B757" s="46" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C757" s="47" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D757" s="45"/>
       <c r="E757" s="45" t="s">
@@ -26796,7 +26746,7 @@
         <v>386</v>
       </c>
       <c r="B758" s="20" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C758" s="16" t="s">
         <v>593</v>
@@ -26850,7 +26800,7 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I20:I65 A20:H45 A35:I759">
+  <conditionalFormatting sqref="I20:I65 A20:H45 A35:I75 A76:H76 A77:I759">
     <cfRule type="expression" dxfId="24" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -26861,7 +26811,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I65 A20:H45 A35:I759">
+  <conditionalFormatting sqref="I20:I65 A20:H45 A35:I75 A76:H76 A77:I759">
     <cfRule type="expression" dxfId="21" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>

--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Interop-TestSuites\ExchangeWebServices\Docs\MS-OXWSCONT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
@@ -3861,9 +3866,6 @@
     <t>MS-OXWSCONT_R1275114</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R1275003.</t>
-  </si>
-  <si>
     <t>MS-OXWSCONT_R334002:i</t>
   </si>
   <si>
@@ -6234,9 +6236,6 @@
     <t>[In Transport] The protocol SHOULD use secure communications by means of HTTPS, as specified in [RFC2818].</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R1275005.</t>
-  </si>
-  <si>
     <t>Verified by derived requirement: MS-OXWSCONT_R1275008.</t>
   </si>
   <si>
@@ -6291,9 +6290,6 @@
     <t>Verified by derived requirement: MS-OXWSCONT_R1275114.</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R1275035.</t>
-  </si>
-  <si>
     <t>MS-OXWSCONT_R229:i, MS-OXWSCONT_R230:i</t>
   </si>
   <si>
@@ -6330,9 +6326,6 @@
     <t>MS-OXWSCONT_R120008:i</t>
   </si>
   <si>
-    <t>MS-OXWSCONT_R302078:i</t>
-  </si>
-  <si>
     <t>This requirement can be enabled/disabled in the deployment.ptfconfig file.</t>
   </si>
   <si>
@@ -6342,9 +6335,6 @@
     <t>MS-OXWSCONT_R30205602</t>
   </si>
   <si>
-    <t>Verified by derived requriement: MS-OXWSCONT_R30205601, MS-OXWSCONT_R30205602.</t>
-  </si>
-  <si>
     <t xml:space="preserve">[In Transport] The protocol MUST support SOAP over HTTP, as specified in [RFC2616]. </t>
   </si>
   <si>
@@ -6352,9 +6342,6 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does use secure communications via HTTPS, as defined in [RFC2818]. (Exchange 2007 and above follow this behavior.)</t>
-  </si>
-  <si>
-    <t>verified by derived requirement: MS-OXWSCONT_R335001.</t>
   </si>
   <si>
     <t>MS-OXWSCONT_R302056:c</t>
@@ -6373,10 +6360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MS-OXWSCONT_R81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS-OXWSCONT_R81:i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6387,13 +6370,34 @@
     <t>[In Appendix C: Product Behavior] Implementation does support the ContactUrlDictionaryType complex type. (Exchange 2016 and above follow this behavior.)</t>
   </si>
   <si>
-    <t>verified by derived requirement: MS-OXWSCONT_R19.</t>
+    <t>Verified by derived requirement: MS-OXWSCONT_R335001.</t>
+  </si>
+  <si>
+    <t>Verified by requirement: MS-OXWSCONT_R19.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R81</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCONT_R1275002.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCONT_R1275004.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCONT_R1275006.</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCONT_R1275036.</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R302077:i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -7400,7 +7404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7435,7 +7439,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7647,16 +7651,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A645" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A659" sqref="A659"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="85" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
@@ -7904,7 +7906,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="24" t="s">
         <v>3</v>
       </c>
@@ -8105,7 +8107,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:13" s="19" customFormat="1" ht="45">
+    <row r="24" spans="1:13" s="19" customFormat="1" ht="60">
       <c r="A24" s="18" t="s">
         <v>46</v>
       </c>
@@ -8130,7 +8132,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:13" s="19" customFormat="1">
+    <row r="25" spans="1:13" s="19" customFormat="1" ht="30">
       <c r="A25" s="18" t="s">
         <v>47</v>
       </c>
@@ -8155,7 +8157,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:13" s="19" customFormat="1">
+    <row r="26" spans="1:13" s="19" customFormat="1" ht="30">
       <c r="A26" s="45" t="s">
         <v>172</v>
       </c>
@@ -8163,7 +8165,7 @@
         <v>388</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45" t="s">
@@ -8182,13 +8184,13 @@
     </row>
     <row r="27" spans="1:13" s="19" customFormat="1" ht="45">
       <c r="A27" s="45" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B27" s="46" t="s">
         <v>388</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="45" t="s">
@@ -8204,7 +8206,7 @@
         <v>17</v>
       </c>
       <c r="I27" s="47" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="19" customFormat="1" ht="30">
@@ -8282,7 +8284,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:13" s="19" customFormat="1" ht="45">
+    <row r="31" spans="1:13" s="19" customFormat="1" ht="60">
       <c r="A31" s="18" t="s">
         <v>51</v>
       </c>
@@ -8532,7 +8534,7 @@
       </c>
       <c r="I40" s="27"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" ht="30">
       <c r="A41" s="45" t="s">
         <v>649</v>
       </c>
@@ -8582,7 +8584,7 @@
       </c>
       <c r="I42" s="47"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" ht="30">
       <c r="A43" s="18" t="s">
         <v>61</v>
       </c>
@@ -8628,11 +8630,11 @@
         <v>15</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" s="47"/>
     </row>
-    <row r="45" spans="1:9" ht="30">
+    <row r="45" spans="1:9" ht="45">
       <c r="A45" s="18" t="s">
         <v>628</v>
       </c>
@@ -8657,7 +8659,7 @@
       </c>
       <c r="I45" s="47"/>
     </row>
-    <row r="46" spans="1:9" ht="300">
+    <row r="46" spans="1:9" ht="315">
       <c r="A46" s="18" t="s">
         <v>629</v>
       </c>
@@ -8665,7 +8667,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="45" t="s">
@@ -8782,7 +8784,7 @@
       </c>
       <c r="I50" s="47"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="18" t="s">
         <v>634</v>
       </c>
@@ -8807,7 +8809,7 @@
       </c>
       <c r="I51" s="47"/>
     </row>
-    <row r="52" spans="1:9" ht="30">
+    <row r="52" spans="1:9" ht="45">
       <c r="A52" s="18" t="s">
         <v>635</v>
       </c>
@@ -8857,7 +8859,7 @@
       </c>
       <c r="I53" s="47"/>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9" ht="45">
       <c r="A54" s="18" t="s">
         <v>637</v>
       </c>
@@ -8932,7 +8934,7 @@
       </c>
       <c r="I56" s="47"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="18" t="s">
         <v>640</v>
       </c>
@@ -8982,7 +8984,7 @@
       </c>
       <c r="I58" s="47"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" ht="30">
       <c r="A59" s="18" t="s">
         <v>642</v>
       </c>
@@ -9032,7 +9034,7 @@
       </c>
       <c r="I60" s="47"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" s="18" t="s">
         <v>644</v>
       </c>
@@ -9057,7 +9059,7 @@
       </c>
       <c r="I61" s="47"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" s="18" t="s">
         <v>645</v>
       </c>
@@ -9207,7 +9209,7 @@
       </c>
       <c r="I67" s="47"/>
     </row>
-    <row r="68" spans="1:9" ht="105">
+    <row r="68" spans="1:9" ht="120">
       <c r="A68" s="45" t="s">
         <v>656</v>
       </c>
@@ -9215,7 +9217,7 @@
         <v>394</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D68" s="45"/>
       <c r="E68" s="45" t="s">
@@ -9382,7 +9384,7 @@
       </c>
       <c r="I74" s="47"/>
     </row>
-    <row r="75" spans="1:9" ht="30">
+    <row r="75" spans="1:9" ht="45">
       <c r="A75" s="45" t="s">
         <v>660</v>
       </c>
@@ -9440,7 +9442,7 @@
         <v>661</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D77" s="45"/>
       <c r="E77" s="45" t="s">
@@ -9456,7 +9458,7 @@
         <v>17</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="30">
@@ -9559,7 +9561,7 @@
       </c>
       <c r="I81" s="27"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" ht="30">
       <c r="A82" s="25" t="s">
         <v>73</v>
       </c>
@@ -9609,7 +9611,7 @@
       </c>
       <c r="I83" s="27"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" ht="30">
       <c r="A84" s="25" t="s">
         <v>75</v>
       </c>
@@ -9659,7 +9661,7 @@
       </c>
       <c r="I85" s="27"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" ht="30">
       <c r="A86" s="25" t="s">
         <v>77</v>
       </c>
@@ -9684,7 +9686,7 @@
       </c>
       <c r="I86" s="27"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" ht="30">
       <c r="A87" s="25" t="s">
         <v>78</v>
       </c>
@@ -9709,7 +9711,7 @@
       </c>
       <c r="I87" s="27"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" ht="30">
       <c r="A88" s="25" t="s">
         <v>79</v>
       </c>
@@ -9759,7 +9761,7 @@
       </c>
       <c r="I89" s="27"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" ht="30">
       <c r="A90" s="25" t="s">
         <v>81</v>
       </c>
@@ -9884,7 +9886,7 @@
       </c>
       <c r="I94" s="47"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" ht="30">
       <c r="A95" s="25" t="s">
         <v>85</v>
       </c>
@@ -10009,7 +10011,7 @@
       </c>
       <c r="I99" s="47"/>
     </row>
-    <row r="100" spans="1:9" ht="30">
+    <row r="100" spans="1:9" ht="45">
       <c r="A100" s="45" t="s">
         <v>687</v>
       </c>
@@ -10084,7 +10086,7 @@
       </c>
       <c r="I102" s="27"/>
     </row>
-    <row r="103" spans="1:9" ht="30">
+    <row r="103" spans="1:9" ht="45">
       <c r="A103" s="25" t="s">
         <v>90</v>
       </c>
@@ -10159,7 +10161,7 @@
       </c>
       <c r="I105" s="27"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" ht="30">
       <c r="A106" s="25" t="s">
         <v>93</v>
       </c>
@@ -10434,7 +10436,7 @@
       </c>
       <c r="I116" s="27"/>
     </row>
-    <row r="117" spans="1:9" ht="30">
+    <row r="117" spans="1:9" ht="45">
       <c r="A117" s="25" t="s">
         <v>104</v>
       </c>
@@ -10459,7 +10461,7 @@
       </c>
       <c r="I117" s="27"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" ht="30">
       <c r="A118" s="25" t="s">
         <v>105</v>
       </c>
@@ -10509,7 +10511,7 @@
       </c>
       <c r="I119" s="27"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" ht="30">
       <c r="A120" s="25" t="s">
         <v>107</v>
       </c>
@@ -10609,7 +10611,7 @@
       </c>
       <c r="I123" s="27"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" ht="30">
       <c r="A124" s="25" t="s">
         <v>111</v>
       </c>
@@ -10659,7 +10661,7 @@
       </c>
       <c r="I125" s="27"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" ht="30">
       <c r="A126" s="25" t="s">
         <v>113</v>
       </c>
@@ -10709,7 +10711,7 @@
       </c>
       <c r="I127" s="27"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" ht="30">
       <c r="A128" s="25" t="s">
         <v>115</v>
       </c>
@@ -10759,7 +10761,7 @@
       </c>
       <c r="I129" s="27"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="25" t="s">
         <v>117</v>
       </c>
@@ -10834,7 +10836,7 @@
       </c>
       <c r="I132" s="27"/>
     </row>
-    <row r="133" spans="1:9" ht="30">
+    <row r="133" spans="1:9" ht="45">
       <c r="A133" s="25" t="s">
         <v>120</v>
       </c>
@@ -10859,7 +10861,7 @@
       </c>
       <c r="I133" s="27"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" ht="30">
       <c r="A134" s="25" t="s">
         <v>121</v>
       </c>
@@ -10909,7 +10911,7 @@
       </c>
       <c r="I135" s="27"/>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" ht="30">
       <c r="A136" s="25" t="s">
         <v>123</v>
       </c>
@@ -10959,7 +10961,7 @@
       </c>
       <c r="I137" s="27"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" ht="30">
       <c r="A138" s="25" t="s">
         <v>125</v>
       </c>
@@ -11084,9 +11086,9 @@
       </c>
       <c r="I142" s="27"/>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:9" ht="45">
       <c r="A143" s="18" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>661</v>
@@ -11107,7 +11109,9 @@
       <c r="H143" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I143" s="27"/>
+      <c r="I143" s="16" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="144" spans="1:9" ht="30">
       <c r="A144" s="45" t="s">
@@ -11117,7 +11121,7 @@
         <v>661</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="D144" s="45"/>
       <c r="E144" s="45" t="s">
@@ -11159,7 +11163,7 @@
       </c>
       <c r="I145" s="27"/>
     </row>
-    <row r="146" spans="1:9" ht="30">
+    <row r="146" spans="1:9" ht="45">
       <c r="A146" s="25" t="s">
         <v>131</v>
       </c>
@@ -11284,7 +11288,7 @@
       </c>
       <c r="I150" s="27"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" ht="30">
       <c r="A151" s="25" t="s">
         <v>136</v>
       </c>
@@ -11334,7 +11338,7 @@
       </c>
       <c r="I152" s="27"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" ht="30">
       <c r="A153" s="25" t="s">
         <v>138</v>
       </c>
@@ -11534,7 +11538,7 @@
       </c>
       <c r="I160" s="27"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" ht="30">
       <c r="A161" s="25" t="s">
         <v>146</v>
       </c>
@@ -11584,7 +11588,7 @@
       </c>
       <c r="I162" s="27"/>
     </row>
-    <row r="163" spans="1:9" ht="30">
+    <row r="163" spans="1:9" ht="45">
       <c r="A163" s="25" t="s">
         <v>148</v>
       </c>
@@ -11634,7 +11638,7 @@
       </c>
       <c r="I164" s="27"/>
     </row>
-    <row r="165" spans="1:9" ht="30">
+    <row r="165" spans="1:9" ht="45">
       <c r="A165" s="18" t="s">
         <v>150</v>
       </c>
@@ -11684,7 +11688,7 @@
       </c>
       <c r="I166" s="27"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" ht="30">
       <c r="A167" s="45" t="s">
         <v>744</v>
       </c>
@@ -11733,7 +11737,7 @@
         <v>17</v>
       </c>
       <c r="I168" s="47" t="s">
-        <v>1007</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="30">
@@ -11785,7 +11789,7 @@
         <v>17</v>
       </c>
       <c r="I170" s="47" t="s">
-        <v>1626</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="30">
@@ -11813,7 +11817,7 @@
       </c>
       <c r="I171" s="47"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="45" t="s">
         <v>749</v>
       </c>
@@ -11838,7 +11842,7 @@
       </c>
       <c r="I172" s="47"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" ht="30">
       <c r="A173" s="45" t="s">
         <v>750</v>
       </c>
@@ -11887,10 +11891,10 @@
         <v>17</v>
       </c>
       <c r="I174" s="47" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="30">
       <c r="A175" s="45" t="s">
         <v>752</v>
       </c>
@@ -11915,7 +11919,7 @@
       </c>
       <c r="I175" s="47"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" ht="30">
       <c r="A176" s="45" t="s">
         <v>753</v>
       </c>
@@ -11940,7 +11944,7 @@
       </c>
       <c r="I176" s="47"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" ht="30">
       <c r="A177" s="45" t="s">
         <v>754</v>
       </c>
@@ -11989,10 +11993,10 @@
         <v>17</v>
       </c>
       <c r="I178" s="47" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="30">
       <c r="A179" s="45" t="s">
         <v>756</v>
       </c>
@@ -12041,7 +12045,7 @@
         <v>17</v>
       </c>
       <c r="I180" s="47" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -12069,7 +12073,7 @@
       </c>
       <c r="I181" s="47"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" ht="30">
       <c r="A182" s="45" t="s">
         <v>759</v>
       </c>
@@ -12094,7 +12098,7 @@
       </c>
       <c r="I182" s="47"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" ht="30">
       <c r="A183" s="45" t="s">
         <v>760</v>
       </c>
@@ -12143,10 +12147,10 @@
         <v>17</v>
       </c>
       <c r="I184" s="47" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" s="45" t="s">
         <v>762</v>
       </c>
@@ -12171,7 +12175,7 @@
       </c>
       <c r="I185" s="47"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" ht="30">
       <c r="A186" s="45" t="s">
         <v>763</v>
       </c>
@@ -12245,10 +12249,10 @@
         <v>17</v>
       </c>
       <c r="I188" s="47" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="30">
       <c r="A189" s="45" t="s">
         <v>766</v>
       </c>
@@ -12273,7 +12277,7 @@
       </c>
       <c r="I189" s="47"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" ht="30">
       <c r="A190" s="45" t="s">
         <v>767</v>
       </c>
@@ -12298,7 +12302,7 @@
       </c>
       <c r="I190" s="47"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" ht="30">
       <c r="A191" s="45" t="s">
         <v>768</v>
       </c>
@@ -12347,10 +12351,10 @@
         <v>17</v>
       </c>
       <c r="I192" s="47" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="30">
       <c r="A193" s="45" t="s">
         <v>770</v>
       </c>
@@ -12375,7 +12379,7 @@
       </c>
       <c r="I193" s="47"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" ht="30">
       <c r="A194" s="45" t="s">
         <v>771</v>
       </c>
@@ -12400,7 +12404,7 @@
       </c>
       <c r="I194" s="47"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" ht="30">
       <c r="A195" s="45" t="s">
         <v>772</v>
       </c>
@@ -12425,7 +12429,7 @@
       </c>
       <c r="I195" s="47"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" ht="30">
       <c r="A196" s="45" t="s">
         <v>773</v>
       </c>
@@ -12499,7 +12503,7 @@
         <v>17</v>
       </c>
       <c r="I198" s="47" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -12551,10 +12555,10 @@
         <v>17</v>
       </c>
       <c r="I200" s="47" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="30">
       <c r="A201" s="45" t="s">
         <v>778</v>
       </c>
@@ -12603,10 +12607,10 @@
         <v>17</v>
       </c>
       <c r="I202" s="47" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="30">
       <c r="A203" s="45" t="s">
         <v>780</v>
       </c>
@@ -12631,7 +12635,7 @@
       </c>
       <c r="I203" s="47"/>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" ht="30">
       <c r="A204" s="45" t="s">
         <v>781</v>
       </c>
@@ -12656,7 +12660,7 @@
       </c>
       <c r="I204" s="47"/>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" ht="30">
       <c r="A205" s="45" t="s">
         <v>782</v>
       </c>
@@ -12705,10 +12709,10 @@
         <v>17</v>
       </c>
       <c r="I206" s="47" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="45" t="s">
         <v>784</v>
       </c>
@@ -12758,7 +12762,7 @@
       </c>
       <c r="I208" s="47"/>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" ht="30">
       <c r="A209" s="45" t="s">
         <v>786</v>
       </c>
@@ -12807,10 +12811,10 @@
         <v>17</v>
       </c>
       <c r="I210" s="47" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="30">
       <c r="A211" s="45" t="s">
         <v>856</v>
       </c>
@@ -12860,7 +12864,7 @@
       </c>
       <c r="I212" s="47"/>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" ht="30">
       <c r="A213" s="45" t="s">
         <v>858</v>
       </c>
@@ -12885,7 +12889,7 @@
       </c>
       <c r="I213" s="47"/>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" ht="30">
       <c r="A214" s="45" t="s">
         <v>859</v>
       </c>
@@ -13035,7 +13039,7 @@
       </c>
       <c r="I219" s="47"/>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" ht="30">
       <c r="A220" s="45" t="s">
         <v>865</v>
       </c>
@@ -13060,7 +13064,7 @@
       </c>
       <c r="I220" s="47"/>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="45" t="s">
         <v>866</v>
       </c>
@@ -13110,7 +13114,7 @@
       </c>
       <c r="I222" s="47"/>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" ht="30">
       <c r="A223" s="45" t="s">
         <v>868</v>
       </c>
@@ -13135,7 +13139,7 @@
       </c>
       <c r="I223" s="47"/>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" ht="30">
       <c r="A224" s="45" t="s">
         <v>869</v>
       </c>
@@ -13160,7 +13164,7 @@
       </c>
       <c r="I224" s="47"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" ht="30">
       <c r="A225" s="45" t="s">
         <v>870</v>
       </c>
@@ -13185,7 +13189,7 @@
       </c>
       <c r="I225" s="47"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" ht="30">
       <c r="A226" s="45" t="s">
         <v>871</v>
       </c>
@@ -13235,7 +13239,7 @@
       </c>
       <c r="I227" s="47"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" ht="30">
       <c r="A228" s="45" t="s">
         <v>873</v>
       </c>
@@ -13260,7 +13264,7 @@
       </c>
       <c r="I228" s="47"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" ht="30">
       <c r="A229" s="45" t="s">
         <v>874</v>
       </c>
@@ -13285,7 +13289,7 @@
       </c>
       <c r="I229" s="47"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" ht="30">
       <c r="A230" s="45" t="s">
         <v>875</v>
       </c>
@@ -13335,7 +13339,7 @@
       </c>
       <c r="I231" s="47"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" ht="30">
       <c r="A232" s="45" t="s">
         <v>877</v>
       </c>
@@ -13360,7 +13364,7 @@
       </c>
       <c r="I232" s="47"/>
     </row>
-    <row r="233" spans="1:9" ht="30">
+    <row r="233" spans="1:9" ht="45">
       <c r="A233" s="25" t="s">
         <v>152</v>
       </c>
@@ -13368,7 +13372,7 @@
         <v>395</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D233" s="25"/>
       <c r="E233" s="25" t="s">
@@ -13393,7 +13397,7 @@
         <v>395</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D234" s="25"/>
       <c r="E234" s="25" t="s">
@@ -13418,7 +13422,7 @@
         <v>395</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D235" s="25"/>
       <c r="E235" s="25" t="s">
@@ -13468,7 +13472,7 @@
         <v>396</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D237" s="25"/>
       <c r="E237" s="25" t="s">
@@ -13485,7 +13489,7 @@
       </c>
       <c r="I237" s="27"/>
     </row>
-    <row r="238" spans="1:9" ht="30">
+    <row r="238" spans="1:9" ht="45">
       <c r="A238" s="25" t="s">
         <v>157</v>
       </c>
@@ -13568,7 +13572,7 @@
         <v>396</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D241" s="25"/>
       <c r="E241" s="25" t="s">
@@ -13618,7 +13622,7 @@
         <v>396</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D243" s="25"/>
       <c r="E243" s="25" t="s">
@@ -13693,7 +13697,7 @@
         <v>396</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D246" s="25"/>
       <c r="E246" s="25" t="s">
@@ -13868,7 +13872,7 @@
         <v>401</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D253" s="25"/>
       <c r="E253" s="25" t="s">
@@ -13885,7 +13889,7 @@
       </c>
       <c r="I253" s="27"/>
     </row>
-    <row r="254" spans="1:9" ht="30">
+    <row r="254" spans="1:9" ht="45">
       <c r="A254" s="25" t="s">
         <v>174</v>
       </c>
@@ -13893,7 +13897,7 @@
         <v>401</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D254" s="25"/>
       <c r="E254" s="25" t="s">
@@ -13910,7 +13914,7 @@
       </c>
       <c r="I254" s="27"/>
     </row>
-    <row r="255" spans="1:9" ht="30">
+    <row r="255" spans="1:9" ht="45">
       <c r="A255" s="25" t="s">
         <v>175</v>
       </c>
@@ -13918,7 +13922,7 @@
         <v>401</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D255" s="25"/>
       <c r="E255" s="25" t="s">
@@ -13943,7 +13947,7 @@
         <v>401</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D256" s="25"/>
       <c r="E256" s="25" t="s">
@@ -13968,7 +13972,7 @@
         <v>401</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D257" s="25"/>
       <c r="E257" s="25" t="s">
@@ -13993,7 +13997,7 @@
         <v>401</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D258" s="25"/>
       <c r="E258" s="25" t="s">
@@ -14018,7 +14022,7 @@
         <v>401</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D259" s="25"/>
       <c r="E259" s="25" t="s">
@@ -14043,7 +14047,7 @@
         <v>33</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D260" s="25"/>
       <c r="E260" s="25" t="s">
@@ -14093,7 +14097,7 @@
         <v>33</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D262" s="25"/>
       <c r="E262" s="25" t="s">
@@ -14110,7 +14114,7 @@
       </c>
       <c r="I262" s="27"/>
     </row>
-    <row r="263" spans="1:9" ht="60">
+    <row r="263" spans="1:9" ht="75">
       <c r="A263" s="25" t="s">
         <v>183</v>
       </c>
@@ -14118,7 +14122,7 @@
         <v>33</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D263" s="25"/>
       <c r="E263" s="25" t="s">
@@ -14193,7 +14197,7 @@
         <v>402</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D266" s="25"/>
       <c r="E266" s="25" t="s">
@@ -14210,15 +14214,15 @@
       </c>
       <c r="I266" s="27"/>
     </row>
-    <row r="267" spans="1:9" ht="30">
+    <row r="267" spans="1:9" ht="45">
       <c r="A267" s="18" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B267" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C267" s="47" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D267" s="45"/>
       <c r="E267" s="25" t="s">
@@ -14231,19 +14235,19 @@
         <v>15</v>
       </c>
       <c r="H267" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I267" s="47"/>
     </row>
-    <row r="268" spans="1:9" ht="165">
+    <row r="268" spans="1:9" ht="195">
       <c r="A268" s="18" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B268" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C268" s="47" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D268" s="45"/>
       <c r="E268" s="25" t="s">
@@ -14260,15 +14264,15 @@
       </c>
       <c r="I268" s="47"/>
     </row>
-    <row r="269" spans="1:9" ht="30">
+    <row r="269" spans="1:9" ht="45">
       <c r="A269" s="18" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B269" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C269" s="47" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D269" s="45"/>
       <c r="E269" s="25" t="s">
@@ -14287,13 +14291,13 @@
     </row>
     <row r="270" spans="1:9" ht="30">
       <c r="A270" s="18" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B270" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C270" s="47" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D270" s="45"/>
       <c r="E270" s="25" t="s">
@@ -14312,13 +14316,13 @@
     </row>
     <row r="271" spans="1:9" ht="30">
       <c r="A271" s="18" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B271" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C271" s="47" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D271" s="45"/>
       <c r="E271" s="25" t="s">
@@ -14337,13 +14341,13 @@
     </row>
     <row r="272" spans="1:9" ht="30">
       <c r="A272" s="18" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B272" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C272" s="47" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D272" s="45"/>
       <c r="E272" s="25" t="s">
@@ -14362,13 +14366,13 @@
     </row>
     <row r="273" spans="1:9" ht="30">
       <c r="A273" s="18" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B273" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C273" s="47" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D273" s="45"/>
       <c r="E273" s="25" t="s">
@@ -14387,13 +14391,13 @@
     </row>
     <row r="274" spans="1:9" ht="30">
       <c r="A274" s="18" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B274" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C274" s="47" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D274" s="45"/>
       <c r="E274" s="25" t="s">
@@ -14410,15 +14414,15 @@
       </c>
       <c r="I274" s="47"/>
     </row>
-    <row r="275" spans="1:9" ht="30">
+    <row r="275" spans="1:9" ht="45">
       <c r="A275" s="18" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B275" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C275" s="47" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D275" s="45"/>
       <c r="E275" s="25" t="s">
@@ -14437,13 +14441,13 @@
     </row>
     <row r="276" spans="1:9" ht="30">
       <c r="A276" s="18" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B276" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C276" s="47" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D276" s="45"/>
       <c r="E276" s="25" t="s">
@@ -14462,13 +14466,13 @@
     </row>
     <row r="277" spans="1:9" ht="30">
       <c r="A277" s="18" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B277" s="46" t="s">
         <v>403</v>
       </c>
       <c r="C277" s="47" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D277" s="45"/>
       <c r="E277" s="45" t="s">
@@ -14485,15 +14489,15 @@
       </c>
       <c r="I277" s="47"/>
     </row>
-    <row r="278" spans="1:9" ht="30">
+    <row r="278" spans="1:9" ht="45">
       <c r="A278" s="18" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B278" s="46" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C278" s="47" t="s">
         <v>1151</v>
-      </c>
-      <c r="C278" s="47" t="s">
-        <v>1152</v>
       </c>
       <c r="D278" s="45"/>
       <c r="E278" s="45" t="s">
@@ -14506,19 +14510,19 @@
         <v>15</v>
       </c>
       <c r="H278" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I278" s="47"/>
     </row>
     <row r="279" spans="1:9" ht="135">
       <c r="A279" s="18" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B279" s="46" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C279" s="47" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D279" s="45"/>
       <c r="E279" s="45" t="s">
@@ -14535,15 +14539,15 @@
       </c>
       <c r="I279" s="47"/>
     </row>
-    <row r="280" spans="1:9" ht="30">
+    <row r="280" spans="1:9" ht="45">
       <c r="A280" s="45" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B280" s="46" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C280" s="47" t="s">
         <v>1187</v>
-      </c>
-      <c r="B280" s="46" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C280" s="47" t="s">
-        <v>1188</v>
       </c>
       <c r="D280" s="45"/>
       <c r="E280" s="45" t="s">
@@ -14560,15 +14564,15 @@
       </c>
       <c r="I280" s="47"/>
     </row>
-    <row r="281" spans="1:9" ht="30">
+    <row r="281" spans="1:9" ht="45">
       <c r="A281" s="18" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B281" s="46" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C281" s="47" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D281" s="45"/>
       <c r="E281" s="45" t="s">
@@ -14587,13 +14591,13 @@
     </row>
     <row r="282" spans="1:9" ht="30">
       <c r="A282" s="18" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B282" s="46" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C282" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D282" s="45"/>
       <c r="E282" s="45" t="s">
@@ -14610,15 +14614,15 @@
       </c>
       <c r="I282" s="47"/>
     </row>
-    <row r="283" spans="1:9" ht="30">
+    <row r="283" spans="1:9" ht="45">
       <c r="A283" s="18" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B283" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C283" s="47" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D283" s="45"/>
       <c r="E283" s="45" t="s">
@@ -14631,19 +14635,19 @@
         <v>15</v>
       </c>
       <c r="H283" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I283" s="47"/>
     </row>
-    <row r="284" spans="1:9" ht="150">
+    <row r="284" spans="1:9" ht="195">
       <c r="A284" s="18" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B284" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C284" s="47" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D284" s="45"/>
       <c r="E284" s="45" t="s">
@@ -14662,13 +14666,13 @@
     </row>
     <row r="285" spans="1:9" ht="30">
       <c r="A285" s="18" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B285" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C285" s="47" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D285" s="45"/>
       <c r="E285" s="45" t="s">
@@ -14687,13 +14691,13 @@
     </row>
     <row r="286" spans="1:9" ht="30">
       <c r="A286" s="18" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B286" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C286" s="47" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D286" s="45"/>
       <c r="E286" s="45" t="s">
@@ -14712,13 +14716,13 @@
     </row>
     <row r="287" spans="1:9" ht="30">
       <c r="A287" s="18" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B287" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C287" s="47" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D287" s="45"/>
       <c r="E287" s="45" t="s">
@@ -14737,13 +14741,13 @@
     </row>
     <row r="288" spans="1:9" ht="30">
       <c r="A288" s="18" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B288" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C288" s="47" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D288" s="45"/>
       <c r="E288" s="45" t="s">
@@ -14762,13 +14766,13 @@
     </row>
     <row r="289" spans="1:9" ht="30">
       <c r="A289" s="18" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B289" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C289" s="47" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D289" s="45"/>
       <c r="E289" s="45" t="s">
@@ -14787,13 +14791,13 @@
     </row>
     <row r="290" spans="1:9" ht="30">
       <c r="A290" s="18" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B290" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C290" s="47" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D290" s="45"/>
       <c r="E290" s="45" t="s">
@@ -14812,13 +14816,13 @@
     </row>
     <row r="291" spans="1:9" ht="30">
       <c r="A291" s="18" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B291" s="46" t="s">
         <v>404</v>
       </c>
       <c r="C291" s="47" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D291" s="45"/>
       <c r="E291" s="45" t="s">
@@ -14835,15 +14839,15 @@
       </c>
       <c r="I291" s="47"/>
     </row>
-    <row r="292" spans="1:9" ht="30">
+    <row r="292" spans="1:9" ht="45">
       <c r="A292" s="18" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B292" s="46" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C292" s="47" t="s">
         <v>1167</v>
-      </c>
-      <c r="C292" s="47" t="s">
-        <v>1168</v>
       </c>
       <c r="D292" s="45"/>
       <c r="E292" s="45" t="s">
@@ -14856,19 +14860,19 @@
         <v>15</v>
       </c>
       <c r="H292" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I292" s="47"/>
     </row>
     <row r="293" spans="1:9" ht="120">
       <c r="A293" s="18" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B293" s="46" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C293" s="47" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D293" s="45"/>
       <c r="E293" s="45" t="s">
@@ -14885,15 +14889,15 @@
       </c>
       <c r="I293" s="47"/>
     </row>
-    <row r="294" spans="1:9" ht="30">
+    <row r="294" spans="1:9" ht="45">
       <c r="A294" s="18" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B294" s="46" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C294" s="47" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D294" s="45"/>
       <c r="E294" s="45" t="s">
@@ -14912,13 +14916,13 @@
     </row>
     <row r="295" spans="1:9" ht="30">
       <c r="A295" s="18" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B295" s="46" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C295" s="47" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D295" s="45"/>
       <c r="E295" s="45" t="s">
@@ -14937,13 +14941,13 @@
     </row>
     <row r="296" spans="1:9" ht="30">
       <c r="A296" s="18" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B296" s="46" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C296" s="47" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D296" s="45"/>
       <c r="E296" s="45" t="s">
@@ -14968,7 +14972,7 @@
         <v>405</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D297" s="25"/>
       <c r="E297" s="25" t="s">
@@ -15035,7 +15039,7 @@
       </c>
       <c r="I299" s="27"/>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" ht="30">
       <c r="A300" s="25" t="s">
         <v>259</v>
       </c>
@@ -15043,7 +15047,7 @@
         <v>405</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D300" s="25"/>
       <c r="E300" s="25" t="s">
@@ -15060,7 +15064,7 @@
       </c>
       <c r="I300" s="27"/>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" ht="30">
       <c r="A301" s="25" t="s">
         <v>260</v>
       </c>
@@ -15093,7 +15097,7 @@
         <v>405</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D302" s="25"/>
       <c r="E302" s="25" t="s">
@@ -15168,7 +15172,7 @@
         <v>405</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D305" s="25"/>
       <c r="E305" s="25" t="s">
@@ -15185,7 +15189,7 @@
       </c>
       <c r="I305" s="27"/>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" ht="30">
       <c r="A306" s="25" t="s">
         <v>265</v>
       </c>
@@ -15218,7 +15222,7 @@
         <v>405</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D307" s="25"/>
       <c r="E307" s="25" t="s">
@@ -15260,7 +15264,7 @@
       </c>
       <c r="I308" s="27"/>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" ht="30">
       <c r="A309" s="25" t="s">
         <v>268</v>
       </c>
@@ -15293,7 +15297,7 @@
         <v>405</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D310" s="25"/>
       <c r="E310" s="25" t="s">
@@ -15335,7 +15339,7 @@
       </c>
       <c r="I311" s="27"/>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" ht="30">
       <c r="A312" s="25" t="s">
         <v>271</v>
       </c>
@@ -15368,7 +15372,7 @@
         <v>405</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D313" s="25"/>
       <c r="E313" s="25" t="s">
@@ -15385,7 +15389,7 @@
       </c>
       <c r="I313" s="27"/>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" ht="30">
       <c r="A314" s="25" t="s">
         <v>273</v>
       </c>
@@ -15418,7 +15422,7 @@
         <v>405</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D315" s="25"/>
       <c r="E315" s="25" t="s">
@@ -15435,7 +15439,7 @@
       </c>
       <c r="I315" s="27"/>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" ht="30">
       <c r="A316" s="25" t="s">
         <v>275</v>
       </c>
@@ -15468,7 +15472,7 @@
         <v>405</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D317" s="25"/>
       <c r="E317" s="25" t="s">
@@ -15510,7 +15514,7 @@
       </c>
       <c r="I318" s="27"/>
     </row>
-    <row r="319" spans="1:9" ht="30">
+    <row r="319" spans="1:9" ht="45">
       <c r="A319" s="25" t="s">
         <v>278</v>
       </c>
@@ -15560,7 +15564,7 @@
       </c>
       <c r="I320" s="27"/>
     </row>
-    <row r="321" spans="1:9" ht="30">
+    <row r="321" spans="1:9" ht="45">
       <c r="A321" s="25" t="s">
         <v>280</v>
       </c>
@@ -15618,7 +15622,7 @@
         <v>406</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D323" s="25"/>
       <c r="E323" s="25" t="s">
@@ -15635,7 +15639,7 @@
       </c>
       <c r="I323" s="27"/>
     </row>
-    <row r="324" spans="1:9" ht="30">
+    <row r="324" spans="1:9" ht="45">
       <c r="A324" s="25" t="s">
         <v>283</v>
       </c>
@@ -15687,13 +15691,13 @@
     </row>
     <row r="326" spans="1:9" ht="30">
       <c r="A326" s="45" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B326" s="20" t="s">
         <v>406</v>
       </c>
       <c r="C326" s="47" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D326" s="45"/>
       <c r="E326" s="45" t="s">
@@ -15718,7 +15722,7 @@
         <v>406</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D327" s="25"/>
       <c r="E327" s="25" t="s">
@@ -15762,13 +15766,13 @@
     </row>
     <row r="329" spans="1:9" ht="30">
       <c r="A329" s="45" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B329" s="20" t="s">
         <v>406</v>
       </c>
       <c r="C329" s="47" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D329" s="45"/>
       <c r="E329" s="45" t="s">
@@ -15785,15 +15789,15 @@
       </c>
       <c r="I329" s="47"/>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" ht="30">
       <c r="A330" s="45" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B330" s="20" t="s">
         <v>406</v>
       </c>
       <c r="C330" s="47" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D330" s="45"/>
       <c r="E330" s="45" t="s">
@@ -15806,19 +15810,19 @@
         <v>15</v>
       </c>
       <c r="H330" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I330" s="47"/>
     </row>
     <row r="331" spans="1:9" ht="30">
       <c r="A331" s="45" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B331" s="20" t="s">
         <v>406</v>
       </c>
       <c r="C331" s="47" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D331" s="45"/>
       <c r="E331" s="45" t="s">
@@ -15837,13 +15841,13 @@
     </row>
     <row r="332" spans="1:9" ht="30">
       <c r="A332" s="45" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B332" s="20" t="s">
         <v>406</v>
       </c>
       <c r="C332" s="47" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D332" s="45"/>
       <c r="E332" s="45" t="s">
@@ -15856,19 +15860,19 @@
         <v>15</v>
       </c>
       <c r="H332" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I332" s="47"/>
     </row>
-    <row r="333" spans="1:9" ht="30">
+    <row r="333" spans="1:9" ht="45">
       <c r="A333" s="25" t="s">
         <v>287</v>
       </c>
       <c r="B333" s="20" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C333" s="16" t="s">
         <v>1220</v>
-      </c>
-      <c r="C333" s="16" t="s">
-        <v>1221</v>
       </c>
       <c r="D333" s="25"/>
       <c r="E333" s="25" t="s">
@@ -15890,7 +15894,7 @@
         <v>288</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C334" s="16" t="s">
         <v>544</v>
@@ -15915,7 +15919,7 @@
         <v>289</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C335" s="27" t="s">
         <v>545</v>
@@ -15940,10 +15944,10 @@
         <v>290</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D336" s="25"/>
       <c r="E336" s="25" t="s">
@@ -15960,12 +15964,12 @@
       </c>
       <c r="I336" s="27"/>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" ht="30">
       <c r="A337" s="25" t="s">
         <v>291</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C337" s="27" t="s">
         <v>546</v>
@@ -15990,7 +15994,7 @@
         <v>292</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C338" s="27" t="s">
         <v>547</v>
@@ -16012,13 +16016,13 @@
     </row>
     <row r="339" spans="1:9" ht="45">
       <c r="A339" s="45" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B339" s="46" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C339" s="47" t="s">
         <v>1224</v>
-      </c>
-      <c r="C339" s="47" t="s">
-        <v>1225</v>
       </c>
       <c r="D339" s="45"/>
       <c r="E339" s="45" t="s">
@@ -16034,18 +16038,18 @@
         <v>17</v>
       </c>
       <c r="I339" s="47" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="150">
       <c r="A340" s="45" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B340" s="46" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C340" s="47" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D340" s="45"/>
       <c r="E340" s="45" t="s">
@@ -16064,13 +16068,13 @@
     </row>
     <row r="341" spans="1:9" ht="30">
       <c r="A341" s="45" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B341" s="46" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C341" s="47" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D341" s="45"/>
       <c r="E341" s="45" t="s">
@@ -16089,13 +16093,13 @@
     </row>
     <row r="342" spans="1:9" ht="30">
       <c r="A342" s="45" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B342" s="46" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C342" s="47" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D342" s="45"/>
       <c r="E342" s="45" t="s">
@@ -16112,15 +16116,15 @@
       </c>
       <c r="I342" s="47"/>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" ht="30">
       <c r="A343" s="45" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B343" s="46" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C343" s="47" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D343" s="45"/>
       <c r="E343" s="45" t="s">
@@ -16139,13 +16143,13 @@
     </row>
     <row r="344" spans="1:9" ht="30">
       <c r="A344" s="45" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B344" s="46" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C344" s="47" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D344" s="45"/>
       <c r="E344" s="45" t="s">
@@ -16164,13 +16168,13 @@
     </row>
     <row r="345" spans="1:9" ht="30">
       <c r="A345" s="45" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B345" s="46" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C345" s="47" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D345" s="45"/>
       <c r="E345" s="45" t="s">
@@ -16189,13 +16193,13 @@
     </row>
     <row r="346" spans="1:9" ht="30">
       <c r="A346" s="45" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B346" s="46" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C346" s="47" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D346" s="45"/>
       <c r="E346" s="45" t="s">
@@ -16212,15 +16216,15 @@
       </c>
       <c r="I346" s="47"/>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" ht="30">
       <c r="A347" s="45" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B347" s="46" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C347" s="47" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D347" s="45"/>
       <c r="E347" s="45" t="s">
@@ -16239,13 +16243,13 @@
     </row>
     <row r="348" spans="1:9" ht="45">
       <c r="A348" s="45" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B348" s="46" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C348" s="47" t="s">
         <v>1243</v>
-      </c>
-      <c r="C348" s="47" t="s">
-        <v>1244</v>
       </c>
       <c r="D348" s="45"/>
       <c r="E348" s="45" t="s">
@@ -16261,18 +16265,18 @@
         <v>17</v>
       </c>
       <c r="I348" s="47" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="120">
       <c r="A349" s="45" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B349" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C349" s="47" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D349" s="45"/>
       <c r="E349" s="45" t="s">
@@ -16291,13 +16295,13 @@
     </row>
     <row r="350" spans="1:9" ht="30">
       <c r="A350" s="45" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B350" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C350" s="47" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D350" s="45"/>
       <c r="E350" s="45" t="s">
@@ -16316,13 +16320,13 @@
     </row>
     <row r="351" spans="1:9" ht="30">
       <c r="A351" s="45" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B351" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C351" s="47" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D351" s="45"/>
       <c r="E351" s="45" t="s">
@@ -16341,13 +16345,13 @@
     </row>
     <row r="352" spans="1:9" ht="30">
       <c r="A352" s="45" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B352" s="46" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C352" s="47" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D352" s="45"/>
       <c r="E352" s="45" t="s">
@@ -16369,10 +16373,10 @@
         <v>293</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D353" s="25"/>
       <c r="E353" s="25" t="s">
@@ -16394,10 +16398,10 @@
         <v>294</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D354" s="25"/>
       <c r="E354" s="25" t="s">
@@ -16419,10 +16423,10 @@
         <v>295</v>
       </c>
       <c r="B355" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D355" s="25"/>
       <c r="E355" s="25" t="s">
@@ -16439,15 +16443,15 @@
       </c>
       <c r="I355" s="27"/>
     </row>
-    <row r="356" spans="1:9" ht="30">
+    <row r="356" spans="1:9" ht="45">
       <c r="A356" s="18" t="s">
         <v>296</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D356" s="25"/>
       <c r="E356" s="25" t="s">
@@ -16466,13 +16470,13 @@
     </row>
     <row r="357" spans="1:9" ht="45">
       <c r="A357" s="45" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B357" s="20" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C357" s="47" t="s">
         <v>1262</v>
-      </c>
-      <c r="B357" s="20" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C357" s="47" t="s">
-        <v>1263</v>
       </c>
       <c r="D357" s="45"/>
       <c r="E357" s="45" t="s">
@@ -16494,10 +16498,10 @@
         <v>297</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D358" s="25"/>
       <c r="E358" s="25" t="s">
@@ -16513,7 +16517,7 @@
         <v>17</v>
       </c>
       <c r="I358" s="16" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="45">
@@ -16521,10 +16525,10 @@
         <v>298</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D359" s="25"/>
       <c r="E359" s="25" t="s">
@@ -16540,7 +16544,7 @@
         <v>17</v>
       </c>
       <c r="I359" s="16" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="45">
@@ -16548,10 +16552,10 @@
         <v>299</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D360" s="25"/>
       <c r="E360" s="25" t="s">
@@ -16567,7 +16571,7 @@
         <v>17</v>
       </c>
       <c r="I360" s="16" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="361" spans="1:9" ht="45">
@@ -16575,10 +16579,10 @@
         <v>300</v>
       </c>
       <c r="B361" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D361" s="25"/>
       <c r="E361" s="25" t="s">
@@ -16594,7 +16598,7 @@
         <v>17</v>
       </c>
       <c r="I361" s="16" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="362" spans="1:9" ht="45">
@@ -16602,10 +16606,10 @@
         <v>301</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D362" s="25"/>
       <c r="E362" s="25" t="s">
@@ -16621,7 +16625,7 @@
         <v>17</v>
       </c>
       <c r="I362" s="16" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="45">
@@ -16629,10 +16633,10 @@
         <v>302</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D363" s="25"/>
       <c r="E363" s="25" t="s">
@@ -16648,7 +16652,7 @@
         <v>17</v>
       </c>
       <c r="I363" s="16" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="30">
@@ -16656,7 +16660,7 @@
         <v>303</v>
       </c>
       <c r="B364" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C364" s="27" t="s">
         <v>548</v>
@@ -16676,12 +16680,12 @@
       </c>
       <c r="I364" s="27"/>
     </row>
-    <row r="365" spans="1:9" ht="135">
+    <row r="365" spans="1:9" ht="150">
       <c r="A365" s="25" t="s">
         <v>304</v>
       </c>
       <c r="B365" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C365" s="16" t="s">
         <v>549</v>
@@ -16706,10 +16710,10 @@
         <v>305</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D366" s="25"/>
       <c r="E366" s="25" t="s">
@@ -16731,10 +16735,10 @@
         <v>306</v>
       </c>
       <c r="B367" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D367" s="25"/>
       <c r="E367" s="25" t="s">
@@ -16751,15 +16755,15 @@
       </c>
       <c r="I367" s="27"/>
     </row>
-    <row r="368" spans="1:9" ht="30">
+    <row r="368" spans="1:9" ht="45">
       <c r="A368" s="25" t="s">
         <v>307</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D368" s="25"/>
       <c r="E368" s="25" t="s">
@@ -16781,7 +16785,7 @@
         <v>308</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C369" s="27" t="s">
         <v>550</v>
@@ -16806,10 +16810,10 @@
         <v>309</v>
       </c>
       <c r="B370" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D370" s="25"/>
       <c r="E370" s="25" t="s">
@@ -16831,10 +16835,10 @@
         <v>310</v>
       </c>
       <c r="B371" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D371" s="25"/>
       <c r="E371" s="25" t="s">
@@ -16856,10 +16860,10 @@
         <v>311</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D372" s="25"/>
       <c r="E372" s="25" t="s">
@@ -16876,12 +16880,12 @@
       </c>
       <c r="I372" s="27"/>
     </row>
-    <row r="373" spans="1:9" ht="135">
+    <row r="373" spans="1:9" ht="150">
       <c r="A373" s="25" t="s">
         <v>312</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C373" s="27" t="s">
         <v>551</v>
@@ -16906,10 +16910,10 @@
         <v>313</v>
       </c>
       <c r="B374" s="20" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C374" s="16" t="s">
         <v>1274</v>
-      </c>
-      <c r="C374" s="16" t="s">
-        <v>1275</v>
       </c>
       <c r="D374" s="25"/>
       <c r="E374" s="25" t="s">
@@ -16931,10 +16935,10 @@
         <v>314</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D375" s="25"/>
       <c r="E375" s="25" t="s">
@@ -16956,10 +16960,10 @@
         <v>315</v>
       </c>
       <c r="B376" s="20" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C376" s="16" t="s">
         <v>1277</v>
-      </c>
-      <c r="C376" s="16" t="s">
-        <v>1278</v>
       </c>
       <c r="D376" s="25"/>
       <c r="E376" s="25" t="s">
@@ -16981,7 +16985,7 @@
         <v>316</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C377" s="27" t="s">
         <v>552</v>
@@ -17006,10 +17010,10 @@
         <v>317</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D378" s="25"/>
       <c r="E378" s="25" t="s">
@@ -17031,10 +17035,10 @@
         <v>318</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D379" s="25"/>
       <c r="E379" s="25" t="s">
@@ -17051,15 +17055,15 @@
       </c>
       <c r="I379" s="27"/>
     </row>
-    <row r="380" spans="1:9" ht="30">
+    <row r="380" spans="1:9" ht="45">
       <c r="A380" s="25" t="s">
         <v>319</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D380" s="25"/>
       <c r="E380" s="25" t="s">
@@ -17076,12 +17080,12 @@
       </c>
       <c r="I380" s="27"/>
     </row>
-    <row r="381" spans="1:9" ht="135">
+    <row r="381" spans="1:9" ht="150">
       <c r="A381" s="25" t="s">
         <v>320</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C381" s="27" t="s">
         <v>553</v>
@@ -17106,10 +17110,10 @@
         <v>321</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="D382" s="25"/>
       <c r="E382" s="25" t="s">
@@ -17131,10 +17135,10 @@
         <v>322</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D383" s="25"/>
       <c r="E383" s="25" t="s">
@@ -17156,7 +17160,7 @@
         <v>323</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C384" s="27" t="s">
         <v>554</v>
@@ -17181,7 +17185,7 @@
         <v>324</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C385" s="16" t="s">
         <v>555</v>
@@ -17206,7 +17210,7 @@
         <v>325</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C386" s="27" t="s">
         <v>556</v>
@@ -17231,10 +17235,10 @@
         <v>326</v>
       </c>
       <c r="B387" s="20" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C387" s="16" t="s">
         <v>1285</v>
-      </c>
-      <c r="C387" s="16" t="s">
-        <v>1286</v>
       </c>
       <c r="D387" s="25"/>
       <c r="E387" s="25" t="s">
@@ -17256,7 +17260,7 @@
         <v>327</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C388" s="27" t="s">
         <v>557</v>
@@ -17281,10 +17285,10 @@
         <v>328</v>
       </c>
       <c r="B389" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D389" s="25"/>
       <c r="E389" s="25" t="s">
@@ -17306,7 +17310,7 @@
         <v>329</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C390" s="27" t="s">
         <v>558</v>
@@ -17331,10 +17335,10 @@
         <v>330</v>
       </c>
       <c r="B391" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D391" s="25"/>
       <c r="E391" s="25" t="s">
@@ -17356,7 +17360,7 @@
         <v>331</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C392" s="27" t="s">
         <v>559</v>
@@ -17381,10 +17385,10 @@
         <v>332</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="D393" s="25"/>
       <c r="E393" s="25" t="s">
@@ -17406,7 +17410,7 @@
         <v>333</v>
       </c>
       <c r="B394" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C394" s="27" t="s">
         <v>560</v>
@@ -17431,10 +17435,10 @@
         <v>334</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D395" s="25"/>
       <c r="E395" s="25" t="s">
@@ -17456,10 +17460,10 @@
         <v>335</v>
       </c>
       <c r="B396" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="D396" s="25"/>
       <c r="E396" s="25" t="s">
@@ -17481,10 +17485,10 @@
         <v>336</v>
       </c>
       <c r="B397" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D397" s="25"/>
       <c r="E397" s="25" t="s">
@@ -17501,15 +17505,15 @@
       </c>
       <c r="I397" s="27"/>
     </row>
-    <row r="398" spans="1:9" ht="30">
+    <row r="398" spans="1:9" ht="45">
       <c r="A398" s="25" t="s">
         <v>337</v>
       </c>
       <c r="B398" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D398" s="25"/>
       <c r="E398" s="25" t="s">
@@ -17531,7 +17535,7 @@
         <v>338</v>
       </c>
       <c r="B399" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C399" s="27" t="s">
         <v>561</v>
@@ -17551,15 +17555,15 @@
       </c>
       <c r="I399" s="27"/>
     </row>
-    <row r="400" spans="1:9" ht="30">
+    <row r="400" spans="1:9" ht="45">
       <c r="A400" s="25" t="s">
         <v>339</v>
       </c>
       <c r="B400" s="20" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C400" s="16" t="s">
         <v>1294</v>
-      </c>
-      <c r="C400" s="16" t="s">
-        <v>1295</v>
       </c>
       <c r="D400" s="25"/>
       <c r="E400" s="25" t="s">
@@ -17576,12 +17580,12 @@
       </c>
       <c r="I400" s="27"/>
     </row>
-    <row r="401" spans="1:9" ht="30">
+    <row r="401" spans="1:9" ht="45">
       <c r="A401" s="25" t="s">
         <v>340</v>
       </c>
       <c r="B401" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C401" s="27" t="s">
         <v>562</v>
@@ -17609,7 +17613,7 @@
         <v>407</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D402" s="25"/>
       <c r="E402" s="25" t="s">
@@ -17628,13 +17632,13 @@
     </row>
     <row r="403" spans="1:9" ht="45">
       <c r="A403" s="45" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B403" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C403" s="47" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D403" s="45"/>
       <c r="E403" s="45" t="s">
@@ -17650,18 +17654,18 @@
         <v>17</v>
       </c>
       <c r="I403" s="47" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="165">
       <c r="A404" s="45" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B404" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C404" s="47" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D404" s="45"/>
       <c r="E404" s="45" t="s">
@@ -17678,15 +17682,15 @@
       </c>
       <c r="I404" s="47"/>
     </row>
-    <row r="405" spans="1:9" ht="30">
+    <row r="405" spans="1:9" ht="45">
       <c r="A405" s="45" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B405" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C405" s="47" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D405" s="45"/>
       <c r="E405" s="45" t="s">
@@ -17703,15 +17707,15 @@
       </c>
       <c r="I405" s="47"/>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" ht="30">
       <c r="A406" s="45" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B406" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C406" s="47" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D406" s="45"/>
       <c r="E406" s="45" t="s">
@@ -17728,15 +17732,15 @@
       </c>
       <c r="I406" s="47"/>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" ht="30">
       <c r="A407" s="45" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B407" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C407" s="47" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D407" s="45"/>
       <c r="E407" s="45" t="s">
@@ -17753,15 +17757,15 @@
       </c>
       <c r="I407" s="47"/>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" ht="30">
       <c r="A408" s="45" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B408" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C408" s="47" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D408" s="45"/>
       <c r="E408" s="45" t="s">
@@ -17778,15 +17782,15 @@
       </c>
       <c r="I408" s="47"/>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" ht="30">
       <c r="A409" s="45" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B409" s="46" t="s">
         <v>408</v>
       </c>
       <c r="C409" s="47" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D409" s="45"/>
       <c r="E409" s="45" t="s">
@@ -17805,13 +17809,13 @@
     </row>
     <row r="410" spans="1:9" ht="45">
       <c r="A410" s="45" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B410" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C410" s="47" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D410" s="45"/>
       <c r="E410" s="45" t="s">
@@ -17827,18 +17831,18 @@
         <v>17</v>
       </c>
       <c r="I410" s="47" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" ht="225">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" ht="240">
       <c r="A411" s="45" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B411" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C411" s="47" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D411" s="45"/>
       <c r="E411" s="45" t="s">
@@ -17855,15 +17859,15 @@
       </c>
       <c r="I411" s="47"/>
     </row>
-    <row r="412" spans="1:9" ht="45">
+    <row r="412" spans="1:9" ht="60">
       <c r="A412" s="45" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B412" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C412" s="47" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D412" s="45"/>
       <c r="E412" s="45" t="s">
@@ -17882,13 +17886,13 @@
     </row>
     <row r="413" spans="1:9">
       <c r="A413" s="45" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B413" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C413" s="47" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D413" s="45"/>
       <c r="E413" s="45" t="s">
@@ -17907,13 +17911,13 @@
     </row>
     <row r="414" spans="1:9">
       <c r="A414" s="45" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B414" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C414" s="47" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D414" s="45"/>
       <c r="E414" s="45" t="s">
@@ -17930,15 +17934,15 @@
       </c>
       <c r="I414" s="47"/>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" ht="30">
       <c r="A415" s="45" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B415" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C415" s="47" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D415" s="45"/>
       <c r="E415" s="45" t="s">
@@ -17957,13 +17961,13 @@
     </row>
     <row r="416" spans="1:9">
       <c r="A416" s="45" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B416" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C416" s="47" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D416" s="45"/>
       <c r="E416" s="45" t="s">
@@ -17982,13 +17986,13 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="45" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B417" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C417" s="47" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D417" s="45"/>
       <c r="E417" s="45" t="s">
@@ -18007,13 +18011,13 @@
     </row>
     <row r="418" spans="1:9">
       <c r="A418" s="45" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B418" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C418" s="47" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D418" s="45"/>
       <c r="E418" s="45" t="s">
@@ -18032,13 +18036,13 @@
     </row>
     <row r="419" spans="1:9">
       <c r="A419" s="45" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B419" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C419" s="47" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D419" s="45"/>
       <c r="E419" s="45" t="s">
@@ -18055,15 +18059,15 @@
       </c>
       <c r="I419" s="47"/>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" ht="30">
       <c r="A420" s="45" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B420" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C420" s="47" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D420" s="45"/>
       <c r="E420" s="45" t="s">
@@ -18082,13 +18086,13 @@
     </row>
     <row r="421" spans="1:9">
       <c r="A421" s="45" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B421" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C421" s="47" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D421" s="45"/>
       <c r="E421" s="45" t="s">
@@ -18107,13 +18111,13 @@
     </row>
     <row r="422" spans="1:9">
       <c r="A422" s="45" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B422" s="46" t="s">
         <v>409</v>
       </c>
       <c r="C422" s="47" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D422" s="45"/>
       <c r="E422" s="45" t="s">
@@ -18138,7 +18142,7 @@
         <v>410</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D423" s="25"/>
       <c r="E423" s="25" t="s">
@@ -18180,7 +18184,7 @@
       </c>
       <c r="I424" s="27"/>
     </row>
-    <row r="425" spans="1:9" ht="30">
+    <row r="425" spans="1:9" ht="45">
       <c r="A425" s="25" t="s">
         <v>189</v>
       </c>
@@ -18213,7 +18217,7 @@
         <v>410</v>
       </c>
       <c r="C426" s="16" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D426" s="25"/>
       <c r="E426" s="25" t="s">
@@ -18238,7 +18242,7 @@
         <v>410</v>
       </c>
       <c r="C427" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D427" s="25"/>
       <c r="E427" s="25" t="s">
@@ -18263,7 +18267,7 @@
         <v>410</v>
       </c>
       <c r="C428" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D428" s="25"/>
       <c r="E428" s="25" t="s">
@@ -18280,7 +18284,7 @@
       </c>
       <c r="I428" s="27"/>
     </row>
-    <row r="429" spans="1:9" ht="30">
+    <row r="429" spans="1:9" ht="45">
       <c r="A429" s="25" t="s">
         <v>193</v>
       </c>
@@ -18288,7 +18292,7 @@
         <v>411</v>
       </c>
       <c r="C429" s="16" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D429" s="25"/>
       <c r="E429" s="25" t="s">
@@ -18330,7 +18334,7 @@
       </c>
       <c r="I430" s="27"/>
     </row>
-    <row r="431" spans="1:9" ht="75">
+    <row r="431" spans="1:9" ht="105">
       <c r="A431" s="25" t="s">
         <v>195</v>
       </c>
@@ -18363,7 +18367,7 @@
         <v>411</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D432" s="25"/>
       <c r="E432" s="25" t="s">
@@ -18388,7 +18392,7 @@
         <v>411</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D433" s="25"/>
       <c r="E433" s="25" t="s">
@@ -18413,7 +18417,7 @@
         <v>411</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D434" s="25"/>
       <c r="E434" s="25" t="s">
@@ -18455,7 +18459,7 @@
       </c>
       <c r="I435" s="27"/>
     </row>
-    <row r="436" spans="1:9" ht="45">
+    <row r="436" spans="1:9" ht="60">
       <c r="A436" s="25" t="s">
         <v>200</v>
       </c>
@@ -18463,7 +18467,7 @@
         <v>411</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D436" s="25"/>
       <c r="E436" s="25" t="s">
@@ -18488,7 +18492,7 @@
         <v>411</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D437" s="25"/>
       <c r="E437" s="25" t="s">
@@ -18505,7 +18509,7 @@
       </c>
       <c r="I437" s="27"/>
     </row>
-    <row r="438" spans="1:9" ht="30">
+    <row r="438" spans="1:9" ht="45">
       <c r="A438" s="25" t="s">
         <v>202</v>
       </c>
@@ -18513,7 +18517,7 @@
         <v>411</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D438" s="25"/>
       <c r="E438" s="25" t="s">
@@ -18530,7 +18534,7 @@
       </c>
       <c r="I438" s="27"/>
     </row>
-    <row r="439" spans="1:9" ht="45">
+    <row r="439" spans="1:9" ht="60">
       <c r="A439" s="25" t="s">
         <v>203</v>
       </c>
@@ -18538,7 +18542,7 @@
         <v>411</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D439" s="25"/>
       <c r="E439" s="25" t="s">
@@ -18555,7 +18559,7 @@
       </c>
       <c r="I439" s="27"/>
     </row>
-    <row r="440" spans="1:9" ht="45">
+    <row r="440" spans="1:9" ht="60">
       <c r="A440" s="25" t="s">
         <v>204</v>
       </c>
@@ -18563,7 +18567,7 @@
         <v>411</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D440" s="25"/>
       <c r="E440" s="25" t="s">
@@ -18580,7 +18584,7 @@
       </c>
       <c r="I440" s="27"/>
     </row>
-    <row r="441" spans="1:9" ht="30">
+    <row r="441" spans="1:9" ht="45">
       <c r="A441" s="25" t="s">
         <v>205</v>
       </c>
@@ -18588,7 +18592,7 @@
         <v>411</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D441" s="25"/>
       <c r="E441" s="25" t="s">
@@ -18605,7 +18609,7 @@
       </c>
       <c r="I441" s="27"/>
     </row>
-    <row r="442" spans="1:9" ht="45">
+    <row r="442" spans="1:9" ht="60">
       <c r="A442" s="25" t="s">
         <v>206</v>
       </c>
@@ -18613,7 +18617,7 @@
         <v>411</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D442" s="25"/>
       <c r="E442" s="25" t="s">
@@ -18630,7 +18634,7 @@
       </c>
       <c r="I442" s="27"/>
     </row>
-    <row r="443" spans="1:9" ht="45">
+    <row r="443" spans="1:9" ht="60">
       <c r="A443" s="25" t="s">
         <v>207</v>
       </c>
@@ -18638,7 +18642,7 @@
         <v>411</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D443" s="25"/>
       <c r="E443" s="25" t="s">
@@ -18663,7 +18667,7 @@
         <v>411</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D444" s="25"/>
       <c r="E444" s="25" t="s">
@@ -18688,7 +18692,7 @@
         <v>411</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D445" s="25"/>
       <c r="E445" s="25" t="s">
@@ -18704,7 +18708,7 @@
         <v>17</v>
       </c>
       <c r="I445" s="16" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="446" spans="1:9" ht="45">
@@ -18715,7 +18719,7 @@
         <v>411</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D446" s="25"/>
       <c r="E446" s="25" t="s">
@@ -18731,7 +18735,7 @@
         <v>17</v>
       </c>
       <c r="I446" s="16" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="447" spans="1:9" ht="45">
@@ -18742,7 +18746,7 @@
         <v>411</v>
       </c>
       <c r="C447" s="16" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D447" s="25"/>
       <c r="E447" s="25" t="s">
@@ -18758,7 +18762,7 @@
         <v>17</v>
       </c>
       <c r="I447" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="45">
@@ -18769,7 +18773,7 @@
         <v>411</v>
       </c>
       <c r="C448" s="16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D448" s="25"/>
       <c r="E448" s="25" t="s">
@@ -18785,7 +18789,7 @@
         <v>17</v>
       </c>
       <c r="I448" s="16" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="449" spans="1:9" ht="45">
@@ -18796,7 +18800,7 @@
         <v>411</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D449" s="25"/>
       <c r="E449" s="25" t="s">
@@ -18812,7 +18816,7 @@
         <v>17</v>
       </c>
       <c r="I449" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="450" spans="1:9" ht="30">
@@ -18823,7 +18827,7 @@
         <v>412</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D450" s="25"/>
       <c r="E450" s="25" t="s">
@@ -18840,7 +18844,7 @@
       </c>
       <c r="I450" s="27"/>
     </row>
-    <row r="451" spans="1:9" ht="240">
+    <row r="451" spans="1:9" ht="255">
       <c r="A451" s="25" t="s">
         <v>215</v>
       </c>
@@ -18973,7 +18977,7 @@
         <v>413</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D456" s="25"/>
       <c r="E456" s="25" t="s">
@@ -18998,7 +19002,7 @@
         <v>413</v>
       </c>
       <c r="C457" s="16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D457" s="25"/>
       <c r="E457" s="25" t="s">
@@ -19015,7 +19019,7 @@
       </c>
       <c r="I457" s="27"/>
     </row>
-    <row r="458" spans="1:9" ht="75">
+    <row r="458" spans="1:9" ht="90">
       <c r="A458" s="25" t="s">
         <v>222</v>
       </c>
@@ -19023,7 +19027,7 @@
         <v>413</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D458" s="25"/>
       <c r="E458" s="25" t="s">
@@ -19490,7 +19494,7 @@
       </c>
       <c r="I476" s="27"/>
     </row>
-    <row r="477" spans="1:9" ht="30">
+    <row r="477" spans="1:9" ht="45">
       <c r="A477" s="18" t="s">
         <v>241</v>
       </c>
@@ -19517,13 +19521,13 @@
     </row>
     <row r="478" spans="1:9" ht="45">
       <c r="A478" s="45" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B478" s="20" t="s">
         <v>413</v>
       </c>
       <c r="C478" s="47" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D478" s="45"/>
       <c r="E478" s="45" t="s">
@@ -19539,18 +19543,18 @@
         <v>17</v>
       </c>
       <c r="I478" s="47" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="479" spans="1:9" ht="45">
       <c r="A479" s="45" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B479" s="20" t="s">
         <v>413</v>
       </c>
       <c r="C479" s="47" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D479" s="45"/>
       <c r="E479" s="45" t="s">
@@ -19566,18 +19570,18 @@
         <v>17</v>
       </c>
       <c r="I479" s="47" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="480" spans="1:9">
       <c r="A480" s="45" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B480" s="20" t="s">
         <v>413</v>
       </c>
       <c r="C480" s="47" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D480" s="45"/>
       <c r="E480" s="45" t="s">
@@ -19596,13 +19600,13 @@
     </row>
     <row r="481" spans="1:9">
       <c r="A481" s="45" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B481" s="20" t="s">
         <v>413</v>
       </c>
       <c r="C481" s="47" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D481" s="45"/>
       <c r="E481" s="45" t="s">
@@ -19627,7 +19631,7 @@
         <v>414</v>
       </c>
       <c r="C482" s="16" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D482" s="25"/>
       <c r="E482" s="25" t="s">
@@ -19644,7 +19648,7 @@
       </c>
       <c r="I482" s="27"/>
     </row>
-    <row r="483" spans="1:9" ht="285">
+    <row r="483" spans="1:9" ht="300">
       <c r="A483" s="25" t="s">
         <v>243</v>
       </c>
@@ -19802,7 +19806,7 @@
         <v>415</v>
       </c>
       <c r="C489" s="16" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D489" s="25"/>
       <c r="E489" s="25" t="s">
@@ -19819,7 +19823,7 @@
       </c>
       <c r="I489" s="27"/>
     </row>
-    <row r="490" spans="1:9" ht="240">
+    <row r="490" spans="1:9" ht="255">
       <c r="A490" s="25" t="s">
         <v>250</v>
       </c>
@@ -19894,7 +19898,7 @@
       </c>
       <c r="I492" s="27"/>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:9" ht="30">
       <c r="A493" s="25" t="s">
         <v>253</v>
       </c>
@@ -19952,7 +19956,7 @@
         <v>34</v>
       </c>
       <c r="C495" s="16" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D495" s="25"/>
       <c r="E495" s="25" t="s">
@@ -20019,7 +20023,7 @@
       </c>
       <c r="I497" s="27"/>
     </row>
-    <row r="498" spans="1:9" ht="45">
+    <row r="498" spans="1:9" ht="60">
       <c r="A498" s="25" t="s">
         <v>344</v>
       </c>
@@ -20027,7 +20031,7 @@
         <v>34</v>
       </c>
       <c r="C498" s="16" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D498" s="25"/>
       <c r="E498" s="25" t="s">
@@ -20102,7 +20106,7 @@
         <v>416</v>
       </c>
       <c r="C501" s="16" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D501" s="25"/>
       <c r="E501" s="25" t="s">
@@ -20169,7 +20173,7 @@
       </c>
       <c r="I503" s="27"/>
     </row>
-    <row r="504" spans="1:9" ht="45">
+    <row r="504" spans="1:9" ht="60">
       <c r="A504" s="25" t="s">
         <v>350</v>
       </c>
@@ -20177,7 +20181,7 @@
         <v>416</v>
       </c>
       <c r="C504" s="16" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D504" s="25"/>
       <c r="E504" s="25" t="s">
@@ -20252,7 +20256,7 @@
         <v>417</v>
       </c>
       <c r="C507" s="16" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D507" s="25"/>
       <c r="E507" s="25" t="s">
@@ -20302,7 +20306,7 @@
         <v>417</v>
       </c>
       <c r="C509" s="16" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D509" s="25"/>
       <c r="E509" s="25" t="s">
@@ -20319,7 +20323,7 @@
       </c>
       <c r="I509" s="27"/>
     </row>
-    <row r="510" spans="1:9" ht="60">
+    <row r="510" spans="1:9" ht="75">
       <c r="A510" s="25" t="s">
         <v>356</v>
       </c>
@@ -20327,7 +20331,7 @@
         <v>417</v>
       </c>
       <c r="C510" s="16" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D510" s="25"/>
       <c r="E510" s="25" t="s">
@@ -20402,7 +20406,7 @@
         <v>418</v>
       </c>
       <c r="C513" s="16" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D513" s="25"/>
       <c r="E513" s="25" t="s">
@@ -20469,7 +20473,7 @@
       </c>
       <c r="I515" s="27"/>
     </row>
-    <row r="516" spans="1:9" ht="75">
+    <row r="516" spans="1:9" ht="90">
       <c r="A516" s="25" t="s">
         <v>362</v>
       </c>
@@ -20477,7 +20481,7 @@
         <v>418</v>
       </c>
       <c r="C516" s="16" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D516" s="25"/>
       <c r="E516" s="25" t="s">
@@ -20602,7 +20606,7 @@
         <v>419</v>
       </c>
       <c r="C521" s="16" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D521" s="25"/>
       <c r="E521" s="25" t="s">
@@ -20619,7 +20623,7 @@
       </c>
       <c r="I521" s="27"/>
     </row>
-    <row r="522" spans="1:9" ht="60">
+    <row r="522" spans="1:9" ht="75">
       <c r="A522" s="25" t="s">
         <v>368</v>
       </c>
@@ -20627,7 +20631,7 @@
         <v>419</v>
       </c>
       <c r="C522" s="16" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D522" s="25"/>
       <c r="E522" s="25" t="s">
@@ -20671,13 +20675,13 @@
     </row>
     <row r="524" spans="1:9" ht="45">
       <c r="A524" s="18" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B524" s="26" t="s">
         <v>419</v>
       </c>
       <c r="C524" s="47" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D524" s="45"/>
       <c r="E524" s="45" t="s">
@@ -20721,13 +20725,13 @@
     </row>
     <row r="526" spans="1:9" ht="30">
       <c r="A526" s="45" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B526" s="20" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C526" s="47" t="s">
         <v>1307</v>
-      </c>
-      <c r="C526" s="47" t="s">
-        <v>1308</v>
       </c>
       <c r="D526" s="45"/>
       <c r="E526" s="45" t="s">
@@ -20746,13 +20750,13 @@
     </row>
     <row r="527" spans="1:9" ht="105">
       <c r="A527" s="45" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B527" s="20" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C527" s="47" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D527" s="45"/>
       <c r="E527" s="45" t="s">
@@ -20769,15 +20773,15 @@
       </c>
       <c r="I527" s="47"/>
     </row>
-    <row r="528" spans="1:9" ht="255">
+    <row r="528" spans="1:9" ht="285">
       <c r="A528" s="45" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B528" s="20" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C528" s="47" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D528" s="45"/>
       <c r="E528" s="45" t="s">
@@ -20794,15 +20798,15 @@
       </c>
       <c r="I528" s="47"/>
     </row>
-    <row r="529" spans="1:9">
+    <row r="529" spans="1:9" ht="30">
       <c r="A529" s="45" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B529" s="20" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C529" s="47" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D529" s="45"/>
       <c r="E529" s="45" t="s">
@@ -20821,13 +20825,13 @@
     </row>
     <row r="530" spans="1:9" ht="30">
       <c r="A530" s="45" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B530" s="46" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C530" s="47" t="s">
         <v>1574</v>
-      </c>
-      <c r="B530" s="46" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C530" s="47" t="s">
-        <v>1575</v>
       </c>
       <c r="D530" s="45"/>
       <c r="E530" s="45" t="s">
@@ -20846,13 +20850,13 @@
     </row>
     <row r="531" spans="1:9" ht="45">
       <c r="A531" s="45" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B531" s="46" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C531" s="47" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D531" s="45"/>
       <c r="E531" s="45" t="s">
@@ -20871,13 +20875,13 @@
     </row>
     <row r="532" spans="1:9">
       <c r="A532" s="45" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B532" s="46" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C532" s="47" t="s">
         <v>1311</v>
-      </c>
-      <c r="C532" s="47" t="s">
-        <v>1312</v>
       </c>
       <c r="D532" s="45"/>
       <c r="E532" s="45" t="s">
@@ -20896,13 +20900,13 @@
     </row>
     <row r="533" spans="1:9" ht="30">
       <c r="A533" s="45" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B533" s="46" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C533" s="47" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D533" s="45"/>
       <c r="E533" s="45" t="s">
@@ -20921,13 +20925,13 @@
     </row>
     <row r="534" spans="1:9" ht="30">
       <c r="A534" s="45" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B534" s="46" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C534" s="47" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D534" s="45"/>
       <c r="E534" s="45" t="s">
@@ -20946,13 +20950,13 @@
     </row>
     <row r="535" spans="1:9" ht="105">
       <c r="A535" s="45" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B535" s="46" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C535" s="47" t="s">
         <v>1315</v>
-      </c>
-      <c r="C535" s="47" t="s">
-        <v>1316</v>
       </c>
       <c r="D535" s="45"/>
       <c r="E535" s="45" t="s">
@@ -20969,15 +20973,15 @@
       </c>
       <c r="I535" s="47"/>
     </row>
-    <row r="536" spans="1:9" ht="45">
+    <row r="536" spans="1:9" ht="60">
       <c r="A536" s="45" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B536" s="46" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C536" s="47" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D536" s="45"/>
       <c r="E536" s="45" t="s">
@@ -20996,13 +21000,13 @@
     </row>
     <row r="537" spans="1:9" ht="30">
       <c r="A537" s="45" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B537" s="46" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C537" s="47" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D537" s="45"/>
       <c r="E537" s="45" t="s">
@@ -21021,13 +21025,13 @@
     </row>
     <row r="538" spans="1:9" ht="30">
       <c r="A538" s="45" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B538" s="46" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C538" s="47" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D538" s="45"/>
       <c r="E538" s="45" t="s">
@@ -21046,13 +21050,13 @@
     </row>
     <row r="539" spans="1:9" ht="30">
       <c r="A539" s="45" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B539" s="46" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C539" s="47" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D539" s="45"/>
       <c r="E539" s="45" t="s">
@@ -21069,15 +21073,15 @@
       </c>
       <c r="I539" s="47"/>
     </row>
-    <row r="540" spans="1:9" ht="30">
+    <row r="540" spans="1:9" ht="45">
       <c r="A540" s="45" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B540" s="46" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C540" s="47" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D540" s="45"/>
       <c r="E540" s="45" t="s">
@@ -21096,13 +21100,13 @@
     </row>
     <row r="541" spans="1:9" ht="30">
       <c r="A541" s="45" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B541" s="46" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C541" s="47" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="D541" s="45"/>
       <c r="E541" s="45" t="s">
@@ -21121,13 +21125,13 @@
     </row>
     <row r="542" spans="1:9" ht="30">
       <c r="A542" s="45" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B542" s="46" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C542" s="47" t="s">
         <v>1318</v>
-      </c>
-      <c r="C542" s="47" t="s">
-        <v>1319</v>
       </c>
       <c r="D542" s="45"/>
       <c r="E542" s="45" t="s">
@@ -21144,15 +21148,15 @@
       </c>
       <c r="I542" s="47"/>
     </row>
-    <row r="543" spans="1:9" ht="105">
+    <row r="543" spans="1:9" ht="120">
       <c r="A543" s="45" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B543" s="46" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C543" s="47" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D543" s="45"/>
       <c r="E543" s="45" t="s">
@@ -21169,15 +21173,15 @@
       </c>
       <c r="I543" s="47"/>
     </row>
-    <row r="544" spans="1:9" ht="45">
+    <row r="544" spans="1:9" ht="60">
       <c r="A544" s="45" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B544" s="46" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C544" s="47" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D544" s="45"/>
       <c r="E544" s="45" t="s">
@@ -21194,15 +21198,15 @@
       </c>
       <c r="I544" s="47"/>
     </row>
-    <row r="545" spans="1:9" ht="30">
+    <row r="545" spans="1:9" ht="45">
       <c r="A545" s="45" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B545" s="46" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C545" s="47" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D545" s="45"/>
       <c r="E545" s="45" t="s">
@@ -21221,13 +21225,13 @@
     </row>
     <row r="546" spans="1:9" ht="30">
       <c r="A546" s="45" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B546" s="46" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C546" s="47" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D546" s="45"/>
       <c r="E546" s="45" t="s">
@@ -21246,13 +21250,13 @@
     </row>
     <row r="547" spans="1:9" ht="30">
       <c r="A547" s="45" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B547" s="46" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C547" s="47" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D547" s="45"/>
       <c r="E547" s="45" t="s">
@@ -21271,13 +21275,13 @@
     </row>
     <row r="548" spans="1:9" ht="30">
       <c r="A548" s="45" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B548" s="46" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C548" s="47" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D548" s="45"/>
       <c r="E548" s="45" t="s">
@@ -21296,13 +21300,13 @@
     </row>
     <row r="549" spans="1:9" ht="30">
       <c r="A549" s="45" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B549" s="46" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C549" s="47" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D549" s="45"/>
       <c r="E549" s="45" t="s">
@@ -21319,15 +21323,15 @@
       </c>
       <c r="I549" s="47"/>
     </row>
-    <row r="550" spans="1:9" ht="30">
+    <row r="550" spans="1:9" ht="45">
       <c r="A550" s="45" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B550" s="46" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C550" s="47" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D550" s="45"/>
       <c r="E550" s="45" t="s">
@@ -21346,13 +21350,13 @@
     </row>
     <row r="551" spans="1:9" ht="45">
       <c r="A551" s="45" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B551" s="46" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C551" s="47" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D551" s="45"/>
       <c r="E551" s="45" t="s">
@@ -21369,15 +21373,15 @@
       </c>
       <c r="I551" s="47"/>
     </row>
-    <row r="552" spans="1:9" ht="30">
+    <row r="552" spans="1:9" ht="45">
       <c r="A552" s="45" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B552" s="46" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C552" s="47" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D552" s="45"/>
       <c r="E552" s="45" t="s">
@@ -21396,13 +21400,13 @@
     </row>
     <row r="553" spans="1:9" ht="60">
       <c r="A553" s="45" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B553" s="46" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C553" s="47" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D553" s="45"/>
       <c r="E553" s="45" t="s">
@@ -21419,15 +21423,15 @@
       </c>
       <c r="I553" s="47"/>
     </row>
-    <row r="554" spans="1:9" ht="30">
+    <row r="554" spans="1:9" ht="45">
       <c r="A554" s="45" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B554" s="46" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C554" s="47" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D554" s="45"/>
       <c r="E554" s="45" t="s">
@@ -21446,13 +21450,13 @@
     </row>
     <row r="555" spans="1:9" ht="30">
       <c r="A555" s="45" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B555" s="46" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C555" s="47" t="s">
         <v>1334</v>
-      </c>
-      <c r="C555" s="47" t="s">
-        <v>1335</v>
       </c>
       <c r="D555" s="45"/>
       <c r="E555" s="45" t="s">
@@ -21471,13 +21475,13 @@
     </row>
     <row r="556" spans="1:9" ht="30">
       <c r="A556" s="45" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B556" s="46" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C556" s="47" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D556" s="45"/>
       <c r="E556" s="45" t="s">
@@ -21496,13 +21500,13 @@
     </row>
     <row r="557" spans="1:9" ht="30">
       <c r="A557" s="45" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B557" s="46" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C557" s="47" t="s">
         <v>1336</v>
-      </c>
-      <c r="C557" s="47" t="s">
-        <v>1337</v>
       </c>
       <c r="D557" s="45"/>
       <c r="E557" s="45" t="s">
@@ -21521,13 +21525,13 @@
     </row>
     <row r="558" spans="1:9" ht="60">
       <c r="A558" s="45" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B558" s="46" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C558" s="47" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="D558" s="45"/>
       <c r="E558" s="45" t="s">
@@ -21546,13 +21550,13 @@
     </row>
     <row r="559" spans="1:9" ht="30">
       <c r="A559" s="45" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B559" s="46" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C559" s="47" t="s">
         <v>1339</v>
-      </c>
-      <c r="C559" s="47" t="s">
-        <v>1340</v>
       </c>
       <c r="D559" s="45"/>
       <c r="E559" s="45" t="s">
@@ -21571,13 +21575,13 @@
     </row>
     <row r="560" spans="1:9" ht="90">
       <c r="A560" s="45" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B560" s="46" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C560" s="47" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D560" s="45"/>
       <c r="E560" s="45" t="s">
@@ -21596,13 +21600,13 @@
     </row>
     <row r="561" spans="1:9" ht="45">
       <c r="A561" s="45" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B561" s="46" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C561" s="47" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D561" s="45"/>
       <c r="E561" s="45" t="s">
@@ -21619,15 +21623,15 @@
       </c>
       <c r="I561" s="47"/>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="1:9" ht="30">
       <c r="A562" s="45" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B562" s="46" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C562" s="47" t="s">
         <v>1342</v>
-      </c>
-      <c r="C562" s="47" t="s">
-        <v>1343</v>
       </c>
       <c r="D562" s="45"/>
       <c r="E562" s="45" t="s">
@@ -21646,13 +21650,13 @@
     </row>
     <row r="563" spans="1:9" ht="30">
       <c r="A563" s="45" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B563" s="46" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C563" s="47" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D563" s="45"/>
       <c r="E563" s="45" t="s">
@@ -21671,13 +21675,13 @@
     </row>
     <row r="564" spans="1:9" ht="30">
       <c r="A564" s="45" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B564" s="46" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C564" s="47" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D564" s="45"/>
       <c r="E564" s="45" t="s">
@@ -21696,13 +21700,13 @@
     </row>
     <row r="565" spans="1:9" ht="45">
       <c r="A565" s="45" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B565" s="46" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C565" s="47" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D565" s="45"/>
       <c r="E565" s="45" t="s">
@@ -21721,13 +21725,13 @@
     </row>
     <row r="566" spans="1:9" ht="30">
       <c r="A566" s="45" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B566" s="46" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C566" s="47" t="s">
         <v>1347</v>
-      </c>
-      <c r="C566" s="47" t="s">
-        <v>1348</v>
       </c>
       <c r="D566" s="45"/>
       <c r="E566" s="45" t="s">
@@ -21746,13 +21750,13 @@
     </row>
     <row r="567" spans="1:9" ht="30">
       <c r="A567" s="45" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B567" s="46" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C567" s="47" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D567" s="45"/>
       <c r="E567" s="45" t="s">
@@ -21769,15 +21773,15 @@
       </c>
       <c r="I567" s="47"/>
     </row>
-    <row r="568" spans="1:9" ht="210">
+    <row r="568" spans="1:9" ht="240">
       <c r="A568" s="45" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B568" s="46" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C568" s="47" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D568" s="45"/>
       <c r="E568" s="45" t="s">
@@ -21796,13 +21800,13 @@
     </row>
     <row r="569" spans="1:9" ht="30">
       <c r="A569" s="45" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B569" s="46" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C569" s="47" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D569" s="45"/>
       <c r="E569" s="45" t="s">
@@ -21819,15 +21823,15 @@
       </c>
       <c r="I569" s="47"/>
     </row>
-    <row r="570" spans="1:9">
+    <row r="570" spans="1:9" ht="30">
       <c r="A570" s="45" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B570" s="46" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C570" s="47" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D570" s="45"/>
       <c r="E570" s="45" t="s">
@@ -21846,13 +21850,13 @@
     </row>
     <row r="571" spans="1:9">
       <c r="A571" s="45" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B571" s="46" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C571" s="47" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="D571" s="45"/>
       <c r="E571" s="45" t="s">
@@ -21871,13 +21875,13 @@
     </row>
     <row r="572" spans="1:9" ht="30">
       <c r="A572" s="45" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B572" s="46" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C572" s="47" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D572" s="45"/>
       <c r="E572" s="45" t="s">
@@ -21894,15 +21898,15 @@
       </c>
       <c r="I572" s="47"/>
     </row>
-    <row r="573" spans="1:9">
+    <row r="573" spans="1:9" ht="30">
       <c r="A573" s="45" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B573" s="46" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C573" s="47" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D573" s="45"/>
       <c r="E573" s="45" t="s">
@@ -21921,13 +21925,13 @@
     </row>
     <row r="574" spans="1:9" ht="30">
       <c r="A574" s="45" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B574" s="46" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C574" s="47" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D574" s="45"/>
       <c r="E574" s="45" t="s">
@@ -21946,13 +21950,13 @@
     </row>
     <row r="575" spans="1:9" ht="30">
       <c r="A575" s="45" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B575" s="46" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C575" s="47" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D575" s="45"/>
       <c r="E575" s="45" t="s">
@@ -21969,15 +21973,15 @@
       </c>
       <c r="I575" s="47"/>
     </row>
-    <row r="576" spans="1:9" ht="45">
+    <row r="576" spans="1:9" ht="60">
       <c r="A576" s="45" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B576" s="46" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C576" s="47" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D576" s="45"/>
       <c r="E576" s="45" t="s">
@@ -21994,15 +21998,15 @@
       </c>
       <c r="I576" s="47"/>
     </row>
-    <row r="577" spans="1:9" ht="30">
+    <row r="577" spans="1:9" ht="45">
       <c r="A577" s="45" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B577" s="46" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C577" s="47" t="s">
         <v>1358</v>
-      </c>
-      <c r="C577" s="47" t="s">
-        <v>1359</v>
       </c>
       <c r="D577" s="45"/>
       <c r="E577" s="45" t="s">
@@ -22021,13 +22025,13 @@
     </row>
     <row r="578" spans="1:9" ht="45">
       <c r="A578" s="45" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B578" s="46" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C578" s="47" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D578" s="45"/>
       <c r="E578" s="45" t="s">
@@ -22046,13 +22050,13 @@
     </row>
     <row r="579" spans="1:9" ht="225">
       <c r="A579" s="45" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B579" s="46" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C579" s="47" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D579" s="45"/>
       <c r="E579" s="45" t="s">
@@ -22069,15 +22073,15 @@
       </c>
       <c r="I579" s="47"/>
     </row>
-    <row r="580" spans="1:9" ht="30">
+    <row r="580" spans="1:9" ht="45">
       <c r="A580" s="45" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B580" s="46" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C580" s="47" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D580" s="45"/>
       <c r="E580" s="45" t="s">
@@ -22096,13 +22100,13 @@
     </row>
     <row r="581" spans="1:9" ht="30">
       <c r="A581" s="45" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B581" s="46" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C581" s="47" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D581" s="45"/>
       <c r="E581" s="45" t="s">
@@ -22119,15 +22123,15 @@
       </c>
       <c r="I581" s="47"/>
     </row>
-    <row r="582" spans="1:9" ht="60">
+    <row r="582" spans="1:9" ht="30">
       <c r="A582" s="45" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B582" s="46" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C582" s="47" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D582" s="45"/>
       <c r="E582" s="45" t="s">
@@ -22140,24 +22144,22 @@
         <v>15</v>
       </c>
       <c r="H582" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I582" s="47" t="s">
-        <v>1662</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I582" s="47"/>
     </row>
     <row r="583" spans="1:9" ht="30">
       <c r="A583" s="45" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="B583" s="46" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C583" s="47" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="D583" s="45" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="E583" s="45" t="s">
         <v>19</v>
@@ -22175,16 +22177,16 @@
     </row>
     <row r="584" spans="1:9" ht="30">
       <c r="A584" s="45" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B584" s="46" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C584" s="47" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D584" s="45" t="s">
         <v>1661</v>
-      </c>
-      <c r="B584" s="46" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C584" s="47" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D584" s="45" t="s">
-        <v>1667</v>
       </c>
       <c r="E584" s="45" t="s">
         <v>19</v>
@@ -22202,13 +22204,13 @@
     </row>
     <row r="585" spans="1:9" ht="30">
       <c r="A585" s="45" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B585" s="46" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C585" s="47" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D585" s="45"/>
       <c r="E585" s="45" t="s">
@@ -22227,13 +22229,13 @@
     </row>
     <row r="586" spans="1:9" ht="30">
       <c r="A586" s="45" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B586" s="46" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C586" s="47" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D586" s="45"/>
       <c r="E586" s="45" t="s">
@@ -22252,13 +22254,13 @@
     </row>
     <row r="587" spans="1:9" ht="30">
       <c r="A587" s="45" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B587" s="46" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C587" s="47" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D587" s="45"/>
       <c r="E587" s="45" t="s">
@@ -22275,15 +22277,15 @@
       </c>
       <c r="I587" s="47"/>
     </row>
-    <row r="588" spans="1:9" ht="30">
+    <row r="588" spans="1:9" ht="45">
       <c r="A588" s="45" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B588" s="46" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C588" s="47" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D588" s="45"/>
       <c r="E588" s="45" t="s">
@@ -22302,13 +22304,13 @@
     </row>
     <row r="589" spans="1:9" ht="120">
       <c r="A589" s="45" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B589" s="46" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C589" s="47" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D589" s="45"/>
       <c r="E589" s="45" t="s">
@@ -22325,15 +22327,15 @@
       </c>
       <c r="I589" s="47"/>
     </row>
-    <row r="590" spans="1:9" ht="30">
+    <row r="590" spans="1:9" ht="45">
       <c r="A590" s="45" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B590" s="46" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C590" s="47" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D590" s="45"/>
       <c r="E590" s="45" t="s">
@@ -22352,13 +22354,13 @@
     </row>
     <row r="591" spans="1:9">
       <c r="A591" s="45" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B591" s="46" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C591" s="47" t="s">
         <v>1375</v>
-      </c>
-      <c r="C591" s="47" t="s">
-        <v>1376</v>
       </c>
       <c r="D591" s="45"/>
       <c r="E591" s="45" t="s">
@@ -22377,13 +22379,13 @@
     </row>
     <row r="592" spans="1:9" ht="30">
       <c r="A592" s="45" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B592" s="46" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C592" s="47" t="s">
         <v>1377</v>
-      </c>
-      <c r="C592" s="47" t="s">
-        <v>1378</v>
       </c>
       <c r="D592" s="45"/>
       <c r="E592" s="45" t="s">
@@ -22400,15 +22402,15 @@
       </c>
       <c r="I592" s="47"/>
     </row>
-    <row r="593" spans="1:9">
+    <row r="593" spans="1:9" ht="30">
       <c r="A593" s="45" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B593" s="46" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C593" s="47" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D593" s="45"/>
       <c r="E593" s="45" t="s">
@@ -22425,15 +22427,15 @@
       </c>
       <c r="I593" s="47"/>
     </row>
-    <row r="594" spans="1:9" ht="225">
+    <row r="594" spans="1:9" ht="240">
       <c r="A594" s="45" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B594" s="46" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C594" s="47" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D594" s="45"/>
       <c r="E594" s="45" t="s">
@@ -22452,13 +22454,13 @@
     </row>
     <row r="595" spans="1:9" ht="45">
       <c r="A595" s="45" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B595" s="46" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C595" s="47" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D595" s="45"/>
       <c r="E595" s="45" t="s">
@@ -22477,13 +22479,13 @@
     </row>
     <row r="596" spans="1:9" ht="30">
       <c r="A596" s="45" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B596" s="46" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C596" s="47" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D596" s="45"/>
       <c r="E596" s="45" t="s">
@@ -22502,13 +22504,13 @@
     </row>
     <row r="597" spans="1:9" ht="30">
       <c r="A597" s="45" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B597" s="46" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C597" s="47" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D597" s="45"/>
       <c r="E597" s="45" t="s">
@@ -22527,13 +22529,13 @@
     </row>
     <row r="598" spans="1:9" ht="30">
       <c r="A598" s="45" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B598" s="46" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C598" s="47" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D598" s="45"/>
       <c r="E598" s="45" t="s">
@@ -22552,13 +22554,13 @@
     </row>
     <row r="599" spans="1:9" ht="30">
       <c r="A599" s="45" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B599" s="46" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C599" s="47" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D599" s="45"/>
       <c r="E599" s="45" t="s">
@@ -22577,13 +22579,13 @@
     </row>
     <row r="600" spans="1:9" ht="30">
       <c r="A600" s="45" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B600" s="46" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C600" s="47" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D600" s="45"/>
       <c r="E600" s="45" t="s">
@@ -22602,13 +22604,13 @@
     </row>
     <row r="601" spans="1:9" ht="30">
       <c r="A601" s="45" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B601" s="46" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C601" s="47" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D601" s="45"/>
       <c r="E601" s="45" t="s">
@@ -22627,13 +22629,13 @@
     </row>
     <row r="602" spans="1:9" ht="30">
       <c r="A602" s="45" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B602" s="46" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C602" s="47" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D602" s="45"/>
       <c r="E602" s="45" t="s">
@@ -22652,13 +22654,13 @@
     </row>
     <row r="603" spans="1:9" ht="30">
       <c r="A603" s="45" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B603" s="46" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C603" s="47" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D603" s="45"/>
       <c r="E603" s="45" t="s">
@@ -22677,13 +22679,13 @@
     </row>
     <row r="604" spans="1:9" ht="30">
       <c r="A604" s="45" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B604" s="46" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C604" s="47" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D604" s="45"/>
       <c r="E604" s="45" t="s">
@@ -22702,13 +22704,13 @@
     </row>
     <row r="605" spans="1:9" ht="45">
       <c r="A605" s="45" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B605" s="46" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C605" s="47" t="s">
         <v>1391</v>
-      </c>
-      <c r="C605" s="47" t="s">
-        <v>1392</v>
       </c>
       <c r="D605" s="45"/>
       <c r="E605" s="45" t="s">
@@ -22724,18 +22726,18 @@
         <v>17</v>
       </c>
       <c r="I605" s="47" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="606" spans="1:9" ht="105">
       <c r="A606" s="45" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B606" s="46" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C606" s="47" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D606" s="45"/>
       <c r="E606" s="45" t="s">
@@ -22754,13 +22756,13 @@
     </row>
     <row r="607" spans="1:9" ht="255">
       <c r="A607" s="45" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B607" s="46" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C607" s="47" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D607" s="45"/>
       <c r="E607" s="45" t="s">
@@ -22777,15 +22779,15 @@
       </c>
       <c r="I607" s="47"/>
     </row>
-    <row r="608" spans="1:9">
+    <row r="608" spans="1:9" ht="30">
       <c r="A608" s="45" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B608" s="46" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C608" s="47" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D608" s="45"/>
       <c r="E608" s="45" t="s">
@@ -22802,15 +22804,15 @@
       </c>
       <c r="I608" s="47"/>
     </row>
-    <row r="609" spans="1:9" ht="30">
+    <row r="609" spans="1:9" ht="45">
       <c r="A609" s="45" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B609" s="46" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C609" s="47" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D609" s="45"/>
       <c r="E609" s="45" t="s">
@@ -22829,13 +22831,13 @@
     </row>
     <row r="610" spans="1:9" ht="45">
       <c r="A610" s="45" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B610" s="46" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C610" s="47" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D610" s="45"/>
       <c r="E610" s="45" t="s">
@@ -22852,15 +22854,15 @@
       </c>
       <c r="I610" s="47"/>
     </row>
-    <row r="611" spans="1:9">
+    <row r="611" spans="1:9" ht="30">
       <c r="A611" s="45" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B611" s="46" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C611" s="47" t="s">
         <v>1397</v>
-      </c>
-      <c r="C611" s="47" t="s">
-        <v>1398</v>
       </c>
       <c r="D611" s="45"/>
       <c r="E611" s="45" t="s">
@@ -22879,13 +22881,13 @@
     </row>
     <row r="612" spans="1:9" ht="30">
       <c r="A612" s="45" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B612" s="46" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C612" s="47" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D612" s="45"/>
       <c r="E612" s="45" t="s">
@@ -22904,13 +22906,13 @@
     </row>
     <row r="613" spans="1:9" ht="30">
       <c r="A613" s="45" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B613" s="46" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C613" s="47" t="s">
         <v>1400</v>
-      </c>
-      <c r="C613" s="47" t="s">
-        <v>1401</v>
       </c>
       <c r="D613" s="45"/>
       <c r="E613" s="45" t="s">
@@ -22929,13 +22931,13 @@
     </row>
     <row r="614" spans="1:9" ht="105">
       <c r="A614" s="45" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B614" s="46" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C614" s="47" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D614" s="45"/>
       <c r="E614" s="45" t="s">
@@ -22952,15 +22954,15 @@
       </c>
       <c r="I614" s="47"/>
     </row>
-    <row r="615" spans="1:9" ht="45">
+    <row r="615" spans="1:9" ht="60">
       <c r="A615" s="45" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B615" s="46" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C615" s="47" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D615" s="45"/>
       <c r="E615" s="45" t="s">
@@ -22979,13 +22981,13 @@
     </row>
     <row r="616" spans="1:9" ht="30">
       <c r="A616" s="45" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B616" s="46" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C616" s="47" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D616" s="45"/>
       <c r="E616" s="45" t="s">
@@ -23004,13 +23006,13 @@
     </row>
     <row r="617" spans="1:9" ht="30">
       <c r="A617" s="45" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B617" s="46" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C617" s="47" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D617" s="45"/>
       <c r="E617" s="45" t="s">
@@ -23029,13 +23031,13 @@
     </row>
     <row r="618" spans="1:9" ht="30">
       <c r="A618" s="45" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B618" s="46" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C618" s="47" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D618" s="45"/>
       <c r="E618" s="45" t="s">
@@ -23054,13 +23056,13 @@
     </row>
     <row r="619" spans="1:9" ht="30">
       <c r="A619" s="45" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B619" s="46" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C619" s="47" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D619" s="45"/>
       <c r="E619" s="45" t="s">
@@ -23079,13 +23081,13 @@
     </row>
     <row r="620" spans="1:9" ht="30">
       <c r="A620" s="45" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B620" s="46" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C620" s="47" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D620" s="45"/>
       <c r="E620" s="45" t="s">
@@ -23104,13 +23106,13 @@
     </row>
     <row r="621" spans="1:9" ht="30">
       <c r="A621" s="45" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B621" s="46" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C621" s="47" t="s">
         <v>1409</v>
-      </c>
-      <c r="C621" s="47" t="s">
-        <v>1410</v>
       </c>
       <c r="D621" s="45"/>
       <c r="E621" s="45" t="s">
@@ -23127,15 +23129,15 @@
       </c>
       <c r="I621" s="47"/>
     </row>
-    <row r="622" spans="1:9" ht="105">
+    <row r="622" spans="1:9" ht="120">
       <c r="A622" s="45" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B622" s="46" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C622" s="47" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D622" s="45"/>
       <c r="E622" s="45" t="s">
@@ -23152,15 +23154,15 @@
       </c>
       <c r="I622" s="47"/>
     </row>
-    <row r="623" spans="1:9" ht="45">
+    <row r="623" spans="1:9" ht="60">
       <c r="A623" s="45" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B623" s="46" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C623" s="47" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D623" s="45"/>
       <c r="E623" s="45" t="s">
@@ -23177,15 +23179,15 @@
       </c>
       <c r="I623" s="47"/>
     </row>
-    <row r="624" spans="1:9" ht="30">
+    <row r="624" spans="1:9" ht="45">
       <c r="A624" s="45" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B624" s="46" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C624" s="47" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="D624" s="45"/>
       <c r="E624" s="45" t="s">
@@ -23204,13 +23206,13 @@
     </row>
     <row r="625" spans="1:9" ht="30">
       <c r="A625" s="45" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B625" s="46" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C625" s="47" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D625" s="45"/>
       <c r="E625" s="45" t="s">
@@ -23229,13 +23231,13 @@
     </row>
     <row r="626" spans="1:9" ht="30">
       <c r="A626" s="45" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B626" s="46" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C626" s="47" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="D626" s="45"/>
       <c r="E626" s="45" t="s">
@@ -23254,13 +23256,13 @@
     </row>
     <row r="627" spans="1:9" ht="30">
       <c r="A627" s="45" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B627" s="46" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C627" s="47" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="D627" s="45"/>
       <c r="E627" s="45" t="s">
@@ -23279,13 +23281,13 @@
     </row>
     <row r="628" spans="1:9" ht="30">
       <c r="A628" s="45" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B628" s="46" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C628" s="47" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D628" s="45"/>
       <c r="E628" s="45" t="s">
@@ -23302,15 +23304,15 @@
       </c>
       <c r="I628" s="47"/>
     </row>
-    <row r="629" spans="1:9" ht="30">
+    <row r="629" spans="1:9" ht="45">
       <c r="A629" s="45" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B629" s="46" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C629" s="47" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D629" s="45"/>
       <c r="E629" s="45" t="s">
@@ -23329,13 +23331,13 @@
     </row>
     <row r="630" spans="1:9" ht="30">
       <c r="A630" s="45" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B630" s="46" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C630" s="47" t="s">
         <v>1418</v>
-      </c>
-      <c r="C630" s="47" t="s">
-        <v>1419</v>
       </c>
       <c r="D630" s="45"/>
       <c r="E630" s="45" t="s">
@@ -23354,13 +23356,13 @@
     </row>
     <row r="631" spans="1:9" ht="30">
       <c r="A631" s="45" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B631" s="46" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C631" s="47" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D631" s="45"/>
       <c r="E631" s="45" t="s">
@@ -23379,13 +23381,13 @@
     </row>
     <row r="632" spans="1:9" ht="30">
       <c r="A632" s="45" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B632" s="46" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C632" s="47" t="s">
         <v>1421</v>
-      </c>
-      <c r="C632" s="47" t="s">
-        <v>1422</v>
       </c>
       <c r="D632" s="45"/>
       <c r="E632" s="45" t="s">
@@ -23404,13 +23406,13 @@
     </row>
     <row r="633" spans="1:9" ht="45">
       <c r="A633" s="45" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B633" s="46" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C633" s="47" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D633" s="45"/>
       <c r="E633" s="45" t="s">
@@ -23429,13 +23431,13 @@
     </row>
     <row r="634" spans="1:9" ht="30">
       <c r="A634" s="45" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B634" s="46" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C634" s="47" t="s">
         <v>1424</v>
-      </c>
-      <c r="C634" s="47" t="s">
-        <v>1425</v>
       </c>
       <c r="D634" s="45"/>
       <c r="E634" s="45" t="s">
@@ -23454,13 +23456,13 @@
     </row>
     <row r="635" spans="1:9" ht="60">
       <c r="A635" s="45" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B635" s="46" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C635" s="47" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D635" s="45"/>
       <c r="E635" s="45" t="s">
@@ -23477,15 +23479,15 @@
       </c>
       <c r="I635" s="47"/>
     </row>
-    <row r="636" spans="1:9" ht="45">
+    <row r="636" spans="1:9" ht="60">
       <c r="A636" s="45" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B636" s="46" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C636" s="47" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D636" s="45"/>
       <c r="E636" s="45" t="s">
@@ -23502,15 +23504,15 @@
       </c>
       <c r="I636" s="47"/>
     </row>
-    <row r="637" spans="1:9">
+    <row r="637" spans="1:9" ht="30">
       <c r="A637" s="45" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B637" s="46" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C637" s="47" t="s">
         <v>1427</v>
-      </c>
-      <c r="C637" s="47" t="s">
-        <v>1428</v>
       </c>
       <c r="D637" s="45"/>
       <c r="E637" s="45" t="s">
@@ -23529,13 +23531,13 @@
     </row>
     <row r="638" spans="1:9" ht="30">
       <c r="A638" s="45" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B638" s="46" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C638" s="47" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D638" s="45"/>
       <c r="E638" s="45" t="s">
@@ -23554,13 +23556,13 @@
     </row>
     <row r="639" spans="1:9" ht="45">
       <c r="A639" s="45" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B639" s="46" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C639" s="47" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D639" s="45"/>
       <c r="E639" s="45" t="s">
@@ -23579,13 +23581,13 @@
     </row>
     <row r="640" spans="1:9" ht="30">
       <c r="A640" s="45" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B640" s="46" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C640" s="47" t="s">
         <v>1431</v>
-      </c>
-      <c r="C640" s="47" t="s">
-        <v>1432</v>
       </c>
       <c r="D640" s="45"/>
       <c r="E640" s="45" t="s">
@@ -23604,13 +23606,13 @@
     </row>
     <row r="641" spans="1:9" ht="30">
       <c r="A641" s="45" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B641" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C641" s="47" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D641" s="45"/>
       <c r="E641" s="45" t="s">
@@ -23627,15 +23629,15 @@
       </c>
       <c r="I641" s="47"/>
     </row>
-    <row r="642" spans="1:9" ht="195">
+    <row r="642" spans="1:9" ht="225">
       <c r="A642" s="45" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B642" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C642" s="47" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D642" s="45"/>
       <c r="E642" s="45" t="s">
@@ -23654,13 +23656,13 @@
     </row>
     <row r="643" spans="1:9" ht="30">
       <c r="A643" s="45" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B643" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C643" s="47" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D643" s="45"/>
       <c r="E643" s="45" t="s">
@@ -23679,13 +23681,13 @@
     </row>
     <row r="644" spans="1:9">
       <c r="A644" s="45" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B644" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C644" s="47" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D644" s="45"/>
       <c r="E644" s="45" t="s">
@@ -23704,13 +23706,13 @@
     </row>
     <row r="645" spans="1:9" ht="30">
       <c r="A645" s="45" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B645" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C645" s="47" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D645" s="45"/>
       <c r="E645" s="45" t="s">
@@ -23729,13 +23731,13 @@
     </row>
     <row r="646" spans="1:9">
       <c r="A646" s="45" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B646" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C646" s="47" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D646" s="45"/>
       <c r="E646" s="45" t="s">
@@ -23754,13 +23756,13 @@
     </row>
     <row r="647" spans="1:9" ht="30">
       <c r="A647" s="45" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B647" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C647" s="47" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D647" s="45"/>
       <c r="E647" s="45" t="s">
@@ -23779,13 +23781,13 @@
     </row>
     <row r="648" spans="1:9" ht="30">
       <c r="A648" s="45" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B648" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C648" s="47" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D648" s="45"/>
       <c r="E648" s="45" t="s">
@@ -23804,13 +23806,13 @@
     </row>
     <row r="649" spans="1:9">
       <c r="A649" s="45" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B649" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C649" s="47" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D649" s="45"/>
       <c r="E649" s="45" t="s">
@@ -23827,15 +23829,15 @@
       </c>
       <c r="I649" s="47"/>
     </row>
-    <row r="650" spans="1:9">
+    <row r="650" spans="1:9" ht="30">
       <c r="A650" s="45" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B650" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C650" s="47" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D650" s="45"/>
       <c r="E650" s="45" t="s">
@@ -23854,13 +23856,13 @@
     </row>
     <row r="651" spans="1:9">
       <c r="A651" s="45" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B651" s="46" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C651" s="47" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D651" s="45"/>
       <c r="E651" s="45" t="s">
@@ -23877,15 +23879,15 @@
       </c>
       <c r="I651" s="47"/>
     </row>
-    <row r="652" spans="1:9" ht="30">
+    <row r="652" spans="1:9" ht="45">
       <c r="A652" s="45" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B652" s="46" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C652" s="47" t="s">
         <v>1444</v>
-      </c>
-      <c r="C652" s="47" t="s">
-        <v>1445</v>
       </c>
       <c r="D652" s="45"/>
       <c r="E652" s="45" t="s">
@@ -23902,15 +23904,15 @@
       </c>
       <c r="I652" s="47"/>
     </row>
-    <row r="653" spans="1:9" ht="30">
+    <row r="653" spans="1:9" ht="45">
       <c r="A653" s="45" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B653" s="46" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C653" s="47" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D653" s="45"/>
       <c r="E653" s="45" t="s">
@@ -23929,13 +23931,13 @@
     </row>
     <row r="654" spans="1:9" ht="120">
       <c r="A654" s="45" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B654" s="46" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C654" s="47" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D654" s="45"/>
       <c r="E654" s="45" t="s">
@@ -23952,7 +23954,7 @@
       </c>
       <c r="I654" s="47"/>
     </row>
-    <row r="655" spans="1:9" ht="45">
+    <row r="655" spans="1:9" ht="60">
       <c r="A655" s="18" t="s">
         <v>371</v>
       </c>
@@ -23979,16 +23981,16 @@
     </row>
     <row r="656" spans="1:9" ht="45">
       <c r="A656" s="18" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="B656" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C656" s="47" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="D656" s="45" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="E656" s="45" t="s">
         <v>22</v>
@@ -24003,7 +24005,7 @@
         <v>21</v>
       </c>
       <c r="I656" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="657" spans="1:9" ht="30">
@@ -24031,7 +24033,7 @@
       </c>
       <c r="I657" s="27"/>
     </row>
-    <row r="658" spans="1:9" ht="45">
+    <row r="658" spans="1:9" ht="60">
       <c r="A658" s="18" t="s">
         <v>624</v>
       </c>
@@ -24058,7 +24060,7 @@
       </c>
       <c r="I658" s="47"/>
     </row>
-    <row r="659" spans="1:9" ht="75">
+    <row r="659" spans="1:9" ht="45">
       <c r="A659" s="45" t="s">
         <v>626</v>
       </c>
@@ -24085,7 +24087,7 @@
       </c>
       <c r="I659" s="47"/>
     </row>
-    <row r="660" spans="1:9" ht="45">
+    <row r="660" spans="1:9" ht="60">
       <c r="A660" s="18" t="s">
         <v>373</v>
       </c>
@@ -24139,7 +24141,7 @@
       </c>
       <c r="I661" s="27"/>
     </row>
-    <row r="662" spans="1:9" ht="75">
+    <row r="662" spans="1:9" ht="90">
       <c r="A662" s="25" t="s">
         <v>375</v>
       </c>
@@ -24166,7 +24168,7 @@
       </c>
       <c r="I662" s="27"/>
     </row>
-    <row r="663" spans="1:9" ht="60">
+    <row r="663" spans="1:9" ht="75">
       <c r="A663" s="18" t="s">
         <v>376</v>
       </c>
@@ -24193,7 +24195,7 @@
       </c>
       <c r="I663" s="27"/>
     </row>
-    <row r="664" spans="1:9" ht="30">
+    <row r="664" spans="1:9" ht="45">
       <c r="A664" s="45" t="s">
         <v>719</v>
       </c>
@@ -24204,7 +24206,7 @@
         <v>720</v>
       </c>
       <c r="D664" s="45" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="E664" s="45" t="s">
         <v>22</v>
@@ -24222,7 +24224,7 @@
     </row>
     <row r="665" spans="1:9" ht="45">
       <c r="A665" s="18" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="B665" s="46" t="s">
         <v>623</v>
@@ -24231,7 +24233,7 @@
         <v>721</v>
       </c>
       <c r="D665" s="45" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="E665" s="45" t="s">
         <v>22</v>
@@ -24246,7 +24248,7 @@
         <v>21</v>
       </c>
       <c r="I665" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="666" spans="1:9" ht="45">
@@ -24260,7 +24262,7 @@
         <v>788</v>
       </c>
       <c r="D666" s="45" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E666" s="45" t="s">
         <v>22</v>
@@ -24287,7 +24289,7 @@
         <v>789</v>
       </c>
       <c r="D667" s="45" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E667" s="45" t="s">
         <v>22</v>
@@ -24302,10 +24304,10 @@
         <v>21</v>
       </c>
       <c r="I667" s="47" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="668" spans="1:9" ht="45">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" ht="60">
       <c r="A668" s="45" t="s">
         <v>878</v>
       </c>
@@ -24316,7 +24318,7 @@
         <v>919</v>
       </c>
       <c r="D668" s="45" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E668" s="45" t="s">
         <v>22</v>
@@ -24343,7 +24345,7 @@
         <v>920</v>
       </c>
       <c r="D669" s="45" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E669" s="45" t="s">
         <v>22</v>
@@ -24358,7 +24360,7 @@
         <v>21</v>
       </c>
       <c r="I669" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="670" spans="1:9" ht="45">
@@ -24372,7 +24374,7 @@
         <v>921</v>
       </c>
       <c r="D670" s="45" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E670" s="45" t="s">
         <v>22</v>
@@ -24399,7 +24401,7 @@
         <v>922</v>
       </c>
       <c r="D671" s="45" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E671" s="45" t="s">
         <v>22</v>
@@ -24414,7 +24416,7 @@
         <v>21</v>
       </c>
       <c r="I671" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="672" spans="1:9" ht="45">
@@ -24428,7 +24430,7 @@
         <v>923</v>
       </c>
       <c r="D672" s="45" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E672" s="45" t="s">
         <v>22</v>
@@ -24455,7 +24457,7 @@
         <v>924</v>
       </c>
       <c r="D673" s="45" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E673" s="45" t="s">
         <v>22</v>
@@ -24470,7 +24472,7 @@
         <v>21</v>
       </c>
       <c r="I673" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="674" spans="1:9" ht="45">
@@ -24484,7 +24486,7 @@
         <v>925</v>
       </c>
       <c r="D674" s="45" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E674" s="45" t="s">
         <v>22</v>
@@ -24511,7 +24513,7 @@
         <v>926</v>
       </c>
       <c r="D675" s="45" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E675" s="45" t="s">
         <v>22</v>
@@ -24526,7 +24528,7 @@
         <v>21</v>
       </c>
       <c r="I675" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="676" spans="1:9" ht="45">
@@ -24540,7 +24542,7 @@
         <v>927</v>
       </c>
       <c r="D676" s="45" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E676" s="45" t="s">
         <v>22</v>
@@ -24567,7 +24569,7 @@
         <v>928</v>
       </c>
       <c r="D677" s="45" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E677" s="45" t="s">
         <v>22</v>
@@ -24582,7 +24584,7 @@
         <v>21</v>
       </c>
       <c r="I677" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="678" spans="1:9" ht="45">
@@ -24596,7 +24598,7 @@
         <v>930</v>
       </c>
       <c r="D678" s="45" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E678" s="45" t="s">
         <v>22</v>
@@ -24623,7 +24625,7 @@
         <v>929</v>
       </c>
       <c r="D679" s="45" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E679" s="45" t="s">
         <v>22</v>
@@ -24638,7 +24640,7 @@
         <v>21</v>
       </c>
       <c r="I679" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="680" spans="1:9" ht="45">
@@ -24652,7 +24654,7 @@
         <v>931</v>
       </c>
       <c r="D680" s="45" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E680" s="45" t="s">
         <v>22</v>
@@ -24679,7 +24681,7 @@
         <v>932</v>
       </c>
       <c r="D681" s="45" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E681" s="45" t="s">
         <v>22</v>
@@ -24694,7 +24696,7 @@
         <v>21</v>
       </c>
       <c r="I681" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="682" spans="1:9" ht="45">
@@ -24708,7 +24710,7 @@
         <v>933</v>
       </c>
       <c r="D682" s="45" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E682" s="45" t="s">
         <v>22</v>
@@ -24735,7 +24737,7 @@
         <v>934</v>
       </c>
       <c r="D683" s="45" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E683" s="45" t="s">
         <v>22</v>
@@ -24750,7 +24752,7 @@
         <v>21</v>
       </c>
       <c r="I683" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="684" spans="1:9" ht="45">
@@ -24764,7 +24766,7 @@
         <v>935</v>
       </c>
       <c r="D684" s="45" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E684" s="45" t="s">
         <v>22</v>
@@ -24791,7 +24793,7 @@
         <v>936</v>
       </c>
       <c r="D685" s="45" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E685" s="45" t="s">
         <v>22</v>
@@ -24806,10 +24808,10 @@
         <v>21</v>
       </c>
       <c r="I685" s="47" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="686" spans="1:9" ht="45">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9" ht="60">
       <c r="A686" s="45" t="s">
         <v>959</v>
       </c>
@@ -24820,7 +24822,7 @@
         <v>937</v>
       </c>
       <c r="D686" s="45" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E686" s="45" t="s">
         <v>22</v>
@@ -24847,7 +24849,7 @@
         <v>938</v>
       </c>
       <c r="D687" s="45" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E687" s="45" t="s">
         <v>22</v>
@@ -24862,7 +24864,7 @@
         <v>21</v>
       </c>
       <c r="I687" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="688" spans="1:9" ht="45">
@@ -24876,7 +24878,7 @@
         <v>939</v>
       </c>
       <c r="D688" s="45" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E688" s="45" t="s">
         <v>22</v>
@@ -24903,7 +24905,7 @@
         <v>940</v>
       </c>
       <c r="D689" s="45" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E689" s="45" t="s">
         <v>22</v>
@@ -24918,7 +24920,7 @@
         <v>21</v>
       </c>
       <c r="I689" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="690" spans="1:9" ht="45">
@@ -24932,7 +24934,7 @@
         <v>941</v>
       </c>
       <c r="D690" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E690" s="45" t="s">
         <v>22</v>
@@ -24959,7 +24961,7 @@
         <v>942</v>
       </c>
       <c r="D691" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E691" s="45" t="s">
         <v>22</v>
@@ -24974,7 +24976,7 @@
         <v>21</v>
       </c>
       <c r="I691" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="692" spans="1:9" ht="60">
@@ -24988,7 +24990,7 @@
         <v>943</v>
       </c>
       <c r="D692" s="45" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="E692" s="45" t="s">
         <v>22</v>
@@ -25015,7 +25017,7 @@
         <v>944</v>
       </c>
       <c r="D693" s="45" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="E693" s="45" t="s">
         <v>22</v>
@@ -25042,7 +25044,7 @@
         <v>945</v>
       </c>
       <c r="D694" s="45" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="E694" s="45" t="s">
         <v>22</v>
@@ -25058,7 +25060,7 @@
       </c>
       <c r="I694" s="47"/>
     </row>
-    <row r="695" spans="1:9" ht="30">
+    <row r="695" spans="1:9" ht="45">
       <c r="A695" s="45" t="s">
         <v>968</v>
       </c>
@@ -25069,7 +25071,7 @@
         <v>946</v>
       </c>
       <c r="D695" s="45" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="E695" s="45" t="s">
         <v>22</v>
@@ -25085,7 +25087,7 @@
       </c>
       <c r="I695" s="47"/>
     </row>
-    <row r="696" spans="1:9" ht="45">
+    <row r="696" spans="1:9" ht="60">
       <c r="A696" s="45" t="s">
         <v>969</v>
       </c>
@@ -25096,7 +25098,7 @@
         <v>947</v>
       </c>
       <c r="D696" s="45" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="E696" s="45" t="s">
         <v>22</v>
@@ -25112,7 +25114,7 @@
       </c>
       <c r="I696" s="47"/>
     </row>
-    <row r="697" spans="1:9" ht="30">
+    <row r="697" spans="1:9" ht="45">
       <c r="A697" s="45" t="s">
         <v>970</v>
       </c>
@@ -25123,7 +25125,7 @@
         <v>948</v>
       </c>
       <c r="D697" s="45" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="E697" s="45" t="s">
         <v>22</v>
@@ -25150,7 +25152,7 @@
         <v>949</v>
       </c>
       <c r="D698" s="45" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="E698" s="45" t="s">
         <v>22</v>
@@ -25177,7 +25179,7 @@
         <v>950</v>
       </c>
       <c r="D699" s="45" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="E699" s="45" t="s">
         <v>22</v>
@@ -25204,7 +25206,7 @@
         <v>951</v>
       </c>
       <c r="D700" s="45" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E700" s="45" t="s">
         <v>22</v>
@@ -25231,7 +25233,7 @@
         <v>952</v>
       </c>
       <c r="D701" s="45" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E701" s="45" t="s">
         <v>22</v>
@@ -25258,7 +25260,7 @@
         <v>953</v>
       </c>
       <c r="D702" s="45" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E702" s="45" t="s">
         <v>22</v>
@@ -25285,7 +25287,7 @@
         <v>954</v>
       </c>
       <c r="D703" s="45" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E703" s="45" t="s">
         <v>22</v>
@@ -25312,7 +25314,7 @@
         <v>955</v>
       </c>
       <c r="D704" s="45" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E704" s="45" t="s">
         <v>22</v>
@@ -25339,7 +25341,7 @@
         <v>956</v>
       </c>
       <c r="D705" s="45" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="E705" s="45" t="s">
         <v>22</v>
@@ -25354,10 +25356,10 @@
         <v>21</v>
       </c>
       <c r="I705" s="47" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="706" spans="1:9" ht="45">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" ht="60">
       <c r="A706" s="45" t="s">
         <v>979</v>
       </c>
@@ -25368,7 +25370,7 @@
         <v>894</v>
       </c>
       <c r="D706" s="45" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="E706" s="45" t="s">
         <v>22</v>
@@ -25392,10 +25394,10 @@
         <v>623</v>
       </c>
       <c r="C707" s="47" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
       <c r="D707" s="45" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="E707" s="45" t="s">
         <v>22</v>
@@ -25410,10 +25412,10 @@
         <v>21</v>
       </c>
       <c r="I707" s="47" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="708" spans="1:9" ht="30">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" ht="45">
       <c r="A708" s="45" t="s">
         <v>981</v>
       </c>
@@ -25424,7 +25426,7 @@
         <v>895</v>
       </c>
       <c r="D708" s="45" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="E708" s="45" t="s">
         <v>22</v>
@@ -25451,7 +25453,7 @@
         <v>896</v>
       </c>
       <c r="D709" s="45" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="E709" s="45" t="s">
         <v>22</v>
@@ -25466,7 +25468,7 @@
         <v>21</v>
       </c>
       <c r="I709" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="710" spans="1:9" ht="45">
@@ -25477,10 +25479,10 @@
         <v>623</v>
       </c>
       <c r="C710" s="47" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D710" s="45" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="E710" s="45" t="s">
         <v>22</v>
@@ -25507,7 +25509,7 @@
         <v>897</v>
       </c>
       <c r="D711" s="45" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="E711" s="45" t="s">
         <v>22</v>
@@ -25522,7 +25524,7 @@
         <v>21</v>
       </c>
       <c r="I711" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="712" spans="1:9" ht="45">
@@ -25536,7 +25538,7 @@
         <v>898</v>
       </c>
       <c r="D712" s="45" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="E712" s="45" t="s">
         <v>22</v>
@@ -25563,7 +25565,7 @@
         <v>899</v>
       </c>
       <c r="D713" s="45" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="E713" s="45" t="s">
         <v>22</v>
@@ -25578,10 +25580,10 @@
         <v>21</v>
       </c>
       <c r="I713" s="47" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="714" spans="1:9" ht="45">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" ht="60">
       <c r="A714" s="45" t="s">
         <v>987</v>
       </c>
@@ -25592,7 +25594,7 @@
         <v>900</v>
       </c>
       <c r="D714" s="45" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="E714" s="45" t="s">
         <v>22</v>
@@ -25619,7 +25621,7 @@
         <v>901</v>
       </c>
       <c r="D715" s="45" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="E715" s="45" t="s">
         <v>22</v>
@@ -25634,10 +25636,10 @@
         <v>21</v>
       </c>
       <c r="I715" s="47" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="716" spans="1:9" ht="45">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" ht="60">
       <c r="A716" s="45" t="s">
         <v>989</v>
       </c>
@@ -25645,10 +25647,10 @@
         <v>623</v>
       </c>
       <c r="C716" s="47" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D716" s="45" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="E716" s="45" t="s">
         <v>22</v>
@@ -25675,7 +25677,7 @@
         <v>902</v>
       </c>
       <c r="D717" s="45" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="E717" s="45" t="s">
         <v>22</v>
@@ -25690,7 +25692,7 @@
         <v>21</v>
       </c>
       <c r="I717" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="718" spans="1:9" ht="45">
@@ -25704,7 +25706,7 @@
         <v>903</v>
       </c>
       <c r="D718" s="45" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E718" s="45" t="s">
         <v>22</v>
@@ -25731,7 +25733,7 @@
         <v>904</v>
       </c>
       <c r="D719" s="45" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E719" s="45" t="s">
         <v>22</v>
@@ -25746,7 +25748,7 @@
         <v>21</v>
       </c>
       <c r="I719" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="720" spans="1:9" ht="45">
@@ -25760,7 +25762,7 @@
         <v>905</v>
       </c>
       <c r="D720" s="45" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E720" s="45" t="s">
         <v>22</v>
@@ -25787,7 +25789,7 @@
         <v>906</v>
       </c>
       <c r="D721" s="45" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E721" s="45" t="s">
         <v>22</v>
@@ -25802,7 +25804,7 @@
         <v>21</v>
       </c>
       <c r="I721" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="722" spans="1:9" ht="45">
@@ -25816,7 +25818,7 @@
         <v>907</v>
       </c>
       <c r="D722" s="45" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E722" s="45" t="s">
         <v>22</v>
@@ -25843,7 +25845,7 @@
         <v>908</v>
       </c>
       <c r="D723" s="45" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E723" s="45" t="s">
         <v>22</v>
@@ -25858,10 +25860,10 @@
         <v>21</v>
       </c>
       <c r="I723" s="47" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="724" spans="1:9" ht="30">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" ht="45">
       <c r="A724" s="45" t="s">
         <v>997</v>
       </c>
@@ -25872,7 +25874,7 @@
         <v>909</v>
       </c>
       <c r="D724" s="45" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E724" s="45" t="s">
         <v>22</v>
@@ -25899,7 +25901,7 @@
         <v>910</v>
       </c>
       <c r="D725" s="45" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E725" s="45" t="s">
         <v>22</v>
@@ -25914,10 +25916,10 @@
         <v>21</v>
       </c>
       <c r="I725" s="47" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="726" spans="1:9" ht="30">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" ht="45">
       <c r="A726" s="45" t="s">
         <v>999</v>
       </c>
@@ -25928,7 +25930,7 @@
         <v>911</v>
       </c>
       <c r="D726" s="45" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E726" s="45" t="s">
         <v>22</v>
@@ -25955,7 +25957,7 @@
         <v>912</v>
       </c>
       <c r="D727" s="45" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E727" s="45" t="s">
         <v>22</v>
@@ -25970,7 +25972,7 @@
         <v>21</v>
       </c>
       <c r="I727" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="728" spans="1:9" ht="45">
@@ -25984,7 +25986,7 @@
         <v>913</v>
       </c>
       <c r="D728" s="45" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E728" s="45" t="s">
         <v>22</v>
@@ -26011,7 +26013,7 @@
         <v>914</v>
       </c>
       <c r="D729" s="45" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E729" s="45" t="s">
         <v>22</v>
@@ -26026,7 +26028,7 @@
         <v>21</v>
       </c>
       <c r="I729" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="730" spans="1:9" ht="45">
@@ -26040,7 +26042,7 @@
         <v>915</v>
       </c>
       <c r="D730" s="45" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E730" s="45" t="s">
         <v>22</v>
@@ -26067,7 +26069,7 @@
         <v>916</v>
       </c>
       <c r="D731" s="45" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E731" s="45" t="s">
         <v>22</v>
@@ -26082,7 +26084,7 @@
         <v>21</v>
       </c>
       <c r="I731" s="47" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="732" spans="1:9" ht="45">
@@ -26096,7 +26098,7 @@
         <v>917</v>
       </c>
       <c r="D732" t="s">
-        <v>1658</v>
+        <v>1676</v>
       </c>
       <c r="E732" s="45" t="s">
         <v>22</v>
@@ -26123,7 +26125,7 @@
         <v>918</v>
       </c>
       <c r="D733" t="s">
-        <v>1658</v>
+        <v>1676</v>
       </c>
       <c r="E733" s="45" t="s">
         <v>22</v>
@@ -26138,168 +26140,168 @@
         <v>21</v>
       </c>
       <c r="I733" s="47" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="734" spans="1:9" ht="180">
-      <c r="A734" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="B734" s="20" t="s">
-        <v>1588</v>
-      </c>
-      <c r="C734" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="D734" s="25"/>
-      <c r="E734" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F734" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G734" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H734" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I734" s="27"/>
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9" ht="390">
+      <c r="A734" s="18" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B734" s="46" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C734" s="47" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D734" s="45"/>
+      <c r="E734" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F734" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G734" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H734" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I734" s="47"/>
     </row>
     <row r="735" spans="1:9" ht="30">
       <c r="A735" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="B735" s="20" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C735" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="D735" s="25"/>
-      <c r="E735" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F735" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G735" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H735" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I735" s="27"/>
-    </row>
-    <row r="736" spans="1:9" ht="105">
-      <c r="A736" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="B736" s="20" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C736" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="D736" s="25"/>
-      <c r="E736" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F736" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G736" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H736" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I736" s="27"/>
-    </row>
-    <row r="737" spans="1:9" ht="45">
-      <c r="A737" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="B737" s="20" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C737" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="D737" s="25"/>
-      <c r="E737" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F737" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G737" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H737" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I737" s="27"/>
+        <v>1611</v>
+      </c>
+      <c r="B735" s="46" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C735" s="47" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D735" s="45"/>
+      <c r="E735" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F735" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G735" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H735" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I735" s="47"/>
+    </row>
+    <row r="736" spans="1:9" ht="30">
+      <c r="A736" s="18" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B736" s="46" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C736" s="47" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D736" s="45"/>
+      <c r="E736" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F736" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G736" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H736" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I736" s="47"/>
+    </row>
+    <row r="737" spans="1:9" ht="30">
+      <c r="A737" s="18" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B737" s="46" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C737" s="47" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D737" s="45"/>
+      <c r="E737" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F737" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G737" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H737" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I737" s="47"/>
     </row>
     <row r="738" spans="1:9" ht="30">
-      <c r="A738" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="B738" s="20" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C738" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="D738" s="25"/>
-      <c r="E738" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F738" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G738" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H738" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I738" s="27"/>
+      <c r="A738" s="18" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B738" s="46" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C738" s="47" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D738" s="45"/>
+      <c r="E738" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F738" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G738" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H738" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I738" s="47"/>
     </row>
     <row r="739" spans="1:9" ht="30">
       <c r="A739" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="B739" s="20" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C739" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="D739" s="25"/>
-      <c r="E739" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F739" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G739" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H739" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I739" s="27"/>
-    </row>
-    <row r="740" spans="1:9" ht="45">
+        <v>1615</v>
+      </c>
+      <c r="B739" s="46" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C739" s="47" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D739" s="45"/>
+      <c r="E739" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F739" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G739" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H739" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I739" s="47"/>
+    </row>
+    <row r="740" spans="1:9" ht="30">
       <c r="A740" s="18" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B740" s="20" t="s">
-        <v>1590</v>
+        <v>1616</v>
+      </c>
+      <c r="B740" s="46" t="s">
+        <v>1598</v>
       </c>
       <c r="C740" s="47" t="s">
-        <v>1597</v>
+        <v>1604</v>
       </c>
       <c r="D740" s="45"/>
       <c r="E740" s="45" t="s">
@@ -26312,19 +26314,19 @@
         <v>15</v>
       </c>
       <c r="H740" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I740" s="47"/>
     </row>
     <row r="741" spans="1:9" ht="30">
       <c r="A741" s="18" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B741" s="46" t="s">
         <v>1598</v>
       </c>
-      <c r="B741" s="20" t="s">
-        <v>1590</v>
-      </c>
       <c r="C741" s="47" t="s">
-        <v>589</v>
+        <v>1608</v>
       </c>
       <c r="D741" s="45"/>
       <c r="E741" s="45" t="s">
@@ -26337,19 +26339,19 @@
         <v>15</v>
       </c>
       <c r="H741" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I741" s="47"/>
     </row>
-    <row r="742" spans="1:9" ht="390">
+    <row r="742" spans="1:9" ht="30">
       <c r="A742" s="18" t="s">
-        <v>1611</v>
+        <v>1618</v>
       </c>
       <c r="B742" s="46" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C742" s="47" t="s">
-        <v>1600</v>
+        <v>1605</v>
       </c>
       <c r="D742" s="45"/>
       <c r="E742" s="45" t="s">
@@ -26368,13 +26370,13 @@
     </row>
     <row r="743" spans="1:9" ht="30">
       <c r="A743" s="18" t="s">
-        <v>1612</v>
+        <v>1619</v>
       </c>
       <c r="B743" s="46" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C743" s="47" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="D743" s="45"/>
       <c r="E743" s="45" t="s">
@@ -26391,15 +26393,15 @@
       </c>
       <c r="I743" s="47"/>
     </row>
-    <row r="744" spans="1:9" ht="30">
+    <row r="744" spans="1:9" ht="45">
       <c r="A744" s="18" t="s">
-        <v>1613</v>
+        <v>1620</v>
       </c>
       <c r="B744" s="46" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C744" s="47" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="D744" s="45"/>
       <c r="E744" s="45" t="s">
@@ -26416,65 +26418,65 @@
       </c>
       <c r="I744" s="47"/>
     </row>
-    <row r="745" spans="1:9">
-      <c r="A745" s="18" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B745" s="46" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C745" s="47" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D745" s="45"/>
-      <c r="E745" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F745" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G745" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H745" s="45" t="s">
+    <row r="745" spans="1:9" ht="180">
+      <c r="A745" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="B745" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C745" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="D745" s="25"/>
+      <c r="E745" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F745" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G745" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H745" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I745" s="27"/>
+    </row>
+    <row r="746" spans="1:9" ht="165">
+      <c r="A746" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="B746" s="20" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C746" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="D746" s="25"/>
+      <c r="E746" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F746" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G746" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H746" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I745" s="47"/>
-    </row>
-    <row r="746" spans="1:9" ht="30">
-      <c r="A746" s="18" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B746" s="46" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C746" s="47" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D746" s="45"/>
-      <c r="E746" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F746" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G746" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H746" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I746" s="47"/>
-    </row>
-    <row r="747" spans="1:9">
-      <c r="A747" s="18" t="s">
-        <v>1616</v>
+      <c r="I746" s="27"/>
+    </row>
+    <row r="747" spans="1:9" ht="135">
+      <c r="A747" s="45" t="s">
+        <v>1584</v>
       </c>
       <c r="B747" s="46" t="s">
-        <v>1599</v>
+        <v>1583</v>
       </c>
       <c r="C747" s="47" t="s">
-        <v>1610</v>
+        <v>1585</v>
       </c>
       <c r="D747" s="45"/>
       <c r="E747" s="45" t="s">
@@ -26491,40 +26493,40 @@
       </c>
       <c r="I747" s="47"/>
     </row>
-    <row r="748" spans="1:9" ht="30">
-      <c r="A748" s="18" t="s">
-        <v>1617</v>
-      </c>
-      <c r="B748" s="46" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C748" s="47" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D748" s="45"/>
-      <c r="E748" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F748" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G748" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H748" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I748" s="47"/>
-    </row>
-    <row r="749" spans="1:9">
+    <row r="748" spans="1:9" ht="409.5">
+      <c r="A748" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="B748" s="20" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C748" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D748" s="25"/>
+      <c r="E748" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F748" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G748" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H748" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I748" s="27"/>
+    </row>
+    <row r="749" spans="1:9" ht="409.5">
       <c r="A749" s="18" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="B749" s="46" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="C749" s="47" t="s">
-        <v>1609</v>
+        <v>1622</v>
       </c>
       <c r="D749" s="45"/>
       <c r="E749" s="45" t="s">
@@ -26541,90 +26543,90 @@
       </c>
       <c r="I749" s="47"/>
     </row>
-    <row r="750" spans="1:9" ht="30">
-      <c r="A750" s="18" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B750" s="46" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C750" s="47" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D750" s="45"/>
-      <c r="E750" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F750" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G750" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H750" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I750" s="47"/>
-    </row>
-    <row r="751" spans="1:9" ht="30">
-      <c r="A751" s="18" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B751" s="46" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C751" s="47" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D751" s="45"/>
-      <c r="E751" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F751" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G751" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H751" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I751" s="47"/>
-    </row>
-    <row r="752" spans="1:9" ht="45">
+    <row r="750" spans="1:9" ht="135">
+      <c r="A750" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="B750" s="20" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C750" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="D750" s="25"/>
+      <c r="E750" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F750" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G750" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H750" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I750" s="27"/>
+    </row>
+    <row r="751" spans="1:9" ht="195">
+      <c r="A751" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B751" s="20" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C751" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="D751" s="25"/>
+      <c r="E751" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F751" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G751" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H751" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I751" s="27"/>
+    </row>
+    <row r="752" spans="1:9" ht="30">
       <c r="A752" s="18" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B752" s="46" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C752" s="47" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D752" s="45"/>
-      <c r="E752" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F752" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G752" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H752" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I752" s="47"/>
-    </row>
-    <row r="753" spans="1:9" ht="180">
+        <v>378</v>
+      </c>
+      <c r="B752" s="20" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C752" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="D752" s="25"/>
+      <c r="E752" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F752" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G752" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H752" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I752" s="27"/>
+    </row>
+    <row r="753" spans="1:9" ht="105">
       <c r="A753" s="25" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B753" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C753" s="16" t="s">
-        <v>590</v>
+        <v>1588</v>
+      </c>
+      <c r="C753" s="27" t="s">
+        <v>586</v>
       </c>
       <c r="D753" s="25"/>
       <c r="E753" s="25" t="s">
@@ -26637,19 +26639,19 @@
         <v>15</v>
       </c>
       <c r="H753" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I753" s="27"/>
     </row>
-    <row r="754" spans="1:9" ht="150">
-      <c r="A754" s="18" t="s">
-        <v>384</v>
+    <row r="754" spans="1:9" ht="45">
+      <c r="A754" s="25" t="s">
+        <v>380</v>
       </c>
       <c r="B754" s="20" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C754" s="16" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D754" s="25"/>
       <c r="E754" s="25" t="s">
@@ -26662,44 +26664,44 @@
         <v>15</v>
       </c>
       <c r="H754" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I754" s="27"/>
     </row>
-    <row r="755" spans="1:9" ht="135">
-      <c r="A755" s="45" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B755" s="46" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C755" s="47" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D755" s="45"/>
-      <c r="E755" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F755" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G755" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H755" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I755" s="47"/>
-    </row>
-    <row r="756" spans="1:9" ht="409.5">
-      <c r="A756" s="25" t="s">
-        <v>385</v>
+    <row r="755" spans="1:9" ht="45">
+      <c r="A755" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="B755" s="20" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C755" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="D755" s="25"/>
+      <c r="E755" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F755" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G755" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H755" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I755" s="27"/>
+    </row>
+    <row r="756" spans="1:9" ht="45">
+      <c r="A756" s="18" t="s">
+        <v>382</v>
       </c>
       <c r="B756" s="20" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C756" s="16" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D756" s="25"/>
       <c r="E756" s="25" t="s">
@@ -26712,19 +26714,19 @@
         <v>15</v>
       </c>
       <c r="H756" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I756" s="27"/>
     </row>
-    <row r="757" spans="1:9" ht="409.5">
+    <row r="757" spans="1:9" ht="45">
       <c r="A757" s="18" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B757" s="46" t="s">
-        <v>1593</v>
+        <v>1595</v>
+      </c>
+      <c r="B757" s="20" t="s">
+        <v>1589</v>
       </c>
       <c r="C757" s="47" t="s">
-        <v>1623</v>
+        <v>1596</v>
       </c>
       <c r="D757" s="45"/>
       <c r="E757" s="45" t="s">
@@ -26737,34 +26739,34 @@
         <v>15</v>
       </c>
       <c r="H757" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I757" s="47"/>
     </row>
-    <row r="758" spans="1:9" ht="135">
-      <c r="A758" s="25" t="s">
-        <v>386</v>
+    <row r="758" spans="1:9" ht="45">
+      <c r="A758" s="18" t="s">
+        <v>1597</v>
       </c>
       <c r="B758" s="20" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C758" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="D758" s="25"/>
-      <c r="E758" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F758" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G758" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H758" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I758" s="27"/>
+        <v>1589</v>
+      </c>
+      <c r="C758" s="47" t="s">
+        <v>589</v>
+      </c>
+      <c r="D758" s="45"/>
+      <c r="E758" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F758" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G758" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H758" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I758" s="47"/>
     </row>
     <row r="759" spans="1:9">
       <c r="A759" s="25"/>
@@ -26831,20 +26833,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F759">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F758 F759">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E759">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E758 E759">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G759">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G758 G759">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H759">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H758 H759">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26854,7 +26856,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 C3 B760:B761 B10:B27 B42:B232 B28:B41 B233:B758" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 C3 B760:B761 B10:B27 B750:B758 B28:B749" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -26864,6 +26866,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -26912,12 +26920,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -26928,6 +26930,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26942,20 +26958,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>

--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\Interop-TestSuites\ExchangeWebServices\Docs\MS-OXWSCONT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
   </bookViews>
@@ -7437,6 +7432,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7472,6 +7484,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7906,7 +7935,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="30">
+    <row r="15" spans="1:11">
       <c r="A15" s="24" t="s">
         <v>3</v>
       </c>
@@ -8107,7 +8136,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:13" s="19" customFormat="1" ht="60">
+    <row r="24" spans="1:13" s="19" customFormat="1" ht="45">
       <c r="A24" s="18" t="s">
         <v>46</v>
       </c>
@@ -8132,7 +8161,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:13" s="19" customFormat="1" ht="30">
+    <row r="25" spans="1:13" s="19" customFormat="1">
       <c r="A25" s="18" t="s">
         <v>47</v>
       </c>
@@ -8157,7 +8186,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:13" s="19" customFormat="1" ht="30">
+    <row r="26" spans="1:13" s="19" customFormat="1">
       <c r="A26" s="45" t="s">
         <v>172</v>
       </c>
@@ -8284,7 +8313,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:13" s="19" customFormat="1" ht="60">
+    <row r="31" spans="1:13" s="19" customFormat="1" ht="45">
       <c r="A31" s="18" t="s">
         <v>51</v>
       </c>
@@ -8534,7 +8563,7 @@
       </c>
       <c r="I40" s="27"/>
     </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9">
       <c r="A41" s="45" t="s">
         <v>649</v>
       </c>
@@ -8584,7 +8613,7 @@
       </c>
       <c r="I42" s="47"/>
     </row>
-    <row r="43" spans="1:9" ht="30">
+    <row r="43" spans="1:9">
       <c r="A43" s="18" t="s">
         <v>61</v>
       </c>
@@ -8634,7 +8663,7 @@
       </c>
       <c r="I44" s="47"/>
     </row>
-    <row r="45" spans="1:9" ht="45">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="18" t="s">
         <v>628</v>
       </c>
@@ -8659,7 +8688,7 @@
       </c>
       <c r="I45" s="47"/>
     </row>
-    <row r="46" spans="1:9" ht="315">
+    <row r="46" spans="1:9" ht="300">
       <c r="A46" s="18" t="s">
         <v>629</v>
       </c>
@@ -8784,7 +8813,7 @@
       </c>
       <c r="I50" s="47"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9">
       <c r="A51" s="18" t="s">
         <v>634</v>
       </c>
@@ -8809,7 +8838,7 @@
       </c>
       <c r="I51" s="47"/>
     </row>
-    <row r="52" spans="1:9" ht="45">
+    <row r="52" spans="1:9" ht="30">
       <c r="A52" s="18" t="s">
         <v>635</v>
       </c>
@@ -8859,7 +8888,7 @@
       </c>
       <c r="I53" s="47"/>
     </row>
-    <row r="54" spans="1:9" ht="45">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="18" t="s">
         <v>637</v>
       </c>
@@ -8934,7 +8963,7 @@
       </c>
       <c r="I56" s="47"/>
     </row>
-    <row r="57" spans="1:9" ht="30">
+    <row r="57" spans="1:9">
       <c r="A57" s="18" t="s">
         <v>640</v>
       </c>
@@ -8984,7 +9013,7 @@
       </c>
       <c r="I58" s="47"/>
     </row>
-    <row r="59" spans="1:9" ht="30">
+    <row r="59" spans="1:9">
       <c r="A59" s="18" t="s">
         <v>642</v>
       </c>
@@ -9034,7 +9063,7 @@
       </c>
       <c r="I60" s="47"/>
     </row>
-    <row r="61" spans="1:9" ht="30">
+    <row r="61" spans="1:9">
       <c r="A61" s="18" t="s">
         <v>644</v>
       </c>
@@ -9059,7 +9088,7 @@
       </c>
       <c r="I61" s="47"/>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9">
       <c r="A62" s="18" t="s">
         <v>645</v>
       </c>
@@ -9209,7 +9238,7 @@
       </c>
       <c r="I67" s="47"/>
     </row>
-    <row r="68" spans="1:9" ht="120">
+    <row r="68" spans="1:9" ht="105">
       <c r="A68" s="45" t="s">
         <v>656</v>
       </c>
@@ -9384,7 +9413,7 @@
       </c>
       <c r="I74" s="47"/>
     </row>
-    <row r="75" spans="1:9" ht="45">
+    <row r="75" spans="1:9" ht="30">
       <c r="A75" s="45" t="s">
         <v>660</v>
       </c>
@@ -9561,7 +9590,7 @@
       </c>
       <c r="I81" s="27"/>
     </row>
-    <row r="82" spans="1:9" ht="30">
+    <row r="82" spans="1:9">
       <c r="A82" s="25" t="s">
         <v>73</v>
       </c>
@@ -9611,7 +9640,7 @@
       </c>
       <c r="I83" s="27"/>
     </row>
-    <row r="84" spans="1:9" ht="30">
+    <row r="84" spans="1:9">
       <c r="A84" s="25" t="s">
         <v>75</v>
       </c>
@@ -9661,7 +9690,7 @@
       </c>
       <c r="I85" s="27"/>
     </row>
-    <row r="86" spans="1:9" ht="30">
+    <row r="86" spans="1:9">
       <c r="A86" s="25" t="s">
         <v>77</v>
       </c>
@@ -9686,7 +9715,7 @@
       </c>
       <c r="I86" s="27"/>
     </row>
-    <row r="87" spans="1:9" ht="30">
+    <row r="87" spans="1:9">
       <c r="A87" s="25" t="s">
         <v>78</v>
       </c>
@@ -9711,7 +9740,7 @@
       </c>
       <c r="I87" s="27"/>
     </row>
-    <row r="88" spans="1:9" ht="30">
+    <row r="88" spans="1:9">
       <c r="A88" s="25" t="s">
         <v>79</v>
       </c>
@@ -9761,7 +9790,7 @@
       </c>
       <c r="I89" s="27"/>
     </row>
-    <row r="90" spans="1:9" ht="30">
+    <row r="90" spans="1:9">
       <c r="A90" s="25" t="s">
         <v>81</v>
       </c>
@@ -9886,7 +9915,7 @@
       </c>
       <c r="I94" s="47"/>
     </row>
-    <row r="95" spans="1:9" ht="30">
+    <row r="95" spans="1:9">
       <c r="A95" s="25" t="s">
         <v>85</v>
       </c>
@@ -10011,7 +10040,7 @@
       </c>
       <c r="I99" s="47"/>
     </row>
-    <row r="100" spans="1:9" ht="45">
+    <row r="100" spans="1:9" ht="30">
       <c r="A100" s="45" t="s">
         <v>687</v>
       </c>
@@ -10086,7 +10115,7 @@
       </c>
       <c r="I102" s="27"/>
     </row>
-    <row r="103" spans="1:9" ht="45">
+    <row r="103" spans="1:9" ht="30">
       <c r="A103" s="25" t="s">
         <v>90</v>
       </c>
@@ -10161,7 +10190,7 @@
       </c>
       <c r="I105" s="27"/>
     </row>
-    <row r="106" spans="1:9" ht="30">
+    <row r="106" spans="1:9">
       <c r="A106" s="25" t="s">
         <v>93</v>
       </c>
@@ -10436,7 +10465,7 @@
       </c>
       <c r="I116" s="27"/>
     </row>
-    <row r="117" spans="1:9" ht="45">
+    <row r="117" spans="1:9" ht="30">
       <c r="A117" s="25" t="s">
         <v>104</v>
       </c>
@@ -10461,7 +10490,7 @@
       </c>
       <c r="I117" s="27"/>
     </row>
-    <row r="118" spans="1:9" ht="30">
+    <row r="118" spans="1:9">
       <c r="A118" s="25" t="s">
         <v>105</v>
       </c>
@@ -10511,7 +10540,7 @@
       </c>
       <c r="I119" s="27"/>
     </row>
-    <row r="120" spans="1:9" ht="30">
+    <row r="120" spans="1:9">
       <c r="A120" s="25" t="s">
         <v>107</v>
       </c>
@@ -10611,7 +10640,7 @@
       </c>
       <c r="I123" s="27"/>
     </row>
-    <row r="124" spans="1:9" ht="30">
+    <row r="124" spans="1:9">
       <c r="A124" s="25" t="s">
         <v>111</v>
       </c>
@@ -10661,7 +10690,7 @@
       </c>
       <c r="I125" s="27"/>
     </row>
-    <row r="126" spans="1:9" ht="30">
+    <row r="126" spans="1:9">
       <c r="A126" s="25" t="s">
         <v>113</v>
       </c>
@@ -10711,7 +10740,7 @@
       </c>
       <c r="I127" s="27"/>
     </row>
-    <row r="128" spans="1:9" ht="30">
+    <row r="128" spans="1:9">
       <c r="A128" s="25" t="s">
         <v>115</v>
       </c>
@@ -10761,7 +10790,7 @@
       </c>
       <c r="I129" s="27"/>
     </row>
-    <row r="130" spans="1:9" ht="30">
+    <row r="130" spans="1:9">
       <c r="A130" s="25" t="s">
         <v>117</v>
       </c>
@@ -10836,7 +10865,7 @@
       </c>
       <c r="I132" s="27"/>
     </row>
-    <row r="133" spans="1:9" ht="45">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="25" t="s">
         <v>120</v>
       </c>
@@ -10861,7 +10890,7 @@
       </c>
       <c r="I133" s="27"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9">
       <c r="A134" s="25" t="s">
         <v>121</v>
       </c>
@@ -10911,7 +10940,7 @@
       </c>
       <c r="I135" s="27"/>
     </row>
-    <row r="136" spans="1:9" ht="30">
+    <row r="136" spans="1:9">
       <c r="A136" s="25" t="s">
         <v>123</v>
       </c>
@@ -10961,7 +10990,7 @@
       </c>
       <c r="I137" s="27"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9">
       <c r="A138" s="25" t="s">
         <v>125</v>
       </c>
@@ -11163,7 +11192,7 @@
       </c>
       <c r="I145" s="27"/>
     </row>
-    <row r="146" spans="1:9" ht="45">
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="25" t="s">
         <v>131</v>
       </c>
@@ -11288,7 +11317,7 @@
       </c>
       <c r="I150" s="27"/>
     </row>
-    <row r="151" spans="1:9" ht="30">
+    <row r="151" spans="1:9">
       <c r="A151" s="25" t="s">
         <v>136</v>
       </c>
@@ -11338,7 +11367,7 @@
       </c>
       <c r="I152" s="27"/>
     </row>
-    <row r="153" spans="1:9" ht="30">
+    <row r="153" spans="1:9">
       <c r="A153" s="25" t="s">
         <v>138</v>
       </c>
@@ -11538,7 +11567,7 @@
       </c>
       <c r="I160" s="27"/>
     </row>
-    <row r="161" spans="1:9" ht="30">
+    <row r="161" spans="1:9">
       <c r="A161" s="25" t="s">
         <v>146</v>
       </c>
@@ -11588,7 +11617,7 @@
       </c>
       <c r="I162" s="27"/>
     </row>
-    <row r="163" spans="1:9" ht="45">
+    <row r="163" spans="1:9" ht="30">
       <c r="A163" s="25" t="s">
         <v>148</v>
       </c>
@@ -11638,7 +11667,7 @@
       </c>
       <c r="I164" s="27"/>
     </row>
-    <row r="165" spans="1:9" ht="45">
+    <row r="165" spans="1:9" ht="30">
       <c r="A165" s="18" t="s">
         <v>150</v>
       </c>
@@ -11688,7 +11717,7 @@
       </c>
       <c r="I166" s="27"/>
     </row>
-    <row r="167" spans="1:9" ht="30">
+    <row r="167" spans="1:9">
       <c r="A167" s="45" t="s">
         <v>744</v>
       </c>
@@ -11817,7 +11846,7 @@
       </c>
       <c r="I171" s="47"/>
     </row>
-    <row r="172" spans="1:9" ht="30">
+    <row r="172" spans="1:9">
       <c r="A172" s="45" t="s">
         <v>749</v>
       </c>
@@ -11842,7 +11871,7 @@
       </c>
       <c r="I172" s="47"/>
     </row>
-    <row r="173" spans="1:9" ht="30">
+    <row r="173" spans="1:9">
       <c r="A173" s="45" t="s">
         <v>750</v>
       </c>
@@ -11894,7 +11923,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="30">
+    <row r="175" spans="1:9">
       <c r="A175" s="45" t="s">
         <v>752</v>
       </c>
@@ -11919,7 +11948,7 @@
       </c>
       <c r="I175" s="47"/>
     </row>
-    <row r="176" spans="1:9" ht="30">
+    <row r="176" spans="1:9">
       <c r="A176" s="45" t="s">
         <v>753</v>
       </c>
@@ -11944,7 +11973,7 @@
       </c>
       <c r="I176" s="47"/>
     </row>
-    <row r="177" spans="1:9" ht="30">
+    <row r="177" spans="1:9">
       <c r="A177" s="45" t="s">
         <v>754</v>
       </c>
@@ -11996,7 +12025,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="30">
+    <row r="179" spans="1:9">
       <c r="A179" s="45" t="s">
         <v>756</v>
       </c>
@@ -12073,7 +12102,7 @@
       </c>
       <c r="I181" s="47"/>
     </row>
-    <row r="182" spans="1:9" ht="30">
+    <row r="182" spans="1:9">
       <c r="A182" s="45" t="s">
         <v>759</v>
       </c>
@@ -12098,7 +12127,7 @@
       </c>
       <c r="I182" s="47"/>
     </row>
-    <row r="183" spans="1:9" ht="30">
+    <row r="183" spans="1:9">
       <c r="A183" s="45" t="s">
         <v>760</v>
       </c>
@@ -12150,7 +12179,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="30">
+    <row r="185" spans="1:9">
       <c r="A185" s="45" t="s">
         <v>762</v>
       </c>
@@ -12175,7 +12204,7 @@
       </c>
       <c r="I185" s="47"/>
     </row>
-    <row r="186" spans="1:9" ht="30">
+    <row r="186" spans="1:9">
       <c r="A186" s="45" t="s">
         <v>763</v>
       </c>
@@ -12252,7 +12281,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="30">
+    <row r="189" spans="1:9">
       <c r="A189" s="45" t="s">
         <v>766</v>
       </c>
@@ -12277,7 +12306,7 @@
       </c>
       <c r="I189" s="47"/>
     </row>
-    <row r="190" spans="1:9" ht="30">
+    <row r="190" spans="1:9">
       <c r="A190" s="45" t="s">
         <v>767</v>
       </c>
@@ -12302,7 +12331,7 @@
       </c>
       <c r="I190" s="47"/>
     </row>
-    <row r="191" spans="1:9" ht="30">
+    <row r="191" spans="1:9">
       <c r="A191" s="45" t="s">
         <v>768</v>
       </c>
@@ -12354,7 +12383,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="30">
+    <row r="193" spans="1:9">
       <c r="A193" s="45" t="s">
         <v>770</v>
       </c>
@@ -12379,7 +12408,7 @@
       </c>
       <c r="I193" s="47"/>
     </row>
-    <row r="194" spans="1:9" ht="30">
+    <row r="194" spans="1:9">
       <c r="A194" s="45" t="s">
         <v>771</v>
       </c>
@@ -12404,7 +12433,7 @@
       </c>
       <c r="I194" s="47"/>
     </row>
-    <row r="195" spans="1:9" ht="30">
+    <row r="195" spans="1:9">
       <c r="A195" s="45" t="s">
         <v>772</v>
       </c>
@@ -12429,7 +12458,7 @@
       </c>
       <c r="I195" s="47"/>
     </row>
-    <row r="196" spans="1:9" ht="30">
+    <row r="196" spans="1:9">
       <c r="A196" s="45" t="s">
         <v>773</v>
       </c>
@@ -12558,7 +12587,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="30">
+    <row r="201" spans="1:9">
       <c r="A201" s="45" t="s">
         <v>778</v>
       </c>
@@ -12610,7 +12639,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="30">
+    <row r="203" spans="1:9">
       <c r="A203" s="45" t="s">
         <v>780</v>
       </c>
@@ -12635,7 +12664,7 @@
       </c>
       <c r="I203" s="47"/>
     </row>
-    <row r="204" spans="1:9" ht="30">
+    <row r="204" spans="1:9">
       <c r="A204" s="45" t="s">
         <v>781</v>
       </c>
@@ -12660,7 +12689,7 @@
       </c>
       <c r="I204" s="47"/>
     </row>
-    <row r="205" spans="1:9" ht="30">
+    <row r="205" spans="1:9">
       <c r="A205" s="45" t="s">
         <v>782</v>
       </c>
@@ -12712,7 +12741,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="30">
+    <row r="207" spans="1:9">
       <c r="A207" s="45" t="s">
         <v>784</v>
       </c>
@@ -12762,7 +12791,7 @@
       </c>
       <c r="I208" s="47"/>
     </row>
-    <row r="209" spans="1:9" ht="30">
+    <row r="209" spans="1:9">
       <c r="A209" s="45" t="s">
         <v>786</v>
       </c>
@@ -12814,7 +12843,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="30">
+    <row r="211" spans="1:9">
       <c r="A211" s="45" t="s">
         <v>856</v>
       </c>
@@ -12864,7 +12893,7 @@
       </c>
       <c r="I212" s="47"/>
     </row>
-    <row r="213" spans="1:9" ht="30">
+    <row r="213" spans="1:9">
       <c r="A213" s="45" t="s">
         <v>858</v>
       </c>
@@ -12889,7 +12918,7 @@
       </c>
       <c r="I213" s="47"/>
     </row>
-    <row r="214" spans="1:9" ht="30">
+    <row r="214" spans="1:9">
       <c r="A214" s="45" t="s">
         <v>859</v>
       </c>
@@ -13039,7 +13068,7 @@
       </c>
       <c r="I219" s="47"/>
     </row>
-    <row r="220" spans="1:9" ht="30">
+    <row r="220" spans="1:9">
       <c r="A220" s="45" t="s">
         <v>865</v>
       </c>
@@ -13064,7 +13093,7 @@
       </c>
       <c r="I220" s="47"/>
     </row>
-    <row r="221" spans="1:9" ht="30">
+    <row r="221" spans="1:9">
       <c r="A221" s="45" t="s">
         <v>866</v>
       </c>
@@ -13114,7 +13143,7 @@
       </c>
       <c r="I222" s="47"/>
     </row>
-    <row r="223" spans="1:9" ht="30">
+    <row r="223" spans="1:9">
       <c r="A223" s="45" t="s">
         <v>868</v>
       </c>
@@ -13139,7 +13168,7 @@
       </c>
       <c r="I223" s="47"/>
     </row>
-    <row r="224" spans="1:9" ht="30">
+    <row r="224" spans="1:9">
       <c r="A224" s="45" t="s">
         <v>869</v>
       </c>
@@ -13164,7 +13193,7 @@
       </c>
       <c r="I224" s="47"/>
     </row>
-    <row r="225" spans="1:9" ht="30">
+    <row r="225" spans="1:9">
       <c r="A225" s="45" t="s">
         <v>870</v>
       </c>
@@ -13189,7 +13218,7 @@
       </c>
       <c r="I225" s="47"/>
     </row>
-    <row r="226" spans="1:9" ht="30">
+    <row r="226" spans="1:9">
       <c r="A226" s="45" t="s">
         <v>871</v>
       </c>
@@ -13239,7 +13268,7 @@
       </c>
       <c r="I227" s="47"/>
     </row>
-    <row r="228" spans="1:9" ht="30">
+    <row r="228" spans="1:9">
       <c r="A228" s="45" t="s">
         <v>873</v>
       </c>
@@ -13264,7 +13293,7 @@
       </c>
       <c r="I228" s="47"/>
     </row>
-    <row r="229" spans="1:9" ht="30">
+    <row r="229" spans="1:9">
       <c r="A229" s="45" t="s">
         <v>874</v>
       </c>
@@ -13289,7 +13318,7 @@
       </c>
       <c r="I229" s="47"/>
     </row>
-    <row r="230" spans="1:9" ht="30">
+    <row r="230" spans="1:9">
       <c r="A230" s="45" t="s">
         <v>875</v>
       </c>
@@ -13339,7 +13368,7 @@
       </c>
       <c r="I231" s="47"/>
     </row>
-    <row r="232" spans="1:9" ht="30">
+    <row r="232" spans="1:9">
       <c r="A232" s="45" t="s">
         <v>877</v>
       </c>
@@ -13364,7 +13393,7 @@
       </c>
       <c r="I232" s="47"/>
     </row>
-    <row r="233" spans="1:9" ht="45">
+    <row r="233" spans="1:9" ht="30">
       <c r="A233" s="25" t="s">
         <v>152</v>
       </c>
@@ -13489,7 +13518,7 @@
       </c>
       <c r="I237" s="27"/>
     </row>
-    <row r="238" spans="1:9" ht="45">
+    <row r="238" spans="1:9" ht="30">
       <c r="A238" s="25" t="s">
         <v>157</v>
       </c>
@@ -13889,7 +13918,7 @@
       </c>
       <c r="I253" s="27"/>
     </row>
-    <row r="254" spans="1:9" ht="45">
+    <row r="254" spans="1:9" ht="30">
       <c r="A254" s="25" t="s">
         <v>174</v>
       </c>
@@ -13914,7 +13943,7 @@
       </c>
       <c r="I254" s="27"/>
     </row>
-    <row r="255" spans="1:9" ht="45">
+    <row r="255" spans="1:9" ht="30">
       <c r="A255" s="25" t="s">
         <v>175</v>
       </c>
@@ -14114,7 +14143,7 @@
       </c>
       <c r="I262" s="27"/>
     </row>
-    <row r="263" spans="1:9" ht="75">
+    <row r="263" spans="1:9" ht="60">
       <c r="A263" s="25" t="s">
         <v>183</v>
       </c>
@@ -14214,7 +14243,7 @@
       </c>
       <c r="I266" s="27"/>
     </row>
-    <row r="267" spans="1:9" ht="45">
+    <row r="267" spans="1:9" ht="30">
       <c r="A267" s="18" t="s">
         <v>1139</v>
       </c>
@@ -14239,7 +14268,7 @@
       </c>
       <c r="I267" s="47"/>
     </row>
-    <row r="268" spans="1:9" ht="195">
+    <row r="268" spans="1:9" ht="165">
       <c r="A268" s="18" t="s">
         <v>1140</v>
       </c>
@@ -14264,7 +14293,7 @@
       </c>
       <c r="I268" s="47"/>
     </row>
-    <row r="269" spans="1:9" ht="45">
+    <row r="269" spans="1:9" ht="30">
       <c r="A269" s="18" t="s">
         <v>1141</v>
       </c>
@@ -14414,7 +14443,7 @@
       </c>
       <c r="I274" s="47"/>
     </row>
-    <row r="275" spans="1:9" ht="45">
+    <row r="275" spans="1:9" ht="30">
       <c r="A275" s="18" t="s">
         <v>1147</v>
       </c>
@@ -14489,7 +14518,7 @@
       </c>
       <c r="I277" s="47"/>
     </row>
-    <row r="278" spans="1:9" ht="45">
+    <row r="278" spans="1:9" ht="30">
       <c r="A278" s="18" t="s">
         <v>1154</v>
       </c>
@@ -14539,7 +14568,7 @@
       </c>
       <c r="I279" s="47"/>
     </row>
-    <row r="280" spans="1:9" ht="45">
+    <row r="280" spans="1:9" ht="30">
       <c r="A280" s="45" t="s">
         <v>1186</v>
       </c>
@@ -14564,7 +14593,7 @@
       </c>
       <c r="I280" s="47"/>
     </row>
-    <row r="281" spans="1:9" ht="45">
+    <row r="281" spans="1:9" ht="30">
       <c r="A281" s="18" t="s">
         <v>1156</v>
       </c>
@@ -14614,7 +14643,7 @@
       </c>
       <c r="I282" s="47"/>
     </row>
-    <row r="283" spans="1:9" ht="45">
+    <row r="283" spans="1:9" ht="30">
       <c r="A283" s="18" t="s">
         <v>1171</v>
       </c>
@@ -14639,7 +14668,7 @@
       </c>
       <c r="I283" s="47"/>
     </row>
-    <row r="284" spans="1:9" ht="195">
+    <row r="284" spans="1:9" ht="150">
       <c r="A284" s="18" t="s">
         <v>1172</v>
       </c>
@@ -14839,7 +14868,7 @@
       </c>
       <c r="I291" s="47"/>
     </row>
-    <row r="292" spans="1:9" ht="45">
+    <row r="292" spans="1:9" ht="30">
       <c r="A292" s="18" t="s">
         <v>1180</v>
       </c>
@@ -14889,7 +14918,7 @@
       </c>
       <c r="I293" s="47"/>
     </row>
-    <row r="294" spans="1:9" ht="45">
+    <row r="294" spans="1:9" ht="30">
       <c r="A294" s="18" t="s">
         <v>1182</v>
       </c>
@@ -15039,7 +15068,7 @@
       </c>
       <c r="I299" s="27"/>
     </row>
-    <row r="300" spans="1:9" ht="30">
+    <row r="300" spans="1:9">
       <c r="A300" s="25" t="s">
         <v>259</v>
       </c>
@@ -15064,7 +15093,7 @@
       </c>
       <c r="I300" s="27"/>
     </row>
-    <row r="301" spans="1:9" ht="30">
+    <row r="301" spans="1:9">
       <c r="A301" s="25" t="s">
         <v>260</v>
       </c>
@@ -15189,7 +15218,7 @@
       </c>
       <c r="I305" s="27"/>
     </row>
-    <row r="306" spans="1:9" ht="30">
+    <row r="306" spans="1:9">
       <c r="A306" s="25" t="s">
         <v>265</v>
       </c>
@@ -15264,7 +15293,7 @@
       </c>
       <c r="I308" s="27"/>
     </row>
-    <row r="309" spans="1:9" ht="30">
+    <row r="309" spans="1:9">
       <c r="A309" s="25" t="s">
         <v>268</v>
       </c>
@@ -15339,7 +15368,7 @@
       </c>
       <c r="I311" s="27"/>
     </row>
-    <row r="312" spans="1:9" ht="30">
+    <row r="312" spans="1:9">
       <c r="A312" s="25" t="s">
         <v>271</v>
       </c>
@@ -15389,7 +15418,7 @@
       </c>
       <c r="I313" s="27"/>
     </row>
-    <row r="314" spans="1:9" ht="30">
+    <row r="314" spans="1:9">
       <c r="A314" s="25" t="s">
         <v>273</v>
       </c>
@@ -15439,7 +15468,7 @@
       </c>
       <c r="I315" s="27"/>
     </row>
-    <row r="316" spans="1:9" ht="30">
+    <row r="316" spans="1:9">
       <c r="A316" s="25" t="s">
         <v>275</v>
       </c>
@@ -15514,7 +15543,7 @@
       </c>
       <c r="I318" s="27"/>
     </row>
-    <row r="319" spans="1:9" ht="45">
+    <row r="319" spans="1:9" ht="30">
       <c r="A319" s="25" t="s">
         <v>278</v>
       </c>
@@ -15564,7 +15593,7 @@
       </c>
       <c r="I320" s="27"/>
     </row>
-    <row r="321" spans="1:9" ht="45">
+    <row r="321" spans="1:9" ht="30">
       <c r="A321" s="25" t="s">
         <v>280</v>
       </c>
@@ -15639,7 +15668,7 @@
       </c>
       <c r="I323" s="27"/>
     </row>
-    <row r="324" spans="1:9" ht="45">
+    <row r="324" spans="1:9" ht="30">
       <c r="A324" s="25" t="s">
         <v>283</v>
       </c>
@@ -15789,7 +15818,7 @@
       </c>
       <c r="I329" s="47"/>
     </row>
-    <row r="330" spans="1:9" ht="30">
+    <row r="330" spans="1:9">
       <c r="A330" s="45" t="s">
         <v>1214</v>
       </c>
@@ -15864,7 +15893,7 @@
       </c>
       <c r="I332" s="47"/>
     </row>
-    <row r="333" spans="1:9" ht="45">
+    <row r="333" spans="1:9" ht="30">
       <c r="A333" s="25" t="s">
         <v>287</v>
       </c>
@@ -15964,7 +15993,7 @@
       </c>
       <c r="I336" s="27"/>
     </row>
-    <row r="337" spans="1:9" ht="30">
+    <row r="337" spans="1:9">
       <c r="A337" s="25" t="s">
         <v>291</v>
       </c>
@@ -16116,7 +16145,7 @@
       </c>
       <c r="I342" s="47"/>
     </row>
-    <row r="343" spans="1:9" ht="30">
+    <row r="343" spans="1:9">
       <c r="A343" s="45" t="s">
         <v>1237</v>
       </c>
@@ -16137,7 +16166,7 @@
         <v>15</v>
       </c>
       <c r="H343" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I343" s="47"/>
     </row>
@@ -16187,7 +16216,7 @@
         <v>15</v>
       </c>
       <c r="H345" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I345" s="47"/>
     </row>
@@ -16216,7 +16245,7 @@
       </c>
       <c r="I346" s="47"/>
     </row>
-    <row r="347" spans="1:9" ht="30">
+    <row r="347" spans="1:9">
       <c r="A347" s="45" t="s">
         <v>1241</v>
       </c>
@@ -16237,7 +16266,7 @@
         <v>15</v>
       </c>
       <c r="H347" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I347" s="47"/>
     </row>
@@ -16364,7 +16393,7 @@
         <v>15</v>
       </c>
       <c r="H352" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I352" s="47"/>
     </row>
@@ -16443,7 +16472,7 @@
       </c>
       <c r="I355" s="27"/>
     </row>
-    <row r="356" spans="1:9" ht="45">
+    <row r="356" spans="1:9" ht="30">
       <c r="A356" s="18" t="s">
         <v>296</v>
       </c>
@@ -16680,7 +16709,7 @@
       </c>
       <c r="I364" s="27"/>
     </row>
-    <row r="365" spans="1:9" ht="150">
+    <row r="365" spans="1:9" ht="135">
       <c r="A365" s="25" t="s">
         <v>304</v>
       </c>
@@ -16755,7 +16784,7 @@
       </c>
       <c r="I367" s="27"/>
     </row>
-    <row r="368" spans="1:9" ht="45">
+    <row r="368" spans="1:9" ht="30">
       <c r="A368" s="25" t="s">
         <v>307</v>
       </c>
@@ -16880,7 +16909,7 @@
       </c>
       <c r="I372" s="27"/>
     </row>
-    <row r="373" spans="1:9" ht="150">
+    <row r="373" spans="1:9" ht="135">
       <c r="A373" s="25" t="s">
         <v>312</v>
       </c>
@@ -17055,7 +17084,7 @@
       </c>
       <c r="I379" s="27"/>
     </row>
-    <row r="380" spans="1:9" ht="45">
+    <row r="380" spans="1:9" ht="30">
       <c r="A380" s="25" t="s">
         <v>319</v>
       </c>
@@ -17080,7 +17109,7 @@
       </c>
       <c r="I380" s="27"/>
     </row>
-    <row r="381" spans="1:9" ht="150">
+    <row r="381" spans="1:9" ht="135">
       <c r="A381" s="25" t="s">
         <v>320</v>
       </c>
@@ -17505,7 +17534,7 @@
       </c>
       <c r="I397" s="27"/>
     </row>
-    <row r="398" spans="1:9" ht="45">
+    <row r="398" spans="1:9" ht="30">
       <c r="A398" s="25" t="s">
         <v>337</v>
       </c>
@@ -17555,7 +17584,7 @@
       </c>
       <c r="I399" s="27"/>
     </row>
-    <row r="400" spans="1:9" ht="45">
+    <row r="400" spans="1:9" ht="30">
       <c r="A400" s="25" t="s">
         <v>339</v>
       </c>
@@ -17580,7 +17609,7 @@
       </c>
       <c r="I400" s="27"/>
     </row>
-    <row r="401" spans="1:9" ht="45">
+    <row r="401" spans="1:9" ht="30">
       <c r="A401" s="25" t="s">
         <v>340</v>
       </c>
@@ -17682,7 +17711,7 @@
       </c>
       <c r="I404" s="47"/>
     </row>
-    <row r="405" spans="1:9" ht="45">
+    <row r="405" spans="1:9" ht="30">
       <c r="A405" s="45" t="s">
         <v>1049</v>
       </c>
@@ -17707,7 +17736,7 @@
       </c>
       <c r="I405" s="47"/>
     </row>
-    <row r="406" spans="1:9" ht="30">
+    <row r="406" spans="1:9">
       <c r="A406" s="45" t="s">
         <v>1050</v>
       </c>
@@ -17732,7 +17761,7 @@
       </c>
       <c r="I406" s="47"/>
     </row>
-    <row r="407" spans="1:9" ht="30">
+    <row r="407" spans="1:9">
       <c r="A407" s="45" t="s">
         <v>1051</v>
       </c>
@@ -17757,7 +17786,7 @@
       </c>
       <c r="I407" s="47"/>
     </row>
-    <row r="408" spans="1:9" ht="30">
+    <row r="408" spans="1:9">
       <c r="A408" s="45" t="s">
         <v>1052</v>
       </c>
@@ -17782,7 +17811,7 @@
       </c>
       <c r="I408" s="47"/>
     </row>
-    <row r="409" spans="1:9" ht="30">
+    <row r="409" spans="1:9">
       <c r="A409" s="45" t="s">
         <v>1053</v>
       </c>
@@ -17834,7 +17863,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="240">
+    <row r="411" spans="1:9" ht="225">
       <c r="A411" s="45" t="s">
         <v>1066</v>
       </c>
@@ -17859,7 +17888,7 @@
       </c>
       <c r="I411" s="47"/>
     </row>
-    <row r="412" spans="1:9" ht="60">
+    <row r="412" spans="1:9" ht="45">
       <c r="A412" s="45" t="s">
         <v>1067</v>
       </c>
@@ -17905,7 +17934,7 @@
         <v>15</v>
       </c>
       <c r="H413" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I413" s="47"/>
     </row>
@@ -17930,11 +17959,11 @@
         <v>15</v>
       </c>
       <c r="H414" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I414" s="47"/>
     </row>
-    <row r="415" spans="1:9" ht="30">
+    <row r="415" spans="1:9">
       <c r="A415" s="45" t="s">
         <v>1070</v>
       </c>
@@ -17955,7 +17984,7 @@
         <v>15</v>
       </c>
       <c r="H415" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I415" s="47"/>
     </row>
@@ -18055,11 +18084,11 @@
         <v>15</v>
       </c>
       <c r="H419" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I419" s="47"/>
     </row>
-    <row r="420" spans="1:9" ht="30">
+    <row r="420" spans="1:9">
       <c r="A420" s="45" t="s">
         <v>1075</v>
       </c>
@@ -18080,7 +18109,7 @@
         <v>15</v>
       </c>
       <c r="H420" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I420" s="47"/>
     </row>
@@ -18184,7 +18213,7 @@
       </c>
       <c r="I424" s="27"/>
     </row>
-    <row r="425" spans="1:9" ht="45">
+    <row r="425" spans="1:9" ht="30">
       <c r="A425" s="25" t="s">
         <v>189</v>
       </c>
@@ -18284,7 +18313,7 @@
       </c>
       <c r="I428" s="27"/>
     </row>
-    <row r="429" spans="1:9" ht="45">
+    <row r="429" spans="1:9" ht="30">
       <c r="A429" s="25" t="s">
         <v>193</v>
       </c>
@@ -18334,7 +18363,7 @@
       </c>
       <c r="I430" s="27"/>
     </row>
-    <row r="431" spans="1:9" ht="105">
+    <row r="431" spans="1:9" ht="75">
       <c r="A431" s="25" t="s">
         <v>195</v>
       </c>
@@ -18405,7 +18434,7 @@
         <v>15</v>
       </c>
       <c r="H433" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I433" s="27"/>
     </row>
@@ -18430,7 +18459,7 @@
         <v>15</v>
       </c>
       <c r="H434" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I434" s="27"/>
     </row>
@@ -18459,7 +18488,7 @@
       </c>
       <c r="I435" s="27"/>
     </row>
-    <row r="436" spans="1:9" ht="60">
+    <row r="436" spans="1:9" ht="45">
       <c r="A436" s="25" t="s">
         <v>200</v>
       </c>
@@ -18480,7 +18509,7 @@
         <v>15</v>
       </c>
       <c r="H436" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I436" s="27"/>
     </row>
@@ -18505,11 +18534,11 @@
         <v>15</v>
       </c>
       <c r="H437" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I437" s="27"/>
     </row>
-    <row r="438" spans="1:9" ht="45">
+    <row r="438" spans="1:9" ht="30">
       <c r="A438" s="25" t="s">
         <v>202</v>
       </c>
@@ -18530,11 +18559,11 @@
         <v>15</v>
       </c>
       <c r="H438" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I438" s="27"/>
     </row>
-    <row r="439" spans="1:9" ht="60">
+    <row r="439" spans="1:9" ht="45">
       <c r="A439" s="25" t="s">
         <v>203</v>
       </c>
@@ -18555,11 +18584,11 @@
         <v>15</v>
       </c>
       <c r="H439" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I439" s="27"/>
     </row>
-    <row r="440" spans="1:9" ht="60">
+    <row r="440" spans="1:9" ht="45">
       <c r="A440" s="25" t="s">
         <v>204</v>
       </c>
@@ -18580,11 +18609,11 @@
         <v>15</v>
       </c>
       <c r="H440" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I440" s="27"/>
     </row>
-    <row r="441" spans="1:9" ht="45">
+    <row r="441" spans="1:9" ht="30">
       <c r="A441" s="25" t="s">
         <v>205</v>
       </c>
@@ -18605,11 +18634,11 @@
         <v>15</v>
       </c>
       <c r="H441" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I441" s="27"/>
     </row>
-    <row r="442" spans="1:9" ht="60">
+    <row r="442" spans="1:9" ht="45">
       <c r="A442" s="25" t="s">
         <v>206</v>
       </c>
@@ -18630,11 +18659,11 @@
         <v>15</v>
       </c>
       <c r="H442" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I442" s="27"/>
     </row>
-    <row r="443" spans="1:9" ht="60">
+    <row r="443" spans="1:9" ht="45">
       <c r="A443" s="25" t="s">
         <v>207</v>
       </c>
@@ -18655,7 +18684,7 @@
         <v>15</v>
       </c>
       <c r="H443" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I443" s="27"/>
     </row>
@@ -18680,7 +18709,7 @@
         <v>15</v>
       </c>
       <c r="H444" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I444" s="27"/>
     </row>
@@ -18844,7 +18873,7 @@
       </c>
       <c r="I450" s="27"/>
     </row>
-    <row r="451" spans="1:9" ht="255">
+    <row r="451" spans="1:9" ht="240">
       <c r="A451" s="25" t="s">
         <v>215</v>
       </c>
@@ -19019,7 +19048,7 @@
       </c>
       <c r="I457" s="27"/>
     </row>
-    <row r="458" spans="1:9" ht="90">
+    <row r="458" spans="1:9" ht="75">
       <c r="A458" s="25" t="s">
         <v>222</v>
       </c>
@@ -19494,7 +19523,7 @@
       </c>
       <c r="I476" s="27"/>
     </row>
-    <row r="477" spans="1:9" ht="45">
+    <row r="477" spans="1:9" ht="30">
       <c r="A477" s="18" t="s">
         <v>241</v>
       </c>
@@ -19648,7 +19677,7 @@
       </c>
       <c r="I482" s="27"/>
     </row>
-    <row r="483" spans="1:9" ht="300">
+    <row r="483" spans="1:9" ht="285">
       <c r="A483" s="25" t="s">
         <v>243</v>
       </c>
@@ -19823,7 +19852,7 @@
       </c>
       <c r="I489" s="27"/>
     </row>
-    <row r="490" spans="1:9" ht="255">
+    <row r="490" spans="1:9" ht="240">
       <c r="A490" s="25" t="s">
         <v>250</v>
       </c>
@@ -19898,7 +19927,7 @@
       </c>
       <c r="I492" s="27"/>
     </row>
-    <row r="493" spans="1:9" ht="30">
+    <row r="493" spans="1:9">
       <c r="A493" s="25" t="s">
         <v>253</v>
       </c>
@@ -20023,7 +20052,7 @@
       </c>
       <c r="I497" s="27"/>
     </row>
-    <row r="498" spans="1:9" ht="60">
+    <row r="498" spans="1:9" ht="45">
       <c r="A498" s="25" t="s">
         <v>344</v>
       </c>
@@ -20173,7 +20202,7 @@
       </c>
       <c r="I503" s="27"/>
     </row>
-    <row r="504" spans="1:9" ht="60">
+    <row r="504" spans="1:9" ht="45">
       <c r="A504" s="25" t="s">
         <v>350</v>
       </c>
@@ -20323,7 +20352,7 @@
       </c>
       <c r="I509" s="27"/>
     </row>
-    <row r="510" spans="1:9" ht="75">
+    <row r="510" spans="1:9" ht="60">
       <c r="A510" s="25" t="s">
         <v>356</v>
       </c>
@@ -20473,7 +20502,7 @@
       </c>
       <c r="I515" s="27"/>
     </row>
-    <row r="516" spans="1:9" ht="90">
+    <row r="516" spans="1:9" ht="75">
       <c r="A516" s="25" t="s">
         <v>362</v>
       </c>
@@ -20623,7 +20652,7 @@
       </c>
       <c r="I521" s="27"/>
     </row>
-    <row r="522" spans="1:9" ht="75">
+    <row r="522" spans="1:9" ht="60">
       <c r="A522" s="25" t="s">
         <v>368</v>
       </c>
@@ -20773,7 +20802,7 @@
       </c>
       <c r="I527" s="47"/>
     </row>
-    <row r="528" spans="1:9" ht="285">
+    <row r="528" spans="1:9" ht="255">
       <c r="A528" s="45" t="s">
         <v>1449</v>
       </c>
@@ -20798,7 +20827,7 @@
       </c>
       <c r="I528" s="47"/>
     </row>
-    <row r="529" spans="1:9" ht="30">
+    <row r="529" spans="1:9">
       <c r="A529" s="45" t="s">
         <v>1450</v>
       </c>
@@ -20973,7 +21002,7 @@
       </c>
       <c r="I535" s="47"/>
     </row>
-    <row r="536" spans="1:9" ht="60">
+    <row r="536" spans="1:9" ht="45">
       <c r="A536" s="45" t="s">
         <v>1456</v>
       </c>
@@ -21073,7 +21102,7 @@
       </c>
       <c r="I539" s="47"/>
     </row>
-    <row r="540" spans="1:9" ht="45">
+    <row r="540" spans="1:9" ht="30">
       <c r="A540" s="45" t="s">
         <v>1460</v>
       </c>
@@ -21148,7 +21177,7 @@
       </c>
       <c r="I542" s="47"/>
     </row>
-    <row r="543" spans="1:9" ht="120">
+    <row r="543" spans="1:9" ht="105">
       <c r="A543" s="45" t="s">
         <v>1463</v>
       </c>
@@ -21173,7 +21202,7 @@
       </c>
       <c r="I543" s="47"/>
     </row>
-    <row r="544" spans="1:9" ht="60">
+    <row r="544" spans="1:9" ht="45">
       <c r="A544" s="45" t="s">
         <v>1464</v>
       </c>
@@ -21198,7 +21227,7 @@
       </c>
       <c r="I544" s="47"/>
     </row>
-    <row r="545" spans="1:9" ht="45">
+    <row r="545" spans="1:9" ht="30">
       <c r="A545" s="45" t="s">
         <v>1465</v>
       </c>
@@ -21323,7 +21352,7 @@
       </c>
       <c r="I549" s="47"/>
     </row>
-    <row r="550" spans="1:9" ht="45">
+    <row r="550" spans="1:9" ht="30">
       <c r="A550" s="45" t="s">
         <v>1470</v>
       </c>
@@ -21373,7 +21402,7 @@
       </c>
       <c r="I551" s="47"/>
     </row>
-    <row r="552" spans="1:9" ht="45">
+    <row r="552" spans="1:9" ht="30">
       <c r="A552" s="45" t="s">
         <v>1472</v>
       </c>
@@ -21423,7 +21452,7 @@
       </c>
       <c r="I553" s="47"/>
     </row>
-    <row r="554" spans="1:9" ht="45">
+    <row r="554" spans="1:9" ht="30">
       <c r="A554" s="45" t="s">
         <v>1474</v>
       </c>
@@ -21623,7 +21652,7 @@
       </c>
       <c r="I561" s="47"/>
     </row>
-    <row r="562" spans="1:9" ht="30">
+    <row r="562" spans="1:9">
       <c r="A562" s="45" t="s">
         <v>1482</v>
       </c>
@@ -21773,7 +21802,7 @@
       </c>
       <c r="I567" s="47"/>
     </row>
-    <row r="568" spans="1:9" ht="240">
+    <row r="568" spans="1:9" ht="210">
       <c r="A568" s="45" t="s">
         <v>1488</v>
       </c>
@@ -21823,7 +21852,7 @@
       </c>
       <c r="I569" s="47"/>
     </row>
-    <row r="570" spans="1:9" ht="30">
+    <row r="570" spans="1:9">
       <c r="A570" s="45" t="s">
         <v>1490</v>
       </c>
@@ -21898,7 +21927,7 @@
       </c>
       <c r="I572" s="47"/>
     </row>
-    <row r="573" spans="1:9" ht="30">
+    <row r="573" spans="1:9">
       <c r="A573" s="45" t="s">
         <v>1493</v>
       </c>
@@ -21973,7 +22002,7 @@
       </c>
       <c r="I575" s="47"/>
     </row>
-    <row r="576" spans="1:9" ht="60">
+    <row r="576" spans="1:9" ht="45">
       <c r="A576" s="45" t="s">
         <v>1496</v>
       </c>
@@ -21998,7 +22027,7 @@
       </c>
       <c r="I576" s="47"/>
     </row>
-    <row r="577" spans="1:9" ht="45">
+    <row r="577" spans="1:9" ht="30">
       <c r="A577" s="45" t="s">
         <v>1497</v>
       </c>
@@ -22073,7 +22102,7 @@
       </c>
       <c r="I579" s="47"/>
     </row>
-    <row r="580" spans="1:9" ht="45">
+    <row r="580" spans="1:9" ht="30">
       <c r="A580" s="45" t="s">
         <v>1500</v>
       </c>
@@ -22248,7 +22277,7 @@
         <v>15</v>
       </c>
       <c r="H586" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I586" s="47"/>
     </row>
@@ -22277,7 +22306,7 @@
       </c>
       <c r="I587" s="47"/>
     </row>
-    <row r="588" spans="1:9" ht="45">
+    <row r="588" spans="1:9" ht="30">
       <c r="A588" s="45" t="s">
         <v>1506</v>
       </c>
@@ -22327,7 +22356,7 @@
       </c>
       <c r="I589" s="47"/>
     </row>
-    <row r="590" spans="1:9" ht="45">
+    <row r="590" spans="1:9" ht="30">
       <c r="A590" s="45" t="s">
         <v>1508</v>
       </c>
@@ -22402,7 +22431,7 @@
       </c>
       <c r="I592" s="47"/>
     </row>
-    <row r="593" spans="1:9" ht="30">
+    <row r="593" spans="1:9">
       <c r="A593" s="45" t="s">
         <v>1511</v>
       </c>
@@ -22427,7 +22456,7 @@
       </c>
       <c r="I593" s="47"/>
     </row>
-    <row r="594" spans="1:9" ht="240">
+    <row r="594" spans="1:9" ht="225">
       <c r="A594" s="45" t="s">
         <v>1512</v>
       </c>
@@ -22779,7 +22808,7 @@
       </c>
       <c r="I607" s="47"/>
     </row>
-    <row r="608" spans="1:9" ht="30">
+    <row r="608" spans="1:9">
       <c r="A608" s="45" t="s">
         <v>1526</v>
       </c>
@@ -22804,14 +22833,14 @@
       </c>
       <c r="I608" s="47"/>
     </row>
-    <row r="609" spans="1:9" ht="45">
+    <row r="609" spans="1:9" ht="30">
       <c r="A609" s="45" t="s">
         <v>1527</v>
       </c>
       <c r="B609" s="46" t="s">
         <v>1390</v>
       </c>
-      <c r="C609" s="47" t="s">
+      <c r="C609" s="16" t="s">
         <v>1394</v>
       </c>
       <c r="D609" s="45"/>
@@ -22825,7 +22854,7 @@
         <v>15</v>
       </c>
       <c r="H609" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I609" s="47"/>
     </row>
@@ -22854,7 +22883,7 @@
       </c>
       <c r="I610" s="47"/>
     </row>
-    <row r="611" spans="1:9" ht="30">
+    <row r="611" spans="1:9">
       <c r="A611" s="45" t="s">
         <v>1529</v>
       </c>
@@ -22954,7 +22983,7 @@
       </c>
       <c r="I614" s="47"/>
     </row>
-    <row r="615" spans="1:9" ht="60">
+    <row r="615" spans="1:9" ht="45">
       <c r="A615" s="45" t="s">
         <v>1533</v>
       </c>
@@ -23129,7 +23158,7 @@
       </c>
       <c r="I621" s="47"/>
     </row>
-    <row r="622" spans="1:9" ht="120">
+    <row r="622" spans="1:9" ht="105">
       <c r="A622" s="45" t="s">
         <v>1540</v>
       </c>
@@ -23154,7 +23183,7 @@
       </c>
       <c r="I622" s="47"/>
     </row>
-    <row r="623" spans="1:9" ht="60">
+    <row r="623" spans="1:9" ht="45">
       <c r="A623" s="45" t="s">
         <v>1541</v>
       </c>
@@ -23179,7 +23208,7 @@
       </c>
       <c r="I623" s="47"/>
     </row>
-    <row r="624" spans="1:9" ht="45">
+    <row r="624" spans="1:9" ht="30">
       <c r="A624" s="45" t="s">
         <v>1542</v>
       </c>
@@ -23304,7 +23333,7 @@
       </c>
       <c r="I628" s="47"/>
     </row>
-    <row r="629" spans="1:9" ht="45">
+    <row r="629" spans="1:9" ht="30">
       <c r="A629" s="45" t="s">
         <v>1547</v>
       </c>
@@ -23479,7 +23508,7 @@
       </c>
       <c r="I635" s="47"/>
     </row>
-    <row r="636" spans="1:9" ht="60">
+    <row r="636" spans="1:9" ht="45">
       <c r="A636" s="45" t="s">
         <v>1554</v>
       </c>
@@ -23504,7 +23533,7 @@
       </c>
       <c r="I636" s="47"/>
     </row>
-    <row r="637" spans="1:9" ht="30">
+    <row r="637" spans="1:9">
       <c r="A637" s="45" t="s">
         <v>1555</v>
       </c>
@@ -23629,7 +23658,7 @@
       </c>
       <c r="I641" s="47"/>
     </row>
-    <row r="642" spans="1:9" ht="225">
+    <row r="642" spans="1:9" ht="195">
       <c r="A642" s="45" t="s">
         <v>1560</v>
       </c>
@@ -23829,7 +23858,7 @@
       </c>
       <c r="I649" s="47"/>
     </row>
-    <row r="650" spans="1:9" ht="30">
+    <row r="650" spans="1:9">
       <c r="A650" s="45" t="s">
         <v>1568</v>
       </c>
@@ -23879,7 +23908,7 @@
       </c>
       <c r="I651" s="47"/>
     </row>
-    <row r="652" spans="1:9" ht="45">
+    <row r="652" spans="1:9" ht="30">
       <c r="A652" s="45" t="s">
         <v>1570</v>
       </c>
@@ -23904,7 +23933,7 @@
       </c>
       <c r="I652" s="47"/>
     </row>
-    <row r="653" spans="1:9" ht="45">
+    <row r="653" spans="1:9" ht="30">
       <c r="A653" s="45" t="s">
         <v>1571</v>
       </c>
@@ -23954,7 +23983,7 @@
       </c>
       <c r="I654" s="47"/>
     </row>
-    <row r="655" spans="1:9" ht="60">
+    <row r="655" spans="1:9" ht="45">
       <c r="A655" s="18" t="s">
         <v>371</v>
       </c>
@@ -24033,7 +24062,7 @@
       </c>
       <c r="I657" s="27"/>
     </row>
-    <row r="658" spans="1:9" ht="60">
+    <row r="658" spans="1:9" ht="45">
       <c r="A658" s="18" t="s">
         <v>624</v>
       </c>
@@ -24060,7 +24089,7 @@
       </c>
       <c r="I658" s="47"/>
     </row>
-    <row r="659" spans="1:9" ht="45">
+    <row r="659" spans="1:9" ht="30">
       <c r="A659" s="45" t="s">
         <v>626</v>
       </c>
@@ -24087,7 +24116,7 @@
       </c>
       <c r="I659" s="47"/>
     </row>
-    <row r="660" spans="1:9" ht="60">
+    <row r="660" spans="1:9" ht="45">
       <c r="A660" s="18" t="s">
         <v>373</v>
       </c>
@@ -24141,7 +24170,7 @@
       </c>
       <c r="I661" s="27"/>
     </row>
-    <row r="662" spans="1:9" ht="90">
+    <row r="662" spans="1:9" ht="75">
       <c r="A662" s="25" t="s">
         <v>375</v>
       </c>
@@ -24168,7 +24197,7 @@
       </c>
       <c r="I662" s="27"/>
     </row>
-    <row r="663" spans="1:9" ht="75">
+    <row r="663" spans="1:9" ht="60">
       <c r="A663" s="18" t="s">
         <v>376</v>
       </c>
@@ -24195,7 +24224,7 @@
       </c>
       <c r="I663" s="27"/>
     </row>
-    <row r="664" spans="1:9" ht="45">
+    <row r="664" spans="1:9" ht="30">
       <c r="A664" s="45" t="s">
         <v>719</v>
       </c>
@@ -24307,7 +24336,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="668" spans="1:9" ht="60">
+    <row r="668" spans="1:9" ht="45">
       <c r="A668" s="45" t="s">
         <v>878</v>
       </c>
@@ -24811,7 +24840,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="686" spans="1:9" ht="60">
+    <row r="686" spans="1:9" ht="45">
       <c r="A686" s="45" t="s">
         <v>959</v>
       </c>
@@ -25060,7 +25089,7 @@
       </c>
       <c r="I694" s="47"/>
     </row>
-    <row r="695" spans="1:9" ht="45">
+    <row r="695" spans="1:9" ht="30">
       <c r="A695" s="45" t="s">
         <v>968</v>
       </c>
@@ -25087,7 +25116,7 @@
       </c>
       <c r="I695" s="47"/>
     </row>
-    <row r="696" spans="1:9" ht="60">
+    <row r="696" spans="1:9" ht="45">
       <c r="A696" s="45" t="s">
         <v>969</v>
       </c>
@@ -25114,7 +25143,7 @@
       </c>
       <c r="I696" s="47"/>
     </row>
-    <row r="697" spans="1:9" ht="45">
+    <row r="697" spans="1:9" ht="30">
       <c r="A697" s="45" t="s">
         <v>970</v>
       </c>
@@ -25359,7 +25388,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="706" spans="1:9" ht="60">
+    <row r="706" spans="1:9" ht="45">
       <c r="A706" s="45" t="s">
         <v>979</v>
       </c>
@@ -25415,7 +25444,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="708" spans="1:9" ht="45">
+    <row r="708" spans="1:9" ht="30">
       <c r="A708" s="45" t="s">
         <v>981</v>
       </c>
@@ -25583,7 +25612,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="714" spans="1:9" ht="60">
+    <row r="714" spans="1:9" ht="45">
       <c r="A714" s="45" t="s">
         <v>987</v>
       </c>
@@ -25639,7 +25668,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="716" spans="1:9" ht="60">
+    <row r="716" spans="1:9" ht="45">
       <c r="A716" s="45" t="s">
         <v>989</v>
       </c>
@@ -25863,7 +25892,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="724" spans="1:9" ht="45">
+    <row r="724" spans="1:9" ht="30">
       <c r="A724" s="45" t="s">
         <v>997</v>
       </c>
@@ -25919,7 +25948,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="726" spans="1:9" ht="45">
+    <row r="726" spans="1:9" ht="30">
       <c r="A726" s="45" t="s">
         <v>999</v>
       </c>
@@ -26218,7 +26247,7 @@
       </c>
       <c r="I736" s="47"/>
     </row>
-    <row r="737" spans="1:9" ht="30">
+    <row r="737" spans="1:9">
       <c r="A737" s="18" t="s">
         <v>1613</v>
       </c>
@@ -26268,7 +26297,7 @@
       </c>
       <c r="I738" s="47"/>
     </row>
-    <row r="739" spans="1:9" ht="30">
+    <row r="739" spans="1:9">
       <c r="A739" s="18" t="s">
         <v>1615</v>
       </c>
@@ -26318,7 +26347,7 @@
       </c>
       <c r="I740" s="47"/>
     </row>
-    <row r="741" spans="1:9" ht="30">
+    <row r="741" spans="1:9">
       <c r="A741" s="18" t="s">
         <v>1617</v>
       </c>
@@ -26443,7 +26472,7 @@
       </c>
       <c r="I745" s="27"/>
     </row>
-    <row r="746" spans="1:9" ht="165">
+    <row r="746" spans="1:9" ht="150">
       <c r="A746" s="18" t="s">
         <v>384</v>
       </c>
@@ -26568,7 +26597,7 @@
       </c>
       <c r="I750" s="27"/>
     </row>
-    <row r="751" spans="1:9" ht="195">
+    <row r="751" spans="1:9" ht="180">
       <c r="A751" s="25" t="s">
         <v>377</v>
       </c>
@@ -26668,7 +26697,7 @@
       </c>
       <c r="I754" s="27"/>
     </row>
-    <row r="755" spans="1:9" ht="45">
+    <row r="755" spans="1:9" ht="30">
       <c r="A755" s="25" t="s">
         <v>381</v>
       </c>
@@ -26693,7 +26722,7 @@
       </c>
       <c r="I755" s="27"/>
     </row>
-    <row r="756" spans="1:9" ht="45">
+    <row r="756" spans="1:9" ht="30">
       <c r="A756" s="18" t="s">
         <v>382</v>
       </c>
@@ -26739,11 +26768,11 @@
         <v>15</v>
       </c>
       <c r="H757" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I757" s="47"/>
     </row>
-    <row r="758" spans="1:9" ht="45">
+    <row r="758" spans="1:9" ht="30">
       <c r="A758" s="18" t="s">
         <v>1597</v>
       </c>
@@ -26764,7 +26793,7 @@
         <v>15</v>
       </c>
       <c r="H758" s="45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I758" s="47"/>
     </row>
@@ -26863,105 +26892,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all/>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/office/internal/2005/internalDocumentation" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type" ma:readOnly="true"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="lastPrinted" minOccurs="0" maxOccurs="1" type="xsd:dateTime"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -7432,23 +7432,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7484,23 +7467,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">

--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9CCC2A-DBB7-429F-B979-030668CB1256}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C8F64C-274E-42B7-A76E-EB14861FC315}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$778</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$780</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5521" uniqueCount="1726">
   <si>
     <t>Req ID</t>
   </si>
@@ -6535,6 +6535,21 @@
   </si>
   <si>
     <t>2.2.3.10</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R1275123</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R1275124</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the ContentType element.. (&lt;65&gt; Section 3.1.4.7.3.2:  Exchange 2007,and Exchange 2010  do not support the ContentType element.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support  the ContentType element. (Exchange 2013 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R302156:i</t>
   </si>
 </sst>
 </file>
@@ -6910,6 +6925,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6966,9 +6984,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7467,8 +7482,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I778" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
-  <autoFilter ref="A19:I778" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I780" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
+  <autoFilter ref="A19:I780" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -7836,10 +7851,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M781"/>
+  <dimension ref="A1:M783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C778" sqref="C778"/>
+    <sheetView tabSelected="1" topLeftCell="D747" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I753" sqref="I753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7905,16 +7920,16 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="32"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -7926,13 +7941,13 @@
       <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
@@ -7940,16 +7955,16 @@
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -7957,16 +7972,16 @@
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -7974,16 +7989,16 @@
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -7991,16 +8006,16 @@
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -8008,16 +8023,16 @@
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -8025,16 +8040,16 @@
       <c r="A11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="64" t="s">
         <v>594</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -8118,16 +8133,16 @@
       <c r="A16" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
@@ -8135,16 +8150,16 @@
       <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
@@ -8152,16 +8167,16 @@
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>595</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="M18" s="4"/>
@@ -22762,7 +22777,7 @@
         <v>15</v>
       </c>
       <c r="H599" s="45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I599" s="47"/>
     </row>
@@ -23264,7 +23279,7 @@
       <c r="H619" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I619" s="47" t="s">
+      <c r="I619" s="16" t="s">
         <v>1480</v>
       </c>
     </row>
@@ -24530,7 +24545,7 @@
       <c r="A670" s="18" t="s">
         <v>1642</v>
       </c>
-      <c r="B670" s="68">
+      <c r="B670" s="49">
         <v>8</v>
       </c>
       <c r="C670" s="16" t="s">
@@ -24557,7 +24572,7 @@
       <c r="A671" s="18" t="s">
         <v>1643</v>
       </c>
-      <c r="B671" s="68">
+      <c r="B671" s="49">
         <v>8</v>
       </c>
       <c r="C671" s="16" t="s">
@@ -24576,7 +24591,7 @@
         <v>15</v>
       </c>
       <c r="H671" s="45" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I671" s="47"/>
     </row>
@@ -25447,7 +25462,7 @@
       <c r="A703" s="18" t="s">
         <v>849</v>
       </c>
-      <c r="B703" s="68">
+      <c r="B703" s="49">
         <v>8</v>
       </c>
       <c r="C703" s="16" t="s">
@@ -25476,7 +25491,7 @@
       <c r="A704" s="18" t="s">
         <v>1700</v>
       </c>
-      <c r="B704" s="68">
+      <c r="B704" s="49">
         <v>8</v>
       </c>
       <c r="C704" s="16" t="s">
@@ -25503,7 +25518,7 @@
       <c r="A705" s="18" t="s">
         <v>1701</v>
       </c>
-      <c r="B705" s="68">
+      <c r="B705" s="49">
         <v>8</v>
       </c>
       <c r="C705" s="16" t="s">
@@ -25532,7 +25547,7 @@
       <c r="A706" s="18" t="s">
         <v>1702</v>
       </c>
-      <c r="B706" s="68">
+      <c r="B706" s="49">
         <v>8</v>
       </c>
       <c r="C706" s="16" t="s">
@@ -25559,7 +25574,7 @@
       <c r="A707" s="18" t="s">
         <v>1703</v>
       </c>
-      <c r="B707" s="68">
+      <c r="B707" s="49">
         <v>8</v>
       </c>
       <c r="C707" s="16" t="s">
@@ -25588,7 +25603,7 @@
       <c r="A708" s="18" t="s">
         <v>1704</v>
       </c>
-      <c r="B708" s="68">
+      <c r="B708" s="49">
         <v>8</v>
       </c>
       <c r="C708" s="16" t="s">
@@ -25615,7 +25630,7 @@
       <c r="A709" s="18" t="s">
         <v>1705</v>
       </c>
-      <c r="B709" s="68">
+      <c r="B709" s="49">
         <v>8</v>
       </c>
       <c r="C709" s="16" t="s">
@@ -25644,7 +25659,7 @@
       <c r="A710" s="18" t="s">
         <v>1706</v>
       </c>
-      <c r="B710" s="68">
+      <c r="B710" s="49">
         <v>8</v>
       </c>
       <c r="C710" s="16" t="s">
@@ -25671,7 +25686,7 @@
       <c r="A711" s="18" t="s">
         <v>1707</v>
       </c>
-      <c r="B711" s="68">
+      <c r="B711" s="49">
         <v>8</v>
       </c>
       <c r="C711" s="16" t="s">
@@ -26782,7 +26797,7 @@
       <c r="B751" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="C751" s="47" t="s">
+      <c r="C751" s="16" t="s">
         <v>1668</v>
       </c>
       <c r="D751" s="45" t="s">
@@ -26800,22 +26815,22 @@
       <c r="H751" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I751" s="47" t="s">
+      <c r="I751" s="16" t="s">
         <v>1493</v>
       </c>
     </row>
     <row r="752" spans="1:9" ht="45">
-      <c r="A752" s="45" t="s">
-        <v>890</v>
-      </c>
-      <c r="B752" s="46" t="s">
-        <v>615</v>
+      <c r="A752" s="18" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B752" s="49">
+        <v>8</v>
       </c>
       <c r="C752" s="16" t="s">
-        <v>1699</v>
-      </c>
-      <c r="D752" t="s">
-        <v>1512</v>
+        <v>1723</v>
+      </c>
+      <c r="D752" s="18" t="s">
+        <v>1725</v>
       </c>
       <c r="E752" s="45" t="s">
         <v>22</v>
@@ -26832,17 +26847,17 @@
       <c r="I752" s="47"/>
     </row>
     <row r="753" spans="1:9" ht="45">
-      <c r="A753" s="45" t="s">
-        <v>891</v>
-      </c>
-      <c r="B753" s="46" t="s">
-        <v>615</v>
-      </c>
-      <c r="C753" s="47" t="s">
-        <v>834</v>
-      </c>
-      <c r="D753" t="s">
-        <v>1512</v>
+      <c r="A753" s="18" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B753" s="49">
+        <v>8</v>
+      </c>
+      <c r="C753" s="16" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D753" s="18" t="s">
+        <v>1725</v>
       </c>
       <c r="E753" s="45" t="s">
         <v>22</v>
@@ -26860,19 +26875,21 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="754" spans="1:9" ht="390">
+    <row r="754" spans="1:9" ht="45">
       <c r="A754" s="18" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B754" s="20" t="s">
-        <v>1720</v>
+        <v>890</v>
+      </c>
+      <c r="B754" s="46" t="s">
+        <v>615</v>
       </c>
       <c r="C754" s="16" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D754" s="45"/>
+        <v>1699</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1512</v>
+      </c>
       <c r="E754" s="45" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F754" s="45" t="s">
         <v>3</v>
@@ -26881,23 +26898,25 @@
         <v>15</v>
       </c>
       <c r="H754" s="45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I754" s="47"/>
     </row>
-    <row r="755" spans="1:9" ht="30">
-      <c r="A755" s="18" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B755" s="20" t="s">
-        <v>1720</v>
+    <row r="755" spans="1:9" ht="45">
+      <c r="A755" s="45" t="s">
+        <v>891</v>
+      </c>
+      <c r="B755" s="46" t="s">
+        <v>615</v>
       </c>
       <c r="C755" s="47" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D755" s="45"/>
+        <v>834</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1512</v>
+      </c>
       <c r="E755" s="45" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F755" s="45" t="s">
         <v>3</v>
@@ -26908,17 +26927,19 @@
       <c r="H755" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I755" s="47"/>
-    </row>
-    <row r="756" spans="1:9" ht="30">
+      <c r="I755" s="16" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9" ht="390">
       <c r="A756" s="18" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B756" s="20" t="s">
         <v>1720</v>
       </c>
-      <c r="C756" s="47" t="s">
-        <v>1439</v>
+      <c r="C756" s="16" t="s">
+        <v>1437</v>
       </c>
       <c r="D756" s="45"/>
       <c r="E756" s="45" t="s">
@@ -26935,15 +26956,15 @@
       </c>
       <c r="I756" s="47"/>
     </row>
-    <row r="757" spans="1:9">
+    <row r="757" spans="1:9" ht="30">
       <c r="A757" s="18" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B757" s="20" t="s">
         <v>1720</v>
       </c>
       <c r="C757" s="47" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="D757" s="45"/>
       <c r="E757" s="45" t="s">
@@ -26962,13 +26983,13 @@
     </row>
     <row r="758" spans="1:9" ht="30">
       <c r="A758" s="18" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B758" s="20" t="s">
         <v>1720</v>
       </c>
       <c r="C758" s="47" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D758" s="45"/>
       <c r="E758" s="45" t="s">
@@ -26987,13 +27008,13 @@
     </row>
     <row r="759" spans="1:9">
       <c r="A759" s="18" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B759" s="20" t="s">
         <v>1720</v>
       </c>
       <c r="C759" s="47" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="D759" s="45"/>
       <c r="E759" s="45" t="s">
@@ -27012,13 +27033,13 @@
     </row>
     <row r="760" spans="1:9" ht="30">
       <c r="A760" s="18" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B760" s="20" t="s">
         <v>1720</v>
       </c>
       <c r="C760" s="47" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D760" s="45"/>
       <c r="E760" s="45" t="s">
@@ -27037,13 +27058,13 @@
     </row>
     <row r="761" spans="1:9">
       <c r="A761" s="18" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B761" s="20" t="s">
         <v>1720</v>
       </c>
       <c r="C761" s="47" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D761" s="45"/>
       <c r="E761" s="45" t="s">
@@ -27062,13 +27083,13 @@
     </row>
     <row r="762" spans="1:9" ht="30">
       <c r="A762" s="18" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B762" s="20" t="s">
         <v>1720</v>
       </c>
       <c r="C762" s="47" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D762" s="45"/>
       <c r="E762" s="45" t="s">
@@ -27085,15 +27106,15 @@
       </c>
       <c r="I762" s="47"/>
     </row>
-    <row r="763" spans="1:9" ht="30">
+    <row r="763" spans="1:9">
       <c r="A763" s="18" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B763" s="20" t="s">
         <v>1720</v>
       </c>
       <c r="C763" s="47" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D763" s="45"/>
       <c r="E763" s="45" t="s">
@@ -27110,15 +27131,15 @@
       </c>
       <c r="I763" s="47"/>
     </row>
-    <row r="764" spans="1:9" ht="45">
+    <row r="764" spans="1:9" ht="30">
       <c r="A764" s="18" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B764" s="20" t="s">
         <v>1720</v>
       </c>
-      <c r="C764" s="16" t="s">
-        <v>1444</v>
+      <c r="C764" s="47" t="s">
+        <v>1443</v>
       </c>
       <c r="D764" s="45"/>
       <c r="E764" s="45" t="s">
@@ -27135,90 +27156,90 @@
       </c>
       <c r="I764" s="47"/>
     </row>
-    <row r="765" spans="1:9" ht="180">
-      <c r="A765" s="25" t="s">
+    <row r="765" spans="1:9" ht="30">
+      <c r="A765" s="18" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B765" s="20" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C765" s="47" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D765" s="45"/>
+      <c r="E765" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F765" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G765" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H765" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I765" s="47"/>
+    </row>
+    <row r="766" spans="1:9" ht="45">
+      <c r="A766" s="18" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B766" s="20" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C766" s="16" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D766" s="45"/>
+      <c r="E766" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F766" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G766" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H766" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I766" s="47"/>
+    </row>
+    <row r="767" spans="1:9" ht="180">
+      <c r="A767" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B765" s="20" t="s">
+      <c r="B767" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="C765" s="16" t="s">
+      <c r="C767" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="D765" s="25"/>
-      <c r="E765" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F765" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G765" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H765" s="25" t="s">
+      <c r="D767" s="25"/>
+      <c r="E767" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F767" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G767" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H767" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I765" s="27"/>
-    </row>
-    <row r="766" spans="1:9" ht="150">
-      <c r="A766" s="18" t="s">
+      <c r="I767" s="27"/>
+    </row>
+    <row r="768" spans="1:9" ht="150">
+      <c r="A768" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="B766" s="20" t="s">
+      <c r="B768" s="20" t="s">
         <v>1429</v>
       </c>
-      <c r="C766" s="16" t="s">
+      <c r="C768" s="16" t="s">
         <v>587</v>
-      </c>
-      <c r="D766" s="25"/>
-      <c r="E766" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F766" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G766" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H766" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I766" s="27"/>
-    </row>
-    <row r="767" spans="1:9" ht="135">
-      <c r="A767" s="45" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B767" s="46" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C767" s="47" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D767" s="45"/>
-      <c r="E767" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F767" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G767" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H767" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I767" s="47"/>
-    </row>
-    <row r="768" spans="1:9" ht="409.5">
-      <c r="A768" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="B768" s="20" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C768" s="16" t="s">
-        <v>588</v>
       </c>
       <c r="D768" s="25"/>
       <c r="E768" s="25" t="s">
@@ -27231,19 +27252,19 @@
         <v>15</v>
       </c>
       <c r="H768" s="25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I768" s="27"/>
     </row>
-    <row r="769" spans="1:9" ht="409.5">
-      <c r="A769" s="18" t="s">
-        <v>1459</v>
+    <row r="769" spans="1:9" ht="135">
+      <c r="A769" s="45" t="s">
+        <v>1423</v>
       </c>
       <c r="B769" s="46" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="C769" s="47" t="s">
-        <v>1460</v>
+        <v>1424</v>
       </c>
       <c r="D769" s="45"/>
       <c r="E769" s="45" t="s">
@@ -27260,15 +27281,15 @@
       </c>
       <c r="I769" s="47"/>
     </row>
-    <row r="770" spans="1:9" ht="135">
+    <row r="770" spans="1:9" ht="409.5">
       <c r="A770" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B770" s="20" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="C770" s="16" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D770" s="25"/>
       <c r="E770" s="25" t="s">
@@ -27285,40 +27306,40 @@
       </c>
       <c r="I770" s="27"/>
     </row>
-    <row r="771" spans="1:9" ht="180">
-      <c r="A771" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="B771" s="20" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C771" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="D771" s="25"/>
-      <c r="E771" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F771" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G771" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H771" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I771" s="27"/>
-    </row>
-    <row r="772" spans="1:9" ht="30">
-      <c r="A772" s="18" t="s">
-        <v>378</v>
+    <row r="771" spans="1:9" ht="409.5">
+      <c r="A771" s="18" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B771" s="46" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C771" s="47" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D771" s="45"/>
+      <c r="E771" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F771" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G771" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H771" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I771" s="47"/>
+    </row>
+    <row r="772" spans="1:9" ht="135">
+      <c r="A772" s="25" t="s">
+        <v>386</v>
       </c>
       <c r="B772" s="20" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C772" s="16" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="D772" s="25"/>
       <c r="E772" s="25" t="s">
@@ -27331,19 +27352,19 @@
         <v>15</v>
       </c>
       <c r="H772" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I772" s="27"/>
     </row>
-    <row r="773" spans="1:9" ht="105">
+    <row r="773" spans="1:9" ht="180">
       <c r="A773" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B773" s="20" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C773" s="27" t="s">
-        <v>582</v>
+        <v>1426</v>
+      </c>
+      <c r="C773" s="16" t="s">
+        <v>580</v>
       </c>
       <c r="D773" s="25"/>
       <c r="E773" s="25" t="s">
@@ -27360,15 +27381,15 @@
       </c>
       <c r="I773" s="27"/>
     </row>
-    <row r="774" spans="1:9" ht="45">
-      <c r="A774" s="25" t="s">
-        <v>380</v>
+    <row r="774" spans="1:9" ht="30">
+      <c r="A774" s="18" t="s">
+        <v>378</v>
       </c>
       <c r="B774" s="20" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C774" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D774" s="25"/>
       <c r="E774" s="25" t="s">
@@ -27381,19 +27402,19 @@
         <v>15</v>
       </c>
       <c r="H774" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I774" s="27"/>
     </row>
-    <row r="775" spans="1:9" ht="30">
+    <row r="775" spans="1:9" ht="105">
       <c r="A775" s="25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B775" s="20" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C775" s="16" t="s">
-        <v>584</v>
+        <v>1427</v>
+      </c>
+      <c r="C775" s="27" t="s">
+        <v>582</v>
       </c>
       <c r="D775" s="25"/>
       <c r="E775" s="25" t="s">
@@ -27410,15 +27431,15 @@
       </c>
       <c r="I775" s="27"/>
     </row>
-    <row r="776" spans="1:9" ht="30">
-      <c r="A776" s="18" t="s">
-        <v>382</v>
+    <row r="776" spans="1:9" ht="45">
+      <c r="A776" s="25" t="s">
+        <v>380</v>
       </c>
       <c r="B776" s="20" t="s">
         <v>1428</v>
       </c>
       <c r="C776" s="16" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D776" s="25"/>
       <c r="E776" s="25" t="s">
@@ -27431,38 +27452,38 @@
         <v>15</v>
       </c>
       <c r="H776" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I776" s="27"/>
     </row>
-    <row r="777" spans="1:9" ht="45">
-      <c r="A777" s="18" t="s">
-        <v>1434</v>
+    <row r="777" spans="1:9" ht="30">
+      <c r="A777" s="25" t="s">
+        <v>381</v>
       </c>
       <c r="B777" s="20" t="s">
         <v>1428</v>
       </c>
       <c r="C777" s="16" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D777" s="45"/>
-      <c r="E777" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F777" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G777" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H777" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I777" s="47"/>
+        <v>584</v>
+      </c>
+      <c r="D777" s="25"/>
+      <c r="E777" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F777" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G777" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H777" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I777" s="27"/>
     </row>
     <row r="778" spans="1:9" ht="30">
       <c r="A778" s="18" t="s">
-        <v>1436</v>
+        <v>382</v>
       </c>
       <c r="B778" s="20" t="s">
         <v>1428</v>
@@ -27470,39 +27491,89 @@
       <c r="C778" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="D778" s="45"/>
-      <c r="E778" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F778" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G778" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H778" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I778" s="47"/>
-    </row>
-    <row r="779" spans="1:9">
-      <c r="A779" s="25"/>
-      <c r="B779" s="26"/>
-      <c r="C779" s="27"/>
-      <c r="D779" s="25"/>
-      <c r="E779" s="25"/>
-      <c r="F779" s="25"/>
-      <c r="G779" s="25"/>
-      <c r="H779" s="25"/>
-      <c r="I779" s="27"/>
-    </row>
-    <row r="780" spans="1:9">
-      <c r="A780" s="3"/>
-      <c r="B780" s="9"/>
+      <c r="D778" s="25"/>
+      <c r="E778" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F778" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G778" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H778" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I778" s="27"/>
+    </row>
+    <row r="779" spans="1:9" ht="45">
+      <c r="A779" s="18" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B779" s="20" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C779" s="16" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D779" s="45"/>
+      <c r="E779" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F779" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G779" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H779" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I779" s="47"/>
+    </row>
+    <row r="780" spans="1:9" ht="30">
+      <c r="A780" s="18" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B780" s="20" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C780" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="D780" s="45"/>
+      <c r="E780" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F780" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G780" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H780" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I780" s="47"/>
     </row>
     <row r="781" spans="1:9">
-      <c r="A781" s="3"/>
-      <c r="B781" s="9"/>
+      <c r="A781" s="25"/>
+      <c r="B781" s="26"/>
+      <c r="C781" s="27"/>
+      <c r="D781" s="25"/>
+      <c r="E781" s="25"/>
+      <c r="F781" s="25"/>
+      <c r="G781" s="25"/>
+      <c r="H781" s="25"/>
+      <c r="I781" s="27"/>
+    </row>
+    <row r="782" spans="1:9">
+      <c r="A782" s="3"/>
+      <c r="B782" s="9"/>
+    </row>
+    <row r="783" spans="1:9">
+      <c r="A783" s="3"/>
+      <c r="B783" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -27519,7 +27590,7 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:H45 A80:H80 I20:I50 A35:I79 A81:I270 B271:I271 A272:I779">
+  <conditionalFormatting sqref="A20:H45 A80:H80 I20:I50 A35:I79 A81:I270 B271:I271 A272:I781">
     <cfRule type="expression" dxfId="7" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -27530,7 +27601,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H45 A80:H80 I20:I50 A35:I79 A81:I270 B271:I271 A272:I779">
+  <conditionalFormatting sqref="A20:H45 A80:H80 I20:I50 A35:I79 A81:I270 B271:I271 A272:I781">
     <cfRule type="expression" dxfId="4" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -27541,7 +27612,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F779">
+  <conditionalFormatting sqref="F20:F781">
     <cfRule type="expression" dxfId="1" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -27550,20 +27621,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F712:F779 F20:F711" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F781" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E712:E779 E20:E711" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E781" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G712:G779 G20:G711" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G781" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H712:H779 H20:H711" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H781" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27573,7 +27644,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B780:B781 B10:B27 B54:B63 B28:B51 B65:B67 B70:B235 B244:B270 B273:B596 B598 B712:B753 B601:B669 B672:B702 B765:B778" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B782:B783 B10:B27 B54:B63 B28:B51 B65:B67 B70:B235 B244:B270 B273:B596 B598 B754:B755 B601:B669 B672:B702 B767:B780 B712:B751" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C8F64C-274E-42B7-A76E-EB14861FC315}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320D61D7-9BF9-46B5-9B69-11C018B46989}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5521" uniqueCount="1726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5522" uniqueCount="1727">
   <si>
     <t>Req ID</t>
   </si>
@@ -6550,6 +6550,9 @@
   </si>
   <si>
     <t>MS-OXWSCONT_R302156:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCONT_R1275124.</t>
   </si>
 </sst>
 </file>
@@ -6991,50 +6994,6 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -7353,6 +7312,50 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7482,34 +7485,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I780" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I780" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="1">
   <autoFilter ref="A19:I780" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="19">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="7">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="14">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="6">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7518,12 +7521,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7853,8 +7856,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D747" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I753" sqref="I753"/>
+    <sheetView tabSelected="1" topLeftCell="D593" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I600" sqref="I600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -22781,7 +22784,7 @@
       </c>
       <c r="I599" s="47"/>
     </row>
-    <row r="600" spans="1:9" ht="30">
+    <row r="600" spans="1:9" ht="45">
       <c r="A600" s="18" t="s">
         <v>1610</v>
       </c>
@@ -22791,7 +22794,7 @@
       <c r="C600" s="16" t="s">
         <v>1612</v>
       </c>
-      <c r="D600" s="45"/>
+      <c r="D600" s="18"/>
       <c r="E600" s="45" t="s">
         <v>19</v>
       </c>
@@ -22801,10 +22804,12 @@
       <c r="G600" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H600" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I600" s="47"/>
+      <c r="H600" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I600" s="16" t="s">
+        <v>1726</v>
+      </c>
     </row>
     <row r="601" spans="1:9" ht="30">
       <c r="A601" s="45" t="s">
@@ -23276,7 +23281,7 @@
       <c r="G619" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H619" s="45" t="s">
+      <c r="H619" s="18" t="s">
         <v>17</v>
       </c>
       <c r="I619" s="16" t="s">
@@ -27591,32 +27596,32 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A20:H45 A80:H80 I20:I50 A35:I79 A81:I270 B271:I271 A272:I781">
-    <cfRule type="expression" dxfId="7" priority="53">
+    <cfRule type="expression" dxfId="24" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
+    <cfRule type="expression" dxfId="23" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="61">
+    <cfRule type="expression" dxfId="22" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:H45 A80:H80 I20:I50 A35:I79 A81:I270 B271:I271 A272:I781">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F781">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0365D087-5EE0-4966-B9F1-E5AAFDF89A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6ADACC-32A1-4D07-875C-56AF30B54D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5526" uniqueCount="1738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5527" uniqueCount="1739">
   <si>
     <t>Req ID</t>
   </si>
@@ -5728,9 +5728,6 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does not support the Gender element. (&lt;11&gt; Section 2.2.4.3:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the Gender element.)</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not support the ObjectId element. (&lt;13&gt; Section 2.2.4.3:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the ObjectId element.)</t>
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does not support the SourceId element. (&lt;17&gt; Section 2.2.4.3:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the SourceId element.)</t>
@@ -6832,6 +6829,13 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does support the YomiNickname element. (Exchange 2016 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCONT_R336004.</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the ObjectId element. (&lt;13&gt; Section 2.2.4.3:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the ObjectId element.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8145,9 +8149,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A731" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C736" sqref="C736"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9175,8 +9177,8 @@
       <c r="G46" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="45" t="s">
-        <v>18</v>
+      <c r="H46" s="18" t="s">
+        <v>1631</v>
       </c>
       <c r="I46" s="47"/>
     </row>
@@ -9225,8 +9227,8 @@
       <c r="G48" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="45" t="s">
-        <v>18</v>
+      <c r="H48" s="18" t="s">
+        <v>1631</v>
       </c>
       <c r="I48" s="47"/>
     </row>
@@ -9250,8 +9252,8 @@
       <c r="G49" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="45" t="s">
-        <v>18</v>
+      <c r="H49" s="18" t="s">
+        <v>1631</v>
       </c>
       <c r="I49" s="47"/>
     </row>
@@ -9425,8 +9427,8 @@
       <c r="G56" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="45" t="s">
-        <v>18</v>
+      <c r="H56" s="18" t="s">
+        <v>1631</v>
       </c>
       <c r="I56" s="47"/>
     </row>
@@ -9450,8 +9452,8 @@
       <c r="G57" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="45" t="s">
-        <v>18</v>
+      <c r="H57" s="18" t="s">
+        <v>1631</v>
       </c>
       <c r="I57" s="47"/>
     </row>
@@ -9725,8 +9727,8 @@
       <c r="G68" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="45" t="s">
-        <v>18</v>
+      <c r="H68" s="18" t="s">
+        <v>1631</v>
       </c>
       <c r="I68" s="47"/>
     </row>
@@ -9750,10 +9752,12 @@
       <c r="G69" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="47"/>
+      <c r="H69" s="18" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I69" s="47" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
@@ -10013,7 +10017,7 @@
         <v>647</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D80" s="25"/>
       <c r="E80" s="25" t="s">
@@ -11653,7 +11657,7 @@
         <v>15</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I145" s="27"/>
     </row>
@@ -12267,7 +12271,7 @@
         <v>647</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D170" s="45"/>
       <c r="E170" s="45" t="s">
@@ -12280,7 +12284,7 @@
         <v>15</v>
       </c>
       <c r="H170" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I170" s="47"/>
     </row>
@@ -12292,7 +12296,7 @@
         <v>647</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D171" s="45"/>
       <c r="E171" s="45" t="s">
@@ -12319,7 +12323,7 @@
         <v>647</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D172" s="45"/>
       <c r="E172" s="45" t="s">
@@ -12421,7 +12425,7 @@
         <v>647</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D176" s="45"/>
       <c r="E176" s="45" t="s">
@@ -12523,7 +12527,7 @@
         <v>647</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D180" s="45"/>
       <c r="E180" s="45" t="s">
@@ -12548,7 +12552,7 @@
         <v>647</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D181" s="45"/>
       <c r="E181" s="45" t="s">
@@ -12575,7 +12579,7 @@
         <v>647</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D182" s="45"/>
       <c r="E182" s="45" t="s">
@@ -12600,7 +12604,7 @@
         <v>647</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D183" s="45"/>
       <c r="E183" s="45" t="s">
@@ -12677,7 +12681,7 @@
         <v>647</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D186" s="45"/>
       <c r="E186" s="45" t="s">
@@ -12702,7 +12706,7 @@
         <v>647</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D187" s="45"/>
       <c r="E187" s="45" t="s">
@@ -12754,7 +12758,7 @@
         <v>647</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D189" s="45"/>
       <c r="E189" s="45" t="s">
@@ -12779,7 +12783,7 @@
         <v>647</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D190" s="45"/>
       <c r="E190" s="45" t="s">
@@ -12881,7 +12885,7 @@
         <v>647</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D194" s="45"/>
       <c r="E194" s="45" t="s">
@@ -13033,7 +13037,7 @@
         <v>647</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D200" s="45"/>
       <c r="E200" s="45" t="s">
@@ -13085,7 +13089,7 @@
         <v>647</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D202" s="45"/>
       <c r="E202" s="45" t="s">
@@ -13178,7 +13182,7 @@
         <v>17</v>
       </c>
       <c r="I205" s="16" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -13239,7 +13243,7 @@
         <v>647</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D208" s="45"/>
       <c r="E208" s="45" t="s">
@@ -13316,7 +13320,7 @@
         <v>647</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D211" s="45"/>
       <c r="E211" s="45" t="s">
@@ -13341,7 +13345,7 @@
         <v>647</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D212" s="45"/>
       <c r="E212" s="45" t="s">
@@ -13354,7 +13358,7 @@
         <v>15</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I212" s="47"/>
     </row>
@@ -13382,7 +13386,7 @@
         <v>17</v>
       </c>
       <c r="I213" s="16" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -13893,7 +13897,7 @@
         <v>647</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D234" s="45"/>
       <c r="E234" s="45" t="s">
@@ -13943,7 +13947,7 @@
         <v>647</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D236" s="45"/>
       <c r="E236" s="45" t="s">
@@ -13956,7 +13960,7 @@
         <v>15</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I236" s="47"/>
     </row>
@@ -13981,10 +13985,10 @@
         <v>15</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="I237" s="16" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="238" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13995,7 +13999,7 @@
         <v>647</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D238" s="45"/>
       <c r="E238" s="45" t="s">
@@ -14008,7 +14012,7 @@
         <v>15</v>
       </c>
       <c r="H238" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I238" s="47"/>
     </row>
@@ -14033,10 +14037,10 @@
         <v>15</v>
       </c>
       <c r="H239" s="18" t="s">
+        <v>1729</v>
+      </c>
+      <c r="I239" s="16" t="s">
         <v>1730</v>
-      </c>
-      <c r="I239" s="16" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="240" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14047,7 +14051,7 @@
         <v>647</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D240" s="45"/>
       <c r="E240" s="45" t="s">
@@ -14060,7 +14064,7 @@
         <v>15</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I240" s="47"/>
     </row>
@@ -14085,10 +14089,10 @@
         <v>15</v>
       </c>
       <c r="H241" s="18" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="I241" s="16" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="242" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14099,7 +14103,7 @@
         <v>647</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D242" s="45"/>
       <c r="E242" s="45" t="s">
@@ -14112,7 +14116,7 @@
         <v>15</v>
       </c>
       <c r="H242" s="18" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I242" s="47"/>
     </row>
@@ -14124,7 +14128,7 @@
         <v>647</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D243" s="45"/>
       <c r="E243" s="45" t="s">
@@ -14137,10 +14141,10 @@
         <v>15</v>
       </c>
       <c r="H243" s="18" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I243" s="16" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -15826,7 +15830,7 @@
         <v>405</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D311" s="25"/>
       <c r="E311" s="25" t="s">
@@ -15851,7 +15855,7 @@
         <v>405</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D312" s="25"/>
       <c r="E312" s="25" t="s">
@@ -16376,7 +16380,7 @@
         <v>405</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D333" s="25"/>
       <c r="E333" s="25" t="s">
@@ -16878,7 +16882,7 @@
         <v>1049</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D353" s="45"/>
       <c r="E353" s="45" t="s">
@@ -16928,7 +16932,7 @@
         <v>1049</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D355" s="45"/>
       <c r="E355" s="45" t="s">
@@ -16941,7 +16945,7 @@
         <v>15</v>
       </c>
       <c r="H355" s="18" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I355" s="47"/>
     </row>
@@ -16953,7 +16957,7 @@
         <v>1049</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D356" s="45"/>
       <c r="E356" s="45" t="s">
@@ -16966,7 +16970,7 @@
         <v>15</v>
       </c>
       <c r="H356" s="18" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I356" s="47"/>
     </row>
@@ -16978,7 +16982,7 @@
         <v>1049</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D357" s="45"/>
       <c r="E357" s="45" t="s">
@@ -16991,7 +16995,7 @@
         <v>15</v>
       </c>
       <c r="H357" s="18" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I357" s="47"/>
     </row>
@@ -17003,7 +17007,7 @@
         <v>1049</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D358" s="45"/>
       <c r="E358" s="45" t="s">
@@ -17016,7 +17020,7 @@
         <v>15</v>
       </c>
       <c r="H358" s="18" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="I358" s="47"/>
     </row>
@@ -17028,7 +17032,7 @@
         <v>1049</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D359" s="45"/>
       <c r="E359" s="45" t="s">
@@ -17041,7 +17045,7 @@
         <v>15</v>
       </c>
       <c r="H359" s="18" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I359" s="47"/>
     </row>
@@ -17053,7 +17057,7 @@
         <v>1049</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D360" s="45"/>
       <c r="E360" s="45" t="s">
@@ -17066,7 +17070,7 @@
         <v>15</v>
       </c>
       <c r="H360" s="18" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I360" s="47"/>
     </row>
@@ -17105,7 +17109,7 @@
         <v>1060</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D362" s="45"/>
       <c r="E362" s="45" t="s">
@@ -17155,7 +17159,7 @@
         <v>1060</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D364" s="45"/>
       <c r="E364" s="45" t="s">
@@ -17168,7 +17172,7 @@
         <v>15</v>
       </c>
       <c r="H364" s="18" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I364" s="47"/>
     </row>
@@ -17180,7 +17184,7 @@
         <v>1060</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D365" s="45"/>
       <c r="E365" s="45" t="s">
@@ -17193,7 +17197,7 @@
         <v>15</v>
       </c>
       <c r="H365" s="18" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I365" s="47"/>
     </row>
@@ -18469,7 +18473,7 @@
         <v>408</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D416" s="45"/>
       <c r="E416" s="45" t="s">
@@ -18619,7 +18623,7 @@
         <v>409</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D422" s="45"/>
       <c r="E422" s="45" t="s">
@@ -18646,7 +18650,7 @@
         <v>409</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D423" s="45"/>
       <c r="E423" s="45" t="s">
@@ -19604,7 +19608,7 @@
         <v>411</v>
       </c>
       <c r="C461" s="16" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D461" s="25"/>
       <c r="E461" s="25" t="s">
@@ -19656,7 +19660,7 @@
         <v>412</v>
       </c>
       <c r="C463" s="16" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D463" s="25"/>
       <c r="E463" s="25" t="s">
@@ -23105,7 +23109,7 @@
         <v>17</v>
       </c>
       <c r="I600" s="16" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="601" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -23593,7 +23597,7 @@
         <v>1196</v>
       </c>
       <c r="C620" s="16" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D620" s="45"/>
       <c r="E620" s="45" t="s">
@@ -24838,10 +24842,12 @@
       <c r="G669" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H669" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I669" s="47"/>
+      <c r="H669" s="18" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I669" s="47" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="670" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A670" s="18" t="s">
@@ -24895,7 +24901,9 @@
       <c r="H671" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I671" s="47"/>
+      <c r="I671" s="47" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="672" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A672" s="18" t="s">
@@ -24986,7 +24994,7 @@
         <v>610</v>
       </c>
       <c r="C675" s="16" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D675" s="18" t="s">
         <v>588</v>
@@ -25040,7 +25048,7 @@
         <v>610</v>
       </c>
       <c r="C677" s="16" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D677" s="45" t="s">
         <v>1443</v>
@@ -25055,7 +25063,7 @@
         <v>15</v>
       </c>
       <c r="H677" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I677" s="47" t="s">
         <v>1434</v>
@@ -25096,7 +25104,7 @@
         <v>610</v>
       </c>
       <c r="C679" s="16" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D679" s="45" t="s">
         <v>859</v>
@@ -25152,7 +25160,7 @@
         <v>610</v>
       </c>
       <c r="C681" s="16" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D681" s="45" t="s">
         <v>860</v>
@@ -25208,7 +25216,7 @@
         <v>610</v>
       </c>
       <c r="C683" s="16" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D683" s="45" t="s">
         <v>861</v>
@@ -25264,7 +25272,7 @@
         <v>610</v>
       </c>
       <c r="C685" s="16" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D685" s="45" t="s">
         <v>862</v>
@@ -25349,7 +25357,7 @@
         <v>610</v>
       </c>
       <c r="C688" s="16" t="s">
-        <v>1584</v>
+        <v>1738</v>
       </c>
       <c r="D688" s="45" t="s">
         <v>864</v>
@@ -25424,7 +25432,7 @@
       </c>
       <c r="I690" s="47"/>
     </row>
-    <row r="691" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A691" s="45" t="s">
         <v>800</v>
       </c>
@@ -25432,7 +25440,7 @@
         <v>610</v>
       </c>
       <c r="C691" s="16" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D691" s="45" t="s">
         <v>865</v>
@@ -25446,12 +25454,10 @@
       <c r="G691" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H691" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I691" s="47" t="s">
-        <v>1434</v>
-      </c>
+      <c r="H691" s="18" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I691" s="47"/>
     </row>
     <row r="692" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A692" s="45" t="s">
@@ -25461,7 +25467,7 @@
         <v>610</v>
       </c>
       <c r="C692" s="16" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D692" s="45" t="s">
         <v>866</v>
@@ -25488,7 +25494,7 @@
         <v>610</v>
       </c>
       <c r="C693" s="16" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D693" s="45" t="s">
         <v>866</v>
@@ -25517,7 +25523,7 @@
         <v>610</v>
       </c>
       <c r="C694" s="16" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D694" s="45" t="s">
         <v>867</v>
@@ -25544,7 +25550,7 @@
         <v>610</v>
       </c>
       <c r="C695" s="16" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D695" s="45" t="s">
         <v>867</v>
@@ -25573,7 +25579,7 @@
         <v>610</v>
       </c>
       <c r="C696" s="16" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D696" s="45" t="s">
         <v>868</v>
@@ -25600,7 +25606,7 @@
         <v>610</v>
       </c>
       <c r="C697" s="16" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D697" s="45" t="s">
         <v>868</v>
@@ -25629,7 +25635,7 @@
         <v>610</v>
       </c>
       <c r="C698" s="16" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D698" s="45" t="s">
         <v>869</v>
@@ -25656,7 +25662,7 @@
         <v>610</v>
       </c>
       <c r="C699" s="16" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D699" s="45" t="s">
         <v>869</v>
@@ -25685,7 +25691,7 @@
         <v>610</v>
       </c>
       <c r="C700" s="16" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D700" s="45" t="s">
         <v>870</v>
@@ -25712,7 +25718,7 @@
         <v>610</v>
       </c>
       <c r="C701" s="16" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D701" s="45" t="s">
         <v>870</v>
@@ -25741,7 +25747,7 @@
         <v>610</v>
       </c>
       <c r="C702" s="16" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D702" s="45" t="s">
         <v>871</v>
@@ -25768,7 +25774,7 @@
         <v>8</v>
       </c>
       <c r="C703" s="16" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D703" s="45" t="s">
         <v>871</v>
@@ -25783,7 +25789,7 @@
         <v>15</v>
       </c>
       <c r="H703" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I703" s="47" t="s">
         <v>1434</v>
@@ -25791,16 +25797,16 @@
     </row>
     <row r="704" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A704" s="18" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B704" s="49">
         <v>8</v>
       </c>
       <c r="C704" s="16" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D704" s="18" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E704" s="45" t="s">
         <v>22</v>
@@ -25818,16 +25824,16 @@
     </row>
     <row r="705" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A705" s="18" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B705" s="49">
         <v>8</v>
       </c>
       <c r="C705" s="16" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D705" s="18" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E705" s="45" t="s">
         <v>22</v>
@@ -25839,7 +25845,7 @@
         <v>15</v>
       </c>
       <c r="H705" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I705" s="16" t="s">
         <v>1434</v>
@@ -25847,16 +25853,16 @@
     </row>
     <row r="706" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A706" s="18" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B706" s="49">
         <v>8</v>
       </c>
       <c r="C706" s="16" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D706" s="18" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E706" s="45" t="s">
         <v>22</v>
@@ -25874,16 +25880,16 @@
     </row>
     <row r="707" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A707" s="18" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B707" s="49">
         <v>8</v>
       </c>
       <c r="C707" s="16" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D707" s="18" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E707" s="45" t="s">
         <v>22</v>
@@ -25895,7 +25901,7 @@
         <v>15</v>
       </c>
       <c r="H707" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I707" s="16" t="s">
         <v>1434</v>
@@ -25903,16 +25909,16 @@
     </row>
     <row r="708" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A708" s="18" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B708" s="49">
         <v>8</v>
       </c>
       <c r="C708" s="16" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D708" s="18" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E708" s="45" t="s">
         <v>22</v>
@@ -25930,16 +25936,16 @@
     </row>
     <row r="709" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A709" s="18" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B709" s="49">
         <v>8</v>
       </c>
       <c r="C709" s="16" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D709" s="18" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="E709" s="45" t="s">
         <v>22</v>
@@ -25951,7 +25957,7 @@
         <v>15</v>
       </c>
       <c r="H709" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I709" s="16" t="s">
         <v>1434</v>
@@ -25959,16 +25965,16 @@
     </row>
     <row r="710" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A710" s="18" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B710" s="49">
         <v>8</v>
       </c>
       <c r="C710" s="16" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D710" s="18" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E710" s="45" t="s">
         <v>22</v>
@@ -25986,16 +25992,16 @@
     </row>
     <row r="711" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A711" s="18" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B711" s="49">
         <v>8</v>
       </c>
       <c r="C711" s="16" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D711" s="18" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E711" s="45" t="s">
         <v>22</v>
@@ -26007,7 +26013,7 @@
         <v>15</v>
       </c>
       <c r="H711" s="18" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I711" s="16" t="s">
         <v>1434</v>
@@ -26021,7 +26027,7 @@
         <v>610</v>
       </c>
       <c r="C712" s="16" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D712" s="45" t="s">
         <v>1425</v>
@@ -26075,7 +26081,7 @@
         <v>610</v>
       </c>
       <c r="C714" s="16" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D714" s="45" t="s">
         <v>1426</v>
@@ -26129,7 +26135,7 @@
         <v>610</v>
       </c>
       <c r="C716" s="16" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D716" s="45" t="s">
         <v>1427</v>
@@ -26183,7 +26189,7 @@
         <v>610</v>
       </c>
       <c r="C718" s="16" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D718" s="45" t="s">
         <v>1428</v>
@@ -26237,7 +26243,7 @@
         <v>610</v>
       </c>
       <c r="C720" s="16" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D720" s="45" t="s">
         <v>1043</v>
@@ -26291,7 +26297,7 @@
         <v>610</v>
       </c>
       <c r="C722" s="16" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D722" s="45" t="s">
         <v>1044</v>
@@ -26345,7 +26351,7 @@
         <v>610</v>
       </c>
       <c r="C724" s="16" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D724" s="45" t="s">
         <v>1431</v>
@@ -26372,7 +26378,7 @@
         <v>610</v>
       </c>
       <c r="C725" s="16" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D725" s="45" t="s">
         <v>1431</v>
@@ -26401,7 +26407,7 @@
         <v>610</v>
       </c>
       <c r="C726" s="16" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D726" s="45" t="s">
         <v>1429</v>
@@ -26428,7 +26434,7 @@
         <v>610</v>
       </c>
       <c r="C727" s="16" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D727" s="45" t="s">
         <v>1430</v>
@@ -26457,7 +26463,7 @@
         <v>610</v>
       </c>
       <c r="C728" s="16" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D728" s="45" t="s">
         <v>1422</v>
@@ -26484,7 +26490,7 @@
         <v>610</v>
       </c>
       <c r="C729" s="16" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D729" s="45" t="s">
         <v>1422</v>
@@ -26513,7 +26519,7 @@
         <v>610</v>
       </c>
       <c r="C730" s="16" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D730" s="45" t="s">
         <v>1423</v>
@@ -26540,7 +26546,7 @@
         <v>610</v>
       </c>
       <c r="C731" s="16" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D731" s="45" t="s">
         <v>1423</v>
@@ -26569,7 +26575,7 @@
         <v>610</v>
       </c>
       <c r="C732" s="16" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D732" s="45" t="s">
         <v>1424</v>
@@ -26625,7 +26631,7 @@
         <v>610</v>
       </c>
       <c r="C734" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D734" s="45" t="s">
         <v>1432</v>
@@ -26652,7 +26658,7 @@
         <v>610</v>
       </c>
       <c r="C735" s="16" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D735" s="45" t="s">
         <v>1432</v>
@@ -26667,11 +26673,9 @@
         <v>15</v>
       </c>
       <c r="H735" s="18" t="s">
-        <v>1632</v>
-      </c>
-      <c r="I735" s="47" t="s">
-        <v>1434</v>
-      </c>
+        <v>1628</v>
+      </c>
+      <c r="I735" s="47"/>
     </row>
     <row r="736" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A736" s="45" t="s">
@@ -26681,7 +26685,7 @@
         <v>610</v>
       </c>
       <c r="C736" s="16" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D736" s="45" t="s">
         <v>1433</v>
@@ -26708,10 +26712,10 @@
         <v>610</v>
       </c>
       <c r="C737" s="16" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D737" s="18" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E737" s="45" t="s">
         <v>22</v>
@@ -26737,7 +26741,7 @@
         <v>610</v>
       </c>
       <c r="C738" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D738" s="45" t="s">
         <v>942</v>
@@ -26764,7 +26768,7 @@
         <v>610</v>
       </c>
       <c r="C739" s="16" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D739" s="45" t="s">
         <v>942</v>
@@ -26793,7 +26797,7 @@
         <v>610</v>
       </c>
       <c r="C740" s="16" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D740" s="45" t="s">
         <v>944</v>
@@ -26820,7 +26824,7 @@
         <v>610</v>
       </c>
       <c r="C741" s="16" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D741" s="45" t="s">
         <v>944</v>
@@ -26849,7 +26853,7 @@
         <v>610</v>
       </c>
       <c r="C742" s="16" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D742" s="45" t="s">
         <v>946</v>
@@ -26876,7 +26880,7 @@
         <v>610</v>
       </c>
       <c r="C743" s="16" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D743" s="45" t="s">
         <v>946</v>
@@ -26905,7 +26909,7 @@
         <v>610</v>
       </c>
       <c r="C744" s="16" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D744" s="45" t="s">
         <v>948</v>
@@ -26932,7 +26936,7 @@
         <v>610</v>
       </c>
       <c r="C745" s="16" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D745" s="45" t="s">
         <v>948</v>
@@ -26961,7 +26965,7 @@
         <v>610</v>
       </c>
       <c r="C746" s="16" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D746" s="45" t="s">
         <v>950</v>
@@ -26982,13 +26986,13 @@
     </row>
     <row r="747" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A747" s="18" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B747" s="46" t="s">
         <v>610</v>
       </c>
       <c r="C747" s="16" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D747" s="45" t="s">
         <v>950</v>
@@ -27017,7 +27021,7 @@
         <v>610</v>
       </c>
       <c r="C748" s="16" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D748" s="45" t="s">
         <v>960</v>
@@ -27044,7 +27048,7 @@
         <v>610</v>
       </c>
       <c r="C749" s="16" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D749" s="45" t="s">
         <v>960</v>
@@ -27059,7 +27063,7 @@
         <v>15</v>
       </c>
       <c r="H749" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I749" s="47" t="s">
         <v>1434</v>
@@ -27073,7 +27077,7 @@
         <v>610</v>
       </c>
       <c r="C750" s="16" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D750" s="45" t="s">
         <v>962</v>
@@ -27094,13 +27098,13 @@
     </row>
     <row r="751" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A751" s="18" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B751" s="46" t="s">
         <v>610</v>
       </c>
       <c r="C751" s="16" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D751" s="45" t="s">
         <v>962</v>
@@ -27115,7 +27119,7 @@
         <v>15</v>
       </c>
       <c r="H751" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I751" s="16" t="s">
         <v>1434</v>
@@ -27123,16 +27127,16 @@
     </row>
     <row r="752" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A752" s="18" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B752" s="49">
         <v>8</v>
       </c>
       <c r="C752" s="16" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D752" s="18" t="s">
         <v>1622</v>
-      </c>
-      <c r="D752" s="18" t="s">
-        <v>1623</v>
       </c>
       <c r="E752" s="45" t="s">
         <v>22</v>
@@ -27150,16 +27154,16 @@
     </row>
     <row r="753" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A753" s="18" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B753" s="49">
         <v>8</v>
       </c>
       <c r="C753" s="16" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D753" s="18" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E753" s="45" t="s">
         <v>22</v>
@@ -27185,7 +27189,7 @@
         <v>610</v>
       </c>
       <c r="C754" s="16" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D754" t="s">
         <v>1451</v>
@@ -27206,16 +27210,16 @@
     </row>
     <row r="755" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A755" s="18" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B755" s="46" t="s">
         <v>610</v>
       </c>
       <c r="C755" s="16" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D755" s="51" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E755" s="45" t="s">
         <v>22</v>
@@ -27238,10 +27242,10 @@
         <v>1391</v>
       </c>
       <c r="B756" s="20" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C756" s="16" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D756" s="45"/>
       <c r="E756" s="45" t="s">
@@ -27263,7 +27267,7 @@
         <v>1392</v>
       </c>
       <c r="B757" s="20" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C757" s="47" t="s">
         <v>1390</v>
@@ -27288,10 +27292,10 @@
         <v>1393</v>
       </c>
       <c r="B758" s="20" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C758" s="16" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D758" s="45"/>
       <c r="E758" s="45" t="s">
@@ -27313,10 +27317,10 @@
         <v>1394</v>
       </c>
       <c r="B759" s="20" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C759" s="16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D759" s="45"/>
       <c r="E759" s="45" t="s">
@@ -27338,10 +27342,10 @@
         <v>1395</v>
       </c>
       <c r="B760" s="20" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C760" s="16" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D760" s="45"/>
       <c r="E760" s="45" t="s">
@@ -27363,10 +27367,10 @@
         <v>1396</v>
       </c>
       <c r="B761" s="20" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C761" s="16" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D761" s="45"/>
       <c r="E761" s="45" t="s">
@@ -27388,10 +27392,10 @@
         <v>1397</v>
       </c>
       <c r="B762" s="20" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C762" s="16" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D762" s="45"/>
       <c r="E762" s="45" t="s">
@@ -27413,10 +27417,10 @@
         <v>1398</v>
       </c>
       <c r="B763" s="20" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C763" s="16" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D763" s="45"/>
       <c r="E763" s="45" t="s">
@@ -27438,10 +27442,10 @@
         <v>1399</v>
       </c>
       <c r="B764" s="20" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C764" s="16" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D764" s="45"/>
       <c r="E764" s="45" t="s">
@@ -27463,10 +27467,10 @@
         <v>1400</v>
       </c>
       <c r="B765" s="20" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C765" s="16" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D765" s="45"/>
       <c r="E765" s="45" t="s">
@@ -27488,10 +27492,10 @@
         <v>1401</v>
       </c>
       <c r="B766" s="20" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C766" s="16" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D766" s="45"/>
       <c r="E766" s="45" t="s">
@@ -27541,7 +27545,7 @@
         <v>1382</v>
       </c>
       <c r="C768" s="16" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D768" s="25"/>
       <c r="E768" s="25" t="s">
@@ -27566,7 +27570,7 @@
         <v>1376</v>
       </c>
       <c r="C769" s="16" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D769" s="45"/>
       <c r="E769" s="45" t="s">
@@ -27616,7 +27620,7 @@
         <v>1384</v>
       </c>
       <c r="C771" s="16" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D771" s="45"/>
       <c r="E771" s="45" t="s">

--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6ADACC-32A1-4D07-875C-56AF30B54D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342097CB-1452-48FE-8402-1ADEC9FD6096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16200" windowHeight="9360" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5527" uniqueCount="1739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5527" uniqueCount="1741">
   <si>
     <t>Req ID</t>
   </si>
@@ -5553,9 +5553,6 @@
 </t>
   </si>
   <si>
-    <t>[In GetUserPhotoResponseMessageType] This type [GetUserPhotoResponseMessageType] extends the ResponseMessageType complex type, as specified in [MS-OXWSCDATA] section 2.2.4.67.</t>
-  </si>
-  <si>
     <t xml:space="preserve">[In GetUserPhotoResponseMessageType] The following is the GetUserPhotoResponseMessageType complex type specification. 
    &lt;xs:complexType name="GetUserPhotoResponseMessageType"&gt;
      &lt;xs:complexContent&gt;
@@ -5580,9 +5577,6 @@
     <t>MS-OXWSCONT_R302156</t>
   </si>
   <si>
-    <t>[In GetUserPhotoResponseMessageType] The type of the element ContentType is xs:string ([XMLSCHEMA2])</t>
-  </si>
-  <si>
     <t>[In GetUserPhotoResponseMessageType] ContentType element:Specifies the content (MIME) type of the photo.&lt;65&gt;</t>
   </si>
   <si>
@@ -5590,9 +5584,6 @@
   </si>
   <si>
     <t>[In Complex Types]  SetUserPhotoResponseMessageType: This complex type extends the ResponseMessageType complex type, as specified by [MS-OXWSCDATA] section 2.2.4.67.</t>
-  </si>
-  <si>
-    <t>[In SetUserPhotoResponseMessageType] This type extends the ResponseMessageType complex type, as specified by [MS-OXWSCDATA] section 2.2.4.67.</t>
   </si>
   <si>
     <t xml:space="preserve">[In SetUserPhotoResponseMessageType] The following is the SetUserPhotoResponseMessageType complex type specification. 
@@ -5983,18 +5974,6 @@
   </si>
   <si>
     <t>[In Appendix C: Product Behavior] Implementation does support the ContactUrlDictionaryType complex type. (Exchange 2016 and above follow this behavior.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In t:ContactUrlDictionaryEntryType Complex Type]  The type [ContactUrlDictionaryEntryType] is defined as follow:
- &lt;xs:complexType name="ContactUrlDictionaryEntryType"&gt;
-   &lt;xs:sequence&gt;
-     &lt;xs:element name="Type" type="t:ContactUrlKeyType" minOccurs="1"/&gt;
-     &lt;xs:element name="Name" type="xs:string" minOccurs="0"/&gt;
-     &lt;xs:element name="Address" type="xs:string" minOccurs="0"/&gt;
-   &lt;/xs:sequence&gt;
- &lt;/xs:complexType&gt; 
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6294,164 +6273,366 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the Urls element. (Exchange 2016 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactItemType Complex Type] The type of element Urls is t:ContactUrlDictionaryType (section 3.1.4.1.1.9).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R120008:i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactUrlDictionaryType Complex Type] The type [ContactUrlDictionaryType] is defined as follow:
+&lt;xs:complexType name="ContactUrlDictionaryType"&gt;
+   &lt;xs:sequence&gt;
+     &lt;xs:element name="Url" type="t:ContactUrlDictionaryEntryType" maxOccurs="unbounded"/&gt;
+   &lt;/xs:sequence&gt;
+ &lt;/xs:complexType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:CompleteNameType Complex Type] The type of the element of YomiLastName is xs:string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactUrlDictionaryEntryType Complex Type] The type of the element Type is t:ContactUrlKeyType (section 3.1.4.1.2.2).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactUrlDictionaryEntryType Complex Type] Type element: specifies the Url type.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactUrlDictionaryEntryType Complex Type] The type of the element Name is xs:string ([XMLSCHEMA2]).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactUrlDictionaryEntryType Complex Type] Name element: Specifies what the url is used for.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactUrlDictionaryEntryType Complex Type]  The type of the element Address xs:string.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactUrlDictionaryEntryType Complex Type] Address element: Specifies the Url.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactUrlDictionaryType Complex Type] The type of the element Url is t:ContactUrlDictionaryEntryType (section 3.1.4.1.1.8).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactUrlDictionaryType Complex Type] Url element: Specifies a Url associated with a contact.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support element HasPicture. (Exchange 2010 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[In SetUserPhoto] The following is the WSDL port type specification of the SetUserPhoto WSDL operation.
+   &lt;wsdl:operation name="SetUserPhoto"&gt;
+     &lt;wsdl:input message="tns:SetUserPhotoSoapIn"/&gt;
+     &lt;wsdl:output message="tns:SetUserPhotoSoapOut"/&gt;
+   &lt;/wsdl:operation&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [In t:AbchEmailAddressTypeType Simple Type] The type [AbchEmailAddressTypeType] is defined as follow:
+&lt;xs:simpleType name="AbchEmailAddressTypeType"&gt;
+   &lt;xs:restriction base="xs:string"&gt;
+     &lt;xs:enumeration value="Personal"/&gt;
+     &lt;xs:enumeration value="Business"/&gt;
+     &lt;xs:enumeration value="Other"/&gt;
+     &lt;xs:enumeration value="Passport"/&gt;
+   &lt;/xs:restriction&gt;
+ &lt;/xs:simpleType&gt; 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the ContactUrlKeyType simple type. (&lt;55&gt; Section 3.1.4.1.2.2:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the ContactUrlKeyType simple type.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactItemType Complex Type] The type of element SourceId is xs:string.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactItemType Complex Type] Gender element: Specifies the gender of the contact.&lt;11&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactItemType Complex Type] The type of element Gender is xs:string.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the SourceId element. (Exchange 2016 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the Cid element. (Exchange 2016 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactItemType Complex Type] The type of element Cid is xs:long.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactItemType Complex Type] The type of element SkypeId is xs:string.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the SkypeId element. (Exchange 2016 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does introduce these elements [PhoneticFullName, PhoneticFirstName, PhoneticLastName, Alias, Notes, Photo, UserSMIMECertificate, MSExchangeCertificate, DirectoryId, ManagerMailbox, and DirectReports]. (&lt;4&gt; These elements were introduced in Exchange 2010 SP2 (and above).)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the DisplayNamePrefix  element. (Exchange 2016 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactItemType Complex Type] The type of element DisplayNamePrefix is xs:string.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactItemType Complex Type] The type of element YomiSurname is xs:string.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In t:ContactItemType Complex Type] The type of element YomiGivenName is xs:string.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the YomiGivenName  element. (Exchange 2016 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the YomiSurname element. (Exchange 2016 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-testable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCONT_R1275118.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R334068:i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCONT_R1275116.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCONT_R1275120.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R334070:i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R334072:i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the YomiNickname element. (Exchange 2016 and above follow this behavior.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCONT_R336004.</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the ObjectId element. (&lt;13&gt; Section 2.2.4.3:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the ObjectId element.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In GetUserPhotoResponseMessageType] This type [GetUserPhotoResponseMessageType] extends the ResponseMessageType complex type, as specified in [MS-OXWSCDATA] section 2.2.4.67.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In SetUserPhotoResponseMessageType] This type extends the ResponseMessageType complex type, as specified by [MS-OXWSCDATA] section 2.2.4.67.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Informative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In GetUserPhotoResponseMessageType] The type of the element ContentType is xs:string ([XMLSCHEMA2])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[In t:ContactItemType Complex Type] The type [ContactItemType] is defined as follow:
-  &lt;xs:complexType name="ContactItemType"&gt;
-   &lt;xs:complexContent&gt;
-     &lt;xs:extension
-       base="t:ItemType"
-     &gt;
-       &lt;xs:sequence&gt;
-         &lt;xs:element name="FileAs"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="FileAsMapping"
-           type="t:FileAsMappingType" 
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="DisplayName"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="GivenName"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="Initials"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="MiddleName"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="Nickname"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="CompleteName"
-           type="t:CompleteNameType"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="CompanyName"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="EmailAddresses"
-           type="t:EmailAddressDictionaryType"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="AbchEmailAddresses"
-           type="t:AbchEmailAddressDictionaryType"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="PhysicalAddresses"
-           type="t:PhysicalAddressDictionaryType"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="PhoneNumbers"
-           type="t:PhoneNumberDictionaryType"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="AssistantName"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="Birthday"
-           type="xs:dateTime"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="BusinessHomePage"
-           type="xs:anyURI"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="Children"
-           type="t:ArrayOfStringsType"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="Companies"
-           type="t:ArrayOfStringsType"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="ContactSource"
-           type="t:ContactSourceType"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="Department"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="Generation"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="ImAddresses"
-           type="t:ImAddressDictionaryType"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="JobTitle"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="Manager"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="Mileage"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="OfficeLocation"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="PostalAddressIndex"
-           type="t:PhysicalAddressIndexType"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="Profession"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="SpouseName"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="Surname"
-           type="xs:string"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="WeddingAnniversary"
-           type="xs:dateTime"
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="HasPicture"
-           type="xs:boolean" 
-           minOccurs="0"
-          /&gt;
-         &lt;xs:element name="PhoneticFullName" 
-           type="xs:string"
-           minOccurs="0" 
-         /&gt;
-         &lt;xs:element name="PhoneticFirstName" 
-           type="xs:string" 
-           minOccurs="0" 
-         /&gt;
-         &lt;xs:element name="PhoneticLastName" 
-           type="xs:string" 
-           minOccurs="0" 
-         /&gt;
-         &lt;xs:element name="Alias" 
-           type="xs:string" 
-           minOccurs="0" 
-         /&gt;
-         &lt;xs:element name="Notes" 
-           type="xs:string" 
-           minOccurs="0" 
-         /&gt;
-         &lt;xs:element name="Photo" 
-           type="xs:base64Binary" 
-           minOccurs="0" 
+  	&lt;xs:complexType name="ContactItemType"&gt;
+	  &lt;xs:complexContent&gt;
+	    &lt;xs:extension
+	      base="t:ItemType"
+	    &gt;
+	      &lt;xs:sequence&gt;
+	        &lt;xs:element name="FileAs"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="FileAsMapping"
+	          type="t:FileAsMappingType" 
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="DisplayName"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="GivenName"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="Initials"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="MiddleName"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="Nickname"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="CompleteName"
+	          type="t:CompleteNameType"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="CompanyName"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="EmailAddresses"
+	          type="t:EmailAddressDictionaryType"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="PhysicalAddresses"
+	          type="t:PhysicalAddressDictionaryType"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="PhoneNumbers"
+	          type="t:PhoneNumberDictionaryType"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="AssistantName"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="Birthday"
+	          type="xs:dateTime"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="BusinessHomePage"
+	          type="xs:anyURI"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="Children"
+	          type="t:ArrayOfStringsType"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="Companies"
+	          type="t:ArrayOfStringsType"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="ContactSource"
+	          type="t:ContactSourceType"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="Department"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="Generation"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="ImAddresses"
+	          type="t:ImAddressDictionaryType"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="JobTitle"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="Manager"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="Mileage"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="OfficeLocation"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="PostalAddressIndex"
+	          type="t:PhysicalAddressIndexType"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="Profession"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="SpouseName"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="Surname"
+	          type="xs:string"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="WeddingAnniversary"
+	          type="xs:dateTime"
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="HasPicture"
+	          type="xs:boolean" 
+	          minOccurs="0"
+	         /&gt;
+	        &lt;xs:element name="PhoneticFullName" 
+	          type="xs:string"
+	          minOccurs="0" 
+	        /&gt;
+	        &lt;xs:element name="PhoneticFirstName" 
+	          type="xs:string" 
+	          minOccurs="0" 
+	        /&gt;
+	        &lt;xs:element name="PhoneticLastName" 
+	          type="xs:string" 
+	          minOccurs="0" 
+	        /&gt;
+	        &lt;xs:element name="Alias" 
+	          type="xs:string" 
+	          minOccurs="0" 
+	        /&gt;
+	        &lt;xs:element name="Notes" 
+	          type="xs:string" 
+	          minOccurs="0" 
+	        /&gt;
+	        &lt;xs:element name="Photo" 
+	          type="xs:base64Binary" 
+	          minOccurs="0" 
         /&gt;
         &lt;xs:element name="UserSMIMECertificate" 
           type="t:ArrayOfBinaryType" 
@@ -6512,10 +6693,6 @@
         &lt;xs:element name="PassportId" 
           type="xs:long" 
           minOccurs="0"
-        /&gt;
-        &lt;xs:element name="PersonId" 
-          type="t:ItemIdType" 
-          minOccurs="0"
         /&gt; 
         &lt;xs:element name="IsPrivate" 
           type="xs:boolean" 
@@ -6525,7 +6702,7 @@
           type="xs:string" 
           minOccurs="0"
         /&gt;
-&lt;xs:element name="TrustLevel" 
+        &lt;xs:element name="TrustLevel" 
           type="xs:int" 
           minOccurs="0"
         /&gt;
@@ -6536,7 +6713,11 @@
         &lt;xs:element name="Urls" 
           type="t:ContactUrlDictionaryType" 
           minOccurs="0"
-        /&gt;
+	        /&gt;
+	        &lt;xs:element name="AbchEmailAddresses"
+	          type="t:AbchEmailAddressDictionaryType"
+	          minOccurs="0"
+         /&gt;
         &lt;xs:element name="Cid" 
           type="xs:long" 
           minOccurs="0"
@@ -6592,7 +6773,7 @@
 	        &lt;xs:element name="Mris"
 	          type="t:ArrayOfStringsType" 
 	          minOccurs="0"
-        /&gt;
+	        /&gt;
 	        &lt;xs:element name="Wlid" 
 	          type="xs:string" 
 	          minOccurs="0"
@@ -6605,8 +6786,7 @@
 	           type="xs:boolean"
 	           minOccurs="0"
 	        /&gt;
-        &lt;
-	xs:element name="ShellContactType" 
+	        &lt;xs:element name="ShellContactType" 
 	           type="xs:string" 
 	           minOccurs="0"
 	        /&gt;
@@ -6645,7 +6825,11 @@
 	        &lt;xs:element name="PersonalNotes"  
 	           type="xs:string"
 	           minOccurs="0"
-	        /&gt; 
+	        /&gt;
+	        &lt;xs:element name="PersonId"
+	          type="t:ItemIdType" 
+	          minOccurs="0"
+	        /&gt;  
 	      &lt;/xs:sequence&gt;
 	    &lt;/xs:entension&gt;
 	  &lt;/xs:complexContent&gt;
@@ -6653,189 +6837,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the Urls element. (Exchange 2016 and above follow this behavior.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactItemType Complex Type] The type of element Urls is t:ContactUrlDictionaryType (section 3.1.4.1.1.9).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-OXWSCONT_R120008:i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactUrlDictionaryType Complex Type] The type [ContactUrlDictionaryType] is defined as follow:
-&lt;xs:complexType name="ContactUrlDictionaryType"&gt;
+    <t xml:space="preserve">[In t:ContactUrlDictionaryEntryType Complex Type]  The type [ContactUrlDictionaryEntryType] is defined as follow:
+ &lt;xs:complexType name="ContactUrlDictionaryEntryType"&gt;
    &lt;xs:sequence&gt;
-     &lt;xs:element name="Url" type="t:ContactUrlDictionaryEntryType" maxOccurs="unbounded"/&gt;
+     &lt;xs:element name="Type" type="t:ContactUrlKeyType" minOccurs="1"/&gt;
+     &lt;xs:element name="Address" type="xs:string" minOccurs="0"/&gt;
+     &lt;xs:element name="Name" type="xs:string" minOccurs="0"/&gt;
    &lt;/xs:sequence&gt;
- &lt;/xs:complexType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:CompleteNameType Complex Type] The type of the element of YomiLastName is xs:string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactUrlDictionaryEntryType Complex Type] The type of the element Type is t:ContactUrlKeyType (section 3.1.4.1.2.2).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactUrlDictionaryEntryType Complex Type] Type element: specifies the Url type.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactUrlDictionaryEntryType Complex Type] The type of the element Name is xs:string ([XMLSCHEMA2]).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactUrlDictionaryEntryType Complex Type] Name element: Specifies what the url is used for.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactUrlDictionaryEntryType Complex Type]  The type of the element Address xs:string.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactUrlDictionaryEntryType Complex Type] Address element: Specifies the Url.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactUrlDictionaryType Complex Type] The type of the element Url is t:ContactUrlDictionaryEntryType (section 3.1.4.1.1.8).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactUrlDictionaryType Complex Type] Url element: Specifies a Url associated with a contact.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support element HasPicture. (Exchange 2010 and above follow this behavior.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[In SetUserPhoto] The following is the WSDL port type specification of the SetUserPhoto WSDL operation.
-   &lt;wsdl:operation name="SetUserPhoto"&gt;
-     &lt;wsdl:input message="tns:SetUserPhotoSoapIn"/&gt;
-     &lt;wsdl:output message="tns:SetUserPhotoSoapOut"/&gt;
-   &lt;/wsdl:operation&gt;
+ &lt;/xs:complexType&gt; 
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [In t:AbchEmailAddressTypeType Simple Type] The type [AbchEmailAddressTypeType] is defined as follow:
-&lt;xs:simpleType name="AbchEmailAddressTypeType"&gt;
-   &lt;xs:restriction base="xs:string"&gt;
-     &lt;xs:enumeration value="Personal"/&gt;
-     &lt;xs:enumeration value="Business"/&gt;
-     &lt;xs:enumeration value="Other"/&gt;
-     &lt;xs:enumeration value="Passport"/&gt;
-   &lt;/xs:restriction&gt;
- &lt;/xs:simpleType&gt; 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not support the ContactUrlKeyType simple type. (&lt;55&gt; Section 3.1.4.1.2.2:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the ContactUrlKeyType simple type.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactItemType Complex Type] The type of element SourceId is xs:string.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactItemType Complex Type] Gender element: Specifies the gender of the contact.&lt;11&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactItemType Complex Type] The type of element Gender is xs:string.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the SourceId element. (Exchange 2016 and above follow this behavior.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the Cid element. (Exchange 2016 and above follow this behavior.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactItemType Complex Type] The type of element Cid is xs:long.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactItemType Complex Type] The type of element SkypeId is xs:string.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the SkypeId element. (Exchange 2016 and above follow this behavior.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does introduce these elements [PhoneticFullName, PhoneticFirstName, PhoneticLastName, Alias, Notes, Photo, UserSMIMECertificate, MSExchangeCertificate, DirectoryId, ManagerMailbox, and DirectReports]. (&lt;4&gt; These elements were introduced in Exchange 2010 SP2 (and above).)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the DisplayNamePrefix  element. (Exchange 2016 and above follow this behavior.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactItemType Complex Type] The type of element DisplayNamePrefix is xs:string.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactItemType Complex Type] The type of element YomiSurname is xs:string.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In t:ContactItemType Complex Type] The type of element YomiGivenName is xs:string.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the YomiGivenName  element. (Exchange 2016 and above follow this behavior.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the YomiSurname element. (Exchange 2016 and above follow this behavior.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-testable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R1275118.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-OXWSCONT_R334068:i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R1275116.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R1275120.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-OXWSCONT_R334070:i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-OXWSCONT_R334072:i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does support the YomiNickname element. (Exchange 2016 and above follow this behavior.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verified by derived requirement: MS-OXWSCONT_R336004.</t>
-  </si>
-  <si>
-    <t>[In Appendix C: Product Behavior] Implementation does not support the ObjectId element. (&lt;13&gt; Section 2.2.4.3:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the ObjectId element.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7773,13 +7783,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I780" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="1">
-  <autoFilter ref="A19:I780" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Normative"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A19:I780" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -8153,10 +8157,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
+    <col min="3" max="3" width="85" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
@@ -8198,14 +8202,14 @@
         <v>25</v>
       </c>
       <c r="C3" s="35">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="34" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="36">
-        <v>43374</v>
+        <v>43732</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="4"/>
@@ -8505,7 +8509,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:13" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>42</v>
       </c>
@@ -8530,7 +8534,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:13" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
         <v>43</v>
       </c>
@@ -8555,7 +8559,7 @@
       </c>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:13" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>44</v>
       </c>
@@ -8580,7 +8584,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:13" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>45</v>
       </c>
@@ -8605,7 +8609,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:13" s="19" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>46</v>
       </c>
@@ -8707,7 +8711,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
         <v>48</v>
       </c>
@@ -8732,7 +8736,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:13" s="19" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
         <v>49</v>
       </c>
@@ -8757,7 +8761,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:13" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
         <v>50</v>
       </c>
@@ -8782,7 +8786,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:13" s="19" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
         <v>51</v>
       </c>
@@ -8807,7 +8811,7 @@
       </c>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:13" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>52</v>
       </c>
@@ -8832,7 +8836,7 @@
       </c>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>53</v>
       </c>
@@ -8857,7 +8861,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
         <v>54</v>
       </c>
@@ -8882,7 +8886,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>55</v>
       </c>
@@ -8907,7 +8911,7 @@
       </c>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>56</v>
       </c>
@@ -8932,7 +8936,7 @@
       </c>
       <c r="I36" s="27"/>
     </row>
-    <row r="37" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>57</v>
       </c>
@@ -8957,7 +8961,7 @@
       </c>
       <c r="I37" s="27"/>
     </row>
-    <row r="38" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>58</v>
       </c>
@@ -8982,7 +8986,7 @@
       </c>
       <c r="I38" s="27"/>
     </row>
-    <row r="39" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>59</v>
       </c>
@@ -9007,7 +9011,7 @@
       </c>
       <c r="I39" s="27"/>
     </row>
-    <row r="40" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>60</v>
       </c>
@@ -9032,7 +9036,7 @@
       </c>
       <c r="I40" s="27"/>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
         <v>636</v>
       </c>
@@ -9057,7 +9061,7 @@
       </c>
       <c r="I41" s="47"/>
     </row>
-    <row r="42" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
         <v>637</v>
       </c>
@@ -9082,7 +9086,7 @@
       </c>
       <c r="I42" s="47"/>
     </row>
-    <row r="43" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>61</v>
       </c>
@@ -9132,7 +9136,7 @@
       </c>
       <c r="I44" s="47"/>
     </row>
-    <row r="45" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>615</v>
       </c>
@@ -9178,11 +9182,11 @@
         <v>15</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I46" s="47"/>
     </row>
-    <row r="47" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>617</v>
       </c>
@@ -9228,7 +9232,7 @@
         <v>15</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I48" s="47"/>
     </row>
@@ -9253,7 +9257,7 @@
         <v>15</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I49" s="47"/>
     </row>
@@ -9428,7 +9432,7 @@
         <v>15</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I56" s="47"/>
     </row>
@@ -9453,7 +9457,7 @@
         <v>15</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I57" s="47"/>
     </row>
@@ -9728,7 +9732,7 @@
         <v>15</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I68" s="47"/>
     </row>
@@ -9753,10 +9757,10 @@
         <v>15</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="I69" s="47" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -9784,7 +9788,7 @@
       </c>
       <c r="I70" s="27"/>
     </row>
-    <row r="71" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="45" t="s">
         <v>640</v>
       </c>
@@ -9909,7 +9913,7 @@
       </c>
       <c r="I75" s="27"/>
     </row>
-    <row r="76" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
         <v>66</v>
       </c>
@@ -9934,7 +9938,7 @@
       </c>
       <c r="I76" s="27"/>
     </row>
-    <row r="77" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>67</v>
       </c>
@@ -9959,7 +9963,7 @@
       </c>
       <c r="I77" s="27"/>
     </row>
-    <row r="78" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="45" t="s">
         <v>645</v>
       </c>
@@ -9984,7 +9988,7 @@
       </c>
       <c r="I78" s="47"/>
     </row>
-    <row r="79" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="45" t="s">
         <v>646</v>
       </c>
@@ -10017,7 +10021,7 @@
         <v>647</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>1696</v>
+        <v>1739</v>
       </c>
       <c r="D80" s="25"/>
       <c r="E80" s="25" t="s">
@@ -11657,7 +11661,7 @@
         <v>15</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="I145" s="27"/>
     </row>
@@ -11721,7 +11725,7 @@
         <v>647</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="25" t="s">
@@ -11746,7 +11750,7 @@
         <v>647</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="D149" s="25"/>
       <c r="E149" s="25" t="s">
@@ -11771,7 +11775,7 @@
         <v>647</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="D150" s="25"/>
       <c r="E150" s="25" t="s">
@@ -11796,7 +11800,7 @@
         <v>647</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="D151" s="25"/>
       <c r="E151" s="25" t="s">
@@ -11821,7 +11825,7 @@
         <v>647</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="D152" s="25"/>
       <c r="E152" s="25" t="s">
@@ -11846,7 +11850,7 @@
         <v>647</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="D153" s="25"/>
       <c r="E153" s="25" t="s">
@@ -11871,7 +11875,7 @@
         <v>647</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="D154" s="25"/>
       <c r="E154" s="25" t="s">
@@ -11896,7 +11900,7 @@
         <v>647</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="D155" s="25"/>
       <c r="E155" s="25" t="s">
@@ -11921,7 +11925,7 @@
         <v>647</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="D156" s="25"/>
       <c r="E156" s="25" t="s">
@@ -11946,7 +11950,7 @@
         <v>647</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="D157" s="25"/>
       <c r="E157" s="25" t="s">
@@ -11971,7 +11975,7 @@
         <v>647</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="D158" s="25"/>
       <c r="E158" s="25" t="s">
@@ -11996,7 +12000,7 @@
         <v>647</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="D159" s="25"/>
       <c r="E159" s="25" t="s">
@@ -12021,7 +12025,7 @@
         <v>647</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="D160" s="25"/>
       <c r="E160" s="25" t="s">
@@ -12046,7 +12050,7 @@
         <v>647</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="D161" s="25"/>
       <c r="E161" s="25" t="s">
@@ -12071,7 +12075,7 @@
         <v>647</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="D162" s="25"/>
       <c r="E162" s="25" t="s">
@@ -12096,7 +12100,7 @@
         <v>647</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="D163" s="25"/>
       <c r="E163" s="25" t="s">
@@ -12121,7 +12125,7 @@
         <v>647</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="D164" s="25"/>
       <c r="E164" s="25" t="s">
@@ -12146,7 +12150,7 @@
         <v>647</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="D165" s="25"/>
       <c r="E165" s="25" t="s">
@@ -12171,7 +12175,7 @@
         <v>647</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="D166" s="25"/>
       <c r="E166" s="25" t="s">
@@ -12196,7 +12200,7 @@
         <v>647</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="D167" s="25"/>
       <c r="E167" s="25" t="s">
@@ -12221,7 +12225,7 @@
         <v>647</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="D168" s="25"/>
       <c r="E168" s="25" t="s">
@@ -12246,7 +12250,7 @@
         <v>647</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="D169" s="25"/>
       <c r="E169" s="25" t="s">
@@ -12271,7 +12275,7 @@
         <v>647</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="D170" s="45"/>
       <c r="E170" s="45" t="s">
@@ -12284,7 +12288,7 @@
         <v>15</v>
       </c>
       <c r="H170" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I170" s="47"/>
     </row>
@@ -12296,7 +12300,7 @@
         <v>647</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="D171" s="45"/>
       <c r="E171" s="45" t="s">
@@ -12323,7 +12327,7 @@
         <v>647</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="D172" s="45"/>
       <c r="E172" s="45" t="s">
@@ -12425,7 +12429,7 @@
         <v>647</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="D176" s="45"/>
       <c r="E176" s="45" t="s">
@@ -12527,7 +12531,7 @@
         <v>647</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="D180" s="45"/>
       <c r="E180" s="45" t="s">
@@ -12552,7 +12556,7 @@
         <v>647</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="D181" s="45"/>
       <c r="E181" s="45" t="s">
@@ -12579,7 +12583,7 @@
         <v>647</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="D182" s="45"/>
       <c r="E182" s="45" t="s">
@@ -12604,7 +12608,7 @@
         <v>647</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="D183" s="45"/>
       <c r="E183" s="45" t="s">
@@ -12681,7 +12685,7 @@
         <v>647</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="D186" s="45"/>
       <c r="E186" s="45" t="s">
@@ -12706,7 +12710,7 @@
         <v>647</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="D187" s="45"/>
       <c r="E187" s="45" t="s">
@@ -12758,7 +12762,7 @@
         <v>647</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="D189" s="45"/>
       <c r="E189" s="45" t="s">
@@ -12783,7 +12787,7 @@
         <v>647</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="D190" s="45"/>
       <c r="E190" s="45" t="s">
@@ -12885,7 +12889,7 @@
         <v>647</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="D194" s="45"/>
       <c r="E194" s="45" t="s">
@@ -13037,7 +13041,7 @@
         <v>647</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
       <c r="D200" s="45"/>
       <c r="E200" s="45" t="s">
@@ -13089,7 +13093,7 @@
         <v>647</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="D202" s="45"/>
       <c r="E202" s="45" t="s">
@@ -13182,7 +13186,7 @@
         <v>17</v>
       </c>
       <c r="I205" s="16" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -13243,7 +13247,7 @@
         <v>647</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="D208" s="45"/>
       <c r="E208" s="45" t="s">
@@ -13320,7 +13324,7 @@
         <v>647</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="D211" s="45"/>
       <c r="E211" s="45" t="s">
@@ -13345,7 +13349,7 @@
         <v>647</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="D212" s="45"/>
       <c r="E212" s="45" t="s">
@@ -13358,7 +13362,7 @@
         <v>15</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I212" s="47"/>
     </row>
@@ -13386,7 +13390,7 @@
         <v>17</v>
       </c>
       <c r="I213" s="16" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -13897,7 +13901,7 @@
         <v>647</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="D234" s="45"/>
       <c r="E234" s="45" t="s">
@@ -13947,7 +13951,7 @@
         <v>647</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
       <c r="D236" s="45"/>
       <c r="E236" s="45" t="s">
@@ -13960,7 +13964,7 @@
         <v>15</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I236" s="47"/>
     </row>
@@ -13985,10 +13989,10 @@
         <v>15</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="I237" s="16" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="238" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13999,7 +14003,7 @@
         <v>647</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="D238" s="45"/>
       <c r="E238" s="45" t="s">
@@ -14012,7 +14016,7 @@
         <v>15</v>
       </c>
       <c r="H238" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I238" s="47"/>
     </row>
@@ -14037,10 +14041,10 @@
         <v>15</v>
       </c>
       <c r="H239" s="18" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="I239" s="16" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="240" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14051,7 +14055,7 @@
         <v>647</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
       <c r="D240" s="45"/>
       <c r="E240" s="45" t="s">
@@ -14064,7 +14068,7 @@
         <v>15</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I240" s="47"/>
     </row>
@@ -14089,10 +14093,10 @@
         <v>15</v>
       </c>
       <c r="H241" s="18" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
       <c r="I241" s="16" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="242" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -14103,7 +14107,7 @@
         <v>647</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="D242" s="45"/>
       <c r="E242" s="45" t="s">
@@ -14116,7 +14120,7 @@
         <v>15</v>
       </c>
       <c r="H242" s="18" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="I242" s="47"/>
     </row>
@@ -14128,7 +14132,7 @@
         <v>647</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="D243" s="45"/>
       <c r="E243" s="45" t="s">
@@ -14141,13 +14145,13 @@
         <v>15</v>
       </c>
       <c r="H243" s="18" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="I243" s="16" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="25" t="s">
         <v>152</v>
       </c>
@@ -14172,7 +14176,7 @@
       </c>
       <c r="I244" s="27"/>
     </row>
-    <row r="245" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="25" t="s">
         <v>153</v>
       </c>
@@ -14197,7 +14201,7 @@
       </c>
       <c r="I245" s="27"/>
     </row>
-    <row r="246" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="25" t="s">
         <v>154</v>
       </c>
@@ -14222,7 +14226,7 @@
       </c>
       <c r="I246" s="27"/>
     </row>
-    <row r="247" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="25" t="s">
         <v>155</v>
       </c>
@@ -14247,7 +14251,7 @@
       </c>
       <c r="I247" s="27"/>
     </row>
-    <row r="248" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="25" t="s">
         <v>156</v>
       </c>
@@ -14272,7 +14276,7 @@
       </c>
       <c r="I248" s="27"/>
     </row>
-    <row r="249" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="25" t="s">
         <v>157</v>
       </c>
@@ -14322,7 +14326,7 @@
       </c>
       <c r="I250" s="27"/>
     </row>
-    <row r="251" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="25" t="s">
         <v>159</v>
       </c>
@@ -14447,7 +14451,7 @@
       </c>
       <c r="I255" s="27"/>
     </row>
-    <row r="256" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A256" s="25" t="s">
         <v>164</v>
       </c>
@@ -14472,7 +14476,7 @@
       </c>
       <c r="I256" s="27"/>
     </row>
-    <row r="257" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="25" t="s">
         <v>165</v>
       </c>
@@ -14497,7 +14501,7 @@
       </c>
       <c r="I257" s="27"/>
     </row>
-    <row r="258" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="25" t="s">
         <v>166</v>
       </c>
@@ -14522,7 +14526,7 @@
       </c>
       <c r="I258" s="27"/>
     </row>
-    <row r="259" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="25" t="s">
         <v>167</v>
       </c>
@@ -14547,7 +14551,7 @@
       </c>
       <c r="I259" s="27"/>
     </row>
-    <row r="260" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="25" t="s">
         <v>168</v>
       </c>
@@ -14572,7 +14576,7 @@
       </c>
       <c r="I260" s="27"/>
     </row>
-    <row r="261" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="25" t="s">
         <v>169</v>
       </c>
@@ -14597,7 +14601,7 @@
       </c>
       <c r="I261" s="27"/>
     </row>
-    <row r="262" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="25" t="s">
         <v>170</v>
       </c>
@@ -14622,7 +14626,7 @@
       </c>
       <c r="I262" s="27"/>
     </row>
-    <row r="263" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="25" t="s">
         <v>171</v>
       </c>
@@ -14647,7 +14651,7 @@
       </c>
       <c r="I263" s="27"/>
     </row>
-    <row r="264" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" s="25" t="s">
         <v>173</v>
       </c>
@@ -14672,7 +14676,7 @@
       </c>
       <c r="I264" s="27"/>
     </row>
-    <row r="265" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="25" t="s">
         <v>174</v>
       </c>
@@ -14697,7 +14701,7 @@
       </c>
       <c r="I265" s="27"/>
     </row>
-    <row r="266" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="25" t="s">
         <v>175</v>
       </c>
@@ -14722,7 +14726,7 @@
       </c>
       <c r="I266" s="27"/>
     </row>
-    <row r="267" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="25" t="s">
         <v>176</v>
       </c>
@@ -14747,7 +14751,7 @@
       </c>
       <c r="I267" s="27"/>
     </row>
-    <row r="268" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="25" t="s">
         <v>177</v>
       </c>
@@ -14772,7 +14776,7 @@
       </c>
       <c r="I268" s="27"/>
     </row>
-    <row r="269" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="25" t="s">
         <v>178</v>
       </c>
@@ -14797,7 +14801,7 @@
       </c>
       <c r="I269" s="27"/>
     </row>
-    <row r="270" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="18" t="s">
         <v>179</v>
       </c>
@@ -14822,7 +14826,7 @@
       </c>
       <c r="I270" s="27"/>
     </row>
-    <row r="271" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="48" t="s">
         <v>1505</v>
       </c>
@@ -14847,7 +14851,7 @@
       </c>
       <c r="I271" s="47"/>
     </row>
-    <row r="272" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="18" t="s">
         <v>1507</v>
       </c>
@@ -14872,7 +14876,7 @@
       </c>
       <c r="I272" s="47"/>
     </row>
-    <row r="273" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="25" t="s">
         <v>180</v>
       </c>
@@ -14922,7 +14926,7 @@
       </c>
       <c r="I274" s="27"/>
     </row>
-    <row r="275" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="25" t="s">
         <v>182</v>
       </c>
@@ -14997,7 +15001,7 @@
       </c>
       <c r="I277" s="27"/>
     </row>
-    <row r="278" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="25" t="s">
         <v>185</v>
       </c>
@@ -15022,7 +15026,7 @@
       </c>
       <c r="I278" s="27"/>
     </row>
-    <row r="279" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="25" t="s">
         <v>255</v>
       </c>
@@ -15097,7 +15101,7 @@
       </c>
       <c r="I281" s="47"/>
     </row>
-    <row r="282" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" s="18" t="s">
         <v>977</v>
       </c>
@@ -15372,7 +15376,7 @@
       </c>
       <c r="I292" s="47"/>
     </row>
-    <row r="293" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="45" t="s">
         <v>1019</v>
       </c>
@@ -15497,7 +15501,7 @@
       </c>
       <c r="I297" s="47"/>
     </row>
-    <row r="298" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="18" t="s">
         <v>1006</v>
       </c>
@@ -15722,7 +15726,7 @@
       </c>
       <c r="I306" s="47"/>
     </row>
-    <row r="307" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A307" s="18" t="s">
         <v>1015</v>
       </c>
@@ -15797,7 +15801,7 @@
       </c>
       <c r="I309" s="47"/>
     </row>
-    <row r="310" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="25" t="s">
         <v>256</v>
       </c>
@@ -15830,7 +15834,7 @@
         <v>405</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="D311" s="25"/>
       <c r="E311" s="25" t="s">
@@ -15855,7 +15859,7 @@
         <v>405</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="D312" s="25"/>
       <c r="E312" s="25" t="s">
@@ -16380,7 +16384,7 @@
         <v>405</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="D333" s="25"/>
       <c r="E333" s="25" t="s">
@@ -16882,7 +16886,7 @@
         <v>1049</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>1658</v>
+        <v>1740</v>
       </c>
       <c r="D353" s="45"/>
       <c r="E353" s="45" t="s">
@@ -16899,7 +16903,7 @@
       </c>
       <c r="I353" s="47"/>
     </row>
-    <row r="354" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="45" t="s">
         <v>1053</v>
       </c>
@@ -16932,7 +16936,7 @@
         <v>1049</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="D355" s="45"/>
       <c r="E355" s="45" t="s">
@@ -16945,7 +16949,7 @@
         <v>15</v>
       </c>
       <c r="H355" s="18" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="I355" s="47"/>
     </row>
@@ -16957,7 +16961,7 @@
         <v>1049</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="D356" s="45"/>
       <c r="E356" s="45" t="s">
@@ -16970,7 +16974,7 @@
         <v>15</v>
       </c>
       <c r="H356" s="18" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="I356" s="47"/>
     </row>
@@ -16982,7 +16986,7 @@
         <v>1049</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="D357" s="45"/>
       <c r="E357" s="45" t="s">
@@ -16995,7 +16999,7 @@
         <v>15</v>
       </c>
       <c r="H357" s="18" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="I357" s="47"/>
     </row>
@@ -17007,7 +17011,7 @@
         <v>1049</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="D358" s="45"/>
       <c r="E358" s="45" t="s">
@@ -17020,7 +17024,7 @@
         <v>15</v>
       </c>
       <c r="H358" s="18" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="I358" s="47"/>
     </row>
@@ -17032,7 +17036,7 @@
         <v>1049</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="D359" s="45"/>
       <c r="E359" s="45" t="s">
@@ -17045,7 +17049,7 @@
         <v>15</v>
       </c>
       <c r="H359" s="18" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="I359" s="47"/>
     </row>
@@ -17057,7 +17061,7 @@
         <v>1049</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="D360" s="45"/>
       <c r="E360" s="45" t="s">
@@ -17070,7 +17074,7 @@
         <v>15</v>
       </c>
       <c r="H360" s="18" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="I360" s="47"/>
     </row>
@@ -17109,7 +17113,7 @@
         <v>1060</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="D362" s="45"/>
       <c r="E362" s="45" t="s">
@@ -17126,7 +17130,7 @@
       </c>
       <c r="I362" s="47"/>
     </row>
-    <row r="363" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="45" t="s">
         <v>1065</v>
       </c>
@@ -17159,7 +17163,7 @@
         <v>1060</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="D364" s="45"/>
       <c r="E364" s="45" t="s">
@@ -17172,7 +17176,7 @@
         <v>15</v>
       </c>
       <c r="H364" s="18" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="I364" s="47"/>
     </row>
@@ -17184,7 +17188,7 @@
         <v>1060</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="D365" s="45"/>
       <c r="E365" s="45" t="s">
@@ -17197,7 +17201,7 @@
         <v>15</v>
       </c>
       <c r="H365" s="18" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="I365" s="47"/>
     </row>
@@ -18413,7 +18417,7 @@
       </c>
       <c r="I413" s="27"/>
     </row>
-    <row r="414" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="18" t="s">
         <v>186</v>
       </c>
@@ -18473,7 +18477,7 @@
         <v>408</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="D416" s="45"/>
       <c r="E416" s="45" t="s">
@@ -18490,7 +18494,7 @@
       </c>
       <c r="I416" s="47"/>
     </row>
-    <row r="417" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="45" t="s">
         <v>896</v>
       </c>
@@ -18623,7 +18627,7 @@
         <v>409</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="D422" s="45"/>
       <c r="E422" s="45" t="s">
@@ -18650,7 +18654,7 @@
         <v>409</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D423" s="45"/>
       <c r="E423" s="45" t="s">
@@ -18667,7 +18671,7 @@
       </c>
       <c r="I423" s="47"/>
     </row>
-    <row r="424" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A424" s="45" t="s">
         <v>914</v>
       </c>
@@ -18942,7 +18946,7 @@
       </c>
       <c r="I434" s="47"/>
     </row>
-    <row r="435" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A435" s="25" t="s">
         <v>187</v>
       </c>
@@ -18992,7 +18996,7 @@
       </c>
       <c r="I436" s="27"/>
     </row>
-    <row r="437" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="25" t="s">
         <v>189</v>
       </c>
@@ -19092,7 +19096,7 @@
       </c>
       <c r="I440" s="27"/>
     </row>
-    <row r="441" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="25" t="s">
         <v>193</v>
       </c>
@@ -19142,7 +19146,7 @@
       </c>
       <c r="I442" s="27"/>
     </row>
-    <row r="443" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A443" s="25" t="s">
         <v>195</v>
       </c>
@@ -19608,7 +19612,7 @@
         <v>411</v>
       </c>
       <c r="C461" s="16" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="D461" s="25"/>
       <c r="E461" s="25" t="s">
@@ -19627,7 +19631,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A462" s="25" t="s">
         <v>214</v>
       </c>
@@ -19660,7 +19664,7 @@
         <v>412</v>
       </c>
       <c r="C463" s="16" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="D463" s="25"/>
       <c r="E463" s="25" t="s">
@@ -19677,7 +19681,7 @@
       </c>
       <c r="I463" s="27"/>
     </row>
-    <row r="464" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="25" t="s">
         <v>216</v>
       </c>
@@ -19777,7 +19781,7 @@
       </c>
       <c r="I467" s="27"/>
     </row>
-    <row r="468" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="25" t="s">
         <v>220</v>
       </c>
@@ -19827,7 +19831,7 @@
       </c>
       <c r="I469" s="27"/>
     </row>
-    <row r="470" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A470" s="25" t="s">
         <v>222</v>
       </c>
@@ -20481,7 +20485,7 @@
       </c>
       <c r="I495" s="27"/>
     </row>
-    <row r="496" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A496" s="25" t="s">
         <v>244</v>
       </c>
@@ -20656,7 +20660,7 @@
       </c>
       <c r="I502" s="27"/>
     </row>
-    <row r="503" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="25" t="s">
         <v>251</v>
       </c>
@@ -20756,7 +20760,7 @@
       </c>
       <c r="I506" s="27"/>
     </row>
-    <row r="507" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A507" s="25" t="s">
         <v>341</v>
       </c>
@@ -20806,7 +20810,7 @@
       </c>
       <c r="I508" s="27"/>
     </row>
-    <row r="509" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A509" s="25" t="s">
         <v>343</v>
       </c>
@@ -20881,7 +20885,7 @@
       </c>
       <c r="I511" s="27"/>
     </row>
-    <row r="512" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A512" s="25" t="s">
         <v>346</v>
       </c>
@@ -20906,7 +20910,7 @@
       </c>
       <c r="I512" s="27"/>
     </row>
-    <row r="513" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A513" s="25" t="s">
         <v>347</v>
       </c>
@@ -20956,7 +20960,7 @@
       </c>
       <c r="I514" s="27"/>
     </row>
-    <row r="515" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A515" s="25" t="s">
         <v>349</v>
       </c>
@@ -21031,7 +21035,7 @@
       </c>
       <c r="I517" s="27"/>
     </row>
-    <row r="518" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A518" s="25" t="s">
         <v>352</v>
       </c>
@@ -21056,7 +21060,7 @@
       </c>
       <c r="I518" s="27"/>
     </row>
-    <row r="519" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="25" t="s">
         <v>353</v>
       </c>
@@ -21106,7 +21110,7 @@
       </c>
       <c r="I520" s="27"/>
     </row>
-    <row r="521" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A521" s="25" t="s">
         <v>355</v>
       </c>
@@ -21181,7 +21185,7 @@
       </c>
       <c r="I523" s="27"/>
     </row>
-    <row r="524" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A524" s="25" t="s">
         <v>358</v>
       </c>
@@ -21206,7 +21210,7 @@
       </c>
       <c r="I524" s="27"/>
     </row>
-    <row r="525" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A525" s="25" t="s">
         <v>359</v>
       </c>
@@ -21256,7 +21260,7 @@
       </c>
       <c r="I526" s="27"/>
     </row>
-    <row r="527" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A527" s="25" t="s">
         <v>361</v>
       </c>
@@ -21331,7 +21335,7 @@
       </c>
       <c r="I529" s="27"/>
     </row>
-    <row r="530" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A530" s="25" t="s">
         <v>364</v>
       </c>
@@ -21356,7 +21360,7 @@
       </c>
       <c r="I530" s="27"/>
     </row>
-    <row r="531" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A531" s="25" t="s">
         <v>365</v>
       </c>
@@ -21406,7 +21410,7 @@
       </c>
       <c r="I532" s="27"/>
     </row>
-    <row r="533" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A533" s="25" t="s">
         <v>367</v>
       </c>
@@ -21506,7 +21510,7 @@
       </c>
       <c r="I536" s="47"/>
     </row>
-    <row r="537" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A537" s="18" t="s">
         <v>370</v>
       </c>
@@ -21531,7 +21535,7 @@
       </c>
       <c r="I537" s="27"/>
     </row>
-    <row r="538" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A538" s="45" t="s">
         <v>1244</v>
       </c>
@@ -21556,7 +21560,7 @@
       </c>
       <c r="I538" s="47"/>
     </row>
-    <row r="539" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" s="50" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A539" s="45" t="s">
         <v>1245</v>
       </c>
@@ -21576,12 +21580,12 @@
       <c r="G539" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H539" s="45" t="s">
-        <v>18</v>
+      <c r="H539" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I539" s="47"/>
     </row>
-    <row r="540" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" s="50" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A540" s="45" t="s">
         <v>1246</v>
       </c>
@@ -21601,8 +21605,8 @@
       <c r="G540" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H540" s="45" t="s">
-        <v>18</v>
+      <c r="H540" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I540" s="47"/>
     </row>
@@ -21648,15 +21652,15 @@
       <c r="F542" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G542" s="45" t="s">
-        <v>15</v>
+      <c r="G542" s="18" t="s">
+        <v>1737</v>
       </c>
       <c r="H542" s="45" t="s">
         <v>18</v>
       </c>
       <c r="I542" s="47"/>
     </row>
-    <row r="543" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A543" s="45" t="s">
         <v>1248</v>
       </c>
@@ -21706,7 +21710,7 @@
       </c>
       <c r="I544" s="47"/>
     </row>
-    <row r="545" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="45" t="s">
         <v>1250</v>
       </c>
@@ -21948,15 +21952,15 @@
       <c r="F554" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G554" s="45" t="s">
-        <v>15</v>
+      <c r="G554" s="18" t="s">
+        <v>1737</v>
       </c>
       <c r="H554" s="45" t="s">
         <v>18</v>
       </c>
       <c r="I554" s="47"/>
     </row>
-    <row r="555" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" s="50" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A555" s="45" t="s">
         <v>1260</v>
       </c>
@@ -21976,12 +21980,12 @@
       <c r="G555" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H555" s="45" t="s">
-        <v>18</v>
+      <c r="H555" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I555" s="47"/>
     </row>
-    <row r="556" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A556" s="45" t="s">
         <v>1261</v>
       </c>
@@ -21998,15 +22002,15 @@
       <c r="F556" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G556" s="45" t="s">
-        <v>15</v>
+      <c r="G556" s="18" t="s">
+        <v>1737</v>
       </c>
       <c r="H556" s="45" t="s">
         <v>18</v>
       </c>
       <c r="I556" s="47"/>
     </row>
-    <row r="557" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A557" s="45" t="s">
         <v>1262</v>
       </c>
@@ -22031,7 +22035,7 @@
       </c>
       <c r="I557" s="47"/>
     </row>
-    <row r="558" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="45" t="s">
         <v>1263</v>
       </c>
@@ -22051,12 +22055,12 @@
       <c r="G558" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H558" s="45" t="s">
-        <v>18</v>
+      <c r="H558" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I558" s="47"/>
     </row>
-    <row r="559" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A559" s="45" t="s">
         <v>1264</v>
       </c>
@@ -22076,12 +22080,12 @@
       <c r="G559" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H559" s="45" t="s">
-        <v>18</v>
+      <c r="H559" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I559" s="47"/>
     </row>
-    <row r="560" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A560" s="45" t="s">
         <v>1265</v>
       </c>
@@ -22101,12 +22105,12 @@
       <c r="G560" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H560" s="45" t="s">
-        <v>18</v>
+      <c r="H560" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I560" s="47"/>
     </row>
-    <row r="561" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A561" s="45" t="s">
         <v>1266</v>
       </c>
@@ -22126,8 +22130,8 @@
       <c r="G561" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H561" s="45" t="s">
-        <v>18</v>
+      <c r="H561" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I561" s="47"/>
     </row>
@@ -22181,7 +22185,7 @@
       </c>
       <c r="I563" s="47"/>
     </row>
-    <row r="564" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A564" s="45" t="s">
         <v>1269</v>
       </c>
@@ -22206,7 +22210,7 @@
       </c>
       <c r="I564" s="47"/>
     </row>
-    <row r="565" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A565" s="45" t="s">
         <v>1270</v>
       </c>
@@ -22231,7 +22235,7 @@
       </c>
       <c r="I565" s="47"/>
     </row>
-    <row r="566" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A566" s="45" t="s">
         <v>1271</v>
       </c>
@@ -22281,7 +22285,7 @@
       </c>
       <c r="I567" s="47"/>
     </row>
-    <row r="568" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="45" t="s">
         <v>1273</v>
       </c>
@@ -22356,7 +22360,7 @@
       </c>
       <c r="I570" s="47"/>
     </row>
-    <row r="571" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A571" s="45" t="s">
         <v>1276</v>
       </c>
@@ -22373,15 +22377,15 @@
       <c r="F571" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G571" s="45" t="s">
-        <v>15</v>
+      <c r="G571" s="18" t="s">
+        <v>1737</v>
       </c>
       <c r="H571" s="45" t="s">
         <v>18</v>
       </c>
       <c r="I571" s="47"/>
     </row>
-    <row r="572" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" s="50" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A572" s="45" t="s">
         <v>1277</v>
       </c>
@@ -22401,12 +22405,12 @@
       <c r="G572" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H572" s="45" t="s">
-        <v>18</v>
+      <c r="H572" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I572" s="47"/>
     </row>
-    <row r="573" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A573" s="45" t="s">
         <v>1278</v>
       </c>
@@ -22456,7 +22460,7 @@
       </c>
       <c r="I574" s="47"/>
     </row>
-    <row r="575" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="45" t="s">
         <v>1280</v>
       </c>
@@ -22481,7 +22485,7 @@
       </c>
       <c r="I575" s="47"/>
     </row>
-    <row r="576" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="45" t="s">
         <v>1281</v>
       </c>
@@ -22506,7 +22510,7 @@
       </c>
       <c r="I576" s="47"/>
     </row>
-    <row r="577" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A577" s="45" t="s">
         <v>1282</v>
       </c>
@@ -22531,7 +22535,7 @@
       </c>
       <c r="I577" s="47"/>
     </row>
-    <row r="578" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A578" s="45" t="s">
         <v>1283</v>
       </c>
@@ -22606,7 +22610,7 @@
       </c>
       <c r="I580" s="47"/>
     </row>
-    <row r="581" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A581" s="45" t="s">
         <v>1286</v>
       </c>
@@ -22731,7 +22735,7 @@
       </c>
       <c r="I585" s="47"/>
     </row>
-    <row r="586" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="45" t="s">
         <v>1291</v>
       </c>
@@ -22756,7 +22760,7 @@
       </c>
       <c r="I586" s="47"/>
     </row>
-    <row r="587" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A587" s="45" t="s">
         <v>1292</v>
       </c>
@@ -22781,7 +22785,7 @@
       </c>
       <c r="I587" s="47"/>
     </row>
-    <row r="588" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A588" s="45" t="s">
         <v>1293</v>
       </c>
@@ -22806,7 +22810,7 @@
       </c>
       <c r="I588" s="47"/>
     </row>
-    <row r="589" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A589" s="45" t="s">
         <v>1294</v>
       </c>
@@ -22823,15 +22827,15 @@
       <c r="F589" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G589" s="45" t="s">
-        <v>15</v>
+      <c r="G589" s="18" t="s">
+        <v>1737</v>
       </c>
       <c r="H589" s="45" t="s">
         <v>18</v>
       </c>
       <c r="I589" s="47"/>
     </row>
-    <row r="590" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A590" s="45" t="s">
         <v>1295</v>
       </c>
@@ -22839,7 +22843,7 @@
         <v>1165</v>
       </c>
       <c r="C590" s="16" t="s">
-        <v>1532</v>
+        <v>1734</v>
       </c>
       <c r="D590" s="45"/>
       <c r="E590" s="45" t="s">
@@ -22851,12 +22855,12 @@
       <c r="G590" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H590" s="45" t="s">
-        <v>18</v>
+      <c r="H590" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I590" s="47"/>
     </row>
-    <row r="591" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" s="50" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A591" s="45" t="s">
         <v>1296</v>
       </c>
@@ -22864,7 +22868,7 @@
         <v>1165</v>
       </c>
       <c r="C591" s="16" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D591" s="45"/>
       <c r="E591" s="45" t="s">
@@ -22876,12 +22880,12 @@
       <c r="G591" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H591" s="45" t="s">
-        <v>18</v>
+      <c r="H591" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I591" s="47"/>
     </row>
-    <row r="592" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A592" s="45" t="s">
         <v>1297</v>
       </c>
@@ -22906,7 +22910,7 @@
       </c>
       <c r="I592" s="47"/>
     </row>
-    <row r="593" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A593" s="45" t="s">
         <v>1298</v>
       </c>
@@ -22926,12 +22930,12 @@
       <c r="G593" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H593" s="45" t="s">
-        <v>18</v>
+      <c r="H593" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I593" s="47"/>
     </row>
-    <row r="594" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A594" s="45" t="s">
         <v>1299</v>
       </c>
@@ -22956,7 +22960,7 @@
       </c>
       <c r="I594" s="47"/>
     </row>
-    <row r="595" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A595" s="45" t="s">
         <v>1435</v>
       </c>
@@ -22983,7 +22987,7 @@
       </c>
       <c r="I595" s="47"/>
     </row>
-    <row r="596" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A596" s="45" t="s">
         <v>1436</v>
       </c>
@@ -23010,7 +23014,7 @@
       </c>
       <c r="I596" s="47"/>
     </row>
-    <row r="597" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A597" s="45" t="s">
         <v>1300</v>
       </c>
@@ -23030,12 +23034,12 @@
       <c r="G597" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H597" s="45" t="s">
-        <v>18</v>
+      <c r="H597" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I597" s="47"/>
     </row>
-    <row r="598" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A598" s="18" t="s">
         <v>1301</v>
       </c>
@@ -23055,20 +23059,20 @@
       <c r="G598" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H598" s="45" t="s">
-        <v>18</v>
+      <c r="H598" s="18" t="s">
+        <v>1624</v>
       </c>
       <c r="I598" s="47"/>
     </row>
-    <row r="599" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="18" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B599" s="20" t="s">
         <v>1165</v>
       </c>
       <c r="C599" s="16" t="s">
-        <v>1536</v>
+        <v>1738</v>
       </c>
       <c r="D599" s="45"/>
       <c r="E599" s="45" t="s">
@@ -23080,20 +23084,20 @@
       <c r="G599" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H599" s="45" t="s">
-        <v>20</v>
+      <c r="H599" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I599" s="47"/>
     </row>
-    <row r="600" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A600" s="18" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B600" s="20" t="s">
         <v>1165</v>
       </c>
       <c r="C600" s="16" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D600" s="18"/>
       <c r="E600" s="45" t="s">
@@ -23109,7 +23113,7 @@
         <v>17</v>
       </c>
       <c r="I600" s="16" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="601" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -23187,7 +23191,7 @@
       </c>
       <c r="I603" s="47"/>
     </row>
-    <row r="604" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A604" s="45" t="s">
         <v>1305</v>
       </c>
@@ -23212,7 +23216,7 @@
       </c>
       <c r="I604" s="47"/>
     </row>
-    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" s="45" t="s">
         <v>1306</v>
       </c>
@@ -23237,7 +23241,7 @@
       </c>
       <c r="I605" s="47"/>
     </row>
-    <row r="606" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="45" t="s">
         <v>1307</v>
       </c>
@@ -23262,7 +23266,7 @@
       </c>
       <c r="I606" s="47"/>
     </row>
-    <row r="607" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A607" s="45" t="s">
         <v>1308</v>
       </c>
@@ -23312,7 +23316,7 @@
       </c>
       <c r="I608" s="47"/>
     </row>
-    <row r="609" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A609" s="45" t="s">
         <v>1310</v>
       </c>
@@ -23570,7 +23574,7 @@
         <v>1196</v>
       </c>
       <c r="C619" s="16" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="D619" s="45"/>
       <c r="E619" s="45" t="s">
@@ -23597,7 +23601,7 @@
         <v>1196</v>
       </c>
       <c r="C620" s="16" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="D620" s="45"/>
       <c r="E620" s="45" t="s">
@@ -23609,12 +23613,12 @@
       <c r="G620" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H620" s="45" t="s">
-        <v>18</v>
+      <c r="H620" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I620" s="47"/>
     </row>
-    <row r="621" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" s="50" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A621" s="45" t="s">
         <v>1322</v>
       </c>
@@ -23634,8 +23638,8 @@
       <c r="G621" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H621" s="45" t="s">
-        <v>18</v>
+      <c r="H621" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I621" s="47"/>
     </row>
@@ -23664,7 +23668,7 @@
       </c>
       <c r="I622" s="47"/>
     </row>
-    <row r="623" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A623" s="45" t="s">
         <v>1324</v>
       </c>
@@ -23684,12 +23688,12 @@
       <c r="G623" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H623" s="45" t="s">
-        <v>18</v>
+      <c r="H623" s="18" t="s">
+        <v>1624</v>
       </c>
       <c r="I623" s="47"/>
     </row>
-    <row r="624" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A624" s="45" t="s">
         <v>1325</v>
       </c>
@@ -23714,7 +23718,7 @@
       </c>
       <c r="I624" s="47"/>
     </row>
-    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" s="45" t="s">
         <v>1326</v>
       </c>
@@ -23739,7 +23743,7 @@
       </c>
       <c r="I625" s="47"/>
     </row>
-    <row r="626" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A626" s="45" t="s">
         <v>1327</v>
       </c>
@@ -23981,15 +23985,15 @@
       <c r="F635" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G635" s="45" t="s">
-        <v>15</v>
+      <c r="G635" s="18" t="s">
+        <v>1737</v>
       </c>
       <c r="H635" s="45" t="s">
         <v>18</v>
       </c>
       <c r="I635" s="47"/>
     </row>
-    <row r="636" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" s="50" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A636" s="45" t="s">
         <v>1337</v>
       </c>
@@ -24009,12 +24013,12 @@
       <c r="G636" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H636" s="45" t="s">
-        <v>18</v>
+      <c r="H636" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I636" s="47"/>
     </row>
-    <row r="637" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A637" s="45" t="s">
         <v>1338</v>
       </c>
@@ -24031,15 +24035,15 @@
       <c r="F637" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G637" s="45" t="s">
-        <v>15</v>
+      <c r="G637" s="18" t="s">
+        <v>1737</v>
       </c>
       <c r="H637" s="45" t="s">
         <v>18</v>
       </c>
       <c r="I637" s="47"/>
     </row>
-    <row r="638" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A638" s="45" t="s">
         <v>1339</v>
       </c>
@@ -24064,7 +24068,7 @@
       </c>
       <c r="I638" s="47"/>
     </row>
-    <row r="639" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A639" s="45" t="s">
         <v>1340</v>
       </c>
@@ -24084,12 +24088,12 @@
       <c r="G639" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H639" s="45" t="s">
-        <v>18</v>
+      <c r="H639" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I639" s="47"/>
     </row>
-    <row r="640" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A640" s="45" t="s">
         <v>1341</v>
       </c>
@@ -24109,12 +24113,12 @@
       <c r="G640" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H640" s="45" t="s">
-        <v>18</v>
+      <c r="H640" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I640" s="47"/>
     </row>
-    <row r="641" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="45" t="s">
         <v>1342</v>
       </c>
@@ -24134,12 +24138,12 @@
       <c r="G641" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H641" s="45" t="s">
-        <v>18</v>
+      <c r="H641" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I641" s="47"/>
     </row>
-    <row r="642" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A642" s="45" t="s">
         <v>1343</v>
       </c>
@@ -24159,12 +24163,12 @@
       <c r="G642" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H642" s="45" t="s">
-        <v>18</v>
+      <c r="H642" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I642" s="47"/>
     </row>
-    <row r="643" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A643" s="45" t="s">
         <v>1344</v>
       </c>
@@ -24189,7 +24193,7 @@
       </c>
       <c r="I643" s="47"/>
     </row>
-    <row r="644" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A644" s="45" t="s">
         <v>1345</v>
       </c>
@@ -24214,7 +24218,7 @@
       </c>
       <c r="I644" s="47"/>
     </row>
-    <row r="645" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="45" t="s">
         <v>1346</v>
       </c>
@@ -24289,7 +24293,7 @@
       </c>
       <c r="I647" s="47"/>
     </row>
-    <row r="648" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A648" s="45" t="s">
         <v>1349</v>
       </c>
@@ -24314,7 +24318,7 @@
       </c>
       <c r="I648" s="47"/>
     </row>
-    <row r="649" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A649" s="45" t="s">
         <v>1350</v>
       </c>
@@ -24334,12 +24338,12 @@
       <c r="G649" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H649" s="45" t="s">
-        <v>18</v>
+      <c r="H649" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I649" s="47"/>
     </row>
-    <row r="650" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A650" s="45" t="s">
         <v>1351</v>
       </c>
@@ -24389,7 +24393,7 @@
       </c>
       <c r="I651" s="47"/>
     </row>
-    <row r="652" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A652" s="45" t="s">
         <v>1353</v>
       </c>
@@ -24414,7 +24418,7 @@
       </c>
       <c r="I652" s="47"/>
     </row>
-    <row r="653" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A653" s="45" t="s">
         <v>1354</v>
       </c>
@@ -24422,7 +24426,7 @@
         <v>1230</v>
       </c>
       <c r="C653" s="16" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="D653" s="45"/>
       <c r="E653" s="45" t="s">
@@ -24639,7 +24643,7 @@
       </c>
       <c r="I661" s="47"/>
     </row>
-    <row r="662" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A662" s="45" t="s">
         <v>1363</v>
       </c>
@@ -24664,7 +24668,7 @@
       </c>
       <c r="I662" s="47"/>
     </row>
-    <row r="663" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A663" s="45" t="s">
         <v>1364</v>
       </c>
@@ -24672,7 +24676,7 @@
         <v>1242</v>
       </c>
       <c r="C663" s="16" t="s">
-        <v>1540</v>
+        <v>1735</v>
       </c>
       <c r="D663" s="45"/>
       <c r="E663" s="45" t="s">
@@ -24681,15 +24685,15 @@
       <c r="F663" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G663" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="H663" s="45" t="s">
-        <v>18</v>
+      <c r="G663" s="18" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H663" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I663" s="47"/>
     </row>
-    <row r="664" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" s="50" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A664" s="45" t="s">
         <v>1365</v>
       </c>
@@ -24697,7 +24701,7 @@
         <v>1242</v>
       </c>
       <c r="C664" s="16" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="D664" s="45"/>
       <c r="E664" s="45" t="s">
@@ -24709,12 +24713,12 @@
       <c r="G664" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H664" s="45" t="s">
-        <v>18</v>
+      <c r="H664" s="18" t="s">
+        <v>1628</v>
       </c>
       <c r="I664" s="47"/>
     </row>
-    <row r="665" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A665" s="18" t="s">
         <v>371</v>
       </c>
@@ -24722,7 +24726,7 @@
         <v>610</v>
       </c>
       <c r="C665" s="16" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="D665" s="25"/>
       <c r="E665" s="25" t="s">
@@ -24739,7 +24743,7 @@
       </c>
       <c r="I665" s="27"/>
     </row>
-    <row r="666" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A666" s="18" t="s">
         <v>1438</v>
       </c>
@@ -24747,7 +24751,7 @@
         <v>610</v>
       </c>
       <c r="C666" s="16" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="D666" s="45" t="s">
         <v>1440</v>
@@ -24768,7 +24772,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="667" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A667" s="25" t="s">
         <v>372</v>
       </c>
@@ -24776,7 +24780,7 @@
         <v>610</v>
       </c>
       <c r="C667" s="16" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="D667" s="25"/>
       <c r="E667" s="25" t="s">
@@ -24793,7 +24797,7 @@
       </c>
       <c r="I667" s="27"/>
     </row>
-    <row r="668" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A668" s="18" t="s">
         <v>611</v>
       </c>
@@ -24820,7 +24824,7 @@
       </c>
       <c r="I668" s="47"/>
     </row>
-    <row r="669" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A669" s="18" t="s">
         <v>613</v>
       </c>
@@ -24843,24 +24847,24 @@
         <v>15</v>
       </c>
       <c r="H669" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I669" s="47" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="670" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A670" s="18" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="B670" s="49">
         <v>8</v>
       </c>
       <c r="C670" s="16" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="D670" s="18" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="E670" s="45" t="s">
         <v>22</v>
@@ -24878,16 +24882,16 @@
     </row>
     <row r="671" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A671" s="18" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="B671" s="49">
         <v>8</v>
       </c>
       <c r="C671" s="16" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="D671" s="18" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="E671" s="45" t="s">
         <v>22</v>
@@ -24905,7 +24909,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="672" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A672" s="18" t="s">
         <v>373</v>
       </c>
@@ -24913,7 +24917,7 @@
         <v>610</v>
       </c>
       <c r="C672" s="16" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="D672" s="18" t="s">
         <v>587</v>
@@ -24932,7 +24936,7 @@
       </c>
       <c r="I672" s="27"/>
     </row>
-    <row r="673" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A673" s="18" t="s">
         <v>374</v>
       </c>
@@ -24940,7 +24944,7 @@
         <v>610</v>
       </c>
       <c r="C673" s="16" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D673" s="25" t="s">
         <v>587</v>
@@ -24959,7 +24963,7 @@
       </c>
       <c r="I673" s="27"/>
     </row>
-    <row r="674" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" s="50" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A674" s="25" t="s">
         <v>375</v>
       </c>
@@ -24967,7 +24971,7 @@
         <v>610</v>
       </c>
       <c r="C674" s="16" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="D674" s="18" t="s">
         <v>588</v>
@@ -24986,7 +24990,7 @@
       </c>
       <c r="I674" s="27"/>
     </row>
-    <row r="675" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" s="50" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A675" s="18" t="s">
         <v>376</v>
       </c>
@@ -24994,7 +24998,7 @@
         <v>610</v>
       </c>
       <c r="C675" s="16" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
       <c r="D675" s="18" t="s">
         <v>588</v>
@@ -25013,7 +25017,7 @@
       </c>
       <c r="I675" s="27"/>
     </row>
-    <row r="676" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A676" s="45" t="s">
         <v>698</v>
       </c>
@@ -25021,7 +25025,7 @@
         <v>610</v>
       </c>
       <c r="C676" s="16" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="D676" s="45" t="s">
         <v>1443</v>
@@ -25048,7 +25052,7 @@
         <v>610</v>
       </c>
       <c r="C677" s="16" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="D677" s="45" t="s">
         <v>1443</v>
@@ -25063,13 +25067,13 @@
         <v>15</v>
       </c>
       <c r="H677" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I677" s="47" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="678" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A678" s="45" t="s">
         <v>743</v>
       </c>
@@ -25077,7 +25081,7 @@
         <v>610</v>
       </c>
       <c r="C678" s="16" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="D678" s="45" t="s">
         <v>859</v>
@@ -25104,7 +25108,7 @@
         <v>610</v>
       </c>
       <c r="C679" s="16" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D679" s="45" t="s">
         <v>859</v>
@@ -25125,7 +25129,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A680" s="45" t="s">
         <v>789</v>
       </c>
@@ -25133,7 +25137,7 @@
         <v>610</v>
       </c>
       <c r="C680" s="16" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="D680" s="45" t="s">
         <v>860</v>
@@ -25160,7 +25164,7 @@
         <v>610</v>
       </c>
       <c r="C681" s="16" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="D681" s="45" t="s">
         <v>860</v>
@@ -25181,7 +25185,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="682" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A682" s="45" t="s">
         <v>791</v>
       </c>
@@ -25189,7 +25193,7 @@
         <v>610</v>
       </c>
       <c r="C682" s="16" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="D682" s="45" t="s">
         <v>861</v>
@@ -25216,7 +25220,7 @@
         <v>610</v>
       </c>
       <c r="C683" s="16" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="D683" s="45" t="s">
         <v>861</v>
@@ -25237,7 +25241,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="684" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A684" s="45" t="s">
         <v>793</v>
       </c>
@@ -25245,7 +25249,7 @@
         <v>610</v>
       </c>
       <c r="C684" s="16" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="D684" s="45" t="s">
         <v>862</v>
@@ -25272,7 +25276,7 @@
         <v>610</v>
       </c>
       <c r="C685" s="16" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="D685" s="45" t="s">
         <v>862</v>
@@ -25293,7 +25297,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="686" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A686" s="45" t="s">
         <v>795</v>
       </c>
@@ -25301,7 +25305,7 @@
         <v>610</v>
       </c>
       <c r="C686" s="16" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="D686" s="45" t="s">
         <v>863</v>
@@ -25328,7 +25332,7 @@
         <v>610</v>
       </c>
       <c r="C687" s="47" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D687" s="45" t="s">
         <v>863</v>
@@ -25349,7 +25353,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="688" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A688" s="45" t="s">
         <v>797</v>
       </c>
@@ -25357,7 +25361,7 @@
         <v>610</v>
       </c>
       <c r="C688" s="16" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="D688" s="45" t="s">
         <v>864</v>
@@ -25384,7 +25388,7 @@
         <v>610</v>
       </c>
       <c r="C689" s="47" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="D689" s="45" t="s">
         <v>864</v>
@@ -25405,7 +25409,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="690" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A690" s="45" t="s">
         <v>799</v>
       </c>
@@ -25413,7 +25417,7 @@
         <v>610</v>
       </c>
       <c r="C690" s="47" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="D690" s="45" t="s">
         <v>865</v>
@@ -25440,7 +25444,7 @@
         <v>610</v>
       </c>
       <c r="C691" s="16" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="D691" s="45" t="s">
         <v>865</v>
@@ -25455,11 +25459,11 @@
         <v>15</v>
       </c>
       <c r="H691" s="18" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="I691" s="47"/>
     </row>
-    <row r="692" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A692" s="45" t="s">
         <v>801</v>
       </c>
@@ -25467,7 +25471,7 @@
         <v>610</v>
       </c>
       <c r="C692" s="16" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="D692" s="45" t="s">
         <v>866</v>
@@ -25494,7 +25498,7 @@
         <v>610</v>
       </c>
       <c r="C693" s="16" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="D693" s="45" t="s">
         <v>866</v>
@@ -25515,7 +25519,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="694" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A694" s="45" t="s">
         <v>803</v>
       </c>
@@ -25523,7 +25527,7 @@
         <v>610</v>
       </c>
       <c r="C694" s="16" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="D694" s="45" t="s">
         <v>867</v>
@@ -25550,7 +25554,7 @@
         <v>610</v>
       </c>
       <c r="C695" s="16" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="D695" s="45" t="s">
         <v>867</v>
@@ -25571,7 +25575,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="696" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A696" s="45" t="s">
         <v>812</v>
       </c>
@@ -25579,7 +25583,7 @@
         <v>610</v>
       </c>
       <c r="C696" s="16" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="D696" s="45" t="s">
         <v>868</v>
@@ -25606,7 +25610,7 @@
         <v>610</v>
       </c>
       <c r="C697" s="16" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="D697" s="45" t="s">
         <v>868</v>
@@ -25627,7 +25631,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="698" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A698" s="45" t="s">
         <v>814</v>
       </c>
@@ -25635,7 +25639,7 @@
         <v>610</v>
       </c>
       <c r="C698" s="16" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="D698" s="45" t="s">
         <v>869</v>
@@ -25662,7 +25666,7 @@
         <v>610</v>
       </c>
       <c r="C699" s="16" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D699" s="45" t="s">
         <v>869</v>
@@ -25683,7 +25687,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="700" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A700" s="45" t="s">
         <v>816</v>
       </c>
@@ -25691,7 +25695,7 @@
         <v>610</v>
       </c>
       <c r="C700" s="16" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="D700" s="45" t="s">
         <v>870</v>
@@ -25718,7 +25722,7 @@
         <v>610</v>
       </c>
       <c r="C701" s="16" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="D701" s="45" t="s">
         <v>870</v>
@@ -25739,7 +25743,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="702" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A702" s="18" t="s">
         <v>818</v>
       </c>
@@ -25747,7 +25751,7 @@
         <v>610</v>
       </c>
       <c r="C702" s="16" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="D702" s="45" t="s">
         <v>871</v>
@@ -25774,7 +25778,7 @@
         <v>8</v>
       </c>
       <c r="C703" s="16" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="D703" s="45" t="s">
         <v>871</v>
@@ -25789,24 +25793,24 @@
         <v>15</v>
       </c>
       <c r="H703" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I703" s="47" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="704" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A704" s="18" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="B704" s="49">
         <v>8</v>
       </c>
       <c r="C704" s="16" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="D704" s="18" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="E704" s="45" t="s">
         <v>22</v>
@@ -25824,16 +25828,16 @@
     </row>
     <row r="705" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A705" s="18" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="B705" s="49">
         <v>8</v>
       </c>
       <c r="C705" s="16" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="D705" s="18" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
       <c r="E705" s="45" t="s">
         <v>22</v>
@@ -25845,24 +25849,24 @@
         <v>15</v>
       </c>
       <c r="H705" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I705" s="16" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="706" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A706" s="18" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="B706" s="49">
         <v>8</v>
       </c>
       <c r="C706" s="16" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="D706" s="18" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="E706" s="45" t="s">
         <v>22</v>
@@ -25880,16 +25884,16 @@
     </row>
     <row r="707" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A707" s="18" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="B707" s="49">
         <v>8</v>
       </c>
       <c r="C707" s="16" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
       <c r="D707" s="18" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="E707" s="45" t="s">
         <v>22</v>
@@ -25901,24 +25905,24 @@
         <v>15</v>
       </c>
       <c r="H707" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I707" s="16" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="708" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A708" s="18" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="B708" s="49">
         <v>8</v>
       </c>
       <c r="C708" s="16" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="D708" s="18" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="E708" s="45" t="s">
         <v>22</v>
@@ -25936,16 +25940,16 @@
     </row>
     <row r="709" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A709" s="18" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="B709" s="49">
         <v>8</v>
       </c>
       <c r="C709" s="16" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
       <c r="D709" s="18" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
       <c r="E709" s="45" t="s">
         <v>22</v>
@@ -25957,24 +25961,24 @@
         <v>15</v>
       </c>
       <c r="H709" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I709" s="16" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="710" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A710" s="18" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="B710" s="49">
         <v>8</v>
       </c>
       <c r="C710" s="16" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="D710" s="18" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="E710" s="45" t="s">
         <v>22</v>
@@ -25992,16 +25996,16 @@
     </row>
     <row r="711" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A711" s="18" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="B711" s="49">
         <v>8</v>
       </c>
       <c r="C711" s="16" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D711" s="18" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="E711" s="45" t="s">
         <v>22</v>
@@ -26013,13 +26017,13 @@
         <v>15</v>
       </c>
       <c r="H711" s="18" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="I711" s="16" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="712" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A712" s="45" t="s">
         <v>820</v>
       </c>
@@ -26027,7 +26031,7 @@
         <v>610</v>
       </c>
       <c r="C712" s="16" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="D712" s="45" t="s">
         <v>1425</v>
@@ -26046,7 +26050,7 @@
       </c>
       <c r="I712" s="47"/>
     </row>
-    <row r="713" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A713" s="45" t="s">
         <v>821</v>
       </c>
@@ -26073,7 +26077,7 @@
       </c>
       <c r="I713" s="47"/>
     </row>
-    <row r="714" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A714" s="45" t="s">
         <v>822</v>
       </c>
@@ -26081,7 +26085,7 @@
         <v>610</v>
       </c>
       <c r="C714" s="16" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="D714" s="45" t="s">
         <v>1426</v>
@@ -26100,7 +26104,7 @@
       </c>
       <c r="I714" s="47"/>
     </row>
-    <row r="715" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A715" s="45" t="s">
         <v>823</v>
       </c>
@@ -26127,7 +26131,7 @@
       </c>
       <c r="I715" s="47"/>
     </row>
-    <row r="716" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A716" s="45" t="s">
         <v>824</v>
       </c>
@@ -26135,7 +26139,7 @@
         <v>610</v>
       </c>
       <c r="C716" s="16" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="D716" s="45" t="s">
         <v>1427</v>
@@ -26154,7 +26158,7 @@
       </c>
       <c r="I716" s="47"/>
     </row>
-    <row r="717" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A717" s="45" t="s">
         <v>825</v>
       </c>
@@ -26181,7 +26185,7 @@
       </c>
       <c r="I717" s="47"/>
     </row>
-    <row r="718" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" s="50" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A718" s="45" t="s">
         <v>826</v>
       </c>
@@ -26189,7 +26193,7 @@
         <v>610</v>
       </c>
       <c r="C718" s="16" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="D718" s="45" t="s">
         <v>1428</v>
@@ -26243,7 +26247,7 @@
         <v>610</v>
       </c>
       <c r="C720" s="16" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="D720" s="45" t="s">
         <v>1043</v>
@@ -26297,7 +26301,7 @@
         <v>610</v>
       </c>
       <c r="C722" s="16" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D722" s="45" t="s">
         <v>1044</v>
@@ -26351,7 +26355,7 @@
         <v>610</v>
       </c>
       <c r="C724" s="16" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="D724" s="45" t="s">
         <v>1431</v>
@@ -26378,7 +26382,7 @@
         <v>610</v>
       </c>
       <c r="C725" s="16" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="D725" s="45" t="s">
         <v>1431</v>
@@ -26407,7 +26411,7 @@
         <v>610</v>
       </c>
       <c r="C726" s="16" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="D726" s="45" t="s">
         <v>1429</v>
@@ -26434,7 +26438,7 @@
         <v>610</v>
       </c>
       <c r="C727" s="16" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="D727" s="45" t="s">
         <v>1430</v>
@@ -26463,7 +26467,7 @@
         <v>610</v>
       </c>
       <c r="C728" s="16" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="D728" s="45" t="s">
         <v>1422</v>
@@ -26490,7 +26494,7 @@
         <v>610</v>
       </c>
       <c r="C729" s="16" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D729" s="45" t="s">
         <v>1422</v>
@@ -26519,7 +26523,7 @@
         <v>610</v>
       </c>
       <c r="C730" s="16" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="D730" s="45" t="s">
         <v>1423</v>
@@ -26546,7 +26550,7 @@
         <v>610</v>
       </c>
       <c r="C731" s="16" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="D731" s="45" t="s">
         <v>1423</v>
@@ -26575,7 +26579,7 @@
         <v>610</v>
       </c>
       <c r="C732" s="16" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="D732" s="45" t="s">
         <v>1424</v>
@@ -26631,7 +26635,7 @@
         <v>610</v>
       </c>
       <c r="C734" s="16" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="D734" s="45" t="s">
         <v>1432</v>
@@ -26658,7 +26662,7 @@
         <v>610</v>
       </c>
       <c r="C735" s="16" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="D735" s="45" t="s">
         <v>1432</v>
@@ -26673,7 +26677,7 @@
         <v>15</v>
       </c>
       <c r="H735" s="18" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="I735" s="47"/>
     </row>
@@ -26685,7 +26689,7 @@
         <v>610</v>
       </c>
       <c r="C736" s="16" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="D736" s="45" t="s">
         <v>1433</v>
@@ -26712,10 +26716,10 @@
         <v>610</v>
       </c>
       <c r="C737" s="16" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="D737" s="18" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="E737" s="45" t="s">
         <v>22</v>
@@ -26741,7 +26745,7 @@
         <v>610</v>
       </c>
       <c r="C738" s="16" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="D738" s="45" t="s">
         <v>942</v>
@@ -26768,7 +26772,7 @@
         <v>610</v>
       </c>
       <c r="C739" s="16" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="D739" s="45" t="s">
         <v>942</v>
@@ -26797,7 +26801,7 @@
         <v>610</v>
       </c>
       <c r="C740" s="16" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="D740" s="45" t="s">
         <v>944</v>
@@ -26824,7 +26828,7 @@
         <v>610</v>
       </c>
       <c r="C741" s="16" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="D741" s="45" t="s">
         <v>944</v>
@@ -26853,7 +26857,7 @@
         <v>610</v>
       </c>
       <c r="C742" s="16" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="D742" s="45" t="s">
         <v>946</v>
@@ -26880,7 +26884,7 @@
         <v>610</v>
       </c>
       <c r="C743" s="16" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="D743" s="45" t="s">
         <v>946</v>
@@ -26909,7 +26913,7 @@
         <v>610</v>
       </c>
       <c r="C744" s="16" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="D744" s="45" t="s">
         <v>948</v>
@@ -26936,7 +26940,7 @@
         <v>610</v>
       </c>
       <c r="C745" s="16" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="D745" s="45" t="s">
         <v>948</v>
@@ -26965,7 +26969,7 @@
         <v>610</v>
       </c>
       <c r="C746" s="16" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="D746" s="45" t="s">
         <v>950</v>
@@ -26986,13 +26990,13 @@
     </row>
     <row r="747" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A747" s="18" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B747" s="46" t="s">
         <v>610</v>
       </c>
       <c r="C747" s="16" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="D747" s="45" t="s">
         <v>950</v>
@@ -27021,7 +27025,7 @@
         <v>610</v>
       </c>
       <c r="C748" s="16" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="D748" s="45" t="s">
         <v>960</v>
@@ -27048,7 +27052,7 @@
         <v>610</v>
       </c>
       <c r="C749" s="16" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="D749" s="45" t="s">
         <v>960</v>
@@ -27063,7 +27067,7 @@
         <v>15</v>
       </c>
       <c r="H749" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I749" s="47" t="s">
         <v>1434</v>
@@ -27077,7 +27081,7 @@
         <v>610</v>
       </c>
       <c r="C750" s="16" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="D750" s="45" t="s">
         <v>962</v>
@@ -27098,13 +27102,13 @@
     </row>
     <row r="751" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A751" s="18" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="B751" s="46" t="s">
         <v>610</v>
       </c>
       <c r="C751" s="16" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="D751" s="45" t="s">
         <v>962</v>
@@ -27119,7 +27123,7 @@
         <v>15</v>
       </c>
       <c r="H751" s="18" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="I751" s="16" t="s">
         <v>1434</v>
@@ -27127,16 +27131,16 @@
     </row>
     <row r="752" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A752" s="18" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="B752" s="49">
         <v>8</v>
       </c>
       <c r="C752" s="16" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="D752" s="18" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E752" s="45" t="s">
         <v>22</v>
@@ -27154,16 +27158,16 @@
     </row>
     <row r="753" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A753" s="18" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="B753" s="49">
         <v>8</v>
       </c>
       <c r="C753" s="16" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="D753" s="18" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="E753" s="45" t="s">
         <v>22</v>
@@ -27181,7 +27185,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="754" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A754" s="18" t="s">
         <v>858</v>
       </c>
@@ -27189,9 +27193,9 @@
         <v>610</v>
       </c>
       <c r="C754" s="16" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D754" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D754" s="51" t="s">
         <v>1451</v>
       </c>
       <c r="E754" s="45" t="s">
@@ -27210,16 +27214,16 @@
     </row>
     <row r="755" spans="1:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A755" s="18" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="B755" s="46" t="s">
         <v>610</v>
       </c>
       <c r="C755" s="16" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="D755" s="51" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="E755" s="45" t="s">
         <v>22</v>
@@ -27242,10 +27246,10 @@
         <v>1391</v>
       </c>
       <c r="B756" s="20" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C756" s="16" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="D756" s="45"/>
       <c r="E756" s="45" t="s">
@@ -27267,7 +27271,7 @@
         <v>1392</v>
       </c>
       <c r="B757" s="20" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C757" s="47" t="s">
         <v>1390</v>
@@ -27292,10 +27296,10 @@
         <v>1393</v>
       </c>
       <c r="B758" s="20" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C758" s="16" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="D758" s="45"/>
       <c r="E758" s="45" t="s">
@@ -27317,10 +27321,10 @@
         <v>1394</v>
       </c>
       <c r="B759" s="20" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C759" s="16" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="D759" s="45"/>
       <c r="E759" s="45" t="s">
@@ -27342,10 +27346,10 @@
         <v>1395</v>
       </c>
       <c r="B760" s="20" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C760" s="16" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="D760" s="45"/>
       <c r="E760" s="45" t="s">
@@ -27367,10 +27371,10 @@
         <v>1396</v>
       </c>
       <c r="B761" s="20" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C761" s="16" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="D761" s="45"/>
       <c r="E761" s="45" t="s">
@@ -27392,10 +27396,10 @@
         <v>1397</v>
       </c>
       <c r="B762" s="20" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C762" s="16" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="D762" s="45"/>
       <c r="E762" s="45" t="s">
@@ -27417,10 +27421,10 @@
         <v>1398</v>
       </c>
       <c r="B763" s="20" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C763" s="16" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="D763" s="45"/>
       <c r="E763" s="45" t="s">
@@ -27442,10 +27446,10 @@
         <v>1399</v>
       </c>
       <c r="B764" s="20" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C764" s="16" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="D764" s="45"/>
       <c r="E764" s="45" t="s">
@@ -27467,10 +27471,10 @@
         <v>1400</v>
       </c>
       <c r="B765" s="20" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C765" s="16" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="D765" s="45"/>
       <c r="E765" s="45" t="s">
@@ -27492,10 +27496,10 @@
         <v>1401</v>
       </c>
       <c r="B766" s="20" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C766" s="16" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="D766" s="45"/>
       <c r="E766" s="45" t="s">
@@ -27545,7 +27549,7 @@
         <v>1382</v>
       </c>
       <c r="C768" s="16" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="D768" s="25"/>
       <c r="E768" s="25" t="s">
@@ -27570,7 +27574,7 @@
         <v>1376</v>
       </c>
       <c r="C769" s="16" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="D769" s="45"/>
       <c r="E769" s="45" t="s">
@@ -27620,7 +27624,7 @@
         <v>1384</v>
       </c>
       <c r="C771" s="16" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="D771" s="45"/>
       <c r="E771" s="45" t="s">
@@ -27950,7 +27954,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B782:B783 B10:B27 B54:B63 B28:B51 B65:B67 B70:B235 B244:B270 B273:B596 B598 B754:B755 B601:B669 B672:B702 B767:B780 B712:B751" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B782:B783 B10:B27 B53:B64 B28:B52 B65:B600 B753:B766 B601:B711 B767:B780 B712:B752 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSCONT/MS-OXWSCONT_RequirementSpecification.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7092CE3B-F645-4246-8550-8AE556DBADBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10117086-19B2-45AB-9EB3-5B43CF99CC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$780</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$784</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5526" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5558" uniqueCount="1752">
   <si>
     <t>Req ID</t>
   </si>
@@ -6871,6 +6871,42 @@
   <si>
     <t>[In t:ContactItemType Complex Type] WeddingAnniversaryLocal element: Contains the wedding anniversary date of a contact (2) in the client's local time zone.&lt;7&gt;</t>
   </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the BirthdayLocal element. (&lt;6&gt; Section 2.2.4.3:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the BirthdayLocal element.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the BirthdayLocal element. (Exchange 2016 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R4701:i</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R12750101</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R12750102</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCONT_R12750102.</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does not support the WeddingAnniversaryLocal element. (&lt;7&gt; Section 2.2.4.3:  Exchange 2007, Exchange 2010, and Exchange 2013 do not support the WeddingAnniversaryLocal element.)</t>
+  </si>
+  <si>
+    <t>[In Appendix C: Product Behavior] Implementation does support the WeddingAnniversaryLocal element. (Exchange 2016 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R12750103</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R12750104</t>
+  </si>
+  <si>
+    <t>MS-OXWSCONT_R7902:i</t>
+  </si>
+  <si>
+    <t>Verified by derived requirement: MS-OXWSCONT_R12750104.</t>
+  </si>
 </sst>
 </file>
 
@@ -7137,7 +7173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7244,6 +7280,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7301,10 +7340,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7312,20 +7351,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -7355,6 +7380,20 @@
       <font>
         <strike/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7804,8 +7843,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I780" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
-  <autoFilter ref="A19:I780" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I784" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
+  <autoFilter ref="A19:I784" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -8173,10 +8212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I783"/>
+  <dimension ref="A1:I787"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8232,16 +8271,16 @@
       <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9">
@@ -8251,103 +8290,103 @@
       <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="1:9" ht="78.75" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:9" ht="33.75" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="18" t="s">
@@ -8421,46 +8460,46 @@
       <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9" ht="64.5" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="45" t="s">
         <v>590</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9" ht="30">
       <c r="A19" s="3" t="s">
@@ -10855,7 +10894,7 @@
       <c r="C114" s="13" t="s">
         <v>1628</v>
       </c>
-      <c r="D114" s="63"/>
+      <c r="D114" s="44"/>
       <c r="E114" s="21" t="s">
         <v>19</v>
       </c>
@@ -10865,12 +10904,12 @@
       <c r="G114" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H114" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I114" s="64"/>
-    </row>
-    <row r="115" spans="1:9" ht="30">
+      <c r="H114" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" s="41"/>
+    </row>
+    <row r="115" spans="1:9" ht="45">
       <c r="A115" s="14" t="s">
         <v>1627</v>
       </c>
@@ -10880,7 +10919,7 @@
       <c r="C115" s="13" t="s">
         <v>1629</v>
       </c>
-      <c r="D115" s="63"/>
+      <c r="D115" s="44"/>
       <c r="E115" s="21" t="s">
         <v>19</v>
       </c>
@@ -10890,10 +10929,12 @@
       <c r="G115" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H115" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I115" s="64"/>
+      <c r="H115" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>1745</v>
+      </c>
     </row>
     <row r="116" spans="1:9" ht="30">
       <c r="A116" s="21" t="s">
@@ -11715,12 +11756,12 @@
       <c r="G148" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H148" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I148" s="64"/>
-    </row>
-    <row r="149" spans="1:9" ht="30">
+      <c r="H148" s="14" t="s">
+        <v>1484</v>
+      </c>
+      <c r="I148" s="23"/>
+    </row>
+    <row r="149" spans="1:9" ht="45">
       <c r="A149" s="14" t="s">
         <v>1738</v>
       </c>
@@ -11741,9 +11782,11 @@
         <v>15</v>
       </c>
       <c r="H149" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I149" s="64"/>
+        <v>17</v>
+      </c>
+      <c r="I149" s="13" t="s">
+        <v>1751</v>
+      </c>
     </row>
     <row r="150" spans="1:9" ht="30">
       <c r="A150" s="14" t="s">
@@ -12420,7 +12463,7 @@
       <c r="H176" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I176" s="41" t="s">
+      <c r="I176" s="13" t="s">
         <v>1426</v>
       </c>
     </row>
@@ -24995,18 +25038,18 @@
       </c>
       <c r="I675" s="23"/>
     </row>
-    <row r="676" spans="1:9" ht="30">
-      <c r="A676" s="39" t="s">
-        <v>688</v>
-      </c>
-      <c r="B676" s="40" t="s">
-        <v>607</v>
+    <row r="676" spans="1:9" ht="45">
+      <c r="A676" s="14" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B676" s="65">
+        <v>8</v>
       </c>
       <c r="C676" s="13" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D676" s="14" t="s">
-        <v>1701</v>
+        <v>1740</v>
+      </c>
+      <c r="D676" s="64" t="s">
+        <v>1742</v>
       </c>
       <c r="E676" s="39" t="s">
         <v>22</v>
@@ -25024,16 +25067,16 @@
     </row>
     <row r="677" spans="1:9" ht="45">
       <c r="A677" s="14" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B677" s="40" t="s">
-        <v>607</v>
+        <v>1744</v>
+      </c>
+      <c r="B677" s="65">
+        <v>8</v>
       </c>
       <c r="C677" s="13" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D677" s="39" t="s">
-        <v>1420</v>
+        <v>1741</v>
+      </c>
+      <c r="D677" s="64" t="s">
+        <v>1742</v>
       </c>
       <c r="E677" s="39" t="s">
         <v>22</v>
@@ -25044,25 +25087,25 @@
       <c r="G677" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H677" s="14" t="s">
-        <v>1487</v>
+      <c r="H677" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="I677" s="41" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="678" spans="1:9" ht="45">
-      <c r="A678" s="39" t="s">
-        <v>733</v>
-      </c>
-      <c r="B678" s="40" t="s">
-        <v>607</v>
+      <c r="A678" s="14" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B678" s="65">
+        <v>8</v>
       </c>
       <c r="C678" s="13" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D678" s="14" t="s">
-        <v>848</v>
+        <v>1746</v>
+      </c>
+      <c r="D678" s="64" t="s">
+        <v>1750</v>
       </c>
       <c r="E678" s="39" t="s">
         <v>22</v>
@@ -25079,17 +25122,17 @@
       <c r="I678" s="41"/>
     </row>
     <row r="679" spans="1:9" ht="45">
-      <c r="A679" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="B679" s="40" t="s">
-        <v>607</v>
+      <c r="A679" s="14" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B679" s="65">
+        <v>8</v>
       </c>
       <c r="C679" s="13" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D679" s="39" t="s">
-        <v>848</v>
+        <v>1747</v>
+      </c>
+      <c r="D679" s="64" t="s">
+        <v>1750</v>
       </c>
       <c r="E679" s="39" t="s">
         <v>22</v>
@@ -25107,18 +25150,18 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="45">
+    <row r="680" spans="1:9" ht="30">
       <c r="A680" s="39" t="s">
-        <v>778</v>
+        <v>688</v>
       </c>
       <c r="B680" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C680" s="13" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D680" s="14" t="s">
-        <v>849</v>
+        <v>1701</v>
       </c>
       <c r="E680" s="39" t="s">
         <v>22</v>
@@ -25135,17 +25178,17 @@
       <c r="I680" s="41"/>
     </row>
     <row r="681" spans="1:9" ht="45">
-      <c r="A681" s="39" t="s">
-        <v>779</v>
+      <c r="A681" s="14" t="s">
+        <v>1421</v>
       </c>
       <c r="B681" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C681" s="13" t="s">
-        <v>1495</v>
+        <v>1554</v>
       </c>
       <c r="D681" s="39" t="s">
-        <v>849</v>
+        <v>1420</v>
       </c>
       <c r="E681" s="39" t="s">
         <v>22</v>
@@ -25156,8 +25199,8 @@
       <c r="G681" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H681" s="39" t="s">
-        <v>21</v>
+      <c r="H681" s="14" t="s">
+        <v>1487</v>
       </c>
       <c r="I681" s="41" t="s">
         <v>1411</v>
@@ -25165,16 +25208,16 @@
     </row>
     <row r="682" spans="1:9" ht="45">
       <c r="A682" s="39" t="s">
-        <v>780</v>
+        <v>733</v>
       </c>
       <c r="B682" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C682" s="13" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D682" s="14" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E682" s="39" t="s">
         <v>22</v>
@@ -25192,16 +25235,16 @@
     </row>
     <row r="683" spans="1:9" ht="45">
       <c r="A683" s="39" t="s">
-        <v>781</v>
+        <v>734</v>
       </c>
       <c r="B683" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C683" s="13" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="D683" s="39" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E683" s="39" t="s">
         <v>22</v>
@@ -25221,16 +25264,16 @@
     </row>
     <row r="684" spans="1:9" ht="45">
       <c r="A684" s="39" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B684" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C684" s="13" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D684" s="39" t="s">
-        <v>851</v>
+        <v>1704</v>
+      </c>
+      <c r="D684" s="14" t="s">
+        <v>849</v>
       </c>
       <c r="E684" s="39" t="s">
         <v>22</v>
@@ -25248,16 +25291,16 @@
     </row>
     <row r="685" spans="1:9" ht="45">
       <c r="A685" s="39" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B685" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C685" s="13" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="D685" s="39" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E685" s="39" t="s">
         <v>22</v>
@@ -25277,16 +25320,16 @@
     </row>
     <row r="686" spans="1:9" ht="45">
       <c r="A686" s="39" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B686" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C686" s="13" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D686" s="39" t="s">
-        <v>852</v>
+        <v>1705</v>
+      </c>
+      <c r="D686" s="14" t="s">
+        <v>850</v>
       </c>
       <c r="E686" s="39" t="s">
         <v>22</v>
@@ -25304,16 +25347,16 @@
     </row>
     <row r="687" spans="1:9" ht="45">
       <c r="A687" s="39" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B687" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="C687" s="41" t="s">
-        <v>1463</v>
+      <c r="C687" s="13" t="s">
+        <v>1497</v>
       </c>
       <c r="D687" s="39" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E687" s="39" t="s">
         <v>22</v>
@@ -25333,16 +25376,16 @@
     </row>
     <row r="688" spans="1:9" ht="45">
       <c r="A688" s="39" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B688" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C688" s="13" t="s">
-        <v>1614</v>
+        <v>1706</v>
       </c>
       <c r="D688" s="39" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E688" s="39" t="s">
         <v>22</v>
@@ -25360,16 +25403,16 @@
     </row>
     <row r="689" spans="1:9" ht="45">
       <c r="A689" s="39" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B689" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="C689" s="41" t="s">
-        <v>1464</v>
+      <c r="C689" s="13" t="s">
+        <v>1499</v>
       </c>
       <c r="D689" s="39" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E689" s="39" t="s">
         <v>22</v>
@@ -25389,16 +25432,16 @@
     </row>
     <row r="690" spans="1:9" ht="45">
       <c r="A690" s="39" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B690" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C690" s="13" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D690" s="14" t="s">
-        <v>854</v>
+        <v>1707</v>
+      </c>
+      <c r="D690" s="39" t="s">
+        <v>852</v>
       </c>
       <c r="E690" s="39" t="s">
         <v>22</v>
@@ -25416,16 +25459,16 @@
     </row>
     <row r="691" spans="1:9" ht="45">
       <c r="A691" s="39" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B691" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="C691" s="13" t="s">
-        <v>1734</v>
+      <c r="C691" s="41" t="s">
+        <v>1463</v>
       </c>
       <c r="D691" s="39" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E691" s="39" t="s">
         <v>22</v>
@@ -25445,16 +25488,16 @@
     </row>
     <row r="692" spans="1:9" ht="45">
       <c r="A692" s="39" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B692" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C692" s="13" t="s">
-        <v>1708</v>
+        <v>1614</v>
       </c>
       <c r="D692" s="39" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E692" s="39" t="s">
         <v>22</v>
@@ -25472,16 +25515,16 @@
     </row>
     <row r="693" spans="1:9" ht="45">
       <c r="A693" s="39" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B693" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="C693" s="13" t="s">
-        <v>1558</v>
+      <c r="C693" s="41" t="s">
+        <v>1464</v>
       </c>
       <c r="D693" s="39" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E693" s="39" t="s">
         <v>22</v>
@@ -25501,16 +25544,16 @@
     </row>
     <row r="694" spans="1:9" ht="45">
       <c r="A694" s="39" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B694" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C694" s="13" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D694" s="39" t="s">
-        <v>856</v>
+        <v>1735</v>
+      </c>
+      <c r="D694" s="14" t="s">
+        <v>854</v>
       </c>
       <c r="E694" s="39" t="s">
         <v>22</v>
@@ -25528,16 +25571,16 @@
     </row>
     <row r="695" spans="1:9" ht="45">
       <c r="A695" s="39" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B695" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C695" s="13" t="s">
-        <v>1541</v>
+        <v>1734</v>
       </c>
       <c r="D695" s="39" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E695" s="39" t="s">
         <v>22</v>
@@ -25557,16 +25600,16 @@
     </row>
     <row r="696" spans="1:9" ht="45">
       <c r="A696" s="39" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="B696" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C696" s="13" t="s">
-        <v>1466</v>
+        <v>1708</v>
       </c>
       <c r="D696" s="39" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E696" s="39" t="s">
         <v>22</v>
@@ -25584,16 +25627,16 @@
     </row>
     <row r="697" spans="1:9" ht="45">
       <c r="A697" s="39" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="B697" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C697" s="13" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D697" s="39" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E697" s="39" t="s">
         <v>22</v>
@@ -25613,16 +25656,16 @@
     </row>
     <row r="698" spans="1:9" ht="45">
       <c r="A698" s="39" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="B698" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C698" s="13" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="D698" s="39" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E698" s="39" t="s">
         <v>22</v>
@@ -25640,16 +25683,16 @@
     </row>
     <row r="699" spans="1:9" ht="45">
       <c r="A699" s="39" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="B699" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C699" s="13" t="s">
-        <v>1509</v>
+        <v>1541</v>
       </c>
       <c r="D699" s="39" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E699" s="39" t="s">
         <v>22</v>
@@ -25669,16 +25712,16 @@
     </row>
     <row r="700" spans="1:9" ht="45">
       <c r="A700" s="39" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B700" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C700" s="13" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="D700" s="39" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E700" s="39" t="s">
         <v>22</v>
@@ -25696,16 +25739,16 @@
     </row>
     <row r="701" spans="1:9" ht="45">
       <c r="A701" s="39" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B701" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C701" s="13" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="D701" s="39" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E701" s="39" t="s">
         <v>22</v>
@@ -25719,22 +25762,22 @@
       <c r="H701" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I701" s="13" t="s">
+      <c r="I701" s="41" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="702" spans="1:9" ht="45">
-      <c r="A702" s="14" t="s">
-        <v>807</v>
+      <c r="A702" s="39" t="s">
+        <v>803</v>
       </c>
       <c r="B702" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C702" s="13" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="D702" s="39" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E702" s="39" t="s">
         <v>22</v>
@@ -25751,17 +25794,17 @@
       <c r="I702" s="41"/>
     </row>
     <row r="703" spans="1:9" ht="45">
-      <c r="A703" s="14" t="s">
-        <v>808</v>
-      </c>
-      <c r="B703" s="43">
-        <v>8</v>
+      <c r="A703" s="39" t="s">
+        <v>804</v>
+      </c>
+      <c r="B703" s="40" t="s">
+        <v>607</v>
       </c>
       <c r="C703" s="13" t="s">
-        <v>1576</v>
+        <v>1509</v>
       </c>
       <c r="D703" s="39" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E703" s="39" t="s">
         <v>22</v>
@@ -25772,25 +25815,25 @@
       <c r="G703" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H703" s="14" t="s">
-        <v>1487</v>
+      <c r="H703" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="I703" s="41" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="704" spans="1:9" ht="45">
-      <c r="A704" s="14" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B704" s="43">
-        <v>8</v>
+      <c r="A704" s="39" t="s">
+        <v>805</v>
+      </c>
+      <c r="B704" s="40" t="s">
+        <v>607</v>
       </c>
       <c r="C704" s="13" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D704" s="14" t="s">
-        <v>1571</v>
+        <v>1468</v>
+      </c>
+      <c r="D704" s="39" t="s">
+        <v>859</v>
       </c>
       <c r="E704" s="39" t="s">
         <v>22</v>
@@ -25807,17 +25850,17 @@
       <c r="I704" s="41"/>
     </row>
     <row r="705" spans="1:9" ht="45">
-      <c r="A705" s="14" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B705" s="43">
-        <v>8</v>
+      <c r="A705" s="39" t="s">
+        <v>806</v>
+      </c>
+      <c r="B705" s="40" t="s">
+        <v>607</v>
       </c>
       <c r="C705" s="13" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D705" s="14" t="s">
-        <v>1571</v>
+        <v>1562</v>
+      </c>
+      <c r="D705" s="39" t="s">
+        <v>859</v>
       </c>
       <c r="E705" s="39" t="s">
         <v>22</v>
@@ -25828,8 +25871,8 @@
       <c r="G705" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H705" s="14" t="s">
-        <v>1487</v>
+      <c r="H705" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="I705" s="13" t="s">
         <v>1411</v>
@@ -25837,16 +25880,16 @@
     </row>
     <row r="706" spans="1:9" ht="45">
       <c r="A706" s="14" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B706" s="43">
-        <v>8</v>
+        <v>807</v>
+      </c>
+      <c r="B706" s="40" t="s">
+        <v>607</v>
       </c>
       <c r="C706" s="13" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D706" s="14" t="s">
-        <v>1574</v>
+        <v>1469</v>
+      </c>
+      <c r="D706" s="39" t="s">
+        <v>860</v>
       </c>
       <c r="E706" s="39" t="s">
         <v>22</v>
@@ -25864,16 +25907,16 @@
     </row>
     <row r="707" spans="1:9" ht="45">
       <c r="A707" s="14" t="s">
-        <v>1473</v>
+        <v>808</v>
       </c>
       <c r="B707" s="43">
         <v>8</v>
       </c>
       <c r="C707" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D707" s="14" t="s">
-        <v>1574</v>
+        <v>1576</v>
+      </c>
+      <c r="D707" s="39" t="s">
+        <v>860</v>
       </c>
       <c r="E707" s="39" t="s">
         <v>22</v>
@@ -25887,22 +25930,22 @@
       <c r="H707" s="14" t="s">
         <v>1487</v>
       </c>
-      <c r="I707" s="13" t="s">
+      <c r="I707" s="41" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="708" spans="1:9" ht="45">
       <c r="A708" s="14" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="B708" s="43">
         <v>8</v>
       </c>
       <c r="C708" s="13" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D708" s="14" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="E708" s="39" t="s">
         <v>22</v>
@@ -25920,16 +25963,16 @@
     </row>
     <row r="709" spans="1:9" ht="45">
       <c r="A709" s="14" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="B709" s="43">
         <v>8</v>
       </c>
       <c r="C709" s="13" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="D709" s="14" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="E709" s="39" t="s">
         <v>22</v>
@@ -25949,16 +25992,16 @@
     </row>
     <row r="710" spans="1:9" ht="45">
       <c r="A710" s="14" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="B710" s="43">
         <v>8</v>
       </c>
       <c r="C710" s="13" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D710" s="14" t="s">
-        <v>1482</v>
+        <v>1574</v>
       </c>
       <c r="E710" s="39" t="s">
         <v>22</v>
@@ -25976,16 +26019,16 @@
     </row>
     <row r="711" spans="1:9" ht="45">
       <c r="A711" s="14" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="B711" s="43">
         <v>8</v>
       </c>
       <c r="C711" s="13" t="s">
-        <v>1491</v>
+        <v>1567</v>
       </c>
       <c r="D711" s="14" t="s">
-        <v>1482</v>
+        <v>1574</v>
       </c>
       <c r="E711" s="39" t="s">
         <v>22</v>
@@ -25997,24 +26040,24 @@
         <v>15</v>
       </c>
       <c r="H711" s="14" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="I711" s="13" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="712" spans="1:9" ht="60">
-      <c r="A712" s="39" t="s">
-        <v>809</v>
-      </c>
-      <c r="B712" s="40" t="s">
-        <v>607</v>
+    <row r="712" spans="1:9" ht="45">
+      <c r="A712" s="14" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B712" s="43">
+        <v>8</v>
       </c>
       <c r="C712" s="13" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D712" s="14" t="s">
-        <v>1402</v>
+        <v>1575</v>
       </c>
       <c r="E712" s="39" t="s">
         <v>22</v>
@@ -26031,17 +26074,17 @@
       <c r="I712" s="41"/>
     </row>
     <row r="713" spans="1:9" ht="45">
-      <c r="A713" s="39" t="s">
-        <v>810</v>
-      </c>
-      <c r="B713" s="40" t="s">
-        <v>607</v>
-      </c>
-      <c r="C713" s="41" t="s">
-        <v>795</v>
-      </c>
-      <c r="D713" s="39" t="s">
-        <v>1402</v>
+      <c r="A713" s="14" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B713" s="43">
+        <v>8</v>
+      </c>
+      <c r="C713" s="13" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D713" s="14" t="s">
+        <v>1575</v>
       </c>
       <c r="E713" s="39" t="s">
         <v>22</v>
@@ -26052,23 +26095,25 @@
       <c r="G713" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H713" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I713" s="41"/>
-    </row>
-    <row r="714" spans="1:9" ht="60">
-      <c r="A714" s="39" t="s">
-        <v>811</v>
-      </c>
-      <c r="B714" s="40" t="s">
-        <v>607</v>
+      <c r="H713" s="14" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I713" s="13" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" ht="45">
+      <c r="A714" s="14" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B714" s="43">
+        <v>8</v>
       </c>
       <c r="C714" s="13" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D714" s="39" t="s">
-        <v>1403</v>
+        <v>1712</v>
+      </c>
+      <c r="D714" s="14" t="s">
+        <v>1482</v>
       </c>
       <c r="E714" s="39" t="s">
         <v>22</v>
@@ -26084,18 +26129,18 @@
       </c>
       <c r="I714" s="41"/>
     </row>
-    <row r="715" spans="1:9" ht="30">
-      <c r="A715" s="39" t="s">
-        <v>812</v>
-      </c>
-      <c r="B715" s="40" t="s">
-        <v>607</v>
-      </c>
-      <c r="C715" s="41" t="s">
-        <v>796</v>
-      </c>
-      <c r="D715" s="39" t="s">
-        <v>1403</v>
+    <row r="715" spans="1:9" ht="45">
+      <c r="A715" s="14" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B715" s="43">
+        <v>8</v>
+      </c>
+      <c r="C715" s="13" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D715" s="14" t="s">
+        <v>1482</v>
       </c>
       <c r="E715" s="39" t="s">
         <v>22</v>
@@ -26106,23 +26151,25 @@
       <c r="G715" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H715" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I715" s="41"/>
-    </row>
-    <row r="716" spans="1:9" ht="45">
+      <c r="H715" s="14" t="s">
+        <v>1484</v>
+      </c>
+      <c r="I715" s="13" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" ht="60">
       <c r="A716" s="39" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B716" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C716" s="13" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D716" s="39" t="s">
-        <v>1404</v>
+        <v>1713</v>
+      </c>
+      <c r="D716" s="14" t="s">
+        <v>1402</v>
       </c>
       <c r="E716" s="39" t="s">
         <v>22</v>
@@ -26138,18 +26185,18 @@
       </c>
       <c r="I716" s="41"/>
     </row>
-    <row r="717" spans="1:9" ht="30">
+    <row r="717" spans="1:9" ht="45">
       <c r="A717" s="39" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B717" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C717" s="41" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D717" s="39" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E717" s="39" t="s">
         <v>22</v>
@@ -26167,16 +26214,16 @@
     </row>
     <row r="718" spans="1:9" ht="60">
       <c r="A718" s="39" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B718" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C718" s="13" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D718" s="39" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E718" s="39" t="s">
         <v>22</v>
@@ -26192,18 +26239,18 @@
       </c>
       <c r="I718" s="41"/>
     </row>
-    <row r="719" spans="1:9" ht="45">
+    <row r="719" spans="1:9" ht="30">
       <c r="A719" s="39" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B719" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C719" s="41" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D719" s="39" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E719" s="39" t="s">
         <v>22</v>
@@ -26221,16 +26268,16 @@
     </row>
     <row r="720" spans="1:9" ht="45">
       <c r="A720" s="39" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B720" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C720" s="13" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D720" s="14" t="s">
-        <v>1031</v>
+        <v>1715</v>
+      </c>
+      <c r="D720" s="39" t="s">
+        <v>1404</v>
       </c>
       <c r="E720" s="39" t="s">
         <v>22</v>
@@ -26248,16 +26295,16 @@
     </row>
     <row r="721" spans="1:9" ht="30">
       <c r="A721" s="39" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B721" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C721" s="41" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D721" s="39" t="s">
-        <v>1031</v>
+        <v>1404</v>
       </c>
       <c r="E721" s="39" t="s">
         <v>22</v>
@@ -26273,18 +26320,18 @@
       </c>
       <c r="I721" s="41"/>
     </row>
-    <row r="722" spans="1:9" ht="45">
+    <row r="722" spans="1:9" ht="60">
       <c r="A722" s="39" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B722" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C722" s="13" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D722" s="39" t="s">
-        <v>1032</v>
+        <v>1405</v>
       </c>
       <c r="E722" s="39" t="s">
         <v>22</v>
@@ -26300,18 +26347,18 @@
       </c>
       <c r="I722" s="41"/>
     </row>
-    <row r="723" spans="1:9" ht="30">
+    <row r="723" spans="1:9" ht="45">
       <c r="A723" s="39" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B723" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C723" s="41" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D723" s="39" t="s">
-        <v>1032</v>
+        <v>1405</v>
       </c>
       <c r="E723" s="39" t="s">
         <v>22</v>
@@ -26327,18 +26374,18 @@
       </c>
       <c r="I723" s="41"/>
     </row>
-    <row r="724" spans="1:9" ht="60">
+    <row r="724" spans="1:9" ht="45">
       <c r="A724" s="39" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B724" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C724" s="13" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D724" s="14" t="s">
-        <v>1408</v>
+        <v>1031</v>
       </c>
       <c r="E724" s="39" t="s">
         <v>22</v>
@@ -26354,18 +26401,18 @@
       </c>
       <c r="I724" s="41"/>
     </row>
-    <row r="725" spans="1:9" ht="45">
+    <row r="725" spans="1:9" ht="30">
       <c r="A725" s="39" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B725" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="C725" s="13" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D725" s="14" t="s">
-        <v>1408</v>
+      <c r="C725" s="41" t="s">
+        <v>799</v>
+      </c>
+      <c r="D725" s="39" t="s">
+        <v>1031</v>
       </c>
       <c r="E725" s="39" t="s">
         <v>22</v>
@@ -26377,24 +26424,22 @@
         <v>15</v>
       </c>
       <c r="H725" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I725" s="41" t="s">
-        <v>1411</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I725" s="41"/>
     </row>
     <row r="726" spans="1:9" ht="45">
       <c r="A726" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B726" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C726" s="13" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D726" s="14" t="s">
-        <v>1406</v>
+        <v>1718</v>
+      </c>
+      <c r="D726" s="39" t="s">
+        <v>1032</v>
       </c>
       <c r="E726" s="39" t="s">
         <v>22</v>
@@ -26410,18 +26455,18 @@
       </c>
       <c r="I726" s="41"/>
     </row>
-    <row r="727" spans="1:9" ht="45">
+    <row r="727" spans="1:9" ht="30">
       <c r="A727" s="39" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B727" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="C727" s="13" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D727" s="14" t="s">
-        <v>1407</v>
+      <c r="C727" s="41" t="s">
+        <v>800</v>
+      </c>
+      <c r="D727" s="39" t="s">
+        <v>1032</v>
       </c>
       <c r="E727" s="39" t="s">
         <v>22</v>
@@ -26433,24 +26478,22 @@
         <v>15</v>
       </c>
       <c r="H727" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I727" s="41" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="728" spans="1:9" ht="30">
+        <v>18</v>
+      </c>
+      <c r="I727" s="41"/>
+    </row>
+    <row r="728" spans="1:9" ht="60">
       <c r="A728" s="39" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B728" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C728" s="13" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D728" s="14" t="s">
-        <v>1399</v>
+        <v>1408</v>
       </c>
       <c r="E728" s="39" t="s">
         <v>22</v>
@@ -26468,16 +26511,16 @@
     </row>
     <row r="729" spans="1:9" ht="45">
       <c r="A729" s="39" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B729" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C729" s="13" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D729" s="39" t="s">
-        <v>1399</v>
+        <v>1510</v>
+      </c>
+      <c r="D729" s="14" t="s">
+        <v>1408</v>
       </c>
       <c r="E729" s="39" t="s">
         <v>22</v>
@@ -26497,16 +26540,16 @@
     </row>
     <row r="730" spans="1:9" ht="45">
       <c r="A730" s="39" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B730" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C730" s="13" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D730" s="14" t="s">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="E730" s="39" t="s">
         <v>22</v>
@@ -26524,16 +26567,16 @@
     </row>
     <row r="731" spans="1:9" ht="45">
       <c r="A731" s="39" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B731" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C731" s="13" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D731" s="39" t="s">
-        <v>1400</v>
+        <v>1507</v>
+      </c>
+      <c r="D731" s="14" t="s">
+        <v>1407</v>
       </c>
       <c r="E731" s="39" t="s">
         <v>22</v>
@@ -26551,18 +26594,18 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="732" spans="1:9" ht="45">
+    <row r="732" spans="1:9" ht="30">
       <c r="A732" s="39" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B732" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C732" s="13" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D732" s="39" t="s">
-        <v>1401</v>
+        <v>1721</v>
+      </c>
+      <c r="D732" s="14" t="s">
+        <v>1399</v>
       </c>
       <c r="E732" s="39" t="s">
         <v>22</v>
@@ -26580,16 +26623,16 @@
     </row>
     <row r="733" spans="1:9" ht="45">
       <c r="A733" s="39" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B733" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="C733" s="41" t="s">
-        <v>794</v>
+      <c r="C733" s="13" t="s">
+        <v>1511</v>
       </c>
       <c r="D733" s="39" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E733" s="39" t="s">
         <v>22</v>
@@ -26609,16 +26652,16 @@
     </row>
     <row r="734" spans="1:9" ht="45">
       <c r="A734" s="39" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B734" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C734" s="13" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D734" s="14" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="E734" s="39" t="s">
         <v>22</v>
@@ -26634,18 +26677,18 @@
       </c>
       <c r="I734" s="41"/>
     </row>
-    <row r="735" spans="1:9" ht="30">
+    <row r="735" spans="1:9" ht="45">
       <c r="A735" s="39" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B735" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C735" s="13" t="s">
-        <v>1503</v>
+        <v>1512</v>
       </c>
       <c r="D735" s="39" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="E735" s="39" t="s">
         <v>22</v>
@@ -26656,23 +26699,25 @@
       <c r="G735" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H735" s="14" t="s">
-        <v>1484</v>
-      </c>
-      <c r="I735" s="41"/>
+      <c r="H735" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I735" s="41" t="s">
+        <v>1411</v>
+      </c>
     </row>
     <row r="736" spans="1:9" ht="45">
       <c r="A736" s="39" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B736" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C736" s="13" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="D736" s="39" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="E736" s="39" t="s">
         <v>22</v>
@@ -26690,16 +26735,16 @@
     </row>
     <row r="737" spans="1:9" ht="45">
       <c r="A737" s="39" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B737" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="C737" s="13" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D737" s="14" t="s">
-        <v>1543</v>
+      <c r="C737" s="41" t="s">
+        <v>794</v>
+      </c>
+      <c r="D737" s="39" t="s">
+        <v>1401</v>
       </c>
       <c r="E737" s="39" t="s">
         <v>22</v>
@@ -26719,16 +26764,16 @@
     </row>
     <row r="738" spans="1:9" ht="45">
       <c r="A738" s="39" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B738" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C738" s="13" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D738" s="14" t="s">
-        <v>930</v>
+        <v>1409</v>
       </c>
       <c r="E738" s="39" t="s">
         <v>22</v>
@@ -26744,18 +26789,18 @@
       </c>
       <c r="I738" s="41"/>
     </row>
-    <row r="739" spans="1:9" ht="45">
+    <row r="739" spans="1:9" ht="30">
       <c r="A739" s="39" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B739" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C739" s="13" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="D739" s="39" t="s">
-        <v>930</v>
+        <v>1409</v>
       </c>
       <c r="E739" s="39" t="s">
         <v>22</v>
@@ -26766,25 +26811,23 @@
       <c r="G739" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H739" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I739" s="41" t="s">
-        <v>1411</v>
-      </c>
+      <c r="H739" s="14" t="s">
+        <v>1484</v>
+      </c>
+      <c r="I739" s="41"/>
     </row>
     <row r="740" spans="1:9" ht="45">
       <c r="A740" s="39" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B740" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C740" s="13" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D740" s="39" t="s">
-        <v>932</v>
+        <v>1410</v>
       </c>
       <c r="E740" s="39" t="s">
         <v>22</v>
@@ -26802,16 +26845,16 @@
     </row>
     <row r="741" spans="1:9" ht="45">
       <c r="A741" s="39" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B741" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C741" s="13" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D741" s="39" t="s">
-        <v>932</v>
+        <v>1504</v>
+      </c>
+      <c r="D741" s="14" t="s">
+        <v>1543</v>
       </c>
       <c r="E741" s="39" t="s">
         <v>22</v>
@@ -26831,16 +26874,16 @@
     </row>
     <row r="742" spans="1:9" ht="45">
       <c r="A742" s="39" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B742" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C742" s="13" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D742" s="39" t="s">
-        <v>934</v>
+        <v>1726</v>
+      </c>
+      <c r="D742" s="14" t="s">
+        <v>930</v>
       </c>
       <c r="E742" s="39" t="s">
         <v>22</v>
@@ -26858,16 +26901,16 @@
     </row>
     <row r="743" spans="1:9" ht="45">
       <c r="A743" s="39" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B743" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C743" s="13" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D743" s="39" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E743" s="39" t="s">
         <v>22</v>
@@ -26885,18 +26928,18 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="744" spans="1:9" ht="30">
+    <row r="744" spans="1:9" ht="45">
       <c r="A744" s="39" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B744" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C744" s="13" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="D744" s="39" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E744" s="39" t="s">
         <v>22</v>
@@ -26914,16 +26957,16 @@
     </row>
     <row r="745" spans="1:9" ht="45">
       <c r="A745" s="39" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B745" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C745" s="13" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D745" s="39" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E745" s="39" t="s">
         <v>22</v>
@@ -26941,18 +26984,18 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="746" spans="1:9" ht="30">
+    <row r="746" spans="1:9" ht="45">
       <c r="A746" s="39" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B746" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C746" s="13" t="s">
-        <v>1615</v>
+        <v>1728</v>
       </c>
       <c r="D746" s="39" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E746" s="39" t="s">
         <v>22</v>
@@ -26969,17 +27012,17 @@
       <c r="I746" s="41"/>
     </row>
     <row r="747" spans="1:9" ht="45">
-      <c r="A747" s="14" t="s">
-        <v>1538</v>
+      <c r="A747" s="39" t="s">
+        <v>840</v>
       </c>
       <c r="B747" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C747" s="13" t="s">
-        <v>1536</v>
+        <v>1514</v>
       </c>
       <c r="D747" s="39" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E747" s="39" t="s">
         <v>22</v>
@@ -26997,18 +27040,18 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="748" spans="1:9" ht="45">
+    <row r="748" spans="1:9" ht="30">
       <c r="A748" s="39" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B748" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C748" s="13" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D748" s="14" t="s">
-        <v>948</v>
+        <v>1729</v>
+      </c>
+      <c r="D748" s="39" t="s">
+        <v>936</v>
       </c>
       <c r="E748" s="39" t="s">
         <v>22</v>
@@ -27026,16 +27069,16 @@
     </row>
     <row r="749" spans="1:9" ht="45">
       <c r="A749" s="39" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B749" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C749" s="13" t="s">
-        <v>1515</v>
+        <v>1539</v>
       </c>
       <c r="D749" s="39" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="E749" s="39" t="s">
         <v>22</v>
@@ -27046,25 +27089,25 @@
       <c r="G749" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H749" s="14" t="s">
-        <v>1487</v>
+      <c r="H749" s="39" t="s">
+        <v>21</v>
       </c>
       <c r="I749" s="41" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="750" spans="1:9" ht="45">
+    <row r="750" spans="1:9" ht="30">
       <c r="A750" s="39" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B750" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C750" s="13" t="s">
-        <v>1731</v>
+        <v>1615</v>
       </c>
       <c r="D750" s="39" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="E750" s="39" t="s">
         <v>22</v>
@@ -27082,16 +27125,16 @@
     </row>
     <row r="751" spans="1:9" ht="45">
       <c r="A751" s="14" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="B751" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C751" s="13" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D751" s="39" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="E751" s="39" t="s">
         <v>22</v>
@@ -27102,25 +27145,25 @@
       <c r="G751" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H751" s="14" t="s">
-        <v>1487</v>
-      </c>
-      <c r="I751" s="13" t="s">
+      <c r="H751" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I751" s="41" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="752" spans="1:9" ht="45">
-      <c r="A752" s="14" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B752" s="43">
-        <v>8</v>
+      <c r="A752" s="39" t="s">
+        <v>844</v>
+      </c>
+      <c r="B752" s="40" t="s">
+        <v>607</v>
       </c>
       <c r="C752" s="13" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D752" s="14" t="s">
-        <v>1479</v>
+        <v>948</v>
       </c>
       <c r="E752" s="39" t="s">
         <v>22</v>
@@ -27137,17 +27180,17 @@
       <c r="I752" s="41"/>
     </row>
     <row r="753" spans="1:9" ht="45">
-      <c r="A753" s="14" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B753" s="43">
-        <v>8</v>
+      <c r="A753" s="39" t="s">
+        <v>845</v>
+      </c>
+      <c r="B753" s="40" t="s">
+        <v>607</v>
       </c>
       <c r="C753" s="13" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D753" s="14" t="s">
-        <v>1479</v>
+        <v>1515</v>
+      </c>
+      <c r="D753" s="39" t="s">
+        <v>948</v>
       </c>
       <c r="E753" s="39" t="s">
         <v>22</v>
@@ -27158,25 +27201,25 @@
       <c r="G753" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H753" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I753" s="13" t="s">
+      <c r="H753" s="14" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I753" s="41" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="754" spans="1:9" ht="45">
-      <c r="A754" s="14" t="s">
-        <v>847</v>
+      <c r="A754" s="39" t="s">
+        <v>846</v>
       </c>
       <c r="B754" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C754" s="13" t="s">
-        <v>1733</v>
-      </c>
-      <c r="D754" t="s">
-        <v>1428</v>
+        <v>1731</v>
+      </c>
+      <c r="D754" s="39" t="s">
+        <v>950</v>
       </c>
       <c r="E754" s="39" t="s">
         <v>22</v>
@@ -27194,16 +27237,16 @@
     </row>
     <row r="755" spans="1:9" ht="45">
       <c r="A755" s="14" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="B755" s="40" t="s">
         <v>607</v>
       </c>
       <c r="C755" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D755" t="s">
-        <v>1517</v>
+        <v>1535</v>
+      </c>
+      <c r="D755" s="39" t="s">
+        <v>950</v>
       </c>
       <c r="E755" s="39" t="s">
         <v>22</v>
@@ -27214,26 +27257,28 @@
       <c r="G755" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H755" s="39" t="s">
-        <v>21</v>
+      <c r="H755" s="14" t="s">
+        <v>1487</v>
       </c>
       <c r="I755" s="13" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="756" spans="1:9" ht="390">
+    <row r="756" spans="1:9" ht="45">
       <c r="A756" s="14" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B756" s="16" t="s">
-        <v>1477</v>
+        <v>1478</v>
+      </c>
+      <c r="B756" s="43">
+        <v>8</v>
       </c>
       <c r="C756" s="13" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D756" s="39"/>
+        <v>1732</v>
+      </c>
+      <c r="D756" s="14" t="s">
+        <v>1479</v>
+      </c>
       <c r="E756" s="39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F756" s="39" t="s">
         <v>3</v>
@@ -27242,23 +27287,25 @@
         <v>15</v>
       </c>
       <c r="H756" s="39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I756" s="41"/>
     </row>
-    <row r="757" spans="1:9" ht="30">
+    <row r="757" spans="1:9" ht="45">
       <c r="A757" s="14" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B757" s="16" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C757" s="41" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D757" s="39"/>
+        <v>1533</v>
+      </c>
+      <c r="B757" s="43">
+        <v>8</v>
+      </c>
+      <c r="C757" s="13" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D757" s="14" t="s">
+        <v>1479</v>
+      </c>
       <c r="E757" s="39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F757" s="39" t="s">
         <v>3</v>
@@ -27269,21 +27316,25 @@
       <c r="H757" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I757" s="41"/>
-    </row>
-    <row r="758" spans="1:9" ht="30">
+      <c r="I757" s="13" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9" ht="45">
       <c r="A758" s="14" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B758" s="16" t="s">
-        <v>1477</v>
+        <v>847</v>
+      </c>
+      <c r="B758" s="40" t="s">
+        <v>607</v>
       </c>
       <c r="C758" s="13" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D758" s="39"/>
+        <v>1733</v>
+      </c>
+      <c r="D758" t="s">
+        <v>1428</v>
+      </c>
       <c r="E758" s="39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F758" s="39" t="s">
         <v>3</v>
@@ -27292,23 +27343,25 @@
         <v>15</v>
       </c>
       <c r="H758" s="39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I758" s="41"/>
     </row>
-    <row r="759" spans="1:9">
+    <row r="759" spans="1:9" ht="45">
       <c r="A759" s="14" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B759" s="16" t="s">
-        <v>1477</v>
+        <v>1532</v>
+      </c>
+      <c r="B759" s="40" t="s">
+        <v>607</v>
       </c>
       <c r="C759" s="13" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D759" s="39"/>
+        <v>1506</v>
+      </c>
+      <c r="D759" t="s">
+        <v>1517</v>
+      </c>
       <c r="E759" s="39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F759" s="39" t="s">
         <v>3</v>
@@ -27319,17 +27372,19 @@
       <c r="H759" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I759" s="41"/>
-    </row>
-    <row r="760" spans="1:9" ht="30">
+      <c r="I759" s="13" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9" ht="390">
       <c r="A760" s="14" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="B760" s="16" t="s">
         <v>1477</v>
       </c>
       <c r="C760" s="13" t="s">
-        <v>1505</v>
+        <v>1524</v>
       </c>
       <c r="D760" s="39"/>
       <c r="E760" s="39" t="s">
@@ -27346,15 +27401,15 @@
       </c>
       <c r="I760" s="41"/>
     </row>
-    <row r="761" spans="1:9">
+    <row r="761" spans="1:9" ht="30">
       <c r="A761" s="14" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B761" s="16" t="s">
         <v>1477</v>
       </c>
-      <c r="C761" s="13" t="s">
-        <v>1523</v>
+      <c r="C761" s="41" t="s">
+        <v>1367</v>
       </c>
       <c r="D761" s="39"/>
       <c r="E761" s="39" t="s">
@@ -27373,13 +27428,13 @@
     </row>
     <row r="762" spans="1:9" ht="30">
       <c r="A762" s="14" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="B762" s="16" t="s">
         <v>1477</v>
       </c>
       <c r="C762" s="13" t="s">
-        <v>1518</v>
+        <v>1529</v>
       </c>
       <c r="D762" s="39"/>
       <c r="E762" s="39" t="s">
@@ -27398,13 +27453,13 @@
     </row>
     <row r="763" spans="1:9">
       <c r="A763" s="14" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="B763" s="16" t="s">
         <v>1477</v>
       </c>
       <c r="C763" s="13" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D763" s="39"/>
       <c r="E763" s="39" t="s">
@@ -27423,13 +27478,13 @@
     </row>
     <row r="764" spans="1:9" ht="30">
       <c r="A764" s="14" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B764" s="16" t="s">
         <v>1477</v>
       </c>
       <c r="C764" s="13" t="s">
-        <v>1528</v>
+        <v>1505</v>
       </c>
       <c r="D764" s="39"/>
       <c r="E764" s="39" t="s">
@@ -27446,15 +27501,15 @@
       </c>
       <c r="I764" s="41"/>
     </row>
-    <row r="765" spans="1:9" ht="30">
+    <row r="765" spans="1:9">
       <c r="A765" s="14" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="B765" s="16" t="s">
         <v>1477</v>
       </c>
       <c r="C765" s="13" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="D765" s="39"/>
       <c r="E765" s="39" t="s">
@@ -27471,15 +27526,15 @@
       </c>
       <c r="I765" s="41"/>
     </row>
-    <row r="766" spans="1:9" ht="45">
+    <row r="766" spans="1:9" ht="30">
       <c r="A766" s="14" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="B766" s="16" t="s">
         <v>1477</v>
       </c>
       <c r="C766" s="13" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="D766" s="39"/>
       <c r="E766" s="39" t="s">
@@ -27496,65 +27551,65 @@
       </c>
       <c r="I766" s="41"/>
     </row>
-    <row r="767" spans="1:9" ht="180">
-      <c r="A767" s="21" t="s">
-        <v>383</v>
+    <row r="767" spans="1:9">
+      <c r="A767" s="14" t="s">
+        <v>1375</v>
       </c>
       <c r="B767" s="16" t="s">
-        <v>420</v>
+        <v>1477</v>
       </c>
       <c r="C767" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="D767" s="21"/>
-      <c r="E767" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F767" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G767" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H767" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I767" s="23"/>
-    </row>
-    <row r="768" spans="1:9" ht="150">
+        <v>1525</v>
+      </c>
+      <c r="D767" s="39"/>
+      <c r="E767" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F767" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G767" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H767" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I767" s="41"/>
+    </row>
+    <row r="768" spans="1:9" ht="30">
       <c r="A768" s="14" t="s">
-        <v>384</v>
+        <v>1376</v>
       </c>
       <c r="B768" s="16" t="s">
-        <v>1359</v>
+        <v>1477</v>
       </c>
       <c r="C768" s="13" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D768" s="21"/>
-      <c r="E768" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F768" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G768" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H768" s="21" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D768" s="39"/>
+      <c r="E768" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F768" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G768" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H768" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I768" s="23"/>
-    </row>
-    <row r="769" spans="1:9" ht="135">
-      <c r="A769" s="39" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B769" s="40" t="s">
-        <v>1353</v>
+      <c r="I768" s="41"/>
+    </row>
+    <row r="769" spans="1:9" ht="30">
+      <c r="A769" s="14" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B769" s="16" t="s">
+        <v>1477</v>
       </c>
       <c r="C769" s="13" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="D769" s="39"/>
       <c r="E769" s="39" t="s">
@@ -27571,65 +27626,65 @@
       </c>
       <c r="I769" s="41"/>
     </row>
-    <row r="770" spans="1:9" ht="409.5">
-      <c r="A770" s="21" t="s">
-        <v>385</v>
+    <row r="770" spans="1:9" ht="45">
+      <c r="A770" s="14" t="s">
+        <v>1378</v>
       </c>
       <c r="B770" s="16" t="s">
-        <v>1360</v>
+        <v>1477</v>
       </c>
       <c r="C770" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="D770" s="21"/>
-      <c r="E770" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F770" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G770" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H770" s="21" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D770" s="39"/>
+      <c r="E770" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F770" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G770" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H770" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I770" s="41"/>
+    </row>
+    <row r="771" spans="1:9" ht="180">
+      <c r="A771" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="B771" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C771" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="D771" s="21"/>
+      <c r="E771" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F771" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G771" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H771" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I770" s="23"/>
-    </row>
-    <row r="771" spans="1:9" ht="409.5">
-      <c r="A771" s="14" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B771" s="40" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C771" s="13" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D771" s="39"/>
-      <c r="E771" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F771" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G771" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H771" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I771" s="41"/>
-    </row>
-    <row r="772" spans="1:9" ht="135">
-      <c r="A772" s="21" t="s">
-        <v>386</v>
+      <c r="I771" s="23"/>
+    </row>
+    <row r="772" spans="1:9" ht="150">
+      <c r="A772" s="14" t="s">
+        <v>384</v>
       </c>
       <c r="B772" s="16" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="C772" s="13" t="s">
-        <v>584</v>
+        <v>1521</v>
       </c>
       <c r="D772" s="21"/>
       <c r="E772" s="21" t="s">
@@ -27642,44 +27697,44 @@
         <v>15</v>
       </c>
       <c r="H772" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I772" s="23"/>
     </row>
-    <row r="773" spans="1:9" ht="180">
-      <c r="A773" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="B773" s="16" t="s">
-        <v>1356</v>
+    <row r="773" spans="1:9" ht="135">
+      <c r="A773" s="39" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B773" s="40" t="s">
+        <v>1353</v>
       </c>
       <c r="C773" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="D773" s="21"/>
-      <c r="E773" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F773" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G773" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H773" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I773" s="23"/>
-    </row>
-    <row r="774" spans="1:9" ht="30">
-      <c r="A774" s="14" t="s">
-        <v>378</v>
+        <v>1519</v>
+      </c>
+      <c r="D773" s="39"/>
+      <c r="E773" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F773" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G773" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H773" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I773" s="41"/>
+    </row>
+    <row r="774" spans="1:9" ht="409.5">
+      <c r="A774" s="21" t="s">
+        <v>385</v>
       </c>
       <c r="B774" s="16" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="C774" s="13" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D774" s="21"/>
       <c r="E774" s="21" t="s">
@@ -27692,44 +27747,44 @@
         <v>15</v>
       </c>
       <c r="H774" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I774" s="23"/>
     </row>
-    <row r="775" spans="1:9" ht="105">
-      <c r="A775" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="B775" s="16" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C775" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="D775" s="21"/>
-      <c r="E775" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F775" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G775" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H775" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I775" s="23"/>
-    </row>
-    <row r="776" spans="1:9" ht="45">
+    <row r="775" spans="1:9" ht="409.5">
+      <c r="A775" s="14" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B775" s="40" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C775" s="13" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D775" s="39"/>
+      <c r="E775" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F775" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G775" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H775" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I775" s="41"/>
+    </row>
+    <row r="776" spans="1:9" ht="135">
       <c r="A776" s="21" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B776" s="16" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C776" s="13" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D776" s="21"/>
       <c r="E776" s="21" t="s">
@@ -27742,19 +27797,19 @@
         <v>15</v>
       </c>
       <c r="H776" s="21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I776" s="23"/>
     </row>
-    <row r="777" spans="1:9" ht="30">
+    <row r="777" spans="1:9" ht="180">
       <c r="A777" s="21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B777" s="16" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C777" s="13" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D777" s="21"/>
       <c r="E777" s="21" t="s">
@@ -27773,13 +27828,13 @@
     </row>
     <row r="778" spans="1:9" ht="30">
       <c r="A778" s="14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B778" s="16" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C778" s="13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D778" s="21"/>
       <c r="E778" s="21" t="s">
@@ -27796,72 +27851,172 @@
       </c>
       <c r="I778" s="23"/>
     </row>
-    <row r="779" spans="1:9" ht="45">
-      <c r="A779" s="14" t="s">
-        <v>1364</v>
+    <row r="779" spans="1:9" ht="105">
+      <c r="A779" s="21" t="s">
+        <v>379</v>
       </c>
       <c r="B779" s="16" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C779" s="13" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D779" s="39"/>
-      <c r="E779" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F779" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G779" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H779" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I779" s="41"/>
-    </row>
-    <row r="780" spans="1:9" ht="30">
-      <c r="A780" s="14" t="s">
-        <v>1366</v>
+        <v>1357</v>
+      </c>
+      <c r="C779" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="D779" s="21"/>
+      <c r="E779" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F779" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G779" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H779" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I779" s="23"/>
+    </row>
+    <row r="780" spans="1:9" ht="45">
+      <c r="A780" s="21" t="s">
+        <v>380</v>
       </c>
       <c r="B780" s="16" t="s">
         <v>1358</v>
       </c>
       <c r="C780" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="D780" s="21"/>
+      <c r="E780" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F780" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G780" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H780" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I780" s="23"/>
+    </row>
+    <row r="781" spans="1:9" ht="30">
+      <c r="A781" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B781" s="16" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C781" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="D781" s="21"/>
+      <c r="E781" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F781" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G781" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H781" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I781" s="23"/>
+    </row>
+    <row r="782" spans="1:9" ht="30">
+      <c r="A782" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B782" s="16" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C782" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="D780" s="39"/>
-      <c r="E780" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F780" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G780" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H780" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I780" s="41"/>
-    </row>
-    <row r="781" spans="1:9">
-      <c r="A781" s="21"/>
-      <c r="B781" s="22"/>
-      <c r="C781" s="23"/>
-      <c r="D781" s="21"/>
-      <c r="E781" s="21"/>
-      <c r="F781" s="21"/>
-      <c r="G781" s="21"/>
-      <c r="H781" s="21"/>
-      <c r="I781" s="23"/>
-    </row>
-    <row r="782" spans="1:9">
-      <c r="B782" s="7"/>
-    </row>
-    <row r="783" spans="1:9">
-      <c r="B783" s="7"/>
+      <c r="D782" s="21"/>
+      <c r="E782" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F782" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G782" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H782" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I782" s="23"/>
+    </row>
+    <row r="783" spans="1:9" ht="45">
+      <c r="A783" s="14" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B783" s="16" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C783" s="13" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D783" s="39"/>
+      <c r="E783" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F783" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G783" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H783" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I783" s="41"/>
+    </row>
+    <row r="784" spans="1:9" ht="30">
+      <c r="A784" s="14" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B784" s="16" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C784" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="D784" s="39"/>
+      <c r="E784" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F784" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G784" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H784" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I784" s="41"/>
+    </row>
+    <row r="785" spans="1:9">
+      <c r="A785" s="21"/>
+      <c r="B785" s="22"/>
+      <c r="C785" s="23"/>
+      <c r="D785" s="21"/>
+      <c r="E785" s="21"/>
+      <c r="F785" s="21"/>
+      <c r="G785" s="21"/>
+      <c r="H785" s="21"/>
+      <c r="I785" s="23"/>
+    </row>
+    <row r="786" spans="1:9">
+      <c r="B786" s="7"/>
+    </row>
+    <row r="787" spans="1:9">
+      <c r="B787" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -27878,51 +28033,51 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A20:H45 A80:H80 I20:I50 A35:I79 B276:I276 A277:I781 A81:I275">
-    <cfRule type="expression" dxfId="7" priority="53">
+  <conditionalFormatting sqref="A20:H45 A80:H80 I20:I50 A35:I79 B276:I276 A277:I785 A81:I275">
+    <cfRule type="expression" dxfId="5" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="54">
+    <cfRule type="expression" dxfId="4" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="61">
+    <cfRule type="expression" dxfId="3" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H45 A80:H80 I20:I50 A35:I79 B276:I276 A277:I781 A81:I275">
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="A20:H45 A80:H80 I20:I50 A35:I79 B276:I276 A277:I785 A81:I275">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F781">
-    <cfRule type="expression" dxfId="1" priority="13">
+  <conditionalFormatting sqref="F20:F785">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F781" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F785" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E781" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E785" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G781" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G785" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H781" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H785" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27932,7 +28087,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B1:B9 B782:B783 B10:B27 B28:B104 B150:B780 B106:B113 B116:B147" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B9 B786:B787 B10:B27 B28:B104 B680:B784 B106:B113 B116:B147 B150:B675" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
